--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6479EDA-569D-4419-9BA4-D70D552D7A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E0E81F-FC43-457D-8D30-7B48180BB093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -7582,16 +7582,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T28:W28"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -9884,13 +9884,6 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9900,6 +9893,13 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9920,8 +9920,8 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10414,10 +10414,12 @@
       <c r="M14" s="178">
         <v>8</v>
       </c>
-      <c r="N14" s="179"/>
+      <c r="N14" s="179">
+        <v>7</v>
+      </c>
       <c r="O14" s="176">
         <f t="shared" si="1"/>
-        <v>4.3833333333333337</v>
+        <v>7.8833333333333337</v>
       </c>
       <c r="P14" s="180"/>
       <c r="Q14" s="174"/>
@@ -10479,10 +10481,12 @@
       <c r="M15" s="178">
         <v>10</v>
       </c>
-      <c r="N15" s="179"/>
+      <c r="N15" s="179">
+        <v>10</v>
+      </c>
       <c r="O15" s="176">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P15" s="180"/>
       <c r="Q15" s="174"/>
@@ -11060,7 +11064,7 @@
   </sheetPr>
   <dimension ref="B1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -12328,6 +12332,11 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="Y29:AB29"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -12335,11 +12344,6 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE17">

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E0E81F-FC43-457D-8D30-7B48180BB093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1F59C-53EA-48AC-A892-6B2C552B9F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -248,30 +248,6 @@
     <t>MATUTINO</t>
   </si>
   <si>
-    <t>PEÑA TORRES</t>
-  </si>
-  <si>
-    <t>FRANKLIN LEONARDO</t>
-  </si>
-  <si>
-    <t>UYAUARI CAIVINAGUA</t>
-  </si>
-  <si>
-    <t>NELSON GEOVANY</t>
-  </si>
-  <si>
-    <t>JAUREGUI GARCIA</t>
-  </si>
-  <si>
-    <t>JAVIER ALFREDO</t>
-  </si>
-  <si>
-    <t>VASQUEZ MACAS</t>
-  </si>
-  <si>
-    <t>PATRICIA ELIZABETH</t>
-  </si>
-  <si>
     <t>Lunes-Viernes Nocturno</t>
   </si>
   <si>
@@ -357,6 +333,24 @@
   </si>
   <si>
     <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>JARAMILLO</t>
+  </si>
+  <si>
+    <t>CAMILA</t>
+  </si>
+  <si>
+    <t>CAJAS</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>ELA</t>
+  </si>
+  <si>
+    <t>CONZA</t>
   </si>
 </sst>
 </file>
@@ -663,12 +657,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -676,6 +664,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,40 +1454,6 @@
     <xf numFmtId="43" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1503,7 +1463,7 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1540,34 +1500,34 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="35" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="35" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="35" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="35" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="35" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="35" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1736,6 +1696,40 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3277,123 +3271,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
     </row>
     <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="190"/>
-      <c r="AB2" s="190"/>
-      <c r="AC2" s="190"/>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="190"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D5" s="191" t="s">
+      <c r="D5" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="191"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="191" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="191"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.4">
       <c r="F6" s="1"/>
@@ -3408,25 +3402,25 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="191" t="s">
+      <c r="E7" s="178"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
     </row>
     <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
@@ -3443,41 +3437,41 @@
     <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="186" t="s">
+      <c r="E9" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="186" t="s">
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="186" t="s">
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="186" t="s">
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="188"/>
-      <c r="Y9" s="186" t="s">
+      <c r="U9" s="174"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="188"/>
+      <c r="Z9" s="174"/>
+      <c r="AA9" s="174"/>
+      <c r="AB9" s="174"/>
+      <c r="AC9" s="175"/>
     </row>
     <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
@@ -4664,8 +4658,8 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4709,96 +4703,96 @@
   <sheetData>
     <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="210"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="197"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="213"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="200"/>
     </row>
     <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="216"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="203"/>
     </row>
     <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
     </row>
     <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4806,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4829,27 +4823,27 @@
     <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="186" t="s">
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="188"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="175"/>
     </row>
     <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -4916,63 +4910,39 @@
         <v>1</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="106">
-        <v>9.5</v>
-      </c>
-      <c r="F12" s="107">
-        <v>10</v>
-      </c>
-      <c r="G12" s="107">
-        <v>10</v>
-      </c>
-      <c r="H12" s="108">
-        <v>9.1</v>
-      </c>
-      <c r="I12" s="130">
+        <v>62</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="130" t="e">
         <f>AVERAGE(E12:H12)</f>
-        <v>9.65</v>
-      </c>
-      <c r="J12" s="109">
-        <v>7</v>
-      </c>
-      <c r="K12" s="110">
-        <v>7</v>
-      </c>
-      <c r="L12" s="110">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="M12" s="111">
-        <v>6.7</v>
-      </c>
-      <c r="N12" s="130">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="130" t="e">
         <f>AVERAGE(J12:M12)</f>
-        <v>7.6</v>
-      </c>
-      <c r="O12" s="106">
-        <v>7</v>
-      </c>
-      <c r="P12" s="107">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="107">
-        <v>9</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" s="106"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
       <c r="R12" s="30"/>
-      <c r="S12" s="129">
+      <c r="S12" s="129" t="e">
         <f>AVERAGE(O12:Q12)</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="T12" s="120">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="U12" s="124">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="120"/>
+      <c r="U12" s="124" t="e">
         <f>AVERAGE(I12,N12,S12,T12)</f>
-        <v>8.8208333333333329</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -4980,63 +4950,39 @@
         <v>2</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="112">
-        <v>9.5</v>
-      </c>
-      <c r="F13" s="113">
-        <v>10</v>
-      </c>
-      <c r="G13" s="113">
-        <v>10</v>
-      </c>
-      <c r="H13" s="114">
-        <v>8.6</v>
-      </c>
-      <c r="I13" s="130">
+        <v>74</v>
+      </c>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="130" t="e">
         <f>AVERAGE(E13:H13)</f>
-        <v>9.5250000000000004</v>
-      </c>
-      <c r="J13" s="115">
-        <v>8</v>
-      </c>
-      <c r="K13" s="116">
-        <v>5.7</v>
-      </c>
-      <c r="L13" s="116">
-        <v>9.5</v>
-      </c>
-      <c r="M13" s="117">
-        <v>7</v>
-      </c>
-      <c r="N13" s="130">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="130" t="e">
         <f>AVERAGE(J13:M13)</f>
-        <v>7.55</v>
-      </c>
-      <c r="O13" s="112">
-        <v>9</v>
-      </c>
-      <c r="P13" s="113">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="113">
-        <v>9</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="112"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
       <c r="R13" s="31"/>
-      <c r="S13" s="129">
+      <c r="S13" s="129" t="e">
         <f>AVERAGE(O13:Q13)</f>
-        <v>9</v>
-      </c>
-      <c r="T13" s="121">
-        <v>9.5</v>
-      </c>
-      <c r="U13" s="124">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="121"/>
+      <c r="U13" s="124" t="e">
         <f>AVERAGE(I13,N13,S13,T13)</f>
-        <v>8.8937500000000007</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -5044,127 +4990,79 @@
         <v>3</v>
       </c>
       <c r="C14" s="127" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D14" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="112">
-        <v>9.5</v>
-      </c>
-      <c r="F14" s="113">
-        <v>10</v>
-      </c>
-      <c r="G14" s="113">
-        <v>10</v>
-      </c>
-      <c r="H14" s="114">
-        <v>10</v>
-      </c>
-      <c r="I14" s="130">
+        <v>76</v>
+      </c>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="130" t="e">
         <f>AVERAGE(E14:H14)</f>
-        <v>9.875</v>
-      </c>
-      <c r="J14" s="115">
-        <v>9.5</v>
-      </c>
-      <c r="K14" s="116">
-        <v>9</v>
-      </c>
-      <c r="L14" s="116">
-        <v>10</v>
-      </c>
-      <c r="M14" s="117">
-        <v>9</v>
-      </c>
-      <c r="N14" s="130">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="130" t="e">
         <f>AVERAGE(J14:M14)</f>
-        <v>9.375</v>
-      </c>
-      <c r="O14" s="112">
-        <v>9</v>
-      </c>
-      <c r="P14" s="113">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="113">
-        <v>10</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" s="112"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
       <c r="R14" s="31"/>
-      <c r="S14" s="129">
+      <c r="S14" s="129" t="e">
         <f>AVERAGE(O14:Q14)</f>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="T14" s="121">
-        <v>9.9</v>
-      </c>
-      <c r="U14" s="124">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="121"/>
+      <c r="U14" s="124" t="e">
         <f>AVERAGE(I14,N14,S14,T14)</f>
-        <v>9.6208333333333336</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="134" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="135">
-        <v>9.5</v>
-      </c>
-      <c r="F15" s="136">
-        <v>9</v>
-      </c>
-      <c r="G15" s="136">
-        <v>10</v>
-      </c>
-      <c r="H15" s="137">
-        <v>9.5</v>
-      </c>
-      <c r="I15" s="138">
+      <c r="C15" s="220" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="221" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="222"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="225" t="e">
         <f>AVERAGE(E15:H15)</f>
-        <v>9.5</v>
-      </c>
-      <c r="J15" s="139">
-        <v>8.5</v>
-      </c>
-      <c r="K15" s="140">
-        <v>9</v>
-      </c>
-      <c r="L15" s="140">
-        <v>9.5</v>
-      </c>
-      <c r="M15" s="141">
-        <v>8</v>
-      </c>
-      <c r="N15" s="138">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="226"/>
+      <c r="K15" s="227"/>
+      <c r="L15" s="227"/>
+      <c r="M15" s="228"/>
+      <c r="N15" s="225" t="e">
         <f>AVERAGE(J15:M15)</f>
-        <v>8.75</v>
-      </c>
-      <c r="O15" s="135">
-        <v>8</v>
-      </c>
-      <c r="P15" s="136">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="136">
-        <v>10</v>
-      </c>
-      <c r="R15" s="142"/>
-      <c r="S15" s="143">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="222"/>
+      <c r="P15" s="223"/>
+      <c r="Q15" s="223"/>
+      <c r="R15" s="229"/>
+      <c r="S15" s="230" t="e">
         <f>AVERAGE(O15:Q15)</f>
-        <v>9</v>
-      </c>
-      <c r="T15" s="132">
-        <v>0</v>
-      </c>
-      <c r="U15" s="144">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="231"/>
+      <c r="U15" s="232" t="e">
         <f>AVERAGE(I15,N15,S15,T15)</f>
-        <v>6.8125</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5435,24 +5333,24 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="205" t="s">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
-      <c r="O28" s="205" t="s">
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="O28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="207"/>
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
     </row>
     <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -5538,60 +5436,60 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="197"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="198"/>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="200"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="201"/>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="203"/>
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="190"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
@@ -5620,13 +5518,13 @@
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="186" t="s">
+      <c r="D10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="175"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
@@ -5777,12 +5675,12 @@
     </row>
     <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="49"/>
-      <c r="D21" s="205" t="s">
+      <c r="D21" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="206"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="207"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="194"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="49"/>
@@ -5865,76 +5763,76 @@
   <sheetData>
     <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="210"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="197"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="213"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="200"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="216"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="203"/>
     </row>
     <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5959,20 +5857,20 @@
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="188"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -6310,18 +6208,18 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="205" t="s">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -6414,56 +6312,56 @@
   <sheetData>
     <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="210"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="197"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="213"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="200"/>
     </row>
     <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="216"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="203"/>
     </row>
     <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6486,13 +6384,13 @@
     <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
     </row>
     <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -6740,12 +6638,12 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="205" t="s">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
     </row>
     <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -6828,116 +6726,116 @@
   <sheetData>
     <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="197"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="200"/>
     </row>
     <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="216"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="203"/>
     </row>
     <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
+      <c r="Z6" s="191"/>
     </row>
     <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -6966,34 +6864,34 @@
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="186" t="s">
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="186" t="s">
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="188"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="175"/>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -7511,30 +7409,30 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="205" t="s">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
-      <c r="O28" s="205" t="s">
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="O28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="207"/>
-      <c r="T28" s="205" t="s">
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="T28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="207"/>
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="194"/>
     </row>
     <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -7582,16 +7480,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B2:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T28:W28"/>
-    <mergeCell ref="B2:Z4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7647,167 +7545,167 @@
   <sheetData>
     <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="209"/>
-      <c r="AH2" s="209"/>
-      <c r="AI2" s="209"/>
-      <c r="AJ2" s="210"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="197"/>
     </row>
     <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="212"/>
-      <c r="AF3" s="212"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="213"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="199"/>
+      <c r="AJ3" s="200"/>
     </row>
     <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="215"/>
-      <c r="AF4" s="215"/>
-      <c r="AG4" s="215"/>
-      <c r="AH4" s="215"/>
-      <c r="AI4" s="215"/>
-      <c r="AJ4" s="216"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="202"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="202"/>
+      <c r="AG4" s="202"/>
+      <c r="AH4" s="202"/>
+      <c r="AI4" s="202"/>
+      <c r="AJ4" s="203"/>
     </row>
     <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="220"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="220"/>
-      <c r="P7" s="220"/>
-      <c r="Q7" s="220"/>
-      <c r="R7" s="220"/>
-      <c r="S7" s="220"/>
-      <c r="T7" s="220"/>
-      <c r="U7" s="220"/>
-      <c r="V7" s="220"/>
-      <c r="W7" s="220"/>
-      <c r="X7" s="220"/>
-      <c r="Y7" s="220"/>
-      <c r="Z7" s="220"/>
-      <c r="AA7" s="220"/>
-      <c r="AB7" s="220"/>
-      <c r="AC7" s="220"/>
-      <c r="AD7" s="220"/>
-      <c r="AE7" s="220"/>
-      <c r="AF7" s="220"/>
-      <c r="AG7" s="220"/>
-      <c r="AH7" s="220"/>
-      <c r="AI7" s="220"/>
-      <c r="AJ7" s="220"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="207"/>
+      <c r="S7" s="207"/>
+      <c r="T7" s="207"/>
+      <c r="U7" s="207"/>
+      <c r="V7" s="207"/>
+      <c r="W7" s="207"/>
+      <c r="X7" s="207"/>
+      <c r="Y7" s="207"/>
+      <c r="Z7" s="207"/>
+      <c r="AA7" s="207"/>
+      <c r="AB7" s="207"/>
+      <c r="AC7" s="207"/>
+      <c r="AD7" s="207"/>
+      <c r="AE7" s="207"/>
+      <c r="AF7" s="207"/>
+      <c r="AG7" s="207"/>
+      <c r="AH7" s="207"/>
+      <c r="AI7" s="207"/>
+      <c r="AJ7" s="207"/>
     </row>
     <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="222"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="209"/>
     </row>
     <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
@@ -7825,48 +7723,48 @@
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="217" t="s">
+      <c r="E10" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="217" t="s">
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="217" t="s">
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="206"/>
+      <c r="O10" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="217" t="s">
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="206"/>
+      <c r="T10" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="218"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="218"/>
-      <c r="X10" s="219"/>
-      <c r="Y10" s="217" t="s">
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="206"/>
+      <c r="Y10" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="218"/>
-      <c r="AA10" s="218"/>
-      <c r="AB10" s="218"/>
-      <c r="AC10" s="219"/>
-      <c r="AD10" s="217" t="s">
+      <c r="Z10" s="205"/>
+      <c r="AA10" s="205"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="206"/>
+      <c r="AD10" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="218"/>
-      <c r="AF10" s="218"/>
-      <c r="AG10" s="218"/>
-      <c r="AH10" s="219"/>
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="205"/>
+      <c r="AH10" s="206"/>
     </row>
     <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="68" t="s">
@@ -8564,42 +8462,42 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="205" t="s">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
-      <c r="O28" s="205" t="s">
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="O28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="207"/>
-      <c r="T28" s="205" t="s">
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="T28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="207"/>
-      <c r="Y28" s="205" t="s">
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="194"/>
+      <c r="Y28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="206"/>
-      <c r="AB28" s="207"/>
-      <c r="AD28" s="205" t="s">
+      <c r="Z28" s="193"/>
+      <c r="AA28" s="193"/>
+      <c r="AB28" s="194"/>
+      <c r="AD28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="206"/>
-      <c r="AF28" s="206"/>
-      <c r="AG28" s="207"/>
+      <c r="AE28" s="193"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="194"/>
     </row>
     <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -8734,174 +8632,174 @@
   <sheetData>
     <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="224"/>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="224"/>
-      <c r="AJ2" s="224"/>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="224"/>
-      <c r="AM2" s="224"/>
-      <c r="AN2" s="224"/>
-      <c r="AO2" s="225"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="211"/>
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="211"/>
+      <c r="AG2" s="211"/>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="211"/>
+      <c r="AJ2" s="211"/>
+      <c r="AK2" s="211"/>
+      <c r="AL2" s="211"/>
+      <c r="AM2" s="211"/>
+      <c r="AN2" s="211"/>
+      <c r="AO2" s="212"/>
     </row>
     <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="227"/>
-      <c r="W3" s="227"/>
-      <c r="X3" s="227"/>
-      <c r="Y3" s="227"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="227"/>
-      <c r="AB3" s="227"/>
-      <c r="AC3" s="227"/>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="227"/>
-      <c r="AG3" s="227"/>
-      <c r="AH3" s="227"/>
-      <c r="AI3" s="227"/>
-      <c r="AJ3" s="227"/>
-      <c r="AK3" s="227"/>
-      <c r="AL3" s="227"/>
-      <c r="AM3" s="227"/>
-      <c r="AN3" s="227"/>
-      <c r="AO3" s="228"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="214"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="214"/>
+      <c r="AG3" s="214"/>
+      <c r="AH3" s="214"/>
+      <c r="AI3" s="214"/>
+      <c r="AJ3" s="214"/>
+      <c r="AK3" s="214"/>
+      <c r="AL3" s="214"/>
+      <c r="AM3" s="214"/>
+      <c r="AN3" s="214"/>
+      <c r="AO3" s="215"/>
     </row>
     <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="229"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
-      <c r="O4" s="230"/>
-      <c r="P4" s="230"/>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="230"/>
-      <c r="S4" s="230"/>
-      <c r="T4" s="230"/>
-      <c r="U4" s="230"/>
-      <c r="V4" s="230"/>
-      <c r="W4" s="230"/>
-      <c r="X4" s="230"/>
-      <c r="Y4" s="230"/>
-      <c r="Z4" s="230"/>
-      <c r="AA4" s="230"/>
-      <c r="AB4" s="230"/>
-      <c r="AC4" s="230"/>
-      <c r="AD4" s="230"/>
-      <c r="AE4" s="230"/>
-      <c r="AF4" s="230"/>
-      <c r="AG4" s="230"/>
-      <c r="AH4" s="230"/>
-      <c r="AI4" s="230"/>
-      <c r="AJ4" s="230"/>
-      <c r="AK4" s="230"/>
-      <c r="AL4" s="230"/>
-      <c r="AM4" s="230"/>
-      <c r="AN4" s="230"/>
-      <c r="AO4" s="231"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AD4" s="217"/>
+      <c r="AE4" s="217"/>
+      <c r="AF4" s="217"/>
+      <c r="AG4" s="217"/>
+      <c r="AH4" s="217"/>
+      <c r="AI4" s="217"/>
+      <c r="AJ4" s="217"/>
+      <c r="AK4" s="217"/>
+      <c r="AL4" s="217"/>
+      <c r="AM4" s="217"/>
+      <c r="AN4" s="217"/>
+      <c r="AO4" s="218"/>
     </row>
     <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="220"/>
-      <c r="S6" s="220"/>
-      <c r="T6" s="220"/>
-      <c r="U6" s="220"/>
-      <c r="V6" s="220"/>
-      <c r="W6" s="220"/>
-      <c r="X6" s="220"/>
-      <c r="Y6" s="220"/>
-      <c r="Z6" s="220"/>
-      <c r="AA6" s="220"/>
-      <c r="AB6" s="220"/>
-      <c r="AC6" s="220"/>
-      <c r="AD6" s="220"/>
-      <c r="AE6" s="220"/>
-      <c r="AF6" s="220"/>
-      <c r="AG6" s="220"/>
-      <c r="AH6" s="220"/>
-      <c r="AI6" s="220"/>
-      <c r="AJ6" s="220"/>
-      <c r="AK6" s="220"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="207"/>
+      <c r="V6" s="207"/>
+      <c r="W6" s="207"/>
+      <c r="X6" s="207"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="207"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="207"/>
+      <c r="AD6" s="207"/>
+      <c r="AE6" s="207"/>
+      <c r="AF6" s="207"/>
+      <c r="AG6" s="207"/>
+      <c r="AH6" s="207"/>
+      <c r="AI6" s="207"/>
+      <c r="AJ6" s="207"/>
+      <c r="AK6" s="207"/>
       <c r="AL6" s="81"/>
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
@@ -8935,55 +8833,55 @@
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="217" t="s">
+      <c r="E10" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="217" t="s">
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="217" t="s">
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="206"/>
+      <c r="O10" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="217" t="s">
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="206"/>
+      <c r="T10" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="218"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="218"/>
-      <c r="X10" s="219"/>
-      <c r="Y10" s="217" t="s">
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="206"/>
+      <c r="Y10" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="218"/>
-      <c r="AA10" s="218"/>
-      <c r="AB10" s="218"/>
-      <c r="AC10" s="219"/>
-      <c r="AD10" s="217" t="s">
+      <c r="Z10" s="205"/>
+      <c r="AA10" s="205"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="206"/>
+      <c r="AD10" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="218"/>
-      <c r="AF10" s="218"/>
-      <c r="AG10" s="218"/>
-      <c r="AH10" s="219"/>
-      <c r="AI10" s="217" t="s">
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="205"/>
+      <c r="AH10" s="206"/>
+      <c r="AI10" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="218"/>
-      <c r="AK10" s="218"/>
-      <c r="AL10" s="218"/>
-      <c r="AM10" s="219"/>
+      <c r="AJ10" s="205"/>
+      <c r="AK10" s="205"/>
+      <c r="AL10" s="205"/>
+      <c r="AM10" s="206"/>
     </row>
     <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="74" t="s">
@@ -9771,48 +9669,48 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="205" t="s">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
-      <c r="O28" s="205" t="s">
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="O28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="207"/>
-      <c r="T28" s="205" t="s">
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="T28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="207"/>
-      <c r="Y28" s="205" t="s">
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="194"/>
+      <c r="Y28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="206"/>
-      <c r="AB28" s="207"/>
-      <c r="AD28" s="205" t="s">
+      <c r="Z28" s="193"/>
+      <c r="AA28" s="193"/>
+      <c r="AB28" s="194"/>
+      <c r="AD28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="206"/>
-      <c r="AF28" s="206"/>
-      <c r="AG28" s="207"/>
-      <c r="AI28" s="205" t="s">
+      <c r="AE28" s="193"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="194"/>
+      <c r="AI28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AJ28" s="206"/>
-      <c r="AK28" s="206"/>
-      <c r="AL28" s="207"/>
+      <c r="AJ28" s="193"/>
+      <c r="AK28" s="193"/>
+      <c r="AL28" s="194"/>
     </row>
     <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -9884,6 +9782,13 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9893,13 +9798,6 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9920,8 +9818,8 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9977,140 +9875,140 @@
   <sheetData>
     <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="210"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
     </row>
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="212"/>
-      <c r="AF3" s="213"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="200"/>
     </row>
     <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="215"/>
-      <c r="AF4" s="216"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="202"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="203"/>
     </row>
     <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
-      <c r="AA6" s="204"/>
-      <c r="AB6" s="204"/>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
-      <c r="AF6" s="204"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
+      <c r="Z6" s="191"/>
+      <c r="AA6" s="191"/>
+      <c r="AB6" s="191"/>
+      <c r="AC6" s="191"/>
+      <c r="AD6" s="191"/>
+      <c r="AE6" s="191"/>
+      <c r="AF6" s="191"/>
     </row>
     <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10146,35 +10044,35 @@
     <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="186" t="s">
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="187"/>
-      <c r="T10" s="188"/>
-      <c r="U10" s="186" t="s">
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="188"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="175"/>
     </row>
     <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -10259,56 +10157,56 @@
         <v>1</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E12" s="120">
         <v>10</v>
       </c>
-      <c r="F12" s="147">
+      <c r="F12" s="134">
         <v>8.07</v>
       </c>
-      <c r="G12" s="147">
+      <c r="G12" s="134">
         <v>5</v>
       </c>
-      <c r="H12" s="147">
+      <c r="H12" s="134">
         <v>8.9</v>
       </c>
-      <c r="I12" s="149">
+      <c r="I12" s="136">
         <v>8</v>
       </c>
       <c r="J12" s="123">
         <f t="shared" ref="J12:J17" si="0">(AVERAGE(E12:H12)+I12)/2</f>
         <v>7.9962499999999999</v>
       </c>
-      <c r="K12" s="150">
+      <c r="K12" s="137">
         <v>10</v>
       </c>
-      <c r="L12" s="151">
+      <c r="L12" s="138">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M12" s="151">
+      <c r="M12" s="138">
         <v>6</v>
       </c>
-      <c r="N12" s="152"/>
+      <c r="N12" s="139"/>
       <c r="O12" s="123">
         <f t="shared" ref="O12:O17" si="1">(AVERAGE(K12:M12)+N12)/2</f>
         <v>4.05</v>
       </c>
       <c r="P12" s="120"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="149"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="136"/>
       <c r="T12" s="123" t="e">
         <f>(AVERAGE(P12:R12)+S12)/2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U12" s="120"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="149"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="136"/>
       <c r="Y12" s="123" t="e">
         <f>(AVERAGE(U12:W12))</f>
         <v>#DIV/0!</v>
@@ -10323,55 +10221,55 @@
       <c r="B13" s="62">
         <v>2</v>
       </c>
-      <c r="C13" s="171" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="172" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="173">
+      <c r="C13" s="158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="160">
         <v>10</v>
       </c>
-      <c r="F13" s="174">
+      <c r="F13" s="161">
         <v>7.85</v>
       </c>
-      <c r="G13" s="174">
+      <c r="G13" s="161">
         <v>7</v>
       </c>
-      <c r="H13" s="174">
+      <c r="H13" s="161">
         <v>7.2</v>
       </c>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176">
+      <c r="I13" s="162"/>
+      <c r="J13" s="163">
         <f t="shared" si="0"/>
         <v>4.0062500000000005</v>
       </c>
-      <c r="K13" s="177"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="176" t="e">
+      <c r="K13" s="164"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="163" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="180"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="176" t="e">
+      <c r="P13" s="167"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="163" t="e">
         <f>(AVERAGE(P13:R13)+S13)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="180"/>
-      <c r="V13" s="181"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="175"/>
-      <c r="Y13" s="176" t="e">
+      <c r="U13" s="167"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="161"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="163" t="e">
         <f>(AVERAGE(U13:W13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z13" s="180"/>
-      <c r="AA13" s="182" t="e">
+      <c r="Z13" s="167"/>
+      <c r="AA13" s="169" t="e">
         <f>(AVERAGE(J13,O13,T13,#REF!,Y13)+Z13)/2</f>
         <v>#REF!</v>
       </c>
@@ -10380,65 +10278,65 @@
       <c r="B14" s="62">
         <v>3</v>
       </c>
-      <c r="C14" s="171" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="172" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="180">
+      <c r="C14" s="158" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="159" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="167">
         <v>10</v>
       </c>
-      <c r="F14" s="174">
+      <c r="F14" s="161">
         <v>7.69</v>
       </c>
-      <c r="G14" s="174">
+      <c r="G14" s="161">
         <v>8.9</v>
       </c>
-      <c r="H14" s="174">
+      <c r="H14" s="161">
         <v>8.9</v>
       </c>
-      <c r="I14" s="175">
+      <c r="I14" s="162">
         <v>9</v>
       </c>
-      <c r="J14" s="176">
+      <c r="J14" s="163">
         <f>(AVERAGE(E14:H14)+I14)/2</f>
         <v>8.9362500000000011</v>
       </c>
-      <c r="K14" s="177">
+      <c r="K14" s="164">
         <v>10</v>
       </c>
-      <c r="L14" s="178">
+      <c r="L14" s="165">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M14" s="178">
+      <c r="M14" s="165">
         <v>8</v>
       </c>
-      <c r="N14" s="179">
+      <c r="N14" s="166">
         <v>7</v>
       </c>
-      <c r="O14" s="176">
+      <c r="O14" s="163">
         <f t="shared" si="1"/>
         <v>7.8833333333333337</v>
       </c>
-      <c r="P14" s="180"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="176" t="e">
+      <c r="P14" s="167"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="162"/>
+      <c r="T14" s="163" t="e">
         <f>(AVERAGE(P14:R14)+S14)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="180"/>
-      <c r="V14" s="181"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="175"/>
-      <c r="Y14" s="176" t="e">
+      <c r="U14" s="167"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="163" t="e">
         <f t="shared" ref="Y14:Y16" si="2">(AVERAGE(U14:W14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="180"/>
-      <c r="AA14" s="182" t="e">
+      <c r="Z14" s="167"/>
+      <c r="AA14" s="169" t="e">
         <f>(AVERAGE(J14,O14,T14,#REF!,Y14)+Z14)/2</f>
         <v>#REF!</v>
       </c>
@@ -10447,65 +10345,65 @@
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="171" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="172" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="180">
+      <c r="C15" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="167">
         <v>10</v>
       </c>
-      <c r="F15" s="174">
+      <c r="F15" s="161">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G15" s="174">
+      <c r="G15" s="161">
         <v>10</v>
       </c>
-      <c r="H15" s="174">
+      <c r="H15" s="161">
         <v>10</v>
       </c>
-      <c r="I15" s="175">
+      <c r="I15" s="162">
         <v>9.5</v>
       </c>
-      <c r="J15" s="176">
+      <c r="J15" s="163">
         <f t="shared" si="0"/>
         <v>9.5562500000000004</v>
       </c>
-      <c r="K15" s="177">
+      <c r="K15" s="164">
+        <v>9</v>
+      </c>
+      <c r="L15" s="165">
         <v>10</v>
       </c>
-      <c r="L15" s="178">
+      <c r="M15" s="165">
         <v>10</v>
       </c>
-      <c r="M15" s="178">
+      <c r="N15" s="166">
         <v>10</v>
       </c>
-      <c r="N15" s="179">
-        <v>10</v>
-      </c>
-      <c r="O15" s="176">
+      <c r="O15" s="163">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="175"/>
-      <c r="T15" s="176" t="e">
+        <v>9.8333333333333321</v>
+      </c>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="161"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="163" t="e">
         <f>(AVERAGE(P15:R15)+S15)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="180"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="176" t="e">
+      <c r="U15" s="167"/>
+      <c r="V15" s="161"/>
+      <c r="W15" s="161"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="163" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z15" s="180"/>
-      <c r="AA15" s="182" t="e">
+      <c r="Z15" s="167"/>
+      <c r="AA15" s="169" t="e">
         <f>(AVERAGE(J15,O15,T15,#REF!,Y15)+Z15)/2</f>
         <v>#REF!</v>
       </c>
@@ -10514,63 +10412,63 @@
       <c r="B16" s="62">
         <v>5</v>
       </c>
-      <c r="C16" s="171" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="172" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="180">
+      <c r="C16" s="158" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="159" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="167">
         <v>10</v>
       </c>
-      <c r="F16" s="174">
+      <c r="F16" s="161">
         <v>7.46</v>
       </c>
-      <c r="G16" s="174">
+      <c r="G16" s="161">
         <v>10</v>
       </c>
-      <c r="H16" s="174">
+      <c r="H16" s="161">
         <v>8.9</v>
       </c>
-      <c r="I16" s="175">
+      <c r="I16" s="162">
         <v>7.25</v>
       </c>
-      <c r="J16" s="176">
+      <c r="J16" s="163">
         <f t="shared" si="0"/>
         <v>8.17</v>
       </c>
-      <c r="K16" s="177">
+      <c r="K16" s="164">
         <v>10</v>
       </c>
-      <c r="L16" s="178">
+      <c r="L16" s="165">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M16" s="178">
+      <c r="M16" s="165">
         <v>10</v>
       </c>
-      <c r="N16" s="179"/>
-      <c r="O16" s="176">
+      <c r="N16" s="166"/>
+      <c r="O16" s="163">
         <f t="shared" si="1"/>
         <v>4.8666666666666663</v>
       </c>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="176" t="e">
+      <c r="P16" s="167"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="161"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="163" t="e">
         <f>(AVERAGE(P16:R16)+S16)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U16" s="180"/>
-      <c r="V16" s="174"/>
-      <c r="W16" s="174"/>
-      <c r="X16" s="175"/>
-      <c r="Y16" s="176" t="e">
+      <c r="U16" s="167"/>
+      <c r="V16" s="161"/>
+      <c r="W16" s="161"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="163" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z16" s="180"/>
-      <c r="AA16" s="182" t="e">
+      <c r="Z16" s="167"/>
+      <c r="AA16" s="169" t="e">
         <f>(AVERAGE(J16,O16,T16,#REF!,Y16)+Z16)/2</f>
         <v>#REF!</v>
       </c>
@@ -10580,24 +10478,24 @@
         <v>6</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D17" s="128" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E17" s="121">
         <v>10</v>
       </c>
-      <c r="F17" s="145">
+      <c r="F17" s="132">
         <v>7.69</v>
       </c>
-      <c r="G17" s="145">
+      <c r="G17" s="132">
         <v>10</v>
       </c>
-      <c r="H17" s="145">
+      <c r="H17" s="132">
         <v>8.9</v>
       </c>
-      <c r="I17" s="146"/>
+      <c r="I17" s="133"/>
       <c r="J17" s="123">
         <f t="shared" si="0"/>
         <v>4.5737500000000004</v>
@@ -10606,7 +10504,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="148" t="e">
+      <c r="O17" s="135" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -10614,12 +10512,12 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="31"/>
-      <c r="T17" s="148"/>
+      <c r="T17" s="135"/>
       <c r="U17" s="27"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="31"/>
-      <c r="Y17" s="148"/>
+      <c r="Y17" s="135"/>
       <c r="Z17" s="27"/>
       <c r="AA17" s="122" t="e">
         <f>(AVERAGE(J17,O17,T17,#REF!,Y17)+Z17)/2</f>
@@ -10930,37 +10828,37 @@
       <c r="H28"/>
     </row>
     <row r="29" spans="2:29" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="205" t="s">
+      <c r="E29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="207"/>
-      <c r="K29" s="205" t="s">
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="194"/>
+      <c r="K29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="206"/>
-      <c r="M29" s="206"/>
-      <c r="N29" s="207"/>
-      <c r="P29" s="205" t="s">
+      <c r="L29" s="193"/>
+      <c r="M29" s="193"/>
+      <c r="N29" s="194"/>
+      <c r="P29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="206"/>
-      <c r="S29" s="207"/>
-      <c r="U29" s="205" t="s">
+      <c r="Q29" s="193"/>
+      <c r="R29" s="193"/>
+      <c r="S29" s="194"/>
+      <c r="U29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="206"/>
-      <c r="W29" s="206"/>
-      <c r="X29" s="207"/>
-      <c r="Z29" s="205" t="s">
+      <c r="V29" s="193"/>
+      <c r="W29" s="193"/>
+      <c r="X29" s="194"/>
+      <c r="Z29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="206"/>
-      <c r="AB29" s="206"/>
-      <c r="AC29" s="207"/>
+      <c r="AA29" s="193"/>
+      <c r="AB29" s="193"/>
+      <c r="AC29" s="194"/>
     </row>
     <row r="30" spans="2:29" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
@@ -11065,7 +10963,7 @@
   <dimension ref="B1:AE33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11112,136 +11010,136 @@
   <sheetData>
     <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="210"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="197"/>
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="213"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="200"/>
     </row>
     <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="216"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="202"/>
+      <c r="AE4" s="203"/>
     </row>
     <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
-      <c r="AA6" s="204"/>
-      <c r="AB6" s="204"/>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
+      <c r="Z6" s="191"/>
+      <c r="AA6" s="191"/>
+      <c r="AB6" s="191"/>
+      <c r="AC6" s="191"/>
+      <c r="AD6" s="191"/>
+      <c r="AE6" s="191"/>
     </row>
     <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11272,41 +11170,41 @@
     <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="186" t="s">
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="186" t="s">
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="188"/>
-      <c r="Y10" s="186" t="s">
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="188"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="175"/>
     </row>
     <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -11401,10 +11299,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E12" s="106">
         <v>8</v>
@@ -11481,10 +11379,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E13" s="112">
         <v>8</v>
@@ -11560,78 +11458,78 @@
       <c r="B14" s="62">
         <v>3</v>
       </c>
-      <c r="C14" s="162" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="164">
+      <c r="C14" s="149" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="151">
         <v>8</v>
       </c>
-      <c r="F14" s="165">
+      <c r="F14" s="152">
         <v>9</v>
       </c>
-      <c r="G14" s="165">
+      <c r="G14" s="152">
         <v>7</v>
       </c>
-      <c r="H14" s="166">
+      <c r="H14" s="153">
         <v>8.33</v>
       </c>
       <c r="I14" s="118">
         <f t="shared" si="0"/>
         <v>8.1649999999999991</v>
       </c>
-      <c r="J14" s="167">
+      <c r="J14" s="154">
         <v>10</v>
       </c>
-      <c r="K14" s="168">
+      <c r="K14" s="155">
         <v>9</v>
       </c>
-      <c r="L14" s="168">
+      <c r="L14" s="155">
         <v>8.35</v>
       </c>
-      <c r="M14" s="169">
+      <c r="M14" s="156">
         <v>8.8000000000000007</v>
       </c>
       <c r="N14" s="118">
         <f t="shared" ref="N14:N19" si="6">(AVERAGE(J14:L14)+M14)/2</f>
         <v>8.9583333333333339</v>
       </c>
-      <c r="O14" s="164">
+      <c r="O14" s="151">
         <v>9.3000000000000007</v>
       </c>
-      <c r="P14" s="165">
+      <c r="P14" s="152">
         <v>10</v>
       </c>
-      <c r="Q14" s="165">
+      <c r="Q14" s="152">
         <v>8.9</v>
       </c>
-      <c r="R14" s="166">
+      <c r="R14" s="153">
         <v>3</v>
       </c>
       <c r="S14" s="118">
         <f t="shared" ref="S14:S19" si="7">(AVERAGE(O14:Q14)+R14)/2</f>
         <v>6.2</v>
       </c>
-      <c r="T14" s="164"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="165"/>
-      <c r="W14" s="166"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="153"/>
       <c r="X14" s="118" t="e">
         <f>(AVERAGE(T14:V14)+W14)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="165"/>
-      <c r="AA14" s="165"/>
-      <c r="AB14" s="166"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="153"/>
       <c r="AC14" s="118" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="164"/>
-      <c r="AE14" s="170" t="e">
+      <c r="AD14" s="151"/>
+      <c r="AE14" s="157" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -11641,10 +11539,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D15" s="105" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E15" s="112">
         <v>7</v>
@@ -11721,10 +11619,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="104" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E16" s="112"/>
       <c r="F16" s="113"/>
@@ -11776,58 +11674,58 @@
       <c r="B17" s="62">
         <v>6</v>
       </c>
-      <c r="C17" s="153" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="154" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="155">
+      <c r="C17" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="141" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="142">
         <v>8</v>
       </c>
-      <c r="F17" s="156">
+      <c r="F17" s="143">
         <v>8</v>
       </c>
-      <c r="G17" s="156"/>
-      <c r="H17" s="157"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="144"/>
       <c r="I17" s="118">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="160"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
       <c r="N17" s="118" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O17" s="155"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="157"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="144"/>
       <c r="S17" s="118" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T17" s="155"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="157"/>
+      <c r="T17" s="142"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="144"/>
       <c r="X17" s="118" t="e">
         <f>(AVERAGE(T17:V17)+W17)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="157"/>
+      <c r="Y17" s="142"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="144"/>
       <c r="AC17" s="118" t="e">
         <f>(AVERAGE(Y17:AA17))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD17" s="155"/>
-      <c r="AE17" s="161" t="e">
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="148" t="e">
         <f>AVERAGE(I17,N17,S17,X17,AC17,AD17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11837,37 +11735,37 @@
         <v>7</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E18" s="121">
         <v>8</v>
       </c>
-      <c r="F18" s="145">
+      <c r="F18" s="132">
         <v>8</v>
       </c>
-      <c r="G18" s="145">
+      <c r="G18" s="132">
         <v>6</v>
       </c>
-      <c r="H18" s="146">
+      <c r="H18" s="133">
         <v>7.5</v>
       </c>
       <c r="I18" s="123">
         <f t="shared" si="0"/>
         <v>7.4166666666666661</v>
       </c>
-      <c r="J18" s="183">
+      <c r="J18" s="170">
         <v>10</v>
       </c>
-      <c r="K18" s="184">
+      <c r="K18" s="171">
         <v>7</v>
       </c>
-      <c r="L18" s="184">
+      <c r="L18" s="171">
         <v>5</v>
       </c>
-      <c r="M18" s="185">
+      <c r="M18" s="172">
         <v>8.89</v>
       </c>
       <c r="N18" s="123">
@@ -11877,14 +11775,18 @@
       <c r="O18" s="121">
         <v>9.1999999999999993</v>
       </c>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="31">
+      <c r="P18" s="132">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="132">
+        <v>9</v>
+      </c>
+      <c r="R18" s="133">
         <v>3</v>
       </c>
       <c r="S18" s="123">
         <f t="shared" si="7"/>
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="T18" s="27"/>
       <c r="U18" s="7"/>
@@ -11913,15 +11815,15 @@
         <v>8</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E19" s="121">
         <v>7</v>
       </c>
-      <c r="F19" s="145">
+      <c r="F19" s="132">
         <v>7.08</v>
       </c>
       <c r="G19" s="7"/>
@@ -12244,36 +12146,36 @@
       <c r="G28"/>
     </row>
     <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="205" t="s">
+      <c r="E29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="207"/>
-      <c r="J29" s="205" t="s">
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="194"/>
+      <c r="J29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="206"/>
-      <c r="L29" s="206"/>
-      <c r="M29" s="207"/>
-      <c r="O29" s="205" t="s">
+      <c r="K29" s="193"/>
+      <c r="L29" s="193"/>
+      <c r="M29" s="194"/>
+      <c r="O29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="206"/>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="207"/>
-      <c r="T29" s="205" t="s">
+      <c r="P29" s="193"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="194"/>
+      <c r="T29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="U29" s="206"/>
-      <c r="V29" s="206"/>
-      <c r="W29" s="207"/>
-      <c r="Y29" s="205" t="s">
+      <c r="U29" s="193"/>
+      <c r="V29" s="193"/>
+      <c r="W29" s="194"/>
+      <c r="Y29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="Z29" s="206"/>
-      <c r="AA29" s="206"/>
-      <c r="AB29" s="207"/>
+      <c r="Z29" s="193"/>
+      <c r="AA29" s="193"/>
+      <c r="AB29" s="194"/>
     </row>
     <row r="30" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
@@ -12332,11 +12234,6 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -12344,6 +12241,11 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="Y29:AB29"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE17">

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1F59C-53EA-48AC-A892-6B2C552B9F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F69D145-3093-411F-97FE-3CB9219CD87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1555,147 +1555,6 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1730,6 +1589,147 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3235,7 +3235,7 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="5.23046875" customWidth="1"/>
     <col min="2" max="2" width="2.69140625" bestFit="1" customWidth="1"/>
@@ -3270,126 +3270,126 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="176" t="s">
+    <row r="1" spans="2:31" ht="15" customHeight="1">
+      <c r="B1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-    </row>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D5" s="178" t="s">
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+    </row>
+    <row r="2" spans="2:31" ht="15" customHeight="1">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="190"/>
+      <c r="AB2" s="190"/>
+      <c r="AC2" s="190"/>
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="190"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1">
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="190"/>
+    </row>
+    <row r="5" spans="2:31">
+      <c r="D5" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="178"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="178" t="s">
+      <c r="E5" s="191"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="K5" s="191"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="192"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+    </row>
+    <row r="6" spans="2:31">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3401,28 +3401,28 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D7" s="178" t="s">
+    <row r="7" spans="2:31">
+      <c r="D7" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="178" t="s">
+      <c r="E7" s="191"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-    </row>
-    <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+    </row>
+    <row r="8" spans="2:31" ht="15" thickBot="1">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3434,46 +3434,46 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="15" thickBot="1">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="173" t="s">
+      <c r="E9" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="173" t="s">
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="173" t="s">
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="173" t="s">
+      <c r="P9" s="187"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="174"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="175"/>
-      <c r="Y9" s="173" t="s">
+      <c r="U9" s="187"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="188"/>
+      <c r="Y9" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="174"/>
-      <c r="AB9" s="174"/>
-      <c r="AC9" s="175"/>
-    </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="188"/>
+    </row>
+    <row r="10" spans="2:31" ht="15" thickBot="1">
       <c r="B10" s="4"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -3563,7 +3563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="15" thickBot="1">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="15" thickBot="1">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="15" thickBot="1">
       <c r="B13" s="16">
         <v>3</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="15" thickBot="1">
       <c r="B14" s="16">
         <v>4</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="15" thickBot="1">
       <c r="B15" s="16">
         <v>5</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="15" thickBot="1">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" ht="15" thickBot="1">
       <c r="B17" s="16">
         <v>7</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" ht="15" thickBot="1">
       <c r="B18" s="16">
         <v>8</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" ht="15" thickBot="1">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" ht="15" thickBot="1">
       <c r="B20" s="16">
         <v>10</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" ht="15" thickBot="1">
       <c r="B21" s="16">
         <v>11</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="15" thickBot="1">
       <c r="B22" s="16">
         <v>12</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" ht="15" thickBot="1">
       <c r="B23" s="16">
         <v>13</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="15" thickBot="1">
       <c r="B24" s="16">
         <v>14</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="15" thickBot="1">
       <c r="B25" s="16">
         <v>15</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" ht="15" thickBot="1">
       <c r="B26" s="16">
         <v>16</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" ht="15" thickBot="1">
       <c r="B27" s="16">
         <v>17</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" ht="15" thickBot="1">
       <c r="B28" s="16">
         <v>18</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="15" thickBot="1">
       <c r="B29" s="16">
         <v>19</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" ht="15" thickBot="1">
       <c r="B30" s="16">
         <v>20</v>
       </c>
@@ -4603,22 +4603,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:31">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:31">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:7">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="7:7">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="7:7">
       <c r="G35"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="7:7">
       <c r="G36"/>
     </row>
   </sheetData>
@@ -4658,11 +4658,11 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -4701,101 +4701,101 @@
     <col min="40" max="40" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1">
+      <c r="B2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="197"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="200"/>
-    </row>
-    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="203"/>
-    </row>
-    <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="210"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" customHeight="1">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="213"/>
+    </row>
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="216"/>
+    </row>
+    <row r="6" spans="2:21" ht="25.75">
+      <c r="B6" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-    </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+    </row>
+    <row r="7" spans="2:21" ht="15" thickBot="1"/>
+    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -4820,32 +4820,32 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="173" t="s">
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="173" t="s">
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="175"/>
-    </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P10" s="187"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="188"/>
+    </row>
+    <row r="11" spans="2:21" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5025,47 +5025,47 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="221" t="s">
+      <c r="D15" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="222"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="225" t="e">
+      <c r="E15" s="175"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="178" t="e">
         <f>AVERAGE(E15:H15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="226"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="228"/>
-      <c r="N15" s="225" t="e">
+      <c r="J15" s="179"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="178" t="e">
         <f>AVERAGE(J15:M15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O15" s="222"/>
-      <c r="P15" s="223"/>
-      <c r="Q15" s="223"/>
-      <c r="R15" s="229"/>
-      <c r="S15" s="230" t="e">
+      <c r="O15" s="175"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="182"/>
+      <c r="S15" s="183" t="e">
         <f>AVERAGE(O15:Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="231"/>
-      <c r="U15" s="232" t="e">
+      <c r="T15" s="184"/>
+      <c r="U15" s="185" t="e">
         <f>AVERAGE(I15,N15,S15,T15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5089,7 +5089,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5113,7 +5113,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -5329,30 +5329,30 @@
       <c r="T26" s="28"/>
       <c r="U26" s="57"/>
     </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:21" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="207"/>
+      <c r="J28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
-      <c r="O28" s="192" t="s">
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="207"/>
+      <c r="O28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="194"/>
-    </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P28" s="206"/>
+      <c r="Q28" s="206"/>
+      <c r="R28" s="207"/>
+    </row>
+    <row r="29" spans="2:21" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -5361,7 +5361,7 @@
       <c r="O29" s="41"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -5370,7 +5370,7 @@
       <c r="O30" s="41"/>
       <c r="R30" s="42"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5384,7 +5384,7 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:21">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -5432,70 +5432,70 @@
       <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="182" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="185"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="188"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="190"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="197"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="198"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="200"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="201"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="203"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="A6" s="191" t="s">
+    <row r="6" spans="1:10" ht="25.75">
+      <c r="A6" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="49"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="21" thickBot="1">
       <c r="A8" s="49"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
@@ -5507,26 +5507,26 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="49"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="175"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A12" s="61">
         <v>1</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A13" s="62">
         <v>2</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A14" s="62">
         <v>3</v>
       </c>
@@ -5600,7 +5600,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A15" s="62">
         <v>4</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A16" s="62">
         <v>5</v>
       </c>
@@ -5628,7 +5628,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A17" s="62">
         <v>6</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A18" s="62">
         <v>7</v>
       </c>
@@ -5656,7 +5656,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="18.45">
       <c r="A19" s="62">
         <v>8</v>
       </c>
@@ -5670,36 +5670,36 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A21" s="49"/>
-      <c r="D21" s="192" t="s">
+      <c r="D21" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="194"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="207"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="49"/>
       <c r="D22" s="41"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="A23" s="49"/>
       <c r="D23" s="41"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="49"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10">
       <c r="A25" s="49"/>
     </row>
   </sheetData>
@@ -5732,7 +5732,7 @@
       <selection activeCell="B2" sqref="B2:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -5761,81 +5761,81 @@
     <col min="35" max="35" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1">
+      <c r="B2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="197"/>
-    </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="200"/>
-    </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="203"/>
-    </row>
-    <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="210"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" customHeight="1">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+    </row>
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="216"/>
+    </row>
+    <row r="6" spans="2:16" ht="25.75">
+      <c r="B6" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="204"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1"/>
+    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -5846,7 +5846,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5854,25 +5854,25 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="173" t="s">
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="188"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5938,7 +5938,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5976,7 +5976,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5995,7 +5995,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6033,7 +6033,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6052,7 +6052,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6090,7 +6090,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6109,7 +6109,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6204,38 +6204,38 @@
       <c r="O26" s="28"/>
       <c r="P26" s="57"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="207"/>
+      <c r="J28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
-    </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="207"/>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
       <c r="J29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
       <c r="J30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -6245,7 +6245,7 @@
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6281,7 +6281,7 @@
       <selection activeCell="B2" sqref="B2:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6310,61 +6310,61 @@
     <col min="30" max="30" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1">
+      <c r="B2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="197"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="200"/>
-    </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
-    </row>
-    <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="210"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213"/>
+    </row>
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="216"/>
+    </row>
+    <row r="6" spans="2:11" ht="25.75">
+      <c r="B6" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1"/>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6375,24 +6375,24 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6438,7 +6438,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6452,7 +6452,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6550,7 +6550,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6578,7 +6578,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6592,7 +6592,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6634,34 +6634,34 @@
       <c r="J26" s="28"/>
       <c r="K26" s="57"/>
     </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="207"/>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6695,7 +6695,7 @@
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6724,121 +6724,121 @@
     <col min="45" max="45" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1">
+      <c r="B2" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-    </row>
-    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="203"/>
-    </row>
-    <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="210"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="213"/>
+    </row>
+    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="216"/>
+    </row>
+    <row r="6" spans="2:26" ht="25.75">
+      <c r="B6" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="204"/>
+      <c r="X6" s="204"/>
+      <c r="Y6" s="204"/>
+      <c r="Z6" s="204"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" thickBot="1"/>
+    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6849,7 +6849,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6861,39 +6861,39 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="173" t="s">
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="173" t="s">
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="173" t="s">
+      <c r="P10" s="187"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="175"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U10" s="187"/>
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="188"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7086,7 +7086,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="24"/>
     </row>
-    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -7144,7 +7144,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -7202,7 +7202,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -7318,7 +7318,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -7405,36 +7405,36 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="57"/>
     </row>
-    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:26" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="207"/>
+      <c r="J28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
-      <c r="O28" s="192" t="s">
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="207"/>
+      <c r="O28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="194"/>
-      <c r="T28" s="192" t="s">
+      <c r="P28" s="206"/>
+      <c r="Q28" s="206"/>
+      <c r="R28" s="207"/>
+      <c r="T28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="194"/>
-    </row>
-    <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U28" s="206"/>
+      <c r="V28" s="206"/>
+      <c r="W28" s="207"/>
+    </row>
+    <row r="29" spans="2:26" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -7445,7 +7445,7 @@
       <c r="T29" s="41"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:26" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -7456,7 +7456,7 @@
       <c r="T30" s="41"/>
       <c r="W30" s="42"/>
     </row>
-    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -7474,22 +7474,22 @@
       <c r="V31" s="44"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:26">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T28:W28"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7514,7 +7514,7 @@
       <selection activeCell="B2" sqref="B2:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="49" customWidth="1"/>
@@ -7543,171 +7543,171 @@
     <col min="55" max="55" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:36" ht="15" customHeight="1">
+      <c r="B2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="196"/>
-      <c r="AJ2" s="197"/>
-    </row>
-    <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="199"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="199"/>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="199"/>
-      <c r="AJ3" s="200"/>
-    </row>
-    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="202"/>
-      <c r="AB4" s="202"/>
-      <c r="AC4" s="202"/>
-      <c r="AD4" s="202"/>
-      <c r="AE4" s="202"/>
-      <c r="AF4" s="202"/>
-      <c r="AG4" s="202"/>
-      <c r="AH4" s="202"/>
-      <c r="AI4" s="202"/>
-      <c r="AJ4" s="203"/>
-    </row>
-    <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B7" s="207" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="209"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="209"/>
+      <c r="AJ2" s="210"/>
+    </row>
+    <row r="3" spans="2:36" ht="15" customHeight="1">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="212"/>
+      <c r="AF3" s="212"/>
+      <c r="AG3" s="212"/>
+      <c r="AH3" s="212"/>
+      <c r="AI3" s="212"/>
+      <c r="AJ3" s="213"/>
+    </row>
+    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="215"/>
+      <c r="AA4" s="215"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="215"/>
+      <c r="AF4" s="215"/>
+      <c r="AG4" s="215"/>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="215"/>
+      <c r="AJ4" s="216"/>
+    </row>
+    <row r="7" spans="2:36" ht="28.3" thickBot="1">
+      <c r="B7" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="207"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="207"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="207"/>
-      <c r="M7" s="207"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="207"/>
-      <c r="S7" s="207"/>
-      <c r="T7" s="207"/>
-      <c r="U7" s="207"/>
-      <c r="V7" s="207"/>
-      <c r="W7" s="207"/>
-      <c r="X7" s="207"/>
-      <c r="Y7" s="207"/>
-      <c r="Z7" s="207"/>
-      <c r="AA7" s="207"/>
-      <c r="AB7" s="207"/>
-      <c r="AC7" s="207"/>
-      <c r="AD7" s="207"/>
-      <c r="AE7" s="207"/>
-      <c r="AF7" s="207"/>
-      <c r="AG7" s="207"/>
-      <c r="AH7" s="207"/>
-      <c r="AI7" s="207"/>
-      <c r="AJ7" s="207"/>
-    </row>
-    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="220"/>
+      <c r="O7" s="220"/>
+      <c r="P7" s="220"/>
+      <c r="Q7" s="220"/>
+      <c r="R7" s="220"/>
+      <c r="S7" s="220"/>
+      <c r="T7" s="220"/>
+      <c r="U7" s="220"/>
+      <c r="V7" s="220"/>
+      <c r="W7" s="220"/>
+      <c r="X7" s="220"/>
+      <c r="Y7" s="220"/>
+      <c r="Z7" s="220"/>
+      <c r="AA7" s="220"/>
+      <c r="AB7" s="220"/>
+      <c r="AC7" s="220"/>
+      <c r="AD7" s="220"/>
+      <c r="AE7" s="220"/>
+      <c r="AF7" s="220"/>
+      <c r="AG7" s="220"/>
+      <c r="AH7" s="220"/>
+      <c r="AI7" s="220"/>
+      <c r="AJ7" s="220"/>
+    </row>
+    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="209"/>
-    </row>
-    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="222"/>
+    </row>
+    <row r="9" spans="2:36" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -7719,54 +7719,54 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="204" t="s">
+      <c r="E10" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="204" t="s">
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="204" t="s">
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="206"/>
-      <c r="T10" s="204" t="s">
+      <c r="P10" s="218"/>
+      <c r="Q10" s="218"/>
+      <c r="R10" s="218"/>
+      <c r="S10" s="219"/>
+      <c r="T10" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="206"/>
-      <c r="Y10" s="204" t="s">
+      <c r="U10" s="218"/>
+      <c r="V10" s="218"/>
+      <c r="W10" s="218"/>
+      <c r="X10" s="219"/>
+      <c r="Y10" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="205"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="205"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="204" t="s">
+      <c r="Z10" s="218"/>
+      <c r="AA10" s="218"/>
+      <c r="AB10" s="218"/>
+      <c r="AC10" s="219"/>
+      <c r="AD10" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="205"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="205"/>
-      <c r="AH10" s="206"/>
-    </row>
-    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AE10" s="218"/>
+      <c r="AF10" s="218"/>
+      <c r="AG10" s="218"/>
+      <c r="AH10" s="219"/>
+    </row>
+    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7912,7 +7912,7 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="AI14" s="27"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -8029,7 +8029,7 @@
       <c r="AI15" s="27"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -8068,7 +8068,7 @@
       <c r="AI16" s="27"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -8107,7 +8107,7 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="AI19" s="27"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -8224,7 +8224,7 @@
       <c r="AI20" s="27"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -8302,7 +8302,7 @@
       <c r="AI22" s="27"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="AI23" s="27"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -8380,7 +8380,7 @@
       <c r="AI24" s="27"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="AI25" s="27"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -8458,48 +8458,48 @@
       <c r="AI26" s="28"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:36" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="207"/>
+      <c r="J28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
-      <c r="O28" s="192" t="s">
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="207"/>
+      <c r="O28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="194"/>
-      <c r="T28" s="192" t="s">
+      <c r="P28" s="206"/>
+      <c r="Q28" s="206"/>
+      <c r="R28" s="207"/>
+      <c r="T28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="194"/>
-      <c r="Y28" s="192" t="s">
+      <c r="U28" s="206"/>
+      <c r="V28" s="206"/>
+      <c r="W28" s="207"/>
+      <c r="Y28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="194"/>
-      <c r="AD28" s="192" t="s">
+      <c r="Z28" s="206"/>
+      <c r="AA28" s="206"/>
+      <c r="AB28" s="207"/>
+      <c r="AD28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="193"/>
-      <c r="AF28" s="193"/>
-      <c r="AG28" s="194"/>
-    </row>
-    <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE28" s="206"/>
+      <c r="AF28" s="206"/>
+      <c r="AG28" s="207"/>
+    </row>
+    <row r="29" spans="2:36" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -8514,7 +8514,7 @@
       <c r="AD29" s="41"/>
       <c r="AG29" s="42"/>
     </row>
-    <row r="30" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:36" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -8529,7 +8529,7 @@
       <c r="AD30" s="41"/>
       <c r="AG30" s="42"/>
     </row>
-    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -8555,7 +8555,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="45"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:36">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -8600,7 +8600,7 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4.23046875" style="49" customWidth="1"/>
@@ -8630,183 +8630,183 @@
     <col min="60" max="60" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="210" t="s">
+    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1">
+      <c r="B2" s="223" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="211"/>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="211"/>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="211"/>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
-      <c r="AM2" s="211"/>
-      <c r="AN2" s="211"/>
-      <c r="AO2" s="212"/>
-    </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="213"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="214"/>
-      <c r="AB3" s="214"/>
-      <c r="AC3" s="214"/>
-      <c r="AD3" s="214"/>
-      <c r="AE3" s="214"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="214"/>
-      <c r="AH3" s="214"/>
-      <c r="AI3" s="214"/>
-      <c r="AJ3" s="214"/>
-      <c r="AK3" s="214"/>
-      <c r="AL3" s="214"/>
-      <c r="AM3" s="214"/>
-      <c r="AN3" s="214"/>
-      <c r="AO3" s="215"/>
-    </row>
-    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="216"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
-      <c r="T4" s="217"/>
-      <c r="U4" s="217"/>
-      <c r="V4" s="217"/>
-      <c r="W4" s="217"/>
-      <c r="X4" s="217"/>
-      <c r="Y4" s="217"/>
-      <c r="Z4" s="217"/>
-      <c r="AA4" s="217"/>
-      <c r="AB4" s="217"/>
-      <c r="AC4" s="217"/>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="217"/>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="217"/>
-      <c r="AH4" s="217"/>
-      <c r="AI4" s="217"/>
-      <c r="AJ4" s="217"/>
-      <c r="AK4" s="217"/>
-      <c r="AL4" s="217"/>
-      <c r="AM4" s="217"/>
-      <c r="AN4" s="217"/>
-      <c r="AO4" s="218"/>
-    </row>
-    <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="224"/>
+      <c r="AB2" s="224"/>
+      <c r="AC2" s="224"/>
+      <c r="AD2" s="224"/>
+      <c r="AE2" s="224"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="224"/>
+      <c r="AH2" s="224"/>
+      <c r="AI2" s="224"/>
+      <c r="AJ2" s="224"/>
+      <c r="AK2" s="224"/>
+      <c r="AL2" s="224"/>
+      <c r="AM2" s="224"/>
+      <c r="AN2" s="224"/>
+      <c r="AO2" s="225"/>
+    </row>
+    <row r="3" spans="2:41" ht="15" customHeight="1">
+      <c r="B3" s="226"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="227"/>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="227"/>
+      <c r="AB3" s="227"/>
+      <c r="AC3" s="227"/>
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="227"/>
+      <c r="AG3" s="227"/>
+      <c r="AH3" s="227"/>
+      <c r="AI3" s="227"/>
+      <c r="AJ3" s="227"/>
+      <c r="AK3" s="227"/>
+      <c r="AL3" s="227"/>
+      <c r="AM3" s="227"/>
+      <c r="AN3" s="227"/>
+      <c r="AO3" s="228"/>
+    </row>
+    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B4" s="229"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="230"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="230"/>
+      <c r="N4" s="230"/>
+      <c r="O4" s="230"/>
+      <c r="P4" s="230"/>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="230"/>
+      <c r="S4" s="230"/>
+      <c r="T4" s="230"/>
+      <c r="U4" s="230"/>
+      <c r="V4" s="230"/>
+      <c r="W4" s="230"/>
+      <c r="X4" s="230"/>
+      <c r="Y4" s="230"/>
+      <c r="Z4" s="230"/>
+      <c r="AA4" s="230"/>
+      <c r="AB4" s="230"/>
+      <c r="AC4" s="230"/>
+      <c r="AD4" s="230"/>
+      <c r="AE4" s="230"/>
+      <c r="AF4" s="230"/>
+      <c r="AG4" s="230"/>
+      <c r="AH4" s="230"/>
+      <c r="AI4" s="230"/>
+      <c r="AJ4" s="230"/>
+      <c r="AK4" s="230"/>
+      <c r="AL4" s="230"/>
+      <c r="AM4" s="230"/>
+      <c r="AN4" s="230"/>
+      <c r="AO4" s="231"/>
+    </row>
+    <row r="6" spans="2:41" ht="30.9">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="207"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="207"/>
-      <c r="S6" s="207"/>
-      <c r="T6" s="207"/>
-      <c r="U6" s="207"/>
-      <c r="V6" s="207"/>
-      <c r="W6" s="207"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="207"/>
-      <c r="AB6" s="207"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="207"/>
-      <c r="AE6" s="207"/>
-      <c r="AF6" s="207"/>
-      <c r="AG6" s="207"/>
-      <c r="AH6" s="207"/>
-      <c r="AI6" s="207"/>
-      <c r="AJ6" s="207"/>
-      <c r="AK6" s="207"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="220"/>
+      <c r="P6" s="220"/>
+      <c r="Q6" s="220"/>
+      <c r="R6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="220"/>
+      <c r="U6" s="220"/>
+      <c r="V6" s="220"/>
+      <c r="W6" s="220"/>
+      <c r="X6" s="220"/>
+      <c r="Y6" s="220"/>
+      <c r="Z6" s="220"/>
+      <c r="AA6" s="220"/>
+      <c r="AB6" s="220"/>
+      <c r="AC6" s="220"/>
+      <c r="AD6" s="220"/>
+      <c r="AE6" s="220"/>
+      <c r="AF6" s="220"/>
+      <c r="AG6" s="220"/>
+      <c r="AH6" s="220"/>
+      <c r="AI6" s="220"/>
+      <c r="AJ6" s="220"/>
+      <c r="AK6" s="220"/>
       <c r="AL6" s="81"/>
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
     </row>
-    <row r="7" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:41" ht="15" thickBot="1"/>
+    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -8817,7 +8817,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:41" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -8829,61 +8829,61 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="204" t="s">
+      <c r="E10" s="217" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="204" t="s">
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="204" t="s">
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="206"/>
-      <c r="T10" s="204" t="s">
+      <c r="P10" s="218"/>
+      <c r="Q10" s="218"/>
+      <c r="R10" s="218"/>
+      <c r="S10" s="219"/>
+      <c r="T10" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="206"/>
-      <c r="Y10" s="204" t="s">
+      <c r="U10" s="218"/>
+      <c r="V10" s="218"/>
+      <c r="W10" s="218"/>
+      <c r="X10" s="219"/>
+      <c r="Y10" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="205"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="205"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="204" t="s">
+      <c r="Z10" s="218"/>
+      <c r="AA10" s="218"/>
+      <c r="AB10" s="218"/>
+      <c r="AC10" s="219"/>
+      <c r="AD10" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="205"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="205"/>
-      <c r="AH10" s="206"/>
-      <c r="AI10" s="204" t="s">
+      <c r="AE10" s="218"/>
+      <c r="AF10" s="218"/>
+      <c r="AG10" s="218"/>
+      <c r="AH10" s="219"/>
+      <c r="AI10" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="205"/>
-      <c r="AK10" s="205"/>
-      <c r="AL10" s="205"/>
-      <c r="AM10" s="206"/>
-    </row>
-    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AJ10" s="218"/>
+      <c r="AK10" s="218"/>
+      <c r="AL10" s="218"/>
+      <c r="AM10" s="219"/>
+    </row>
+    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B11" s="74" t="s">
         <v>24</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -9049,7 +9049,7 @@
       <c r="AN12" s="26"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -9093,7 +9093,7 @@
       <c r="AN13" s="27"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -9137,7 +9137,7 @@
       <c r="AN14" s="27"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -9181,7 +9181,7 @@
       <c r="AN15" s="27"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="AN16" s="27"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="AN17" s="27"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -9313,7 +9313,7 @@
       <c r="AN18" s="27"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -9357,7 +9357,7 @@
       <c r="AN19" s="27"/>
       <c r="AO19" s="24"/>
     </row>
-    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -9401,7 +9401,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="24"/>
     </row>
-    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="24"/>
     </row>
-    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -9489,7 +9489,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="24"/>
     </row>
-    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -9533,7 +9533,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="24"/>
     </row>
-    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="AN24" s="27"/>
       <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -9621,7 +9621,7 @@
       <c r="AN25" s="27"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -9665,54 +9665,54 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="57"/>
     </row>
-    <row r="27" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:41" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="207"/>
+      <c r="J28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
-      <c r="O28" s="192" t="s">
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="207"/>
+      <c r="O28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="194"/>
-      <c r="T28" s="192" t="s">
+      <c r="P28" s="206"/>
+      <c r="Q28" s="206"/>
+      <c r="R28" s="207"/>
+      <c r="T28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="194"/>
-      <c r="Y28" s="192" t="s">
+      <c r="U28" s="206"/>
+      <c r="V28" s="206"/>
+      <c r="W28" s="207"/>
+      <c r="Y28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="194"/>
-      <c r="AD28" s="192" t="s">
+      <c r="Z28" s="206"/>
+      <c r="AA28" s="206"/>
+      <c r="AB28" s="207"/>
+      <c r="AD28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="193"/>
-      <c r="AF28" s="193"/>
-      <c r="AG28" s="194"/>
-      <c r="AI28" s="192" t="s">
+      <c r="AE28" s="206"/>
+      <c r="AF28" s="206"/>
+      <c r="AG28" s="207"/>
+      <c r="AI28" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="AJ28" s="193"/>
-      <c r="AK28" s="193"/>
-      <c r="AL28" s="194"/>
-    </row>
-    <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ28" s="206"/>
+      <c r="AK28" s="206"/>
+      <c r="AL28" s="207"/>
+    </row>
+    <row r="29" spans="2:41" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -9729,7 +9729,7 @@
       <c r="AI29" s="41"/>
       <c r="AL29" s="42"/>
     </row>
-    <row r="30" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:41" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -9746,7 +9746,7 @@
       <c r="AI30" s="41"/>
       <c r="AL30" s="42"/>
     </row>
-    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -9776,19 +9776,12 @@
       <c r="AK31" s="44"/>
       <c r="AL31" s="45"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:41">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9798,6 +9791,13 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9818,11 +9818,11 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -9873,145 +9873,145 @@
     <col min="51" max="51" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="219" t="s">
+    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:32" ht="15" customHeight="1">
+      <c r="B2" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-    </row>
-    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="199"/>
-      <c r="AF3" s="200"/>
-    </row>
-    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="202"/>
-      <c r="AB4" s="202"/>
-      <c r="AC4" s="202"/>
-      <c r="AD4" s="202"/>
-      <c r="AE4" s="202"/>
-      <c r="AF4" s="203"/>
-    </row>
-    <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+    </row>
+    <row r="3" spans="2:32" ht="15" customHeight="1">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="212"/>
+      <c r="AF3" s="213"/>
+    </row>
+    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="215"/>
+      <c r="AA4" s="215"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="215"/>
+      <c r="AF4" s="216"/>
+    </row>
+    <row r="6" spans="2:32" ht="25.75">
+      <c r="B6" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
-      <c r="AD6" s="191"/>
-      <c r="AE6" s="191"/>
-      <c r="AF6" s="191"/>
-    </row>
-    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="204"/>
+      <c r="X6" s="204"/>
+      <c r="Y6" s="204"/>
+      <c r="Z6" s="204"/>
+      <c r="AA6" s="204"/>
+      <c r="AB6" s="204"/>
+      <c r="AC6" s="204"/>
+      <c r="AD6" s="204"/>
+      <c r="AE6" s="204"/>
+      <c r="AF6" s="204"/>
+    </row>
+    <row r="7" spans="2:32" ht="15" thickBot="1"/>
+    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -10025,7 +10025,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:32" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -10041,40 +10041,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:32" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="173" t="s">
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="173" t="s">
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="188"/>
+      <c r="P10" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="173" t="s">
+      <c r="Q10" s="187"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="188"/>
+      <c r="U10" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="175"/>
-    </row>
-    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="188"/>
+    </row>
+    <row r="11" spans="2:32" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -10190,18 +10190,22 @@
       <c r="M12" s="138">
         <v>6</v>
       </c>
-      <c r="N12" s="139"/>
+      <c r="N12" s="139">
+        <v>6</v>
+      </c>
       <c r="O12" s="123">
         <f t="shared" ref="O12:O17" si="1">(AVERAGE(K12:M12)+N12)/2</f>
-        <v>4.05</v>
-      </c>
-      <c r="P12" s="120"/>
+        <v>7.05</v>
+      </c>
+      <c r="P12" s="120">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="Q12" s="134"/>
       <c r="R12" s="134"/>
       <c r="S12" s="136"/>
-      <c r="T12" s="123" t="e">
+      <c r="T12" s="123">
         <f>(AVERAGE(P12:R12)+S12)/2</f>
-        <v>#DIV/0!</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="U12" s="120"/>
       <c r="V12" s="134"/>
@@ -10217,7 +10221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -10274,7 +10278,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -10341,7 +10345,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -10408,7 +10412,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -10446,18 +10450,22 @@
       <c r="M16" s="165">
         <v>10</v>
       </c>
-      <c r="N16" s="166"/>
+      <c r="N16" s="166">
+        <v>10</v>
+      </c>
       <c r="O16" s="163">
         <f t="shared" si="1"/>
-        <v>4.8666666666666663</v>
-      </c>
-      <c r="P16" s="167"/>
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="P16" s="167">
+        <v>10</v>
+      </c>
       <c r="Q16" s="161"/>
       <c r="R16" s="161"/>
       <c r="S16" s="162"/>
-      <c r="T16" s="163" t="e">
+      <c r="T16" s="163">
         <f>(AVERAGE(P16:R16)+S16)/2</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="U16" s="167"/>
       <c r="V16" s="161"/>
@@ -10473,7 +10481,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -10524,7 +10532,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -10554,7 +10562,7 @@
       <c r="Z18" s="27"/>
       <c r="AA18" s="7"/>
     </row>
-    <row r="19" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -10584,7 +10592,7 @@
       <c r="Z19" s="27"/>
       <c r="AA19" s="7"/>
     </row>
-    <row r="20" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -10614,7 +10622,7 @@
       <c r="Z20" s="27"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -10644,7 +10652,7 @@
       <c r="Z21" s="27"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -10674,7 +10682,7 @@
       <c r="Z22" s="27"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -10704,7 +10712,7 @@
       <c r="Z23" s="27"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -10734,7 +10742,7 @@
       <c r="Z24" s="27"/>
       <c r="AA24" s="7"/>
     </row>
-    <row r="25" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -10764,7 +10772,7 @@
       <c r="Z25" s="27"/>
       <c r="AA25" s="7"/>
     </row>
-    <row r="26" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -10794,7 +10802,7 @@
       <c r="Z26" s="85"/>
       <c r="AA26" s="86"/>
     </row>
-    <row r="27" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -10824,43 +10832,43 @@
       <c r="Z27" s="28"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:29" ht="15" thickBot="1">
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:29" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="192" t="s">
+    <row r="29" spans="2:29" ht="18.899999999999999" thickBot="1">
+      <c r="E29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="194"/>
-      <c r="K29" s="192" t="s">
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="207"/>
+      <c r="K29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="193"/>
-      <c r="M29" s="193"/>
-      <c r="N29" s="194"/>
-      <c r="P29" s="192" t="s">
+      <c r="L29" s="206"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="207"/>
+      <c r="P29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="194"/>
-      <c r="U29" s="192" t="s">
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
+      <c r="S29" s="207"/>
+      <c r="U29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="193"/>
-      <c r="W29" s="193"/>
-      <c r="X29" s="194"/>
-      <c r="Z29" s="192" t="s">
+      <c r="V29" s="206"/>
+      <c r="W29" s="206"/>
+      <c r="X29" s="207"/>
+      <c r="Z29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="193"/>
-      <c r="AB29" s="193"/>
-      <c r="AC29" s="194"/>
-    </row>
-    <row r="30" spans="2:29" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA29" s="206"/>
+      <c r="AB29" s="206"/>
+      <c r="AC29" s="207"/>
+    </row>
+    <row r="30" spans="2:29" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="H30"/>
       <c r="I30" s="42"/>
@@ -10873,7 +10881,7 @@
       <c r="Z30" s="41"/>
       <c r="AC30" s="42"/>
     </row>
-    <row r="31" spans="2:29" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:29" ht="23.15" customHeight="1">
       <c r="E31" s="41"/>
       <c r="H31"/>
       <c r="I31" s="42"/>
@@ -10886,7 +10894,7 @@
       <c r="Z31" s="41"/>
       <c r="AC31" s="42"/>
     </row>
-    <row r="32" spans="2:29" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:29" ht="23.15" customHeight="1" thickBot="1">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -10909,7 +10917,7 @@
       <c r="AB32" s="44"/>
       <c r="AC32" s="45"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:8">
       <c r="H33"/>
     </row>
   </sheetData>
@@ -10966,7 +10974,7 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -11008,141 +11016,141 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:31" ht="15" customHeight="1">
+      <c r="B2" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="197"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="200"/>
-    </row>
-    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="202"/>
-      <c r="AB4" s="202"/>
-      <c r="AC4" s="202"/>
-      <c r="AD4" s="202"/>
-      <c r="AE4" s="203"/>
-    </row>
-    <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="210"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="213"/>
+    </row>
+    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="215"/>
+      <c r="AA4" s="215"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="216"/>
+    </row>
+    <row r="6" spans="2:31" ht="25.75">
+      <c r="B6" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
-      <c r="AD6" s="191"/>
-      <c r="AE6" s="191"/>
-    </row>
-    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="204"/>
+      <c r="X6" s="204"/>
+      <c r="Y6" s="204"/>
+      <c r="Z6" s="204"/>
+      <c r="AA6" s="204"/>
+      <c r="AB6" s="204"/>
+      <c r="AC6" s="204"/>
+      <c r="AD6" s="204"/>
+      <c r="AE6" s="204"/>
+    </row>
+    <row r="7" spans="2:31" ht="15" thickBot="1"/>
+    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -11155,7 +11163,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -11167,46 +11175,46 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:31" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="173" t="s">
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="173" t="s">
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="173" t="s">
+      <c r="P10" s="187"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="173" t="s">
+      <c r="U10" s="187"/>
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="188"/>
+      <c r="Y10" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="175"/>
-    </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="188"/>
+    </row>
+    <row r="11" spans="2:31" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -11294,7 +11302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -11374,7 +11382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -11454,7 +11462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -11534,7 +11542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -11614,7 +11622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -11670,7 +11678,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -11730,7 +11738,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -11810,7 +11818,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -11870,7 +11878,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -11904,7 +11912,7 @@
       <c r="AD20" s="27"/>
       <c r="AE20" s="24"/>
     </row>
-    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -11938,7 +11946,7 @@
       <c r="AD21" s="27"/>
       <c r="AE21" s="24"/>
     </row>
-    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -11972,7 +11980,7 @@
       <c r="AD22" s="27"/>
       <c r="AE22" s="24"/>
     </row>
-    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -12006,7 +12014,7 @@
       <c r="AD23" s="27"/>
       <c r="AE23" s="24"/>
     </row>
-    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -12040,7 +12048,7 @@
       <c r="AD24" s="27"/>
       <c r="AE24" s="24"/>
     </row>
-    <row r="25" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -12074,7 +12082,7 @@
       <c r="AD25" s="27"/>
       <c r="AE25" s="24"/>
     </row>
-    <row r="26" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -12108,7 +12116,7 @@
       <c r="AD26" s="85"/>
       <c r="AE26" s="93"/>
     </row>
-    <row r="27" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -12142,42 +12150,42 @@
       <c r="AD27" s="28"/>
       <c r="AE27" s="57"/>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" ht="15" thickBot="1">
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="192" t="s">
+    <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1">
+      <c r="E29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="194"/>
-      <c r="J29" s="192" t="s">
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="207"/>
+      <c r="J29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="193"/>
-      <c r="L29" s="193"/>
-      <c r="M29" s="194"/>
-      <c r="O29" s="192" t="s">
+      <c r="K29" s="206"/>
+      <c r="L29" s="206"/>
+      <c r="M29" s="207"/>
+      <c r="O29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="194"/>
-      <c r="T29" s="192" t="s">
+      <c r="P29" s="206"/>
+      <c r="Q29" s="206"/>
+      <c r="R29" s="207"/>
+      <c r="T29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="U29" s="193"/>
-      <c r="V29" s="193"/>
-      <c r="W29" s="194"/>
-      <c r="Y29" s="192" t="s">
+      <c r="U29" s="206"/>
+      <c r="V29" s="206"/>
+      <c r="W29" s="207"/>
+      <c r="Y29" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="Z29" s="193"/>
-      <c r="AA29" s="193"/>
-      <c r="AB29" s="194"/>
-    </row>
-    <row r="30" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z29" s="206"/>
+      <c r="AA29" s="206"/>
+      <c r="AB29" s="207"/>
+    </row>
+    <row r="30" spans="2:31" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -12190,7 +12198,7 @@
       <c r="Y30" s="41"/>
       <c r="AB30" s="42"/>
     </row>
-    <row r="31" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:31" ht="23.15" customHeight="1">
       <c r="E31" s="41"/>
       <c r="G31"/>
       <c r="H31" s="42"/>
@@ -12203,7 +12211,7 @@
       <c r="Y31" s="41"/>
       <c r="AB31" s="42"/>
     </row>
-    <row r="32" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:31" ht="23.15" customHeight="1" thickBot="1">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -12225,7 +12233,7 @@
       <c r="AA32" s="44"/>
       <c r="AB32" s="45"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:7">
       <c r="G33"/>
     </row>
   </sheetData>
@@ -12234,6 +12242,11 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="Y29:AB29"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -12241,11 +12254,6 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE17">

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F69D145-3093-411F-97FE-3CB9219CD87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78632264-1221-410B-8F2D-408906215A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,7 +636,7 @@
       <charset val="177"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,12 +664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1555,40 +1549,6 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1730,6 +1690,15 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3235,7 +3204,7 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.23046875" customWidth="1"/>
     <col min="2" max="2" width="2.69140625" bestFit="1" customWidth="1"/>
@@ -3270,126 +3239,126 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1">
-      <c r="B1" s="189" t="s">
+    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
-    </row>
-    <row r="2" spans="2:31" ht="15" customHeight="1">
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="190"/>
-      <c r="AB2" s="190"/>
-      <c r="AC2" s="190"/>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1">
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="190"/>
-      <c r="AE3" s="190"/>
-    </row>
-    <row r="5" spans="2:31">
-      <c r="D5" s="191" t="s">
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+    </row>
+    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="D5" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="191"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="191" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="191"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
-    </row>
-    <row r="6" spans="2:31">
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3401,28 +3370,28 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:31">
-      <c r="D7" s="191" t="s">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="D7" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="191" t="s">
+      <c r="E7" s="178"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-    </row>
-    <row r="8" spans="2:31" ht="15" thickBot="1">
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+    </row>
+    <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3434,46 +3403,46 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1">
+    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="186" t="s">
+      <c r="E9" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="186" t="s">
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="186" t="s">
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="186" t="s">
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="188"/>
-      <c r="Y9" s="186" t="s">
+      <c r="U9" s="174"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="188"/>
-    </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1">
+      <c r="Z9" s="174"/>
+      <c r="AA9" s="174"/>
+      <c r="AB9" s="174"/>
+      <c r="AC9" s="175"/>
+    </row>
+    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -3563,7 +3532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1">
+    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -3615,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" thickBot="1">
+    <row r="12" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -3667,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15" thickBot="1">
+    <row r="13" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16">
         <v>3</v>
       </c>
@@ -3719,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" thickBot="1">
+    <row r="14" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16">
         <v>4</v>
       </c>
@@ -3771,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="15" thickBot="1">
+    <row r="15" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="16">
         <v>5</v>
       </c>
@@ -3823,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15" thickBot="1">
+    <row r="16" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -3875,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15" thickBot="1">
+    <row r="17" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="16">
         <v>7</v>
       </c>
@@ -3927,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15" thickBot="1">
+    <row r="18" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="16">
         <v>8</v>
       </c>
@@ -3979,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15" thickBot="1">
+    <row r="19" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -4031,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15" thickBot="1">
+    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="16">
         <v>10</v>
       </c>
@@ -4083,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15" thickBot="1">
+    <row r="21" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="16">
         <v>11</v>
       </c>
@@ -4135,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15" thickBot="1">
+    <row r="22" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="16">
         <v>12</v>
       </c>
@@ -4187,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15" thickBot="1">
+    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="16">
         <v>13</v>
       </c>
@@ -4239,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15" thickBot="1">
+    <row r="24" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="16">
         <v>14</v>
       </c>
@@ -4291,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1">
+    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="16">
         <v>15</v>
       </c>
@@ -4343,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1">
+    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="16">
         <v>16</v>
       </c>
@@ -4395,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15" thickBot="1">
+    <row r="27" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="16">
         <v>17</v>
       </c>
@@ -4447,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1">
+    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="16">
         <v>18</v>
       </c>
@@ -4499,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="15" thickBot="1">
+    <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="16">
         <v>19</v>
       </c>
@@ -4551,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="15" thickBot="1">
+    <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="16">
         <v>20</v>
       </c>
@@ -4603,22 +4572,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.4">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:31">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G35"/>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G36"/>
     </row>
   </sheetData>
@@ -4658,11 +4627,11 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -4701,101 +4670,101 @@
     <col min="40" max="40" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1">
-      <c r="B2" s="208" t="s">
+    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="210"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="213"/>
-    </row>
-    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="216"/>
-    </row>
-    <row r="6" spans="2:21" ht="25.75">
-      <c r="B6" s="204" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="197"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="200"/>
+    </row>
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="203"/>
+    </row>
+    <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-    </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1"/>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1">
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+    </row>
+    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -4808,7 +4777,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1">
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -4820,32 +4789,32 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1">
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="186" t="s">
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="188"/>
-    </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1">
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="175"/>
+    </row>
+    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -4905,7 +4874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -4945,7 +4914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -4985,7 +4954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5025,47 +4994,47 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="173" t="s">
+      <c r="C15" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="174" t="s">
+      <c r="D15" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="175"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="178" t="e">
+      <c r="E15" s="151"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="130" t="e">
         <f>AVERAGE(E15:H15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="179"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="178" t="e">
+      <c r="J15" s="154"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="130" t="e">
         <f>AVERAGE(J15:M15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O15" s="175"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="182"/>
-      <c r="S15" s="183" t="e">
+      <c r="O15" s="151"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="222"/>
+      <c r="S15" s="129" t="e">
         <f>AVERAGE(O15:Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="184"/>
-      <c r="U15" s="185" t="e">
+      <c r="T15" s="223"/>
+      <c r="U15" s="224" t="e">
         <f>AVERAGE(I15,N15,S15,T15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5089,7 +5058,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5113,7 +5082,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5137,7 +5106,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5161,7 +5130,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -5185,7 +5154,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -5209,7 +5178,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -5233,7 +5202,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -5257,7 +5226,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -5281,7 +5250,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -5305,7 +5274,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -5329,30 +5298,30 @@
       <c r="T26" s="28"/>
       <c r="U26" s="57"/>
     </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1">
+    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="205" t="s">
+    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
-      <c r="O28" s="205" t="s">
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="O28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="207"/>
-    </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1">
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+    </row>
+    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -5361,7 +5330,7 @@
       <c r="O29" s="41"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1">
+    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -5370,7 +5339,7 @@
       <c r="O30" s="41"/>
       <c r="R30" s="42"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5384,7 +5353,7 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -5432,70 +5401,70 @@
       <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1"/>
-    <row r="2" spans="1:10">
-      <c r="A2" s="195" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="197"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="198"/>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="200"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
-      <c r="A4" s="201"/>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="203"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="184"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="188"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="190"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="25.75">
-      <c r="A6" s="204" t="s">
+    <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="A6" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1">
+    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="49"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
@@ -5507,26 +5476,26 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="49"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="186" t="s">
+      <c r="D10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="175"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5558,7 +5527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="61">
         <v>1</v>
       </c>
@@ -5572,7 +5541,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="62">
         <v>2</v>
       </c>
@@ -5586,7 +5555,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="62">
         <v>3</v>
       </c>
@@ -5600,7 +5569,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="62">
         <v>4</v>
       </c>
@@ -5614,7 +5583,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="62">
         <v>5</v>
       </c>
@@ -5628,7 +5597,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="62">
         <v>6</v>
       </c>
@@ -5642,7 +5611,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="62">
         <v>7</v>
       </c>
@@ -5656,7 +5625,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="18.45">
+    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="62">
         <v>8</v>
       </c>
@@ -5670,36 +5639,36 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="49"/>
-      <c r="D21" s="205" t="s">
+      <c r="D21" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="206"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="207"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="194"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="49"/>
       <c r="D22" s="41"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="49"/>
       <c r="D23" s="41"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="49"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="49"/>
     </row>
   </sheetData>
@@ -5732,7 +5701,7 @@
       <selection activeCell="B2" sqref="B2:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -5761,81 +5730,81 @@
     <col min="35" max="35" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1">
-      <c r="B2" s="208" t="s">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="210"/>
-    </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="213"/>
-    </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="216"/>
-    </row>
-    <row r="6" spans="2:16" ht="25.75">
-      <c r="B6" s="204" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="197"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="200"/>
+    </row>
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="203"/>
+    </row>
+    <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1"/>
-    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -5846,7 +5815,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1">
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5854,25 +5823,25 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1">
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="188"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1">
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5919,7 +5888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5938,7 +5907,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -5957,7 +5926,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5976,7 +5945,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5995,7 +5964,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6014,7 +5983,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6033,7 +6002,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6052,7 +6021,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6071,7 +6040,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6090,7 +6059,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6109,7 +6078,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6128,7 +6097,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6147,7 +6116,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6166,7 +6135,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6185,7 +6154,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6204,38 +6173,38 @@
       <c r="O26" s="28"/>
       <c r="P26" s="57"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1">
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="205" t="s">
+    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
-    </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1">
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
       <c r="J29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1">
+    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
       <c r="J30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -6245,7 +6214,7 @@
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6281,7 +6250,7 @@
       <selection activeCell="B2" sqref="B2:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6310,61 +6279,61 @@
     <col min="30" max="30" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="208" t="s">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="210"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="213"/>
-    </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="216"/>
-    </row>
-    <row r="6" spans="2:11" ht="25.75">
-      <c r="B6" s="204" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="197"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="200"/>
+    </row>
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="203"/>
+    </row>
+    <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1"/>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6375,24 +6344,24 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1">
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6424,7 +6393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6438,7 +6407,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6452,7 +6421,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6466,7 +6435,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6480,7 +6449,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6494,7 +6463,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6508,7 +6477,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6522,7 +6491,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6536,7 +6505,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6550,7 +6519,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6564,7 +6533,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6578,7 +6547,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6592,7 +6561,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6606,7 +6575,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6620,7 +6589,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6634,34 +6603,34 @@
       <c r="J26" s="28"/>
       <c r="K26" s="57"/>
     </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1">
+    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="205" t="s">
+    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1">
+    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6695,7 +6664,7 @@
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6724,121 +6693,121 @@
     <col min="45" max="45" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1">
-      <c r="B2" s="208" t="s">
+    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-    </row>
-    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="216"/>
-    </row>
-    <row r="6" spans="2:26" ht="25.75">
-      <c r="B6" s="204" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="197"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="200"/>
+    </row>
+    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="203"/>
+    </row>
+    <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" thickBot="1"/>
-    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1">
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
+      <c r="Z6" s="191"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6849,7 +6818,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1">
+    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6861,39 +6830,39 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:26" ht="15" thickBot="1">
+    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="186" t="s">
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="186" t="s">
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="188"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" thickBot="1">
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="175"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6970,7 +6939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6999,7 +6968,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7028,7 +6997,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7057,7 +7026,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7086,7 +7055,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7115,7 +7084,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="24"/>
     </row>
-    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -7144,7 +7113,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -7173,7 +7142,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -7202,7 +7171,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -7231,7 +7200,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -7260,7 +7229,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -7289,7 +7258,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -7318,7 +7287,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -7347,7 +7316,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -7376,7 +7345,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -7405,36 +7374,36 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="57"/>
     </row>
-    <row r="27" spans="2:26" ht="15" thickBot="1">
+    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="205" t="s">
+    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
-      <c r="O28" s="205" t="s">
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="O28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="207"/>
-      <c r="T28" s="205" t="s">
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="T28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="207"/>
-    </row>
-    <row r="29" spans="2:26" ht="23.15" customHeight="1">
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="194"/>
+    </row>
+    <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -7445,7 +7414,7 @@
       <c r="T29" s="41"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="2:26" ht="23.15" customHeight="1">
+    <row r="30" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -7456,7 +7425,7 @@
       <c r="T30" s="41"/>
       <c r="W30" s="42"/>
     </row>
-    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -7474,7 +7443,7 @@
       <c r="V31" s="44"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -7514,7 +7483,7 @@
       <selection activeCell="B2" sqref="B2:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="49" customWidth="1"/>
@@ -7543,171 +7512,171 @@
     <col min="55" max="55" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:36" ht="15" customHeight="1">
-      <c r="B2" s="208" t="s">
+    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="209"/>
-      <c r="AH2" s="209"/>
-      <c r="AI2" s="209"/>
-      <c r="AJ2" s="210"/>
-    </row>
-    <row r="3" spans="2:36" ht="15" customHeight="1">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="212"/>
-      <c r="AF3" s="212"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
-      <c r="AI3" s="212"/>
-      <c r="AJ3" s="213"/>
-    </row>
-    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="215"/>
-      <c r="AF4" s="215"/>
-      <c r="AG4" s="215"/>
-      <c r="AH4" s="215"/>
-      <c r="AI4" s="215"/>
-      <c r="AJ4" s="216"/>
-    </row>
-    <row r="7" spans="2:36" ht="28.3" thickBot="1">
-      <c r="B7" s="220" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="197"/>
+    </row>
+    <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="199"/>
+      <c r="AJ3" s="200"/>
+    </row>
+    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="202"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="202"/>
+      <c r="AG4" s="202"/>
+      <c r="AH4" s="202"/>
+      <c r="AI4" s="202"/>
+      <c r="AJ4" s="203"/>
+    </row>
+    <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B7" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="220"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="220"/>
-      <c r="P7" s="220"/>
-      <c r="Q7" s="220"/>
-      <c r="R7" s="220"/>
-      <c r="S7" s="220"/>
-      <c r="T7" s="220"/>
-      <c r="U7" s="220"/>
-      <c r="V7" s="220"/>
-      <c r="W7" s="220"/>
-      <c r="X7" s="220"/>
-      <c r="Y7" s="220"/>
-      <c r="Z7" s="220"/>
-      <c r="AA7" s="220"/>
-      <c r="AB7" s="220"/>
-      <c r="AC7" s="220"/>
-      <c r="AD7" s="220"/>
-      <c r="AE7" s="220"/>
-      <c r="AF7" s="220"/>
-      <c r="AG7" s="220"/>
-      <c r="AH7" s="220"/>
-      <c r="AI7" s="220"/>
-      <c r="AJ7" s="220"/>
-    </row>
-    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1">
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="207"/>
+      <c r="S7" s="207"/>
+      <c r="T7" s="207"/>
+      <c r="U7" s="207"/>
+      <c r="V7" s="207"/>
+      <c r="W7" s="207"/>
+      <c r="X7" s="207"/>
+      <c r="Y7" s="207"/>
+      <c r="Z7" s="207"/>
+      <c r="AA7" s="207"/>
+      <c r="AB7" s="207"/>
+      <c r="AC7" s="207"/>
+      <c r="AD7" s="207"/>
+      <c r="AE7" s="207"/>
+      <c r="AF7" s="207"/>
+      <c r="AG7" s="207"/>
+      <c r="AH7" s="207"/>
+      <c r="AI7" s="207"/>
+      <c r="AJ7" s="207"/>
+    </row>
+    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="222"/>
-    </row>
-    <row r="9" spans="2:36" ht="15" thickBot="1">
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="209"/>
+    </row>
+    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -7719,54 +7688,54 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="217" t="s">
+      <c r="E10" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="217" t="s">
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="217" t="s">
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="206"/>
+      <c r="O10" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="217" t="s">
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="206"/>
+      <c r="T10" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="218"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="218"/>
-      <c r="X10" s="219"/>
-      <c r="Y10" s="217" t="s">
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="206"/>
+      <c r="Y10" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="218"/>
-      <c r="AA10" s="218"/>
-      <c r="AB10" s="218"/>
-      <c r="AC10" s="219"/>
-      <c r="AD10" s="217" t="s">
+      <c r="Z10" s="205"/>
+      <c r="AA10" s="205"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="206"/>
+      <c r="AD10" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="218"/>
-      <c r="AF10" s="218"/>
-      <c r="AG10" s="218"/>
-      <c r="AH10" s="219"/>
-    </row>
-    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="205"/>
+      <c r="AH10" s="206"/>
+    </row>
+    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -7873,7 +7842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7912,7 +7881,7 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7951,7 +7920,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7990,7 +7959,7 @@
       <c r="AI14" s="27"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -8029,7 +7998,7 @@
       <c r="AI15" s="27"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -8068,7 +8037,7 @@
       <c r="AI16" s="27"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -8107,7 +8076,7 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -8146,7 +8115,7 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -8185,7 +8154,7 @@
       <c r="AI19" s="27"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -8224,7 +8193,7 @@
       <c r="AI20" s="27"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -8263,7 +8232,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -8302,7 +8271,7 @@
       <c r="AI22" s="27"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -8341,7 +8310,7 @@
       <c r="AI23" s="27"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -8380,7 +8349,7 @@
       <c r="AI24" s="27"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -8419,7 +8388,7 @@
       <c r="AI25" s="27"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -8458,48 +8427,48 @@
       <c r="AI26" s="28"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" spans="2:36" ht="15" thickBot="1">
+    <row r="27" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="205" t="s">
+    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
-      <c r="O28" s="205" t="s">
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="O28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="207"/>
-      <c r="T28" s="205" t="s">
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="T28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="207"/>
-      <c r="Y28" s="205" t="s">
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="194"/>
+      <c r="Y28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="206"/>
-      <c r="AB28" s="207"/>
-      <c r="AD28" s="205" t="s">
+      <c r="Z28" s="193"/>
+      <c r="AA28" s="193"/>
+      <c r="AB28" s="194"/>
+      <c r="AD28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="206"/>
-      <c r="AF28" s="206"/>
-      <c r="AG28" s="207"/>
-    </row>
-    <row r="29" spans="2:36" ht="23.15" customHeight="1">
+      <c r="AE28" s="193"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="194"/>
+    </row>
+    <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -8514,7 +8483,7 @@
       <c r="AD29" s="41"/>
       <c r="AG29" s="42"/>
     </row>
-    <row r="30" spans="2:36" ht="23.15" customHeight="1">
+    <row r="30" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -8529,7 +8498,7 @@
       <c r="AD30" s="41"/>
       <c r="AG30" s="42"/>
     </row>
-    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -8555,7 +8524,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="45"/>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -8600,7 +8569,7 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4.23046875" style="49" customWidth="1"/>
@@ -8630,183 +8599,183 @@
     <col min="60" max="60" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1">
-      <c r="B2" s="223" t="s">
+    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="224"/>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="224"/>
-      <c r="AJ2" s="224"/>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="224"/>
-      <c r="AM2" s="224"/>
-      <c r="AN2" s="224"/>
-      <c r="AO2" s="225"/>
-    </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1">
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="227"/>
-      <c r="W3" s="227"/>
-      <c r="X3" s="227"/>
-      <c r="Y3" s="227"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="227"/>
-      <c r="AB3" s="227"/>
-      <c r="AC3" s="227"/>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="227"/>
-      <c r="AG3" s="227"/>
-      <c r="AH3" s="227"/>
-      <c r="AI3" s="227"/>
-      <c r="AJ3" s="227"/>
-      <c r="AK3" s="227"/>
-      <c r="AL3" s="227"/>
-      <c r="AM3" s="227"/>
-      <c r="AN3" s="227"/>
-      <c r="AO3" s="228"/>
-    </row>
-    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B4" s="229"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
-      <c r="O4" s="230"/>
-      <c r="P4" s="230"/>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="230"/>
-      <c r="S4" s="230"/>
-      <c r="T4" s="230"/>
-      <c r="U4" s="230"/>
-      <c r="V4" s="230"/>
-      <c r="W4" s="230"/>
-      <c r="X4" s="230"/>
-      <c r="Y4" s="230"/>
-      <c r="Z4" s="230"/>
-      <c r="AA4" s="230"/>
-      <c r="AB4" s="230"/>
-      <c r="AC4" s="230"/>
-      <c r="AD4" s="230"/>
-      <c r="AE4" s="230"/>
-      <c r="AF4" s="230"/>
-      <c r="AG4" s="230"/>
-      <c r="AH4" s="230"/>
-      <c r="AI4" s="230"/>
-      <c r="AJ4" s="230"/>
-      <c r="AK4" s="230"/>
-      <c r="AL4" s="230"/>
-      <c r="AM4" s="230"/>
-      <c r="AN4" s="230"/>
-      <c r="AO4" s="231"/>
-    </row>
-    <row r="6" spans="2:41" ht="30.9">
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="211"/>
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="211"/>
+      <c r="AG2" s="211"/>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="211"/>
+      <c r="AJ2" s="211"/>
+      <c r="AK2" s="211"/>
+      <c r="AL2" s="211"/>
+      <c r="AM2" s="211"/>
+      <c r="AN2" s="211"/>
+      <c r="AO2" s="212"/>
+    </row>
+    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="214"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="214"/>
+      <c r="AG3" s="214"/>
+      <c r="AH3" s="214"/>
+      <c r="AI3" s="214"/>
+      <c r="AJ3" s="214"/>
+      <c r="AK3" s="214"/>
+      <c r="AL3" s="214"/>
+      <c r="AM3" s="214"/>
+      <c r="AN3" s="214"/>
+      <c r="AO3" s="215"/>
+    </row>
+    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AD4" s="217"/>
+      <c r="AE4" s="217"/>
+      <c r="AF4" s="217"/>
+      <c r="AG4" s="217"/>
+      <c r="AH4" s="217"/>
+      <c r="AI4" s="217"/>
+      <c r="AJ4" s="217"/>
+      <c r="AK4" s="217"/>
+      <c r="AL4" s="217"/>
+      <c r="AM4" s="217"/>
+      <c r="AN4" s="217"/>
+      <c r="AO4" s="218"/>
+    </row>
+    <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="220"/>
-      <c r="S6" s="220"/>
-      <c r="T6" s="220"/>
-      <c r="U6" s="220"/>
-      <c r="V6" s="220"/>
-      <c r="W6" s="220"/>
-      <c r="X6" s="220"/>
-      <c r="Y6" s="220"/>
-      <c r="Z6" s="220"/>
-      <c r="AA6" s="220"/>
-      <c r="AB6" s="220"/>
-      <c r="AC6" s="220"/>
-      <c r="AD6" s="220"/>
-      <c r="AE6" s="220"/>
-      <c r="AF6" s="220"/>
-      <c r="AG6" s="220"/>
-      <c r="AH6" s="220"/>
-      <c r="AI6" s="220"/>
-      <c r="AJ6" s="220"/>
-      <c r="AK6" s="220"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="207"/>
+      <c r="V6" s="207"/>
+      <c r="W6" s="207"/>
+      <c r="X6" s="207"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="207"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="207"/>
+      <c r="AD6" s="207"/>
+      <c r="AE6" s="207"/>
+      <c r="AF6" s="207"/>
+      <c r="AG6" s="207"/>
+      <c r="AH6" s="207"/>
+      <c r="AI6" s="207"/>
+      <c r="AJ6" s="207"/>
+      <c r="AK6" s="207"/>
       <c r="AL6" s="81"/>
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
     </row>
-    <row r="7" spans="2:41" ht="15" thickBot="1"/>
-    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -8817,7 +8786,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:41" ht="15" thickBot="1">
+    <row r="9" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -8829,61 +8798,61 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="217" t="s">
+      <c r="E10" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="217" t="s">
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="217" t="s">
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="206"/>
+      <c r="O10" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="217" t="s">
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="206"/>
+      <c r="T10" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="218"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="218"/>
-      <c r="X10" s="219"/>
-      <c r="Y10" s="217" t="s">
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="206"/>
+      <c r="Y10" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="218"/>
-      <c r="AA10" s="218"/>
-      <c r="AB10" s="218"/>
-      <c r="AC10" s="219"/>
-      <c r="AD10" s="217" t="s">
+      <c r="Z10" s="205"/>
+      <c r="AA10" s="205"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="206"/>
+      <c r="AD10" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="218"/>
-      <c r="AF10" s="218"/>
-      <c r="AG10" s="218"/>
-      <c r="AH10" s="219"/>
-      <c r="AI10" s="217" t="s">
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="205"/>
+      <c r="AH10" s="206"/>
+      <c r="AI10" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="218"/>
-      <c r="AK10" s="218"/>
-      <c r="AL10" s="218"/>
-      <c r="AM10" s="219"/>
-    </row>
-    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="AJ10" s="205"/>
+      <c r="AK10" s="205"/>
+      <c r="AL10" s="205"/>
+      <c r="AM10" s="206"/>
+    </row>
+    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="74" t="s">
         <v>24</v>
       </c>
@@ -9005,7 +8974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -9049,7 +9018,7 @@
       <c r="AN12" s="26"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -9093,7 +9062,7 @@
       <c r="AN13" s="27"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -9137,7 +9106,7 @@
       <c r="AN14" s="27"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -9181,7 +9150,7 @@
       <c r="AN15" s="27"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -9225,7 +9194,7 @@
       <c r="AN16" s="27"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -9269,7 +9238,7 @@
       <c r="AN17" s="27"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -9313,7 +9282,7 @@
       <c r="AN18" s="27"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -9357,7 +9326,7 @@
       <c r="AN19" s="27"/>
       <c r="AO19" s="24"/>
     </row>
-    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -9401,7 +9370,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="24"/>
     </row>
-    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -9445,7 +9414,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="24"/>
     </row>
-    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -9489,7 +9458,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="24"/>
     </row>
-    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -9533,7 +9502,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="24"/>
     </row>
-    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -9577,7 +9546,7 @@
       <c r="AN24" s="27"/>
       <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -9621,7 +9590,7 @@
       <c r="AN25" s="27"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -9665,54 +9634,54 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="57"/>
     </row>
-    <row r="27" spans="2:41" ht="15" thickBot="1">
+    <row r="27" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="205" t="s">
+    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="207"/>
-      <c r="J28" s="205" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="J28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="207"/>
-      <c r="O28" s="205" t="s">
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="O28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="206"/>
-      <c r="Q28" s="206"/>
-      <c r="R28" s="207"/>
-      <c r="T28" s="205" t="s">
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="T28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="207"/>
-      <c r="Y28" s="205" t="s">
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="194"/>
+      <c r="Y28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="206"/>
-      <c r="AB28" s="207"/>
-      <c r="AD28" s="205" t="s">
+      <c r="Z28" s="193"/>
+      <c r="AA28" s="193"/>
+      <c r="AB28" s="194"/>
+      <c r="AD28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="206"/>
-      <c r="AF28" s="206"/>
-      <c r="AG28" s="207"/>
-      <c r="AI28" s="205" t="s">
+      <c r="AE28" s="193"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="194"/>
+      <c r="AI28" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AJ28" s="206"/>
-      <c r="AK28" s="206"/>
-      <c r="AL28" s="207"/>
-    </row>
-    <row r="29" spans="2:41" ht="23.15" customHeight="1">
+      <c r="AJ28" s="193"/>
+      <c r="AK28" s="193"/>
+      <c r="AL28" s="194"/>
+    </row>
+    <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -9729,7 +9698,7 @@
       <c r="AI29" s="41"/>
       <c r="AL29" s="42"/>
     </row>
-    <row r="30" spans="2:41" ht="23.15" customHeight="1">
+    <row r="30" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -9746,7 +9715,7 @@
       <c r="AI30" s="41"/>
       <c r="AL30" s="42"/>
     </row>
-    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -9776,7 +9745,7 @@
       <c r="AK31" s="44"/>
       <c r="AL31" s="45"/>
     </row>
-    <row r="32" spans="2:41">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -9818,11 +9787,11 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="A6" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -9873,145 +9842,145 @@
     <col min="51" max="51" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:32" ht="15" customHeight="1">
-      <c r="B2" s="232" t="s">
+    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="210"/>
-    </row>
-    <row r="3" spans="2:32" ht="15" customHeight="1">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="212"/>
-      <c r="AF3" s="213"/>
-    </row>
-    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="215"/>
-      <c r="AF4" s="216"/>
-    </row>
-    <row r="6" spans="2:32" ht="25.75">
-      <c r="B6" s="204" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+    </row>
+    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="200"/>
+    </row>
+    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="202"/>
+      <c r="AE4" s="202"/>
+      <c r="AF4" s="203"/>
+    </row>
+    <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
-      <c r="AA6" s="204"/>
-      <c r="AB6" s="204"/>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
-      <c r="AF6" s="204"/>
-    </row>
-    <row r="7" spans="2:32" ht="15" thickBot="1"/>
-    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1">
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
+      <c r="Z6" s="191"/>
+      <c r="AA6" s="191"/>
+      <c r="AB6" s="191"/>
+      <c r="AC6" s="191"/>
+      <c r="AD6" s="191"/>
+      <c r="AE6" s="191"/>
+      <c r="AF6" s="191"/>
+    </row>
+    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -10025,7 +9994,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:32" ht="15" thickBot="1">
+    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -10041,40 +10010,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1">
+    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="186" t="s">
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="187"/>
-      <c r="T10" s="188"/>
-      <c r="U10" s="186" t="s">
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="188"/>
-    </row>
-    <row r="11" spans="2:32" ht="15" thickBot="1">
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="175"/>
+    </row>
+    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10152,7 +10121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -10221,7 +10190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -10278,7 +10247,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -10345,7 +10314,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -10412,7 +10381,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -10481,7 +10450,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -10532,7 +10501,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -10562,7 +10531,7 @@
       <c r="Z18" s="27"/>
       <c r="AA18" s="7"/>
     </row>
-    <row r="19" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -10592,7 +10561,7 @@
       <c r="Z19" s="27"/>
       <c r="AA19" s="7"/>
     </row>
-    <row r="20" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -10622,7 +10591,7 @@
       <c r="Z20" s="27"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -10652,7 +10621,7 @@
       <c r="Z21" s="27"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -10682,7 +10651,7 @@
       <c r="Z22" s="27"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -10712,7 +10681,7 @@
       <c r="Z23" s="27"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -10742,7 +10711,7 @@
       <c r="Z24" s="27"/>
       <c r="AA24" s="7"/>
     </row>
-    <row r="25" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -10772,7 +10741,7 @@
       <c r="Z25" s="27"/>
       <c r="AA25" s="7"/>
     </row>
-    <row r="26" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -10802,7 +10771,7 @@
       <c r="Z26" s="85"/>
       <c r="AA26" s="86"/>
     </row>
-    <row r="27" spans="2:29" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -10832,43 +10801,43 @@
       <c r="Z27" s="28"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" spans="2:29" ht="15" thickBot="1">
+    <row r="28" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:29" ht="18.899999999999999" thickBot="1">
-      <c r="E29" s="205" t="s">
+    <row r="29" spans="2:29" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="207"/>
-      <c r="K29" s="205" t="s">
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="194"/>
+      <c r="K29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="206"/>
-      <c r="M29" s="206"/>
-      <c r="N29" s="207"/>
-      <c r="P29" s="205" t="s">
+      <c r="L29" s="193"/>
+      <c r="M29" s="193"/>
+      <c r="N29" s="194"/>
+      <c r="P29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="206"/>
-      <c r="S29" s="207"/>
-      <c r="U29" s="205" t="s">
+      <c r="Q29" s="193"/>
+      <c r="R29" s="193"/>
+      <c r="S29" s="194"/>
+      <c r="U29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="206"/>
-      <c r="W29" s="206"/>
-      <c r="X29" s="207"/>
-      <c r="Z29" s="205" t="s">
+      <c r="V29" s="193"/>
+      <c r="W29" s="193"/>
+      <c r="X29" s="194"/>
+      <c r="Z29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="206"/>
-      <c r="AB29" s="206"/>
-      <c r="AC29" s="207"/>
-    </row>
-    <row r="30" spans="2:29" ht="23.15" customHeight="1">
+      <c r="AA29" s="193"/>
+      <c r="AB29" s="193"/>
+      <c r="AC29" s="194"/>
+    </row>
+    <row r="30" spans="2:29" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="H30"/>
       <c r="I30" s="42"/>
@@ -10881,7 +10850,7 @@
       <c r="Z30" s="41"/>
       <c r="AC30" s="42"/>
     </row>
-    <row r="31" spans="2:29" ht="23.15" customHeight="1">
+    <row r="31" spans="2:29" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" s="41"/>
       <c r="H31"/>
       <c r="I31" s="42"/>
@@ -10894,7 +10863,7 @@
       <c r="Z31" s="41"/>
       <c r="AC31" s="42"/>
     </row>
-    <row r="32" spans="2:29" ht="23.15" customHeight="1" thickBot="1">
+    <row r="32" spans="2:29" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -10917,7 +10886,7 @@
       <c r="AB32" s="44"/>
       <c r="AC32" s="45"/>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H33"/>
     </row>
   </sheetData>
@@ -10970,11 +10939,11 @@
   </sheetPr>
   <dimension ref="B1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView topLeftCell="D1" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -10990,7 +10959,7 @@
     <col min="15" max="18" width="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.4609375" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.4609375" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5.61328125" customWidth="1"/>
@@ -11016,141 +10985,141 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:31" ht="15" customHeight="1">
-      <c r="B2" s="208" t="s">
+    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="210"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="213"/>
-    </row>
-    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="216"/>
-    </row>
-    <row r="6" spans="2:31" ht="25.75">
-      <c r="B6" s="204" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="197"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="200"/>
+    </row>
+    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
+      <c r="Z4" s="202"/>
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="202"/>
+      <c r="AE4" s="203"/>
+    </row>
+    <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="204"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
-      <c r="V6" s="204"/>
-      <c r="W6" s="204"/>
-      <c r="X6" s="204"/>
-      <c r="Y6" s="204"/>
-      <c r="Z6" s="204"/>
-      <c r="AA6" s="204"/>
-      <c r="AB6" s="204"/>
-      <c r="AC6" s="204"/>
-      <c r="AD6" s="204"/>
-      <c r="AE6" s="204"/>
-    </row>
-    <row r="7" spans="2:31" ht="15" thickBot="1"/>
-    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1">
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
+      <c r="Z6" s="191"/>
+      <c r="AA6" s="191"/>
+      <c r="AB6" s="191"/>
+      <c r="AC6" s="191"/>
+      <c r="AD6" s="191"/>
+      <c r="AE6" s="191"/>
+    </row>
+    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -11163,7 +11132,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1">
+    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -11175,46 +11144,46 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1">
+    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="186" t="s">
+      <c r="E10" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="186" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="186" t="s">
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="186" t="s">
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="188"/>
-      <c r="Y10" s="186" t="s">
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="188"/>
-    </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1">
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="175"/>
+    </row>
+    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -11302,7 +11271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -11354,19 +11323,23 @@
         <v>10</v>
       </c>
       <c r="R12" s="108">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S12" s="118">
         <f>(AVERAGE(O12:Q12)+R12)/2</f>
-        <v>7</v>
-      </c>
-      <c r="T12" s="106"/>
+        <v>9</v>
+      </c>
+      <c r="T12" s="106">
+        <v>6</v>
+      </c>
       <c r="U12" s="107"/>
       <c r="V12" s="107"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="118" t="e">
+      <c r="W12" s="108">
+        <v>10</v>
+      </c>
+      <c r="X12" s="118">
         <f>(AVERAGE(T12:V12)+W12)/2</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
       <c r="Y12" s="106"/>
       <c r="Z12" s="107"/>
@@ -11382,7 +11355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -11434,19 +11407,23 @@
         <v>10</v>
       </c>
       <c r="R13" s="114">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S13" s="118">
         <f t="shared" ref="S13" si="2">(AVERAGE(O13:Q13)+R13)/2</f>
-        <v>7</v>
-      </c>
-      <c r="T13" s="112"/>
+        <v>9</v>
+      </c>
+      <c r="T13" s="112">
+        <v>8</v>
+      </c>
       <c r="U13" s="113"/>
       <c r="V13" s="113"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="118" t="e">
+      <c r="W13" s="131">
+        <v>10</v>
+      </c>
+      <c r="X13" s="118">
         <f t="shared" ref="X13" si="3">(AVERAGE(T13:V13)+W13)/2</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Y13" s="112"/>
       <c r="Z13" s="113"/>
@@ -11462,7 +11439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -11514,19 +11491,21 @@
         <v>8.9</v>
       </c>
       <c r="R14" s="153">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S14" s="118">
         <f t="shared" ref="S14:S19" si="7">(AVERAGE(O14:Q14)+R14)/2</f>
-        <v>6.2</v>
-      </c>
-      <c r="T14" s="151"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T14" s="151">
+        <v>8</v>
+      </c>
       <c r="U14" s="152"/>
       <c r="V14" s="152"/>
       <c r="W14" s="153"/>
-      <c r="X14" s="118" t="e">
+      <c r="X14" s="118">
         <f>(AVERAGE(T14:V14)+W14)/2</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="151"/>
       <c r="Z14" s="152"/>
@@ -11542,7 +11521,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -11594,11 +11573,11 @@
         <v>10</v>
       </c>
       <c r="R15" s="114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S15" s="118">
         <f t="shared" si="7"/>
-        <v>6.083333333333333</v>
+        <v>8.0833333333333321</v>
       </c>
       <c r="T15" s="112"/>
       <c r="U15" s="113"/>
@@ -11622,7 +11601,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -11678,7 +11657,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -11738,7 +11717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -11790,19 +11769,21 @@
         <v>9</v>
       </c>
       <c r="R18" s="133">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S18" s="123">
         <f t="shared" si="7"/>
-        <v>6.2</v>
-      </c>
-      <c r="T18" s="27"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T18" s="121">
+        <v>8</v>
+      </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="31"/>
-      <c r="X18" s="123" t="e">
+      <c r="X18" s="123">
         <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="27"/>
       <c r="Z18" s="7"/>
@@ -11818,7 +11799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -11860,9 +11841,9 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="31"/>
-      <c r="X19" s="123" t="e">
+      <c r="X19" s="123">
         <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="27"/>
       <c r="Z19" s="7"/>
@@ -11878,7 +11859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -11912,7 +11893,7 @@
       <c r="AD20" s="27"/>
       <c r="AE20" s="24"/>
     </row>
-    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -11946,7 +11927,7 @@
       <c r="AD21" s="27"/>
       <c r="AE21" s="24"/>
     </row>
-    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -11980,7 +11961,7 @@
       <c r="AD22" s="27"/>
       <c r="AE22" s="24"/>
     </row>
-    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -12014,7 +11995,7 @@
       <c r="AD23" s="27"/>
       <c r="AE23" s="24"/>
     </row>
-    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -12048,7 +12029,7 @@
       <c r="AD24" s="27"/>
       <c r="AE24" s="24"/>
     </row>
-    <row r="25" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -12082,7 +12063,7 @@
       <c r="AD25" s="27"/>
       <c r="AE25" s="24"/>
     </row>
-    <row r="26" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -12116,7 +12097,7 @@
       <c r="AD26" s="85"/>
       <c r="AE26" s="93"/>
     </row>
-    <row r="27" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -12150,42 +12131,42 @@
       <c r="AD27" s="28"/>
       <c r="AE27" s="57"/>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1">
+    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1">
-      <c r="E29" s="205" t="s">
+    <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="207"/>
-      <c r="J29" s="205" t="s">
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="194"/>
+      <c r="J29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="206"/>
-      <c r="L29" s="206"/>
-      <c r="M29" s="207"/>
-      <c r="O29" s="205" t="s">
+      <c r="K29" s="193"/>
+      <c r="L29" s="193"/>
+      <c r="M29" s="194"/>
+      <c r="O29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="206"/>
-      <c r="Q29" s="206"/>
-      <c r="R29" s="207"/>
-      <c r="T29" s="205" t="s">
+      <c r="P29" s="193"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="194"/>
+      <c r="T29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="U29" s="206"/>
-      <c r="V29" s="206"/>
-      <c r="W29" s="207"/>
-      <c r="Y29" s="205" t="s">
+      <c r="U29" s="193"/>
+      <c r="V29" s="193"/>
+      <c r="W29" s="194"/>
+      <c r="Y29" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="Z29" s="206"/>
-      <c r="AA29" s="206"/>
-      <c r="AB29" s="207"/>
-    </row>
-    <row r="30" spans="2:31" ht="23.15" customHeight="1">
+      <c r="Z29" s="193"/>
+      <c r="AA29" s="193"/>
+      <c r="AB29" s="194"/>
+    </row>
+    <row r="30" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -12198,7 +12179,7 @@
       <c r="Y30" s="41"/>
       <c r="AB30" s="42"/>
     </row>
-    <row r="31" spans="2:31" ht="23.15" customHeight="1">
+    <row r="31" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" s="41"/>
       <c r="G31"/>
       <c r="H31" s="42"/>
@@ -12211,7 +12192,7 @@
       <c r="Y31" s="41"/>
       <c r="AB31" s="42"/>
     </row>
-    <row r="32" spans="2:31" ht="23.15" customHeight="1" thickBot="1">
+    <row r="32" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -12233,7 +12214,7 @@
       <c r="AA32" s="44"/>
       <c r="AB32" s="45"/>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G33"/>
     </row>
   </sheetData>

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78632264-1221-410B-8F2D-408906215A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D7546-2C6B-4704-96D6-858D21BB3E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1549,147 +1549,6 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1699,6 +1558,147 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="35" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3240,123 +3240,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="182"/>
+      <c r="AB1" s="182"/>
+      <c r="AC1" s="182"/>
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
     </row>
     <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="182"/>
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="182"/>
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D5" s="178" t="s">
+      <c r="D5" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="178"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="178" t="s">
+      <c r="E5" s="183"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="186"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.4">
       <c r="F6" s="1"/>
@@ -3371,25 +3371,25 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="178" t="s">
+      <c r="E7" s="183"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
     </row>
     <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
@@ -3406,41 +3406,41 @@
     <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="173" t="s">
+      <c r="E9" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="173" t="s">
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="174"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="173" t="s">
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="173" t="s">
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="180"/>
+      <c r="T9" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="174"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="175"/>
-      <c r="Y9" s="173" t="s">
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="180"/>
+      <c r="Y9" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="174"/>
-      <c r="AB9" s="174"/>
-      <c r="AC9" s="175"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="180"/>
     </row>
     <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
@@ -4628,7 +4628,7 @@
   <dimension ref="B1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4637,8 +4637,7 @@
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="33.23046875" customWidth="1"/>
-    <col min="5" max="5" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.69140625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.69140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7.07421875" bestFit="1" customWidth="1"/>
@@ -4672,96 +4671,96 @@
   <sheetData>
     <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="202"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="200"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="205"/>
     </row>
     <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="203"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="208"/>
     </row>
     <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
     </row>
     <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4792,27 +4791,27 @@
     <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="173" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="173" t="s">
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="175"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="180"/>
     </row>
     <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -4884,13 +4883,15 @@
       <c r="D12" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="106">
+        <v>10</v>
+      </c>
       <c r="F12" s="107"/>
       <c r="G12" s="107"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="130" t="e">
+      <c r="I12" s="130">
         <f>AVERAGE(E12:H12)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="J12" s="109"/>
       <c r="K12" s="110"/>
@@ -4924,13 +4925,15 @@
       <c r="D13" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="112">
+        <v>10</v>
+      </c>
       <c r="F13" s="113"/>
       <c r="G13" s="113"/>
       <c r="H13" s="114"/>
-      <c r="I13" s="130" t="e">
+      <c r="I13" s="130">
         <f>AVERAGE(E13:H13)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="J13" s="115"/>
       <c r="K13" s="116"/>
@@ -4964,13 +4967,15 @@
       <c r="D14" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="112"/>
+      <c r="E14" s="112">
+        <v>10</v>
+      </c>
       <c r="F14" s="113"/>
       <c r="G14" s="113"/>
       <c r="H14" s="114"/>
-      <c r="I14" s="130" t="e">
+      <c r="I14" s="130">
         <f>AVERAGE(E14:H14)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="J14" s="115"/>
       <c r="K14" s="116"/>
@@ -4998,19 +5003,21 @@
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="221" t="s">
+      <c r="D15" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="151"/>
+      <c r="E15" s="151">
+        <v>10</v>
+      </c>
       <c r="F15" s="152"/>
       <c r="G15" s="152"/>
       <c r="H15" s="153"/>
-      <c r="I15" s="130" t="e">
+      <c r="I15" s="130">
         <f>AVERAGE(E15:H15)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="J15" s="154"/>
       <c r="K15" s="155"/>
@@ -5023,13 +5030,13 @@
       <c r="O15" s="151"/>
       <c r="P15" s="152"/>
       <c r="Q15" s="152"/>
-      <c r="R15" s="222"/>
+      <c r="R15" s="175"/>
       <c r="S15" s="129" t="e">
         <f>AVERAGE(O15:Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="223"/>
-      <c r="U15" s="224" t="e">
+      <c r="T15" s="176"/>
+      <c r="U15" s="177" t="e">
         <f>AVERAGE(I15,N15,S15,T15)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5302,24 +5309,24 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
-      <c r="O28" s="192" t="s">
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+      <c r="O28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="194"/>
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="199"/>
     </row>
     <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -5405,60 +5412,60 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="184"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="189"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="185"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="187"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="192"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="188"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="190"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="195"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
@@ -5487,13 +5494,13 @@
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="175"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="180"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
@@ -5644,12 +5651,12 @@
     </row>
     <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="49"/>
-      <c r="D21" s="192" t="s">
+      <c r="D21" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="194"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="199"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="49"/>
@@ -5732,76 +5739,76 @@
   <sheetData>
     <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="200"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="203"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="208"/>
     </row>
     <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5826,20 +5833,20 @@
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="173" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -6177,18 +6184,18 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -6281,56 +6288,56 @@
   <sheetData>
     <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="202"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="200"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="205"/>
     </row>
     <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="208"/>
     </row>
     <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6353,13 +6360,13 @@
     <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
     </row>
     <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -6607,12 +6614,12 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
     </row>
     <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -6695,116 +6702,116 @@
   <sheetData>
     <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="205"/>
     </row>
     <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="203"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="208"/>
     </row>
     <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
     </row>
     <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -6833,34 +6840,34 @@
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="173" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="173" t="s">
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="173" t="s">
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="180"/>
+      <c r="T10" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="175"/>
+      <c r="U10" s="179"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="180"/>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -7378,30 +7385,30 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
-      <c r="O28" s="192" t="s">
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+      <c r="O28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="194"/>
-      <c r="T28" s="192" t="s">
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="199"/>
+      <c r="T28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="194"/>
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="199"/>
     </row>
     <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -7449,16 +7456,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B2:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T28:W28"/>
-    <mergeCell ref="B2:Z4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7514,167 +7521,167 @@
   <sheetData>
     <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="196"/>
-      <c r="AJ2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="202"/>
     </row>
     <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="199"/>
-      <c r="AF3" s="199"/>
-      <c r="AG3" s="199"/>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="199"/>
-      <c r="AJ3" s="200"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="204"/>
+      <c r="AF3" s="204"/>
+      <c r="AG3" s="204"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="204"/>
+      <c r="AJ3" s="205"/>
     </row>
     <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="202"/>
-      <c r="AB4" s="202"/>
-      <c r="AC4" s="202"/>
-      <c r="AD4" s="202"/>
-      <c r="AE4" s="202"/>
-      <c r="AF4" s="202"/>
-      <c r="AG4" s="202"/>
-      <c r="AH4" s="202"/>
-      <c r="AI4" s="202"/>
-      <c r="AJ4" s="203"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="207"/>
+      <c r="AJ4" s="208"/>
     </row>
     <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="207"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="207"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="207"/>
-      <c r="M7" s="207"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="207"/>
-      <c r="S7" s="207"/>
-      <c r="T7" s="207"/>
-      <c r="U7" s="207"/>
-      <c r="V7" s="207"/>
-      <c r="W7" s="207"/>
-      <c r="X7" s="207"/>
-      <c r="Y7" s="207"/>
-      <c r="Z7" s="207"/>
-      <c r="AA7" s="207"/>
-      <c r="AB7" s="207"/>
-      <c r="AC7" s="207"/>
-      <c r="AD7" s="207"/>
-      <c r="AE7" s="207"/>
-      <c r="AF7" s="207"/>
-      <c r="AG7" s="207"/>
-      <c r="AH7" s="207"/>
-      <c r="AI7" s="207"/>
-      <c r="AJ7" s="207"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="212"/>
+      <c r="P7" s="212"/>
+      <c r="Q7" s="212"/>
+      <c r="R7" s="212"/>
+      <c r="S7" s="212"/>
+      <c r="T7" s="212"/>
+      <c r="U7" s="212"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="212"/>
+      <c r="Y7" s="212"/>
+      <c r="Z7" s="212"/>
+      <c r="AA7" s="212"/>
+      <c r="AB7" s="212"/>
+      <c r="AC7" s="212"/>
+      <c r="AD7" s="212"/>
+      <c r="AE7" s="212"/>
+      <c r="AF7" s="212"/>
+      <c r="AG7" s="212"/>
+      <c r="AH7" s="212"/>
+      <c r="AI7" s="212"/>
+      <c r="AJ7" s="212"/>
     </row>
     <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="209"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="214"/>
     </row>
     <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
@@ -7692,48 +7699,48 @@
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="204" t="s">
+      <c r="E10" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="204" t="s">
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="204" t="s">
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="206"/>
-      <c r="T10" s="204" t="s">
+      <c r="P10" s="210"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="206"/>
-      <c r="Y10" s="204" t="s">
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="205"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="205"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="204" t="s">
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="211"/>
+      <c r="AD10" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="205"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="205"/>
-      <c r="AH10" s="206"/>
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="210"/>
+      <c r="AG10" s="210"/>
+      <c r="AH10" s="211"/>
     </row>
     <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="68" t="s">
@@ -8431,42 +8438,42 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
-      <c r="O28" s="192" t="s">
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+      <c r="O28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="194"/>
-      <c r="T28" s="192" t="s">
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="199"/>
+      <c r="T28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="194"/>
-      <c r="Y28" s="192" t="s">
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="199"/>
+      <c r="Y28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="194"/>
-      <c r="AD28" s="192" t="s">
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="199"/>
+      <c r="AD28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="193"/>
-      <c r="AF28" s="193"/>
-      <c r="AG28" s="194"/>
+      <c r="AE28" s="198"/>
+      <c r="AF28" s="198"/>
+      <c r="AG28" s="199"/>
     </row>
     <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -8601,174 +8608,174 @@
   <sheetData>
     <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="211"/>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="211"/>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="211"/>
-      <c r="AH2" s="211"/>
-      <c r="AI2" s="211"/>
-      <c r="AJ2" s="211"/>
-      <c r="AK2" s="211"/>
-      <c r="AL2" s="211"/>
-      <c r="AM2" s="211"/>
-      <c r="AN2" s="211"/>
-      <c r="AO2" s="212"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="216"/>
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="216"/>
+      <c r="AM2" s="216"/>
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
     </row>
     <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="213"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="214"/>
-      <c r="AB3" s="214"/>
-      <c r="AC3" s="214"/>
-      <c r="AD3" s="214"/>
-      <c r="AE3" s="214"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="214"/>
-      <c r="AH3" s="214"/>
-      <c r="AI3" s="214"/>
-      <c r="AJ3" s="214"/>
-      <c r="AK3" s="214"/>
-      <c r="AL3" s="214"/>
-      <c r="AM3" s="214"/>
-      <c r="AN3" s="214"/>
-      <c r="AO3" s="215"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="219"/>
+      <c r="AH3" s="219"/>
+      <c r="AI3" s="219"/>
+      <c r="AJ3" s="219"/>
+      <c r="AK3" s="219"/>
+      <c r="AL3" s="219"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
+      <c r="AO3" s="220"/>
     </row>
     <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="216"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
-      <c r="T4" s="217"/>
-      <c r="U4" s="217"/>
-      <c r="V4" s="217"/>
-      <c r="W4" s="217"/>
-      <c r="X4" s="217"/>
-      <c r="Y4" s="217"/>
-      <c r="Z4" s="217"/>
-      <c r="AA4" s="217"/>
-      <c r="AB4" s="217"/>
-      <c r="AC4" s="217"/>
-      <c r="AD4" s="217"/>
-      <c r="AE4" s="217"/>
-      <c r="AF4" s="217"/>
-      <c r="AG4" s="217"/>
-      <c r="AH4" s="217"/>
-      <c r="AI4" s="217"/>
-      <c r="AJ4" s="217"/>
-      <c r="AK4" s="217"/>
-      <c r="AL4" s="217"/>
-      <c r="AM4" s="217"/>
-      <c r="AN4" s="217"/>
-      <c r="AO4" s="218"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="222"/>
+      <c r="V4" s="222"/>
+      <c r="W4" s="222"/>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="222"/>
+      <c r="Z4" s="222"/>
+      <c r="AA4" s="222"/>
+      <c r="AB4" s="222"/>
+      <c r="AC4" s="222"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="222"/>
+      <c r="AF4" s="222"/>
+      <c r="AG4" s="222"/>
+      <c r="AH4" s="222"/>
+      <c r="AI4" s="222"/>
+      <c r="AJ4" s="222"/>
+      <c r="AK4" s="222"/>
+      <c r="AL4" s="222"/>
+      <c r="AM4" s="222"/>
+      <c r="AN4" s="222"/>
+      <c r="AO4" s="223"/>
     </row>
     <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="207"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="207"/>
-      <c r="S6" s="207"/>
-      <c r="T6" s="207"/>
-      <c r="U6" s="207"/>
-      <c r="V6" s="207"/>
-      <c r="W6" s="207"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="207"/>
-      <c r="AB6" s="207"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="207"/>
-      <c r="AE6" s="207"/>
-      <c r="AF6" s="207"/>
-      <c r="AG6" s="207"/>
-      <c r="AH6" s="207"/>
-      <c r="AI6" s="207"/>
-      <c r="AJ6" s="207"/>
-      <c r="AK6" s="207"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="212"/>
+      <c r="P6" s="212"/>
+      <c r="Q6" s="212"/>
+      <c r="R6" s="212"/>
+      <c r="S6" s="212"/>
+      <c r="T6" s="212"/>
+      <c r="U6" s="212"/>
+      <c r="V6" s="212"/>
+      <c r="W6" s="212"/>
+      <c r="X6" s="212"/>
+      <c r="Y6" s="212"/>
+      <c r="Z6" s="212"/>
+      <c r="AA6" s="212"/>
+      <c r="AB6" s="212"/>
+      <c r="AC6" s="212"/>
+      <c r="AD6" s="212"/>
+      <c r="AE6" s="212"/>
+      <c r="AF6" s="212"/>
+      <c r="AG6" s="212"/>
+      <c r="AH6" s="212"/>
+      <c r="AI6" s="212"/>
+      <c r="AJ6" s="212"/>
+      <c r="AK6" s="212"/>
       <c r="AL6" s="81"/>
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
@@ -8802,55 +8809,55 @@
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="204" t="s">
+      <c r="E10" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="204" t="s">
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="204" t="s">
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="205"/>
-      <c r="Q10" s="205"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="206"/>
-      <c r="T10" s="204" t="s">
+      <c r="P10" s="210"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="206"/>
-      <c r="Y10" s="204" t="s">
+      <c r="U10" s="210"/>
+      <c r="V10" s="210"/>
+      <c r="W10" s="210"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="205"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="205"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="204" t="s">
+      <c r="Z10" s="210"/>
+      <c r="AA10" s="210"/>
+      <c r="AB10" s="210"/>
+      <c r="AC10" s="211"/>
+      <c r="AD10" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="205"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="205"/>
-      <c r="AH10" s="206"/>
-      <c r="AI10" s="204" t="s">
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="210"/>
+      <c r="AG10" s="210"/>
+      <c r="AH10" s="211"/>
+      <c r="AI10" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="205"/>
-      <c r="AK10" s="205"/>
-      <c r="AL10" s="205"/>
-      <c r="AM10" s="206"/>
+      <c r="AJ10" s="210"/>
+      <c r="AK10" s="210"/>
+      <c r="AL10" s="210"/>
+      <c r="AM10" s="211"/>
     </row>
     <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="74" t="s">
@@ -9638,48 +9645,48 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="192" t="s">
+      <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="J28" s="192" t="s">
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="J28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
-      <c r="O28" s="192" t="s">
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+      <c r="O28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="194"/>
-      <c r="T28" s="192" t="s">
+      <c r="P28" s="198"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="199"/>
+      <c r="T28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="194"/>
-      <c r="Y28" s="192" t="s">
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="199"/>
+      <c r="Y28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="194"/>
-      <c r="AD28" s="192" t="s">
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="199"/>
+      <c r="AD28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="193"/>
-      <c r="AF28" s="193"/>
-      <c r="AG28" s="194"/>
-      <c r="AI28" s="192" t="s">
+      <c r="AE28" s="198"/>
+      <c r="AF28" s="198"/>
+      <c r="AG28" s="199"/>
+      <c r="AI28" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="AJ28" s="193"/>
-      <c r="AK28" s="193"/>
-      <c r="AL28" s="194"/>
+      <c r="AJ28" s="198"/>
+      <c r="AK28" s="198"/>
+      <c r="AL28" s="199"/>
     </row>
     <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -9751,6 +9758,13 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9760,13 +9774,6 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9844,140 +9851,140 @@
   <sheetData>
     <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
     </row>
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="199"/>
-      <c r="AF3" s="200"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="204"/>
+      <c r="AF3" s="205"/>
     </row>
     <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="202"/>
-      <c r="AB4" s="202"/>
-      <c r="AC4" s="202"/>
-      <c r="AD4" s="202"/>
-      <c r="AE4" s="202"/>
-      <c r="AF4" s="203"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="208"/>
     </row>
     <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
-      <c r="AD6" s="191"/>
-      <c r="AE6" s="191"/>
-      <c r="AF6" s="191"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="196"/>
+      <c r="AF6" s="196"/>
     </row>
     <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10013,35 +10020,35 @@
     <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="173" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="173" t="s">
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="173" t="s">
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="180"/>
+      <c r="U10" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="175"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="179"/>
+      <c r="Y10" s="180"/>
     </row>
     <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -10805,37 +10812,37 @@
       <c r="H28"/>
     </row>
     <row r="29" spans="2:29" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="192" t="s">
+      <c r="E29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="194"/>
-      <c r="K29" s="192" t="s">
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="199"/>
+      <c r="K29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="193"/>
-      <c r="M29" s="193"/>
-      <c r="N29" s="194"/>
-      <c r="P29" s="192" t="s">
+      <c r="L29" s="198"/>
+      <c r="M29" s="198"/>
+      <c r="N29" s="199"/>
+      <c r="P29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="194"/>
-      <c r="U29" s="192" t="s">
+      <c r="Q29" s="198"/>
+      <c r="R29" s="198"/>
+      <c r="S29" s="199"/>
+      <c r="U29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="193"/>
-      <c r="W29" s="193"/>
-      <c r="X29" s="194"/>
-      <c r="Z29" s="192" t="s">
+      <c r="V29" s="198"/>
+      <c r="W29" s="198"/>
+      <c r="X29" s="199"/>
+      <c r="Z29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="193"/>
-      <c r="AB29" s="193"/>
-      <c r="AC29" s="194"/>
+      <c r="AA29" s="198"/>
+      <c r="AB29" s="198"/>
+      <c r="AC29" s="199"/>
     </row>
     <row r="30" spans="2:29" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
@@ -10987,136 +10994,136 @@
   <sheetData>
     <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="202"/>
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="199"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="199"/>
-      <c r="AE3" s="200"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="205"/>
     </row>
     <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="202"/>
-      <c r="AB4" s="202"/>
-      <c r="AC4" s="202"/>
-      <c r="AD4" s="202"/>
-      <c r="AE4" s="203"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="208"/>
     </row>
     <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="191"/>
-      <c r="AD6" s="191"/>
-      <c r="AE6" s="191"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="196"/>
     </row>
     <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11147,41 +11154,41 @@
     <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="173" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="173" t="s">
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="173" t="s">
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="180"/>
+      <c r="T10" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="173" t="s">
+      <c r="U10" s="179"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="175"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="179"/>
+      <c r="AC10" s="180"/>
     </row>
     <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -12135,36 +12142,36 @@
       <c r="G28"/>
     </row>
     <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="192" t="s">
+      <c r="E29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="194"/>
-      <c r="J29" s="192" t="s">
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="199"/>
+      <c r="J29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="193"/>
-      <c r="L29" s="193"/>
-      <c r="M29" s="194"/>
-      <c r="O29" s="192" t="s">
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="199"/>
+      <c r="O29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="194"/>
-      <c r="T29" s="192" t="s">
+      <c r="P29" s="198"/>
+      <c r="Q29" s="198"/>
+      <c r="R29" s="199"/>
+      <c r="T29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="U29" s="193"/>
-      <c r="V29" s="193"/>
-      <c r="W29" s="194"/>
-      <c r="Y29" s="192" t="s">
+      <c r="U29" s="198"/>
+      <c r="V29" s="198"/>
+      <c r="W29" s="199"/>
+      <c r="Y29" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="Z29" s="193"/>
-      <c r="AA29" s="193"/>
-      <c r="AB29" s="194"/>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="198"/>
+      <c r="AB29" s="199"/>
     </row>
     <row r="30" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
@@ -12223,11 +12230,6 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -12235,6 +12237,11 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="Y29:AB29"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE17">

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D7546-2C6B-4704-96D6-858D21BB3E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA7307-5C32-4484-8A44-46CFEBFE9712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="4" sheetId="4" r:id="rId5"/>
     <sheet name="6" sheetId="6" r:id="rId6"/>
     <sheet name="7" sheetId="7" r:id="rId7"/>
-    <sheet name="SABADOS MAÑANA" sheetId="5" r:id="rId8"/>
-    <sheet name="SABADOS TARDE" sheetId="11" r:id="rId9"/>
+    <sheet name="SABADOS TARDE" sheetId="11" r:id="rId8"/>
+    <sheet name="SABADOS MAÑANA" sheetId="5" r:id="rId9"/>
     <sheet name="LUNES-VIERNES" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -360,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2684,6 +2684,111 @@
         <xdr:cNvPr id="2" name="1 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0668125D-28F9-4569-AFD0-87DC55D5153B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1571625" y="215900"/>
+          <a:ext cx="542925" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>572558</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5383CD88-6A33-4A05-8F3D-90AD3A9E59D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14579600" y="206375"/>
+          <a:ext cx="561975" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -2757,111 +2862,6 @@
         <a:xfrm>
           <a:off x="13896975" y="209550"/>
           <a:ext cx="542925" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0668125D-28F9-4569-AFD0-87DC55D5153B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1571625" y="215900"/>
-          <a:ext cx="542925" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>572558</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="2 Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5383CD88-6A33-4A05-8F3D-90AD3A9E59D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14579600" y="206375"/>
-          <a:ext cx="561975" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3204,7 +3204,7 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="5.23046875" customWidth="1"/>
     <col min="2" max="2" width="2.69140625" bestFit="1" customWidth="1"/>
@@ -3239,7 +3239,7 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:31" ht="15" customHeight="1">
       <c r="B1" s="181" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="AD1" s="182"/>
       <c r="AE1" s="182"/>
     </row>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:31" ht="15" customHeight="1">
       <c r="B2" s="182"/>
       <c r="C2" s="182"/>
       <c r="D2" s="182"/>
@@ -3305,7 +3305,7 @@
       <c r="AD2" s="182"/>
       <c r="AE2" s="182"/>
     </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:31" ht="15" customHeight="1">
       <c r="B3" s="182"/>
       <c r="C3" s="182"/>
       <c r="D3" s="182"/>
@@ -3337,7 +3337,7 @@
       <c r="AD3" s="182"/>
       <c r="AE3" s="182"/>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:31">
       <c r="D5" s="183" t="s">
         <v>1</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="Q5" s="186"/>
       <c r="R5" s="186"/>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:31">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3370,7 +3370,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:31">
       <c r="D7" s="183" t="s">
         <v>3</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="Q7" s="185"/>
       <c r="R7" s="185"/>
     </row>
-    <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:31" ht="15" thickBot="1">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3403,7 +3403,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="15" thickBot="1">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="178" t="s">
@@ -3442,7 +3442,7 @@
       <c r="AB9" s="179"/>
       <c r="AC9" s="180"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:31" ht="15" thickBot="1">
       <c r="B10" s="4"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -3532,7 +3532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="15" thickBot="1">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="15" thickBot="1">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="15" thickBot="1">
       <c r="B13" s="16">
         <v>3</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="15" thickBot="1">
       <c r="B14" s="16">
         <v>4</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="15" thickBot="1">
       <c r="B15" s="16">
         <v>5</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="15" thickBot="1">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" ht="15" thickBot="1">
       <c r="B17" s="16">
         <v>7</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" ht="15" thickBot="1">
       <c r="B18" s="16">
         <v>8</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" ht="15" thickBot="1">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" ht="15" thickBot="1">
       <c r="B20" s="16">
         <v>10</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" ht="15" thickBot="1">
       <c r="B21" s="16">
         <v>11</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="15" thickBot="1">
       <c r="B22" s="16">
         <v>12</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" ht="15" thickBot="1">
       <c r="B23" s="16">
         <v>13</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="15" thickBot="1">
       <c r="B24" s="16">
         <v>14</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="15" thickBot="1">
       <c r="B25" s="16">
         <v>15</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" ht="15" thickBot="1">
       <c r="B26" s="16">
         <v>16</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" ht="15" thickBot="1">
       <c r="B27" s="16">
         <v>17</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" ht="15" thickBot="1">
       <c r="B28" s="16">
         <v>18</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="15" thickBot="1">
       <c r="B29" s="16">
         <v>19</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" ht="15" thickBot="1">
       <c r="B30" s="16">
         <v>20</v>
       </c>
@@ -4572,22 +4572,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:31">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:31">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:7">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="7:7">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="7:7">
       <c r="G35"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="7:7">
       <c r="G36"/>
     </row>
   </sheetData>
@@ -4627,11 +4627,11 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -4669,8 +4669,8 @@
     <col min="40" max="40" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1">
       <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="T2" s="201"/>
       <c r="U2" s="202"/>
     </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:21" ht="15" customHeight="1">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -4716,7 +4716,7 @@
       <c r="T3" s="204"/>
       <c r="U3" s="205"/>
     </row>
-    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -4738,7 +4738,7 @@
       <c r="T4" s="207"/>
       <c r="U4" s="208"/>
     </row>
-    <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:21" ht="25.75">
       <c r="B6" s="196" t="s">
         <v>40</v>
       </c>
@@ -4762,8 +4762,8 @@
       <c r="T6" s="196"/>
       <c r="U6" s="196"/>
     </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:21" ht="15" thickBot="1"/>
+    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -4788,7 +4788,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -4813,7 +4813,7 @@
       <c r="R10" s="179"/>
       <c r="S10" s="180"/>
     </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:21" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -4886,12 +4886,14 @@
       <c r="E12" s="106">
         <v>10</v>
       </c>
-      <c r="F12" s="107"/>
+      <c r="F12" s="107">
+        <v>8</v>
+      </c>
       <c r="G12" s="107"/>
       <c r="H12" s="108"/>
       <c r="I12" s="130">
         <f>AVERAGE(E12:H12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="109"/>
       <c r="K12" s="110"/>
@@ -4915,7 +4917,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -4928,12 +4930,14 @@
       <c r="E13" s="112">
         <v>10</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="113">
+        <v>6</v>
+      </c>
       <c r="G13" s="113"/>
       <c r="H13" s="114"/>
       <c r="I13" s="130">
         <f>AVERAGE(E13:H13)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J13" s="115"/>
       <c r="K13" s="116"/>
@@ -4957,7 +4961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -4970,7 +4974,9 @@
       <c r="E14" s="112">
         <v>10</v>
       </c>
-      <c r="F14" s="113"/>
+      <c r="F14" s="113">
+        <v>10</v>
+      </c>
       <c r="G14" s="113"/>
       <c r="H14" s="114"/>
       <c r="I14" s="130">
@@ -4999,7 +5005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5012,12 +5018,14 @@
       <c r="E15" s="151">
         <v>10</v>
       </c>
-      <c r="F15" s="152"/>
+      <c r="F15" s="152">
+        <v>6</v>
+      </c>
       <c r="G15" s="152"/>
       <c r="H15" s="153"/>
       <c r="I15" s="130">
         <f>AVERAGE(E15:H15)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J15" s="154"/>
       <c r="K15" s="155"/>
@@ -5041,7 +5049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5065,7 +5073,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5089,7 +5097,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5113,7 +5121,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5137,7 +5145,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -5161,7 +5169,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -5185,7 +5193,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -5209,7 +5217,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -5233,7 +5241,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -5257,7 +5265,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -5281,7 +5289,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -5305,10 +5313,10 @@
       <c r="T26" s="28"/>
       <c r="U26" s="57"/>
     </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:21" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -5328,7 +5336,7 @@
       <c r="Q28" s="198"/>
       <c r="R28" s="199"/>
     </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:21" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -5337,7 +5345,7 @@
       <c r="O29" s="41"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -5346,7 +5354,7 @@
       <c r="O30" s="41"/>
       <c r="R30" s="42"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5360,7 +5368,7 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:21">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -5408,10 +5416,10 @@
       <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1"/>
+    <row r="2" spans="1:10">
       <c r="A2" s="187" t="s">
         <v>31</v>
       </c>
@@ -5425,7 +5433,7 @@
       <c r="I2" s="188"/>
       <c r="J2" s="189"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="190"/>
       <c r="B3" s="191"/>
       <c r="C3" s="191"/>
@@ -5437,7 +5445,7 @@
       <c r="I3" s="191"/>
       <c r="J3" s="192"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="193"/>
       <c r="B4" s="194"/>
       <c r="C4" s="194"/>
@@ -5449,11 +5457,11 @@
       <c r="I4" s="194"/>
       <c r="J4" s="195"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:10" ht="25.75">
       <c r="A6" s="196" t="s">
         <v>36</v>
       </c>
@@ -5467,11 +5475,11 @@
       <c r="I6" s="196"/>
       <c r="J6" s="196"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="49"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="21" thickBot="1">
       <c r="A8" s="49"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
@@ -5483,14 +5491,14 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="49"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5502,7 +5510,7 @@
       <c r="G10" s="179"/>
       <c r="H10" s="180"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A12" s="61">
         <v>1</v>
       </c>
@@ -5548,7 +5556,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A13" s="62">
         <v>2</v>
       </c>
@@ -5562,7 +5570,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A14" s="62">
         <v>3</v>
       </c>
@@ -5576,7 +5584,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A15" s="62">
         <v>4</v>
       </c>
@@ -5590,7 +5598,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A16" s="62">
         <v>5</v>
       </c>
@@ -5604,7 +5612,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A17" s="62">
         <v>6</v>
       </c>
@@ -5618,7 +5626,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A18" s="62">
         <v>7</v>
       </c>
@@ -5632,7 +5640,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="18.45">
       <c r="A19" s="62">
         <v>8</v>
       </c>
@@ -5646,10 +5654,10 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A21" s="49"/>
       <c r="D21" s="197" t="s">
         <v>23</v>
@@ -5658,24 +5666,24 @@
       <c r="F21" s="198"/>
       <c r="G21" s="199"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10">
       <c r="A22" s="49"/>
       <c r="D22" s="41"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="A23" s="49"/>
       <c r="D23" s="41"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="49"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10">
       <c r="A25" s="49"/>
     </row>
   </sheetData>
@@ -5708,7 +5716,7 @@
       <selection activeCell="B2" sqref="B2:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -5737,8 +5745,8 @@
     <col min="35" max="35" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1">
       <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
@@ -5757,7 +5765,7 @@
       <c r="O2" s="201"/>
       <c r="P2" s="202"/>
     </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" ht="15" customHeight="1">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -5774,7 +5782,7 @@
       <c r="O3" s="204"/>
       <c r="P3" s="205"/>
     </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -5791,7 +5799,7 @@
       <c r="O4" s="207"/>
       <c r="P4" s="208"/>
     </row>
-    <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:16" ht="25.75">
       <c r="B6" s="196" t="s">
         <v>33</v>
       </c>
@@ -5810,8 +5818,8 @@
       <c r="O6" s="196"/>
       <c r="P6" s="196"/>
     </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" ht="15" thickBot="1"/>
+    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -5822,7 +5830,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5830,7 +5838,7 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -5848,7 +5856,7 @@
       <c r="M10" s="179"/>
       <c r="N10" s="180"/>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5914,7 +5922,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -5933,7 +5941,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5952,7 +5960,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5971,7 +5979,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5990,7 +5998,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6009,7 +6017,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6028,7 +6036,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6047,7 +6055,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6066,7 +6074,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6085,7 +6093,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6104,7 +6112,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6123,7 +6131,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6142,7 +6150,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6161,7 +6169,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6180,10 +6188,10 @@
       <c r="O26" s="28"/>
       <c r="P26" s="57"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -6197,21 +6205,21 @@
       <c r="L28" s="198"/>
       <c r="M28" s="199"/>
     </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
       <c r="J29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
       <c r="J30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -6221,7 +6229,7 @@
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6257,7 +6265,7 @@
       <selection activeCell="B2" sqref="B2:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6286,8 +6294,8 @@
     <col min="30" max="30" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1">
       <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
@@ -6301,7 +6309,7 @@
       <c r="J2" s="201"/>
       <c r="K2" s="202"/>
     </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15" customHeight="1">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -6313,7 +6321,7 @@
       <c r="J3" s="204"/>
       <c r="K3" s="205"/>
     </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -6325,7 +6333,7 @@
       <c r="J4" s="207"/>
       <c r="K4" s="208"/>
     </row>
-    <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:11" ht="25.75">
       <c r="B6" s="196" t="s">
         <v>32</v>
       </c>
@@ -6339,8 +6347,8 @@
       <c r="J6" s="196"/>
       <c r="K6" s="196"/>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11" ht="15" thickBot="1"/>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6351,13 +6359,13 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -6368,7 +6376,7 @@
       <c r="H10" s="179"/>
       <c r="I10" s="180"/>
     </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:11" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6400,7 +6408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6414,7 +6422,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6428,7 +6436,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6442,7 +6450,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6456,7 +6464,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6470,7 +6478,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6484,7 +6492,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6498,7 +6506,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6512,7 +6520,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6526,7 +6534,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6540,7 +6548,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6554,7 +6562,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6568,7 +6576,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6582,7 +6590,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6596,7 +6604,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6610,10 +6618,10 @@
       <c r="J26" s="28"/>
       <c r="K26" s="57"/>
     </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -6621,23 +6629,23 @@
       <c r="G28" s="198"/>
       <c r="H28" s="199"/>
     </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6671,7 +6679,7 @@
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6700,8 +6708,8 @@
     <col min="45" max="45" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1">
       <c r="B2" s="200" t="s">
         <v>37</v>
       </c>
@@ -6730,7 +6738,7 @@
       <c r="Y2" s="201"/>
       <c r="Z2" s="202"/>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:26" ht="15" customHeight="1">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -6757,7 +6765,7 @@
       <c r="Y3" s="204"/>
       <c r="Z3" s="205"/>
     </row>
-    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -6784,7 +6792,7 @@
       <c r="Y4" s="207"/>
       <c r="Z4" s="208"/>
     </row>
-    <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:26" ht="25.75">
       <c r="B6" s="196" t="s">
         <v>38</v>
       </c>
@@ -6813,8 +6821,8 @@
       <c r="Y6" s="196"/>
       <c r="Z6" s="196"/>
     </row>
-    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:26" ht="15" thickBot="1"/>
+    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6825,7 +6833,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6837,7 +6845,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -6869,7 +6877,7 @@
       <c r="W10" s="179"/>
       <c r="X10" s="180"/>
     </row>
-    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:26" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6946,7 +6954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6975,7 +6983,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7004,7 +7012,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7033,7 +7041,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7062,7 +7070,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7091,7 +7099,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="24"/>
     </row>
-    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -7120,7 +7128,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -7149,7 +7157,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -7178,7 +7186,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -7207,7 +7215,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -7236,7 +7244,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -7265,7 +7273,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -7294,7 +7302,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -7323,7 +7331,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -7352,7 +7360,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -7381,10 +7389,10 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="57"/>
     </row>
-    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:26" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -7410,7 +7418,7 @@
       <c r="V28" s="198"/>
       <c r="W28" s="199"/>
     </row>
-    <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:26" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -7421,7 +7429,7 @@
       <c r="T29" s="41"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:26" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -7432,7 +7440,7 @@
       <c r="T30" s="41"/>
       <c r="W30" s="42"/>
     </row>
-    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -7450,22 +7458,22 @@
       <c r="V31" s="44"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:26">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T28:W28"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7490,7 +7498,7 @@
       <selection activeCell="B2" sqref="B2:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="49" customWidth="1"/>
@@ -7519,8 +7527,8 @@
     <col min="55" max="55" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:36" ht="15" customHeight="1">
       <c r="B2" s="200" t="s">
         <v>25</v>
       </c>
@@ -7559,7 +7567,7 @@
       <c r="AI2" s="201"/>
       <c r="AJ2" s="202"/>
     </row>
-    <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:36" ht="15" customHeight="1">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -7596,7 +7604,7 @@
       <c r="AI3" s="204"/>
       <c r="AJ3" s="205"/>
     </row>
-    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -7633,7 +7641,7 @@
       <c r="AI4" s="207"/>
       <c r="AJ4" s="208"/>
     </row>
-    <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:36" ht="28.3" thickBot="1">
       <c r="B7" s="212" t="s">
         <v>35</v>
       </c>
@@ -7672,7 +7680,7 @@
       <c r="AI7" s="212"/>
       <c r="AJ7" s="212"/>
     </row>
-    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
@@ -7683,7 +7691,7 @@
       <c r="H8" s="213"/>
       <c r="I8" s="214"/>
     </row>
-    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:36" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -7695,7 +7703,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -7742,7 +7750,7 @@
       <c r="AG10" s="210"/>
       <c r="AH10" s="211"/>
     </row>
-    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -7849,7 +7857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7888,7 +7896,7 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7927,7 +7935,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7966,7 +7974,7 @@
       <c r="AI14" s="27"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -8005,7 +8013,7 @@
       <c r="AI15" s="27"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -8044,7 +8052,7 @@
       <c r="AI16" s="27"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -8083,7 +8091,7 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -8122,7 +8130,7 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -8161,7 +8169,7 @@
       <c r="AI19" s="27"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -8200,7 +8208,7 @@
       <c r="AI20" s="27"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -8239,7 +8247,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -8278,7 +8286,7 @@
       <c r="AI22" s="27"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -8317,7 +8325,7 @@
       <c r="AI23" s="27"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -8356,7 +8364,7 @@
       <c r="AI24" s="27"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -8395,7 +8403,7 @@
       <c r="AI25" s="27"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -8434,10 +8442,10 @@
       <c r="AI26" s="28"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:36" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -8475,7 +8483,7 @@
       <c r="AF28" s="198"/>
       <c r="AG28" s="199"/>
     </row>
-    <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:36" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -8490,7 +8498,7 @@
       <c r="AD29" s="41"/>
       <c r="AG29" s="42"/>
     </row>
-    <row r="30" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:36" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -8505,7 +8513,7 @@
       <c r="AD30" s="41"/>
       <c r="AG30" s="42"/>
     </row>
-    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -8531,7 +8539,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="45"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:36">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -8576,7 +8584,7 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4.23046875" style="49" customWidth="1"/>
@@ -8606,8 +8614,8 @@
     <col min="60" max="60" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1">
       <c r="B2" s="215" t="s">
         <v>28</v>
       </c>
@@ -8651,7 +8659,7 @@
       <c r="AN2" s="216"/>
       <c r="AO2" s="217"/>
     </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:41" ht="15" customHeight="1">
       <c r="B3" s="218"/>
       <c r="C3" s="219"/>
       <c r="D3" s="219"/>
@@ -8693,7 +8701,7 @@
       <c r="AN3" s="219"/>
       <c r="AO3" s="220"/>
     </row>
-    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1">
       <c r="B4" s="221"/>
       <c r="C4" s="222"/>
       <c r="D4" s="222"/>
@@ -8735,7 +8743,7 @@
       <c r="AN4" s="222"/>
       <c r="AO4" s="223"/>
     </row>
-    <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="6" spans="2:41" ht="30.9">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
@@ -8781,8 +8789,8 @@
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
     </row>
-    <row r="7" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:41" ht="15" thickBot="1"/>
+    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -8793,7 +8801,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:41" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -8805,7 +8813,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -8859,7 +8867,7 @@
       <c r="AL10" s="210"/>
       <c r="AM10" s="211"/>
     </row>
-    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B11" s="74" t="s">
         <v>24</v>
       </c>
@@ -8981,7 +8989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -9025,7 +9033,7 @@
       <c r="AN12" s="26"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -9069,7 +9077,7 @@
       <c r="AN13" s="27"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -9113,7 +9121,7 @@
       <c r="AN14" s="27"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -9157,7 +9165,7 @@
       <c r="AN15" s="27"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -9201,7 +9209,7 @@
       <c r="AN16" s="27"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -9245,7 +9253,7 @@
       <c r="AN17" s="27"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -9289,7 +9297,7 @@
       <c r="AN18" s="27"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -9333,7 +9341,7 @@
       <c r="AN19" s="27"/>
       <c r="AO19" s="24"/>
     </row>
-    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -9377,7 +9385,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="24"/>
     </row>
-    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -9421,7 +9429,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="24"/>
     </row>
-    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -9465,7 +9473,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="24"/>
     </row>
-    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -9509,7 +9517,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="24"/>
     </row>
-    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -9553,7 +9561,7 @@
       <c r="AN24" s="27"/>
       <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -9597,7 +9605,7 @@
       <c r="AN25" s="27"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -9641,10 +9649,10 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="57"/>
     </row>
-    <row r="27" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:41" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="197" t="s">
         <v>23</v>
       </c>
@@ -9688,7 +9696,7 @@
       <c r="AK28" s="198"/>
       <c r="AL28" s="199"/>
     </row>
-    <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:41" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -9705,7 +9713,7 @@
       <c r="AI29" s="41"/>
       <c r="AL29" s="42"/>
     </row>
-    <row r="30" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:41" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -9722,7 +9730,7 @@
       <c r="AI30" s="41"/>
       <c r="AL30" s="42"/>
     </row>
-    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -9752,19 +9760,12 @@
       <c r="AK31" s="44"/>
       <c r="AL31" s="45"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:41">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9774,6 +9775,13 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9788,17 +9796,1344 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B42591-B480-4294-98B1-CEFCE49C5F5E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AE33"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <cols>
+    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="32.53515625" customWidth="1"/>
+    <col min="4" max="4" width="32.15234375" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.61328125" customWidth="1"/>
+    <col min="29" max="29" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.53515625" customWidth="1"/>
+    <col min="33" max="33" width="4.4609375" customWidth="1"/>
+    <col min="34" max="34" width="4.53515625" customWidth="1"/>
+    <col min="35" max="35" width="4.15234375" customWidth="1"/>
+    <col min="36" max="37" width="5" customWidth="1"/>
+    <col min="38" max="38" width="4.69140625" customWidth="1"/>
+    <col min="39" max="39" width="5.23046875" customWidth="1"/>
+    <col min="40" max="40" width="4.4609375" customWidth="1"/>
+    <col min="41" max="41" width="5" customWidth="1"/>
+    <col min="42" max="42" width="4.23046875" customWidth="1"/>
+    <col min="43" max="43" width="4.69140625" customWidth="1"/>
+    <col min="44" max="44" width="4.53515625" customWidth="1"/>
+    <col min="45" max="46" width="4.15234375" customWidth="1"/>
+    <col min="47" max="47" width="4.69140625" customWidth="1"/>
+    <col min="48" max="48" width="5.53515625" customWidth="1"/>
+    <col min="49" max="49" width="4.4609375" customWidth="1"/>
+    <col min="50" max="50" width="3.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:31" ht="15" customHeight="1">
+      <c r="B2" s="200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="202"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1">
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="205"/>
+    </row>
+    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="208"/>
+    </row>
+    <row r="6" spans="2:31" ht="25.75">
+      <c r="B6" s="196" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="196"/>
+    </row>
+    <row r="7" spans="2:31" ht="15" thickBot="1"/>
+    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1">
+      <c r="C8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="2:31" ht="15" thickBot="1">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+    </row>
+    <row r="10" spans="2:31" ht="15" thickBot="1">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="178" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="180"/>
+      <c r="T10" s="178" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="179"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="179"/>
+      <c r="AC10" s="180"/>
+    </row>
+    <row r="11" spans="2:31" ht="15" thickBot="1">
+      <c r="B11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="53"/>
+      <c r="T11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE11" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B12" s="61">
+        <v>1</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="106">
+        <v>8</v>
+      </c>
+      <c r="F12" s="107">
+        <v>8.33</v>
+      </c>
+      <c r="G12" s="107">
+        <v>8</v>
+      </c>
+      <c r="H12" s="108">
+        <v>8.33</v>
+      </c>
+      <c r="I12" s="118">
+        <f t="shared" ref="I12:I18" si="0">(AVERAGE(E12:G12)+H12)/2</f>
+        <v>8.2199999999999989</v>
+      </c>
+      <c r="J12" s="109">
+        <v>10</v>
+      </c>
+      <c r="K12" s="116">
+        <v>8</v>
+      </c>
+      <c r="L12" s="110">
+        <v>6</v>
+      </c>
+      <c r="M12" s="111">
+        <v>7.78</v>
+      </c>
+      <c r="N12" s="118">
+        <f>(AVERAGE(J12:L12)+M12)/2</f>
+        <v>7.8900000000000006</v>
+      </c>
+      <c r="O12" s="106">
+        <v>10</v>
+      </c>
+      <c r="P12" s="107">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="107">
+        <v>10</v>
+      </c>
+      <c r="R12" s="108">
+        <v>8</v>
+      </c>
+      <c r="S12" s="118">
+        <f>(AVERAGE(O12:Q12)+R12)/2</f>
+        <v>9</v>
+      </c>
+      <c r="T12" s="106">
+        <v>6</v>
+      </c>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="108">
+        <v>10</v>
+      </c>
+      <c r="X12" s="118">
+        <f>(AVERAGE(T12:V12)+W12)/2</f>
+        <v>8</v>
+      </c>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="118" t="e">
+        <f>(AVERAGE(Y12:AA12))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="119" t="e">
+        <f>AVERAGE(I12,N12,S12,X12,AC12,AD12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B13" s="62">
+        <v>2</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="112">
+        <v>8</v>
+      </c>
+      <c r="F13" s="113">
+        <v>8.75</v>
+      </c>
+      <c r="G13" s="113">
+        <v>8</v>
+      </c>
+      <c r="H13" s="114">
+        <v>9.16</v>
+      </c>
+      <c r="I13" s="118">
+        <f t="shared" si="0"/>
+        <v>8.7050000000000001</v>
+      </c>
+      <c r="J13" s="115">
+        <v>10</v>
+      </c>
+      <c r="K13" s="116">
+        <v>8</v>
+      </c>
+      <c r="L13" s="116">
+        <v>7.5</v>
+      </c>
+      <c r="M13" s="117">
+        <v>7.83</v>
+      </c>
+      <c r="N13" s="118">
+        <f t="shared" ref="N13" si="1">(AVERAGE(J13:L13)+M13)/2</f>
+        <v>8.1649999999999991</v>
+      </c>
+      <c r="O13" s="112">
+        <v>10</v>
+      </c>
+      <c r="P13" s="113">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="113">
+        <v>10</v>
+      </c>
+      <c r="R13" s="114">
+        <v>8</v>
+      </c>
+      <c r="S13" s="118">
+        <f t="shared" ref="S13" si="2">(AVERAGE(O13:Q13)+R13)/2</f>
+        <v>9</v>
+      </c>
+      <c r="T13" s="112">
+        <v>8</v>
+      </c>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="131">
+        <v>10</v>
+      </c>
+      <c r="X13" s="118">
+        <f t="shared" ref="X13" si="3">(AVERAGE(T13:V13)+W13)/2</f>
+        <v>9</v>
+      </c>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="118" t="e">
+        <f t="shared" ref="AC13:AC14" si="4">(AVERAGE(Y13:AA13))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="112"/>
+      <c r="AE13" s="119" t="e">
+        <f t="shared" ref="AE13:AE14" si="5">AVERAGE(I13,N13,S13,X13,AC13,AD13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B14" s="62">
+        <v>3</v>
+      </c>
+      <c r="C14" s="149" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="151">
+        <v>8</v>
+      </c>
+      <c r="F14" s="152">
+        <v>9</v>
+      </c>
+      <c r="G14" s="152">
+        <v>7</v>
+      </c>
+      <c r="H14" s="153">
+        <v>8.33</v>
+      </c>
+      <c r="I14" s="118">
+        <f t="shared" si="0"/>
+        <v>8.1649999999999991</v>
+      </c>
+      <c r="J14" s="154">
+        <v>10</v>
+      </c>
+      <c r="K14" s="155">
+        <v>9</v>
+      </c>
+      <c r="L14" s="155">
+        <v>8.35</v>
+      </c>
+      <c r="M14" s="156">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N14" s="118">
+        <f t="shared" ref="N14:N19" si="6">(AVERAGE(J14:L14)+M14)/2</f>
+        <v>8.9583333333333339</v>
+      </c>
+      <c r="O14" s="151">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P14" s="152">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="152">
+        <v>8.9</v>
+      </c>
+      <c r="R14" s="153">
+        <v>7</v>
+      </c>
+      <c r="S14" s="118">
+        <f t="shared" ref="S14:S19" si="7">(AVERAGE(O14:Q14)+R14)/2</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T14" s="151">
+        <v>8</v>
+      </c>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="118">
+        <f>(AVERAGE(T14:V14)+W14)/2</f>
+        <v>4</v>
+      </c>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="118" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="151"/>
+      <c r="AE14" s="157" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B15" s="62">
+        <v>4</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="112">
+        <v>7</v>
+      </c>
+      <c r="F15" s="113">
+        <v>8.33</v>
+      </c>
+      <c r="G15" s="113">
+        <v>7.5</v>
+      </c>
+      <c r="H15" s="114">
+        <v>9.16</v>
+      </c>
+      <c r="I15" s="118">
+        <f t="shared" si="0"/>
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="J15" s="115">
+        <v>10</v>
+      </c>
+      <c r="K15" s="116">
+        <v>8</v>
+      </c>
+      <c r="L15" s="116">
+        <v>6.65</v>
+      </c>
+      <c r="M15" s="117">
+        <v>7.7</v>
+      </c>
+      <c r="N15" s="118">
+        <f t="shared" si="6"/>
+        <v>7.9583333333333339</v>
+      </c>
+      <c r="O15" s="112">
+        <v>7.5</v>
+      </c>
+      <c r="P15" s="113">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="113">
+        <v>10</v>
+      </c>
+      <c r="R15" s="114">
+        <v>7</v>
+      </c>
+      <c r="S15" s="118">
+        <f t="shared" si="7"/>
+        <v>8.0833333333333321</v>
+      </c>
+      <c r="T15" s="112"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="118" t="e">
+        <f>(AVERAGE(T15:V15)+W15)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="118" t="e">
+        <f>(AVERAGE(Y15:AA15))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD15" s="112"/>
+      <c r="AE15" s="119" t="e">
+        <f>AVERAGE(I15,N15,S15,X15,AC15,AD15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B16" s="62">
+        <v>5</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="118" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="118" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="112"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="118" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="112"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="118" t="e">
+        <f>(AVERAGE(T16:V16)+W16)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="112"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="118" t="e">
+        <f>(AVERAGE(Y16:AA16))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="112"/>
+      <c r="AE16" s="119" t="e">
+        <f>AVERAGE(I16,N16,S16,X16,AC16,AD16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B17" s="62">
+        <v>6</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="141" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="142">
+        <v>8</v>
+      </c>
+      <c r="F17" s="143">
+        <v>8</v>
+      </c>
+      <c r="G17" s="143"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="118">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="145"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="118" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="142"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="118" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="142"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="144"/>
+      <c r="X17" s="118" t="e">
+        <f>(AVERAGE(T17:V17)+W17)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y17" s="142"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="144"/>
+      <c r="AC17" s="118" t="e">
+        <f>(AVERAGE(Y17:AA17))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD17" s="142"/>
+      <c r="AE17" s="148" t="e">
+        <f>AVERAGE(I17,N17,S17,X17,AC17,AD17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B18" s="62">
+        <v>7</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="121">
+        <v>8</v>
+      </c>
+      <c r="F18" s="132">
+        <v>8</v>
+      </c>
+      <c r="G18" s="132">
+        <v>6</v>
+      </c>
+      <c r="H18" s="133">
+        <v>7.5</v>
+      </c>
+      <c r="I18" s="123">
+        <f t="shared" si="0"/>
+        <v>7.4166666666666661</v>
+      </c>
+      <c r="J18" s="170">
+        <v>10</v>
+      </c>
+      <c r="K18" s="171">
+        <v>7</v>
+      </c>
+      <c r="L18" s="171">
+        <v>5</v>
+      </c>
+      <c r="M18" s="172">
+        <v>8.89</v>
+      </c>
+      <c r="N18" s="123">
+        <f t="shared" si="6"/>
+        <v>8.1116666666666664</v>
+      </c>
+      <c r="O18" s="121">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P18" s="132">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="132">
+        <v>9</v>
+      </c>
+      <c r="R18" s="133">
+        <v>7</v>
+      </c>
+      <c r="S18" s="123">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T18" s="121">
+        <v>8</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="123">
+        <f>(AVERAGE(T18:V18)+W18)/2</f>
+        <v>4</v>
+      </c>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="123" t="e">
+        <f>(AVERAGE(Y18:AA18))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="124" t="e">
+        <f>AVERAGE(I18,N18,S18,X18,AC18,AD18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B19" s="62">
+        <v>8</v>
+      </c>
+      <c r="C19" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="121">
+        <v>7</v>
+      </c>
+      <c r="F19" s="132">
+        <v>7.08</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="123">
+        <f>(AVERAGE(E19:G19)+H19)/2</f>
+        <v>3.52</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="123" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="123" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="27"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="123">
+        <f>(AVERAGE(T18:V18)+W18)/2</f>
+        <v>4</v>
+      </c>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="123" t="e">
+        <f>(AVERAGE(Y19:AA19))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="124" t="e">
+        <f>AVERAGE(I19,N19,S19,X19,AC19,AD19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B20" s="62">
+        <v>9</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="24"/>
+    </row>
+    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B21" s="62">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="24"/>
+    </row>
+    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B22" s="62">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="24"/>
+    </row>
+    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B23" s="62">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="24"/>
+    </row>
+    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B24" s="62">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="24"/>
+    </row>
+    <row r="25" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B25" s="62">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="24"/>
+    </row>
+    <row r="26" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B26" s="82">
+        <v>15</v>
+      </c>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="85"/>
+      <c r="AE26" s="93"/>
+    </row>
+    <row r="27" spans="2:31" ht="30" customHeight="1" thickBot="1">
+      <c r="B27" s="63">
+        <v>16</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="57"/>
+    </row>
+    <row r="28" spans="2:31" ht="15" thickBot="1">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1">
+      <c r="E29" s="197" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="199"/>
+      <c r="J29" s="197" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="199"/>
+      <c r="O29" s="197" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="198"/>
+      <c r="Q29" s="198"/>
+      <c r="R29" s="199"/>
+      <c r="T29" s="197" t="s">
+        <v>23</v>
+      </c>
+      <c r="U29" s="198"/>
+      <c r="V29" s="198"/>
+      <c r="W29" s="199"/>
+      <c r="Y29" s="197" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="198"/>
+      <c r="AB29" s="199"/>
+    </row>
+    <row r="30" spans="2:31" ht="23.15" customHeight="1">
+      <c r="E30" s="41"/>
+      <c r="G30"/>
+      <c r="H30" s="42"/>
+      <c r="J30" s="41"/>
+      <c r="M30" s="42"/>
+      <c r="O30" s="41"/>
+      <c r="R30" s="42"/>
+      <c r="T30" s="41"/>
+      <c r="W30" s="42"/>
+      <c r="Y30" s="41"/>
+      <c r="AB30" s="42"/>
+    </row>
+    <row r="31" spans="2:31" ht="23.15" customHeight="1">
+      <c r="E31" s="41"/>
+      <c r="G31"/>
+      <c r="H31" s="42"/>
+      <c r="J31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="O31" s="41"/>
+      <c r="R31" s="42"/>
+      <c r="T31" s="41"/>
+      <c r="W31" s="42"/>
+      <c r="Y31" s="41"/>
+      <c r="AB31" s="42"/>
+    </row>
+    <row r="32" spans="2:31" ht="23.15" customHeight="1" thickBot="1">
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="45"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="45"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="45"/>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:AE15">
+    <sortCondition ref="C12:C15"/>
+  </sortState>
+  <dataConsolidate/>
+  <mergeCells count="12">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="B2:AE4"/>
+    <mergeCell ref="B6:AE6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+  </mergeCells>
+  <phoneticPr fontId="36" type="noConversion"/>
+  <conditionalFormatting sqref="E12:AE17">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12:AE17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13:V13 T12:W12 E12:H27 T14:W27 O12:R27 Y12:AB27" xr:uid="{B62CFA69-AA7E-41F2-B307-45E5E1E9831E}">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.12" right="0.17" top="0.98" bottom="0.54" header="0.3" footer="0.3"/>
+  <pageSetup scale="46" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -9849,8 +11184,8 @@
     <col min="51" max="51" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:32" ht="15" customHeight="1">
       <c r="B2" s="224" t="s">
         <v>25</v>
       </c>
@@ -9885,7 +11220,7 @@
       <c r="AE2" s="201"/>
       <c r="AF2" s="202"/>
     </row>
-    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:32" ht="15" customHeight="1">
       <c r="B3" s="203"/>
       <c r="C3" s="204"/>
       <c r="D3" s="204"/>
@@ -9918,7 +11253,7 @@
       <c r="AE3" s="204"/>
       <c r="AF3" s="205"/>
     </row>
-    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="206"/>
       <c r="C4" s="207"/>
       <c r="D4" s="207"/>
@@ -9951,7 +11286,7 @@
       <c r="AE4" s="207"/>
       <c r="AF4" s="208"/>
     </row>
-    <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:32" ht="25.75">
       <c r="B6" s="196" t="s">
         <v>39</v>
       </c>
@@ -9986,8 +11321,8 @@
       <c r="AE6" s="196"/>
       <c r="AF6" s="196"/>
     </row>
-    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:32" ht="15" thickBot="1"/>
+    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -10001,7 +11336,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:32" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -10017,7 +11352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:32" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="178" t="s">
@@ -10050,7 +11385,7 @@
       <c r="X10" s="179"/>
       <c r="Y10" s="180"/>
     </row>
-    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:32" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10128,7 +11463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -10197,7 +11532,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -10254,7 +11589,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -10321,7 +11656,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -10388,7 +11723,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -10457,7 +11792,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -10508,7 +11843,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -10538,7 +11873,7 @@
       <c r="Z18" s="27"/>
       <c r="AA18" s="7"/>
     </row>
-    <row r="19" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -10568,7 +11903,7 @@
       <c r="Z19" s="27"/>
       <c r="AA19" s="7"/>
     </row>
-    <row r="20" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -10598,7 +11933,7 @@
       <c r="Z20" s="27"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -10628,7 +11963,7 @@
       <c r="Z21" s="27"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -10658,7 +11993,7 @@
       <c r="Z22" s="27"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -10688,7 +12023,7 @@
       <c r="Z23" s="27"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -10718,7 +12053,7 @@
       <c r="Z24" s="27"/>
       <c r="AA24" s="7"/>
     </row>
-    <row r="25" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -10748,7 +12083,7 @@
       <c r="Z25" s="27"/>
       <c r="AA25" s="7"/>
     </row>
-    <row r="26" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -10778,7 +12113,7 @@
       <c r="Z26" s="85"/>
       <c r="AA26" s="86"/>
     </row>
-    <row r="27" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:29" ht="30" customHeight="1" thickBot="1">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -10808,10 +12143,10 @@
       <c r="Z27" s="28"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:29" ht="15" thickBot="1">
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:29" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:29" ht="18.899999999999999" thickBot="1">
       <c r="E29" s="197" t="s">
         <v>23</v>
       </c>
@@ -10844,7 +12179,7 @@
       <c r="AB29" s="198"/>
       <c r="AC29" s="199"/>
     </row>
-    <row r="30" spans="2:29" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:29" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="H30"/>
       <c r="I30" s="42"/>
@@ -10857,7 +12192,7 @@
       <c r="Z30" s="41"/>
       <c r="AC30" s="42"/>
     </row>
-    <row r="31" spans="2:29" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:29" ht="23.15" customHeight="1">
       <c r="E31" s="41"/>
       <c r="H31"/>
       <c r="I31" s="42"/>
@@ -10870,7 +12205,7 @@
       <c r="Z31" s="41"/>
       <c r="AC31" s="42"/>
     </row>
-    <row r="32" spans="2:29" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:29" ht="23.15" customHeight="1" thickBot="1">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -10893,7 +12228,7 @@
       <c r="AB32" s="44"/>
       <c r="AC32" s="45"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:8">
       <c r="H33"/>
     </row>
   </sheetData>
@@ -10937,1331 +12272,4 @@
   <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B42591-B480-4294-98B1-CEFCE49C5F5E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AE33"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="32.53515625" customWidth="1"/>
-    <col min="4" max="4" width="32.15234375" customWidth="1"/>
-    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.61328125" customWidth="1"/>
-    <col min="29" max="29" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.53515625" customWidth="1"/>
-    <col min="33" max="33" width="4.4609375" customWidth="1"/>
-    <col min="34" max="34" width="4.53515625" customWidth="1"/>
-    <col min="35" max="35" width="4.15234375" customWidth="1"/>
-    <col min="36" max="37" width="5" customWidth="1"/>
-    <col min="38" max="38" width="4.69140625" customWidth="1"/>
-    <col min="39" max="39" width="5.23046875" customWidth="1"/>
-    <col min="40" max="40" width="4.4609375" customWidth="1"/>
-    <col min="41" max="41" width="5" customWidth="1"/>
-    <col min="42" max="42" width="4.23046875" customWidth="1"/>
-    <col min="43" max="43" width="4.69140625" customWidth="1"/>
-    <col min="44" max="44" width="4.53515625" customWidth="1"/>
-    <col min="45" max="46" width="4.15234375" customWidth="1"/>
-    <col min="47" max="47" width="4.69140625" customWidth="1"/>
-    <col min="48" max="48" width="5.53515625" customWidth="1"/>
-    <col min="49" max="49" width="4.4609375" customWidth="1"/>
-    <col min="50" max="50" width="3.84375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="200" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="202"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="205"/>
-    </row>
-    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="208"/>
-    </row>
-    <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="196" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="196"/>
-      <c r="AE6" s="196"/>
-    </row>
-    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-    </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="178" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="180"/>
-      <c r="T10" s="178" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="179"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="179"/>
-      <c r="AC10" s="180"/>
-    </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="53"/>
-      <c r="T11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="X11" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD11" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE11" s="54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="61">
-        <v>1</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="106">
-        <v>8</v>
-      </c>
-      <c r="F12" s="107">
-        <v>8.33</v>
-      </c>
-      <c r="G12" s="107">
-        <v>8</v>
-      </c>
-      <c r="H12" s="108">
-        <v>8.33</v>
-      </c>
-      <c r="I12" s="118">
-        <f t="shared" ref="I12:I18" si="0">(AVERAGE(E12:G12)+H12)/2</f>
-        <v>8.2199999999999989</v>
-      </c>
-      <c r="J12" s="109">
-        <v>10</v>
-      </c>
-      <c r="K12" s="116">
-        <v>8</v>
-      </c>
-      <c r="L12" s="110">
-        <v>6</v>
-      </c>
-      <c r="M12" s="111">
-        <v>7.78</v>
-      </c>
-      <c r="N12" s="118">
-        <f>(AVERAGE(J12:L12)+M12)/2</f>
-        <v>7.8900000000000006</v>
-      </c>
-      <c r="O12" s="106">
-        <v>10</v>
-      </c>
-      <c r="P12" s="107">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="107">
-        <v>10</v>
-      </c>
-      <c r="R12" s="108">
-        <v>8</v>
-      </c>
-      <c r="S12" s="118">
-        <f>(AVERAGE(O12:Q12)+R12)/2</f>
-        <v>9</v>
-      </c>
-      <c r="T12" s="106">
-        <v>6</v>
-      </c>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="108">
-        <v>10</v>
-      </c>
-      <c r="X12" s="118">
-        <f>(AVERAGE(T12:V12)+W12)/2</f>
-        <v>8</v>
-      </c>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="108"/>
-      <c r="AC12" s="118" t="e">
-        <f>(AVERAGE(Y12:AA12))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="119" t="e">
-        <f>AVERAGE(I12,N12,S12,X12,AC12,AD12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="62">
-        <v>2</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="112">
-        <v>8</v>
-      </c>
-      <c r="F13" s="113">
-        <v>8.75</v>
-      </c>
-      <c r="G13" s="113">
-        <v>8</v>
-      </c>
-      <c r="H13" s="114">
-        <v>9.16</v>
-      </c>
-      <c r="I13" s="118">
-        <f t="shared" si="0"/>
-        <v>8.7050000000000001</v>
-      </c>
-      <c r="J13" s="115">
-        <v>10</v>
-      </c>
-      <c r="K13" s="116">
-        <v>8</v>
-      </c>
-      <c r="L13" s="116">
-        <v>7.5</v>
-      </c>
-      <c r="M13" s="117">
-        <v>7.83</v>
-      </c>
-      <c r="N13" s="118">
-        <f t="shared" ref="N13" si="1">(AVERAGE(J13:L13)+M13)/2</f>
-        <v>8.1649999999999991</v>
-      </c>
-      <c r="O13" s="112">
-        <v>10</v>
-      </c>
-      <c r="P13" s="113">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="113">
-        <v>10</v>
-      </c>
-      <c r="R13" s="114">
-        <v>8</v>
-      </c>
-      <c r="S13" s="118">
-        <f t="shared" ref="S13" si="2">(AVERAGE(O13:Q13)+R13)/2</f>
-        <v>9</v>
-      </c>
-      <c r="T13" s="112">
-        <v>8</v>
-      </c>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="131">
-        <v>10</v>
-      </c>
-      <c r="X13" s="118">
-        <f t="shared" ref="X13" si="3">(AVERAGE(T13:V13)+W13)/2</f>
-        <v>9</v>
-      </c>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="118" t="e">
-        <f t="shared" ref="AC13:AC14" si="4">(AVERAGE(Y13:AA13))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="119" t="e">
-        <f t="shared" ref="AE13:AE14" si="5">AVERAGE(I13,N13,S13,X13,AC13,AD13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="62">
-        <v>3</v>
-      </c>
-      <c r="C14" s="149" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="151">
-        <v>8</v>
-      </c>
-      <c r="F14" s="152">
-        <v>9</v>
-      </c>
-      <c r="G14" s="152">
-        <v>7</v>
-      </c>
-      <c r="H14" s="153">
-        <v>8.33</v>
-      </c>
-      <c r="I14" s="118">
-        <f t="shared" si="0"/>
-        <v>8.1649999999999991</v>
-      </c>
-      <c r="J14" s="154">
-        <v>10</v>
-      </c>
-      <c r="K14" s="155">
-        <v>9</v>
-      </c>
-      <c r="L14" s="155">
-        <v>8.35</v>
-      </c>
-      <c r="M14" s="156">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N14" s="118">
-        <f t="shared" ref="N14:N19" si="6">(AVERAGE(J14:L14)+M14)/2</f>
-        <v>8.9583333333333339</v>
-      </c>
-      <c r="O14" s="151">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="P14" s="152">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="152">
-        <v>8.9</v>
-      </c>
-      <c r="R14" s="153">
-        <v>7</v>
-      </c>
-      <c r="S14" s="118">
-        <f t="shared" ref="S14:S19" si="7">(AVERAGE(O14:Q14)+R14)/2</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="T14" s="151">
-        <v>8</v>
-      </c>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="118">
-        <f>(AVERAGE(T14:V14)+W14)/2</f>
-        <v>4</v>
-      </c>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="118" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="157" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="62">
-        <v>4</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="112">
-        <v>7</v>
-      </c>
-      <c r="F15" s="113">
-        <v>8.33</v>
-      </c>
-      <c r="G15" s="113">
-        <v>7.5</v>
-      </c>
-      <c r="H15" s="114">
-        <v>9.16</v>
-      </c>
-      <c r="I15" s="118">
-        <f t="shared" si="0"/>
-        <v>8.3849999999999998</v>
-      </c>
-      <c r="J15" s="115">
-        <v>10</v>
-      </c>
-      <c r="K15" s="116">
-        <v>8</v>
-      </c>
-      <c r="L15" s="116">
-        <v>6.65</v>
-      </c>
-      <c r="M15" s="117">
-        <v>7.7</v>
-      </c>
-      <c r="N15" s="118">
-        <f t="shared" si="6"/>
-        <v>7.9583333333333339</v>
-      </c>
-      <c r="O15" s="112">
-        <v>7.5</v>
-      </c>
-      <c r="P15" s="113">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="113">
-        <v>10</v>
-      </c>
-      <c r="R15" s="114">
-        <v>7</v>
-      </c>
-      <c r="S15" s="118">
-        <f t="shared" si="7"/>
-        <v>8.0833333333333321</v>
-      </c>
-      <c r="T15" s="112"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="118" t="e">
-        <f>(AVERAGE(T15:V15)+W15)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y15" s="112"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="118" t="e">
-        <f>(AVERAGE(Y15:AA15))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD15" s="112"/>
-      <c r="AE15" s="119" t="e">
-        <f>AVERAGE(I15,N15,S15,X15,AC15,AD15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="62">
-        <v>5</v>
-      </c>
-      <c r="C16" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="118" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="112"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="118" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="112"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="118" t="e">
-        <f>(AVERAGE(T16:V16)+W16)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="112"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="114"/>
-      <c r="AC16" s="118" t="e">
-        <f>(AVERAGE(Y16:AA16))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD16" s="112"/>
-      <c r="AE16" s="119" t="e">
-        <f>AVERAGE(I16,N16,S16,X16,AC16,AD16)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="62">
-        <v>6</v>
-      </c>
-      <c r="C17" s="140" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="142">
-        <v>8</v>
-      </c>
-      <c r="F17" s="143">
-        <v>8</v>
-      </c>
-      <c r="G17" s="143"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="118">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="118" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="142"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="118" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="142"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="118" t="e">
-        <f>(AVERAGE(T17:V17)+W17)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y17" s="142"/>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="144"/>
-      <c r="AC17" s="118" t="e">
-        <f>(AVERAGE(Y17:AA17))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD17" s="142"/>
-      <c r="AE17" s="148" t="e">
-        <f>AVERAGE(I17,N17,S17,X17,AC17,AD17)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="62">
-        <v>7</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="121">
-        <v>8</v>
-      </c>
-      <c r="F18" s="132">
-        <v>8</v>
-      </c>
-      <c r="G18" s="132">
-        <v>6</v>
-      </c>
-      <c r="H18" s="133">
-        <v>7.5</v>
-      </c>
-      <c r="I18" s="123">
-        <f t="shared" si="0"/>
-        <v>7.4166666666666661</v>
-      </c>
-      <c r="J18" s="170">
-        <v>10</v>
-      </c>
-      <c r="K18" s="171">
-        <v>7</v>
-      </c>
-      <c r="L18" s="171">
-        <v>5</v>
-      </c>
-      <c r="M18" s="172">
-        <v>8.89</v>
-      </c>
-      <c r="N18" s="123">
-        <f t="shared" si="6"/>
-        <v>8.1116666666666664</v>
-      </c>
-      <c r="O18" s="121">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="P18" s="132">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="132">
-        <v>9</v>
-      </c>
-      <c r="R18" s="133">
-        <v>7</v>
-      </c>
-      <c r="S18" s="123">
-        <f t="shared" si="7"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="T18" s="121">
-        <v>8</v>
-      </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="123">
-        <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>4</v>
-      </c>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="123" t="e">
-        <f>(AVERAGE(Y18:AA18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="124" t="e">
-        <f>AVERAGE(I18,N18,S18,X18,AC18,AD18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B19" s="62">
-        <v>8</v>
-      </c>
-      <c r="C19" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="121">
-        <v>7</v>
-      </c>
-      <c r="F19" s="132">
-        <v>7.08</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="123">
-        <f>(AVERAGE(E19:G19)+H19)/2</f>
-        <v>3.52</v>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="123" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="123" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="123">
-        <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>4</v>
-      </c>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="123" t="e">
-        <f>(AVERAGE(Y19:AA19))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="124" t="e">
-        <f>AVERAGE(I19,N19,S19,X19,AC19,AD19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="62">
-        <v>9</v>
-      </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="24"/>
-    </row>
-    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="62">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="24"/>
-    </row>
-    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="62">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="24"/>
-    </row>
-    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="62">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="24"/>
-    </row>
-    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="62">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="24"/>
-    </row>
-    <row r="25" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="62">
-        <v>14</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="24"/>
-    </row>
-    <row r="26" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="82">
-        <v>15</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="93"/>
-    </row>
-    <row r="27" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="63">
-        <v>16</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="57"/>
-    </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="197" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="199"/>
-      <c r="J29" s="197" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="199"/>
-      <c r="O29" s="197" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" s="198"/>
-      <c r="Q29" s="198"/>
-      <c r="R29" s="199"/>
-      <c r="T29" s="197" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="198"/>
-      <c r="V29" s="198"/>
-      <c r="W29" s="199"/>
-      <c r="Y29" s="197" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z29" s="198"/>
-      <c r="AA29" s="198"/>
-      <c r="AB29" s="199"/>
-    </row>
-    <row r="30" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="41"/>
-      <c r="G30"/>
-      <c r="H30" s="42"/>
-      <c r="J30" s="41"/>
-      <c r="M30" s="42"/>
-      <c r="O30" s="41"/>
-      <c r="R30" s="42"/>
-      <c r="T30" s="41"/>
-      <c r="W30" s="42"/>
-      <c r="Y30" s="41"/>
-      <c r="AB30" s="42"/>
-    </row>
-    <row r="31" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E31" s="41"/>
-      <c r="G31"/>
-      <c r="H31" s="42"/>
-      <c r="J31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="O31" s="41"/>
-      <c r="R31" s="42"/>
-      <c r="T31" s="41"/>
-      <c r="W31" s="42"/>
-      <c r="Y31" s="41"/>
-      <c r="AB31" s="42"/>
-    </row>
-    <row r="32" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="45"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="45"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G33"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:AE15">
-    <sortCondition ref="C12:C15"/>
-  </sortState>
-  <dataConsolidate/>
-  <mergeCells count="12">
-    <mergeCell ref="B2:AE4"/>
-    <mergeCell ref="B6:AE6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
-  </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
-  <conditionalFormatting sqref="E12:AE17">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE12:AE17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13:V13 T12:W12 E12:H27 T14:W27 O12:R27 Y12:AB27" xr:uid="{B62CFA69-AA7E-41F2-B307-45E5E1E9831E}">
-      <formula1>0</formula1>
-      <formula2>10</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.12" right="0.17" top="0.98" bottom="0.54" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA7307-5C32-4484-8A44-46CFEBFE9712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A060B38-624E-4CBD-8A84-51F6FC9B03CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -360,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1181,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1542,10 +1542,6 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1704,18 +1700,22 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1756,6 +1756,19 @@
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -3204,7 +3217,7 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.23046875" customWidth="1"/>
     <col min="2" max="2" width="2.69140625" bestFit="1" customWidth="1"/>
@@ -3239,126 +3252,126 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1">
-      <c r="B1" s="181" t="s">
+    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="182"/>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-    </row>
-    <row r="2" spans="2:31" ht="15" customHeight="1">
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="182"/>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="182"/>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1">
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-    </row>
-    <row r="5" spans="2:31">
-      <c r="D5" s="183" t="s">
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+    </row>
+    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="180"/>
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="D5" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="183"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="183" t="s">
+      <c r="E5" s="181"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="183"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="186"/>
-    </row>
-    <row r="6" spans="2:31">
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3370,28 +3383,28 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:31">
-      <c r="D7" s="183" t="s">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="D7" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="183" t="s">
+      <c r="E7" s="181"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-    </row>
-    <row r="8" spans="2:31" ht="15" thickBot="1">
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
+    </row>
+    <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3403,46 +3416,46 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1">
+    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="178" t="s">
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="178" t="s">
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="179"/>
-      <c r="S9" s="180"/>
-      <c r="T9" s="178" t="s">
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="179"/>
-      <c r="V9" s="179"/>
-      <c r="W9" s="179"/>
-      <c r="X9" s="180"/>
-      <c r="Y9" s="178" t="s">
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="179"/>
-      <c r="AA9" s="179"/>
-      <c r="AB9" s="179"/>
-      <c r="AC9" s="180"/>
-    </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1">
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="177"/>
+      <c r="AC9" s="178"/>
+    </row>
+    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -3532,7 +3545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1">
+    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -3584,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" thickBot="1">
+    <row r="12" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -3636,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15" thickBot="1">
+    <row r="13" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16">
         <v>3</v>
       </c>
@@ -3688,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" thickBot="1">
+    <row r="14" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16">
         <v>4</v>
       </c>
@@ -3740,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="15" thickBot="1">
+    <row r="15" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="16">
         <v>5</v>
       </c>
@@ -3792,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15" thickBot="1">
+    <row r="16" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -3844,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15" thickBot="1">
+    <row r="17" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="16">
         <v>7</v>
       </c>
@@ -3896,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15" thickBot="1">
+    <row r="18" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="16">
         <v>8</v>
       </c>
@@ -3948,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15" thickBot="1">
+    <row r="19" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -4000,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15" thickBot="1">
+    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="16">
         <v>10</v>
       </c>
@@ -4052,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15" thickBot="1">
+    <row r="21" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="16">
         <v>11</v>
       </c>
@@ -4104,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15" thickBot="1">
+    <row r="22" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="16">
         <v>12</v>
       </c>
@@ -4156,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15" thickBot="1">
+    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="16">
         <v>13</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15" thickBot="1">
+    <row r="24" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="16">
         <v>14</v>
       </c>
@@ -4260,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1">
+    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="16">
         <v>15</v>
       </c>
@@ -4312,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1">
+    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="16">
         <v>16</v>
       </c>
@@ -4364,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15" thickBot="1">
+    <row r="27" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="16">
         <v>17</v>
       </c>
@@ -4416,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1">
+    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="16">
         <v>18</v>
       </c>
@@ -4468,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="15" thickBot="1">
+    <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="16">
         <v>19</v>
       </c>
@@ -4520,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="15" thickBot="1">
+    <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="16">
         <v>20</v>
       </c>
@@ -4572,22 +4585,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.4">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:31">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G35"/>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G36"/>
     </row>
   </sheetData>
@@ -4627,11 +4640,11 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A5" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -4669,101 +4682,101 @@
     <col min="40" max="40" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1">
-      <c r="B2" s="200" t="s">
+    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="202"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="205"/>
-    </row>
-    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="208"/>
-    </row>
-    <row r="6" spans="2:21" ht="25.75">
-      <c r="B6" s="196" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="200"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="203"/>
+    </row>
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="206"/>
+    </row>
+    <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-    </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1"/>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1">
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+    </row>
+    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -4776,7 +4789,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1">
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -4788,32 +4801,32 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1">
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="178" t="s">
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="180"/>
-    </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1">
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="178"/>
+    </row>
+    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -4873,7 +4886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -4917,7 +4930,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -4961,7 +4974,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5005,14 +5018,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="173" t="s">
+      <c r="C15" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="174" t="s">
+      <c r="D15" s="172" t="s">
         <v>77</v>
       </c>
       <c r="E15" s="151">
@@ -5038,18 +5051,18 @@
       <c r="O15" s="151"/>
       <c r="P15" s="152"/>
       <c r="Q15" s="152"/>
-      <c r="R15" s="175"/>
+      <c r="R15" s="173"/>
       <c r="S15" s="129" t="e">
         <f>AVERAGE(O15:Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="176"/>
-      <c r="U15" s="177" t="e">
+      <c r="T15" s="174"/>
+      <c r="U15" s="175" t="e">
         <f>AVERAGE(I15,N15,S15,T15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5073,7 +5086,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5097,7 +5110,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5121,7 +5134,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5145,7 +5158,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -5169,7 +5182,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -5193,7 +5206,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -5217,7 +5230,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -5241,7 +5254,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -5265,7 +5278,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -5289,7 +5302,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -5313,30 +5326,30 @@
       <c r="T26" s="28"/>
       <c r="U26" s="57"/>
     </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1">
+    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="197" t="s">
+    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+      <c r="J28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="O28" s="197" t="s">
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="197"/>
+      <c r="O28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
-      <c r="R28" s="199"/>
-    </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1">
+      <c r="P28" s="196"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="197"/>
+    </row>
+    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -5345,7 +5358,7 @@
       <c r="O29" s="41"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1">
+    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -5354,7 +5367,7 @@
       <c r="O30" s="41"/>
       <c r="R30" s="42"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5368,7 +5381,7 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -5387,12 +5400,12 @@
     <mergeCell ref="O10:S10"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:Q15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5416,70 +5429,70 @@
       <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1"/>
-    <row r="2" spans="1:10">
-      <c r="A2" s="187" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="189"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="190"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="192"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
-      <c r="A4" s="193"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="195"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="187"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="190"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="191"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="193"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="25.75">
-      <c r="A6" s="196" t="s">
+    <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="A6" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1">
+    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="49"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
@@ -5491,26 +5504,26 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="49"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="180"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="178"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5542,7 +5555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="61">
         <v>1</v>
       </c>
@@ -5556,7 +5569,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="62">
         <v>2</v>
       </c>
@@ -5570,7 +5583,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="62">
         <v>3</v>
       </c>
@@ -5584,7 +5597,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="62">
         <v>4</v>
       </c>
@@ -5598,7 +5611,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="62">
         <v>5</v>
       </c>
@@ -5612,7 +5625,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="62">
         <v>6</v>
       </c>
@@ -5626,7 +5639,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="62">
         <v>7</v>
       </c>
@@ -5640,7 +5653,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="18.45">
+    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="62">
         <v>8</v>
       </c>
@@ -5654,36 +5667,36 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="49"/>
-      <c r="D21" s="197" t="s">
+      <c r="D21" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="199"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="197"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="49"/>
       <c r="D22" s="41"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="49"/>
       <c r="D23" s="41"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="49"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="49"/>
     </row>
   </sheetData>
@@ -5716,7 +5729,7 @@
       <selection activeCell="B2" sqref="B2:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -5745,81 +5758,81 @@
     <col min="35" max="35" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1">
-      <c r="B2" s="200" t="s">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-    </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-    </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="208"/>
-    </row>
-    <row r="6" spans="2:16" ht="25.75">
-      <c r="B6" s="196" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="200"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="203"/>
+    </row>
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="206"/>
+    </row>
+    <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1"/>
-    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -5830,7 +5843,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1">
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5838,25 +5851,25 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1">
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1">
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="178"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5903,7 +5916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5922,7 +5935,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -5941,7 +5954,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5960,7 +5973,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5979,7 +5992,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5998,7 +6011,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6017,7 +6030,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6036,7 +6049,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6055,7 +6068,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6074,7 +6087,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6093,7 +6106,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6112,7 +6125,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6131,7 +6144,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6150,7 +6163,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6169,7 +6182,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6188,38 +6201,38 @@
       <c r="O26" s="28"/>
       <c r="P26" s="57"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1">
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="197" t="s">
+    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+      <c r="J28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-    </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1">
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="197"/>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
       <c r="J29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1">
+    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
       <c r="J30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -6229,7 +6242,7 @@
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6265,7 +6278,7 @@
       <selection activeCell="B2" sqref="B2:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6294,61 +6307,61 @@
     <col min="30" max="30" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="200" t="s">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="202"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="205"/>
-    </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="208"/>
-    </row>
-    <row r="6" spans="2:11" ht="25.75">
-      <c r="B6" s="196" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="200"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="203"/>
+    </row>
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="206"/>
+    </row>
+    <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1"/>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6359,24 +6372,24 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1">
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1">
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6408,7 +6421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6422,7 +6435,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6436,7 +6449,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6450,7 +6463,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6464,7 +6477,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6478,7 +6491,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6492,7 +6505,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6506,7 +6519,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6520,7 +6533,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6534,7 +6547,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6548,7 +6561,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6562,7 +6575,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6576,7 +6589,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6590,7 +6603,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6604,7 +6617,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6618,34 +6631,34 @@
       <c r="J26" s="28"/>
       <c r="K26" s="57"/>
     </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1">
+    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="197" t="s">
+    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1">
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1">
+    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6679,7 +6692,7 @@
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6708,121 +6721,121 @@
     <col min="45" max="45" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1">
-      <c r="B2" s="200" t="s">
+    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="205"/>
-    </row>
-    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="208"/>
-    </row>
-    <row r="6" spans="2:26" ht="25.75">
-      <c r="B6" s="196" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="203"/>
+    </row>
+    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="205"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="206"/>
+    </row>
+    <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" thickBot="1"/>
-    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1">
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6833,7 +6846,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1">
+    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6845,39 +6858,39 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:26" ht="15" thickBot="1">
+    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="178" t="s">
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="180"/>
-      <c r="T10" s="178" t="s">
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="179"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="180"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" thickBot="1">
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="178"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6954,7 +6967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6983,7 +6996,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7012,7 +7025,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7041,7 +7054,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7070,7 +7083,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7099,7 +7112,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="24"/>
     </row>
-    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -7128,7 +7141,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -7157,7 +7170,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -7186,7 +7199,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -7215,7 +7228,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -7244,7 +7257,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -7273,7 +7286,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -7302,7 +7315,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -7331,7 +7344,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -7360,7 +7373,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -7389,36 +7402,36 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="57"/>
     </row>
-    <row r="27" spans="2:26" ht="15" thickBot="1">
+    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="197" t="s">
+    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+      <c r="J28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="O28" s="197" t="s">
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="197"/>
+      <c r="O28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
-      <c r="R28" s="199"/>
-      <c r="T28" s="197" t="s">
+      <c r="P28" s="196"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="197"/>
+      <c r="T28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="199"/>
-    </row>
-    <row r="29" spans="2:26" ht="23.15" customHeight="1">
+      <c r="U28" s="196"/>
+      <c r="V28" s="196"/>
+      <c r="W28" s="197"/>
+    </row>
+    <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -7429,7 +7442,7 @@
       <c r="T29" s="41"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="2:26" ht="23.15" customHeight="1">
+    <row r="30" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -7440,7 +7453,7 @@
       <c r="T30" s="41"/>
       <c r="W30" s="42"/>
     </row>
-    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -7458,22 +7471,22 @@
       <c r="V31" s="44"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B2:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T28:W28"/>
-    <mergeCell ref="B2:Z4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7498,7 +7511,7 @@
       <selection activeCell="B2" sqref="B2:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="49" customWidth="1"/>
@@ -7527,171 +7540,171 @@
     <col min="55" max="55" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:36" ht="15" customHeight="1">
-      <c r="B2" s="200" t="s">
+    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="202"/>
-    </row>
-    <row r="3" spans="2:36" ht="15" customHeight="1">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="204"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="204"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="204"/>
-      <c r="AJ3" s="205"/>
-    </row>
-    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="207"/>
-      <c r="AI4" s="207"/>
-      <c r="AJ4" s="208"/>
-    </row>
-    <row r="7" spans="2:36" ht="28.3" thickBot="1">
-      <c r="B7" s="212" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="200"/>
+    </row>
+    <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="203"/>
+    </row>
+    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="205"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="205"/>
+      <c r="AC4" s="205"/>
+      <c r="AD4" s="205"/>
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="205"/>
+      <c r="AG4" s="205"/>
+      <c r="AH4" s="205"/>
+      <c r="AI4" s="205"/>
+      <c r="AJ4" s="206"/>
+    </row>
+    <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B7" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="212"/>
-      <c r="O7" s="212"/>
-      <c r="P7" s="212"/>
-      <c r="Q7" s="212"/>
-      <c r="R7" s="212"/>
-      <c r="S7" s="212"/>
-      <c r="T7" s="212"/>
-      <c r="U7" s="212"/>
-      <c r="V7" s="212"/>
-      <c r="W7" s="212"/>
-      <c r="X7" s="212"/>
-      <c r="Y7" s="212"/>
-      <c r="Z7" s="212"/>
-      <c r="AA7" s="212"/>
-      <c r="AB7" s="212"/>
-      <c r="AC7" s="212"/>
-      <c r="AD7" s="212"/>
-      <c r="AE7" s="212"/>
-      <c r="AF7" s="212"/>
-      <c r="AG7" s="212"/>
-      <c r="AH7" s="212"/>
-      <c r="AI7" s="212"/>
-      <c r="AJ7" s="212"/>
-    </row>
-    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1">
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="210"/>
+      <c r="R7" s="210"/>
+      <c r="S7" s="210"/>
+      <c r="T7" s="210"/>
+      <c r="U7" s="210"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="210"/>
+      <c r="X7" s="210"/>
+      <c r="Y7" s="210"/>
+      <c r="Z7" s="210"/>
+      <c r="AA7" s="210"/>
+      <c r="AB7" s="210"/>
+      <c r="AC7" s="210"/>
+      <c r="AD7" s="210"/>
+      <c r="AE7" s="210"/>
+      <c r="AF7" s="210"/>
+      <c r="AG7" s="210"/>
+      <c r="AH7" s="210"/>
+      <c r="AI7" s="210"/>
+      <c r="AJ7" s="210"/>
+    </row>
+    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="214"/>
-    </row>
-    <row r="9" spans="2:36" ht="15" thickBot="1">
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="212"/>
+    </row>
+    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -7703,54 +7716,54 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="209" t="s">
+      <c r="E10" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="209" t="s">
+      <c r="F10" s="208"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="209" t="s">
+      <c r="K10" s="208"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="209" t="s">
+      <c r="P10" s="208"/>
+      <c r="Q10" s="208"/>
+      <c r="R10" s="208"/>
+      <c r="S10" s="209"/>
+      <c r="T10" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="209" t="s">
+      <c r="U10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="208"/>
+      <c r="X10" s="209"/>
+      <c r="Y10" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="210"/>
-      <c r="AA10" s="210"/>
-      <c r="AB10" s="210"/>
-      <c r="AC10" s="211"/>
-      <c r="AD10" s="209" t="s">
+      <c r="Z10" s="208"/>
+      <c r="AA10" s="208"/>
+      <c r="AB10" s="208"/>
+      <c r="AC10" s="209"/>
+      <c r="AD10" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="211"/>
-    </row>
-    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="AE10" s="208"/>
+      <c r="AF10" s="208"/>
+      <c r="AG10" s="208"/>
+      <c r="AH10" s="209"/>
+    </row>
+    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -7857,7 +7870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7896,7 +7909,7 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7935,7 +7948,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7974,7 +7987,7 @@
       <c r="AI14" s="27"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -8013,7 +8026,7 @@
       <c r="AI15" s="27"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -8052,7 +8065,7 @@
       <c r="AI16" s="27"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -8091,7 +8104,7 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -8130,7 +8143,7 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -8169,7 +8182,7 @@
       <c r="AI19" s="27"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -8208,7 +8221,7 @@
       <c r="AI20" s="27"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -8247,7 +8260,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -8286,7 +8299,7 @@
       <c r="AI22" s="27"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -8325,7 +8338,7 @@
       <c r="AI23" s="27"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -8364,7 +8377,7 @@
       <c r="AI24" s="27"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -8403,7 +8416,7 @@
       <c r="AI25" s="27"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -8442,48 +8455,48 @@
       <c r="AI26" s="28"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" spans="2:36" ht="15" thickBot="1">
+    <row r="27" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="197" t="s">
+    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+      <c r="J28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="O28" s="197" t="s">
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="197"/>
+      <c r="O28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
-      <c r="R28" s="199"/>
-      <c r="T28" s="197" t="s">
+      <c r="P28" s="196"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="197"/>
+      <c r="T28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="199"/>
-      <c r="Y28" s="197" t="s">
+      <c r="U28" s="196"/>
+      <c r="V28" s="196"/>
+      <c r="W28" s="197"/>
+      <c r="Y28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="198"/>
-      <c r="AA28" s="198"/>
-      <c r="AB28" s="199"/>
-      <c r="AD28" s="197" t="s">
+      <c r="Z28" s="196"/>
+      <c r="AA28" s="196"/>
+      <c r="AB28" s="197"/>
+      <c r="AD28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="198"/>
-      <c r="AF28" s="198"/>
-      <c r="AG28" s="199"/>
-    </row>
-    <row r="29" spans="2:36" ht="23.15" customHeight="1">
+      <c r="AE28" s="196"/>
+      <c r="AF28" s="196"/>
+      <c r="AG28" s="197"/>
+    </row>
+    <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -8498,7 +8511,7 @@
       <c r="AD29" s="41"/>
       <c r="AG29" s="42"/>
     </row>
-    <row r="30" spans="2:36" ht="23.15" customHeight="1">
+    <row r="30" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -8513,7 +8526,7 @@
       <c r="AD30" s="41"/>
       <c r="AG30" s="42"/>
     </row>
-    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -8539,7 +8552,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="45"/>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -8584,7 +8597,7 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4.23046875" style="49" customWidth="1"/>
@@ -8614,183 +8627,183 @@
     <col min="60" max="60" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1">
-      <c r="B2" s="215" t="s">
+    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="216"/>
-      <c r="W2" s="216"/>
-      <c r="X2" s="216"/>
-      <c r="Y2" s="216"/>
-      <c r="Z2" s="216"/>
-      <c r="AA2" s="216"/>
-      <c r="AB2" s="216"/>
-      <c r="AC2" s="216"/>
-      <c r="AD2" s="216"/>
-      <c r="AE2" s="216"/>
-      <c r="AF2" s="216"/>
-      <c r="AG2" s="216"/>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="216"/>
-      <c r="AJ2" s="216"/>
-      <c r="AK2" s="216"/>
-      <c r="AL2" s="216"/>
-      <c r="AM2" s="216"/>
-      <c r="AN2" s="216"/>
-      <c r="AO2" s="217"/>
-    </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1">
-      <c r="B3" s="218"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="219"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="219"/>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="219"/>
-      <c r="AG3" s="219"/>
-      <c r="AH3" s="219"/>
-      <c r="AI3" s="219"/>
-      <c r="AJ3" s="219"/>
-      <c r="AK3" s="219"/>
-      <c r="AL3" s="219"/>
-      <c r="AM3" s="219"/>
-      <c r="AN3" s="219"/>
-      <c r="AO3" s="220"/>
-    </row>
-    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B4" s="221"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="222"/>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="222"/>
-      <c r="S4" s="222"/>
-      <c r="T4" s="222"/>
-      <c r="U4" s="222"/>
-      <c r="V4" s="222"/>
-      <c r="W4" s="222"/>
-      <c r="X4" s="222"/>
-      <c r="Y4" s="222"/>
-      <c r="Z4" s="222"/>
-      <c r="AA4" s="222"/>
-      <c r="AB4" s="222"/>
-      <c r="AC4" s="222"/>
-      <c r="AD4" s="222"/>
-      <c r="AE4" s="222"/>
-      <c r="AF4" s="222"/>
-      <c r="AG4" s="222"/>
-      <c r="AH4" s="222"/>
-      <c r="AI4" s="222"/>
-      <c r="AJ4" s="222"/>
-      <c r="AK4" s="222"/>
-      <c r="AL4" s="222"/>
-      <c r="AM4" s="222"/>
-      <c r="AN4" s="222"/>
-      <c r="AO4" s="223"/>
-    </row>
-    <row r="6" spans="2:41" ht="30.9">
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="214"/>
+      <c r="AH2" s="214"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="214"/>
+      <c r="AK2" s="214"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="214"/>
+      <c r="AN2" s="214"/>
+      <c r="AO2" s="215"/>
+    </row>
+    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="217"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="217"/>
+      <c r="AC3" s="217"/>
+      <c r="AD3" s="217"/>
+      <c r="AE3" s="217"/>
+      <c r="AF3" s="217"/>
+      <c r="AG3" s="217"/>
+      <c r="AH3" s="217"/>
+      <c r="AI3" s="217"/>
+      <c r="AJ3" s="217"/>
+      <c r="AK3" s="217"/>
+      <c r="AL3" s="217"/>
+      <c r="AM3" s="217"/>
+      <c r="AN3" s="217"/>
+      <c r="AO3" s="218"/>
+    </row>
+    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="219"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="220"/>
+      <c r="S4" s="220"/>
+      <c r="T4" s="220"/>
+      <c r="U4" s="220"/>
+      <c r="V4" s="220"/>
+      <c r="W4" s="220"/>
+      <c r="X4" s="220"/>
+      <c r="Y4" s="220"/>
+      <c r="Z4" s="220"/>
+      <c r="AA4" s="220"/>
+      <c r="AB4" s="220"/>
+      <c r="AC4" s="220"/>
+      <c r="AD4" s="220"/>
+      <c r="AE4" s="220"/>
+      <c r="AF4" s="220"/>
+      <c r="AG4" s="220"/>
+      <c r="AH4" s="220"/>
+      <c r="AI4" s="220"/>
+      <c r="AJ4" s="220"/>
+      <c r="AK4" s="220"/>
+      <c r="AL4" s="220"/>
+      <c r="AM4" s="220"/>
+      <c r="AN4" s="220"/>
+      <c r="AO4" s="221"/>
+    </row>
+    <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
-      <c r="M6" s="212"/>
-      <c r="N6" s="212"/>
-      <c r="O6" s="212"/>
-      <c r="P6" s="212"/>
-      <c r="Q6" s="212"/>
-      <c r="R6" s="212"/>
-      <c r="S6" s="212"/>
-      <c r="T6" s="212"/>
-      <c r="U6" s="212"/>
-      <c r="V6" s="212"/>
-      <c r="W6" s="212"/>
-      <c r="X6" s="212"/>
-      <c r="Y6" s="212"/>
-      <c r="Z6" s="212"/>
-      <c r="AA6" s="212"/>
-      <c r="AB6" s="212"/>
-      <c r="AC6" s="212"/>
-      <c r="AD6" s="212"/>
-      <c r="AE6" s="212"/>
-      <c r="AF6" s="212"/>
-      <c r="AG6" s="212"/>
-      <c r="AH6" s="212"/>
-      <c r="AI6" s="212"/>
-      <c r="AJ6" s="212"/>
-      <c r="AK6" s="212"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="210"/>
+      <c r="L6" s="210"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="210"/>
+      <c r="R6" s="210"/>
+      <c r="S6" s="210"/>
+      <c r="T6" s="210"/>
+      <c r="U6" s="210"/>
+      <c r="V6" s="210"/>
+      <c r="W6" s="210"/>
+      <c r="X6" s="210"/>
+      <c r="Y6" s="210"/>
+      <c r="Z6" s="210"/>
+      <c r="AA6" s="210"/>
+      <c r="AB6" s="210"/>
+      <c r="AC6" s="210"/>
+      <c r="AD6" s="210"/>
+      <c r="AE6" s="210"/>
+      <c r="AF6" s="210"/>
+      <c r="AG6" s="210"/>
+      <c r="AH6" s="210"/>
+      <c r="AI6" s="210"/>
+      <c r="AJ6" s="210"/>
+      <c r="AK6" s="210"/>
       <c r="AL6" s="81"/>
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
     </row>
-    <row r="7" spans="2:41" ht="15" thickBot="1"/>
-    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -8801,7 +8814,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:41" ht="15" thickBot="1">
+    <row r="9" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -8813,61 +8826,61 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="209" t="s">
+      <c r="E10" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="209" t="s">
+      <c r="F10" s="208"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="209" t="s">
+      <c r="K10" s="208"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="209" t="s">
+      <c r="P10" s="208"/>
+      <c r="Q10" s="208"/>
+      <c r="R10" s="208"/>
+      <c r="S10" s="209"/>
+      <c r="T10" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="209" t="s">
+      <c r="U10" s="208"/>
+      <c r="V10" s="208"/>
+      <c r="W10" s="208"/>
+      <c r="X10" s="209"/>
+      <c r="Y10" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="210"/>
-      <c r="AA10" s="210"/>
-      <c r="AB10" s="210"/>
-      <c r="AC10" s="211"/>
-      <c r="AD10" s="209" t="s">
+      <c r="Z10" s="208"/>
+      <c r="AA10" s="208"/>
+      <c r="AB10" s="208"/>
+      <c r="AC10" s="209"/>
+      <c r="AD10" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="210"/>
-      <c r="AG10" s="210"/>
-      <c r="AH10" s="211"/>
-      <c r="AI10" s="209" t="s">
+      <c r="AE10" s="208"/>
+      <c r="AF10" s="208"/>
+      <c r="AG10" s="208"/>
+      <c r="AH10" s="209"/>
+      <c r="AI10" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="210"/>
-      <c r="AK10" s="210"/>
-      <c r="AL10" s="210"/>
-      <c r="AM10" s="211"/>
-    </row>
-    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="AJ10" s="208"/>
+      <c r="AK10" s="208"/>
+      <c r="AL10" s="208"/>
+      <c r="AM10" s="209"/>
+    </row>
+    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="74" t="s">
         <v>24</v>
       </c>
@@ -8989,7 +9002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -9033,7 +9046,7 @@
       <c r="AN12" s="26"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -9077,7 +9090,7 @@
       <c r="AN13" s="27"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -9121,7 +9134,7 @@
       <c r="AN14" s="27"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -9165,7 +9178,7 @@
       <c r="AN15" s="27"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -9209,7 +9222,7 @@
       <c r="AN16" s="27"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -9253,7 +9266,7 @@
       <c r="AN17" s="27"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -9297,7 +9310,7 @@
       <c r="AN18" s="27"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -9341,7 +9354,7 @@
       <c r="AN19" s="27"/>
       <c r="AO19" s="24"/>
     </row>
-    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -9385,7 +9398,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="24"/>
     </row>
-    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -9429,7 +9442,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="24"/>
     </row>
-    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -9473,7 +9486,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="24"/>
     </row>
-    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -9517,7 +9530,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="24"/>
     </row>
-    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -9561,7 +9574,7 @@
       <c r="AN24" s="27"/>
       <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -9605,7 +9618,7 @@
       <c r="AN25" s="27"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -9649,54 +9662,54 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="57"/>
     </row>
-    <row r="27" spans="2:41" ht="15" thickBot="1">
+    <row r="27" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1">
-      <c r="E28" s="197" t="s">
+    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="J28" s="197" t="s">
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+      <c r="J28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="O28" s="197" t="s">
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="197"/>
+      <c r="O28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
-      <c r="R28" s="199"/>
-      <c r="T28" s="197" t="s">
+      <c r="P28" s="196"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="197"/>
+      <c r="T28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="199"/>
-      <c r="Y28" s="197" t="s">
+      <c r="U28" s="196"/>
+      <c r="V28" s="196"/>
+      <c r="W28" s="197"/>
+      <c r="Y28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="198"/>
-      <c r="AA28" s="198"/>
-      <c r="AB28" s="199"/>
-      <c r="AD28" s="197" t="s">
+      <c r="Z28" s="196"/>
+      <c r="AA28" s="196"/>
+      <c r="AB28" s="197"/>
+      <c r="AD28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="198"/>
-      <c r="AF28" s="198"/>
-      <c r="AG28" s="199"/>
-      <c r="AI28" s="197" t="s">
+      <c r="AE28" s="196"/>
+      <c r="AF28" s="196"/>
+      <c r="AG28" s="197"/>
+      <c r="AI28" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="AJ28" s="198"/>
-      <c r="AK28" s="198"/>
-      <c r="AL28" s="199"/>
-    </row>
-    <row r="29" spans="2:41" ht="23.15" customHeight="1">
+      <c r="AJ28" s="196"/>
+      <c r="AK28" s="196"/>
+      <c r="AL28" s="197"/>
+    </row>
+    <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -9713,7 +9726,7 @@
       <c r="AI29" s="41"/>
       <c r="AL29" s="42"/>
     </row>
-    <row r="30" spans="2:41" ht="23.15" customHeight="1">
+    <row r="30" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -9730,7 +9743,7 @@
       <c r="AI30" s="41"/>
       <c r="AL30" s="42"/>
     </row>
-    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -9760,12 +9773,19 @@
       <c r="AK31" s="44"/>
       <c r="AL31" s="45"/>
     </row>
-    <row r="32" spans="2:41">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9775,13 +9795,6 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9802,11 +9815,11 @@
   </sheetPr>
   <dimension ref="B1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -9848,141 +9861,141 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:31" ht="15" customHeight="1">
-      <c r="B2" s="200" t="s">
+    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="202"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="205"/>
-    </row>
-    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="208"/>
-    </row>
-    <row r="6" spans="2:31" ht="25.75">
-      <c r="B6" s="196" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="200"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="203"/>
+    </row>
+    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="205"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="205"/>
+      <c r="AC4" s="205"/>
+      <c r="AD4" s="205"/>
+      <c r="AE4" s="206"/>
+    </row>
+    <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="196"/>
-      <c r="AE6" s="196"/>
-    </row>
-    <row r="7" spans="2:31" ht="15" thickBot="1"/>
-    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1">
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+    </row>
+    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -9995,7 +10008,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1">
+    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -10007,46 +10020,46 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1">
+    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178" t="s">
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="178" t="s">
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="180"/>
-      <c r="T10" s="178" t="s">
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="179"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="180"/>
-      <c r="Y10" s="178" t="s">
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="179"/>
-      <c r="AC10" s="180"/>
-    </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1">
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="178"/>
+    </row>
+    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10134,7 +10147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -10218,7 +10231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -10302,7 +10315,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -10365,10 +10378,12 @@
       </c>
       <c r="U14" s="152"/>
       <c r="V14" s="152"/>
-      <c r="W14" s="153"/>
+      <c r="W14" s="153">
+        <v>9</v>
+      </c>
       <c r="X14" s="118">
         <f>(AVERAGE(T14:V14)+W14)/2</f>
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" s="151"/>
       <c r="Z14" s="152"/>
@@ -10384,7 +10399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -10464,7 +10479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -10520,7 +10535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -10580,7 +10595,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -10606,16 +10621,16 @@
         <f t="shared" si="0"/>
         <v>7.4166666666666661</v>
       </c>
-      <c r="J18" s="170">
+      <c r="J18" s="168">
         <v>10</v>
       </c>
-      <c r="K18" s="171">
+      <c r="K18" s="169">
         <v>7</v>
       </c>
-      <c r="L18" s="171">
+      <c r="L18" s="169">
         <v>5</v>
       </c>
-      <c r="M18" s="172">
+      <c r="M18" s="170">
         <v>8.89</v>
       </c>
       <c r="N18" s="123">
@@ -10643,10 +10658,12 @@
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="31"/>
+      <c r="W18" s="31">
+        <v>10</v>
+      </c>
       <c r="X18" s="123">
         <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y18" s="27"/>
       <c r="Z18" s="7"/>
@@ -10662,7 +10679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -10706,7 +10723,7 @@
       <c r="W19" s="31"/>
       <c r="X19" s="123">
         <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y19" s="27"/>
       <c r="Z19" s="7"/>
@@ -10722,7 +10739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -10756,7 +10773,7 @@
       <c r="AD20" s="27"/>
       <c r="AE20" s="24"/>
     </row>
-    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -10790,7 +10807,7 @@
       <c r="AD21" s="27"/>
       <c r="AE21" s="24"/>
     </row>
-    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -10824,7 +10841,7 @@
       <c r="AD22" s="27"/>
       <c r="AE22" s="24"/>
     </row>
-    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -10858,7 +10875,7 @@
       <c r="AD23" s="27"/>
       <c r="AE23" s="24"/>
     </row>
-    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -10892,7 +10909,7 @@
       <c r="AD24" s="27"/>
       <c r="AE24" s="24"/>
     </row>
-    <row r="25" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -10926,7 +10943,7 @@
       <c r="AD25" s="27"/>
       <c r="AE25" s="24"/>
     </row>
-    <row r="26" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -10960,7 +10977,7 @@
       <c r="AD26" s="85"/>
       <c r="AE26" s="93"/>
     </row>
-    <row r="27" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -10994,42 +11011,42 @@
       <c r="AD27" s="28"/>
       <c r="AE27" s="57"/>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1">
+    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G28"/>
     </row>
-    <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1">
-      <c r="E29" s="197" t="s">
+    <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="199"/>
-      <c r="J29" s="197" t="s">
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="197"/>
+      <c r="J29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="199"/>
-      <c r="O29" s="197" t="s">
+      <c r="K29" s="196"/>
+      <c r="L29" s="196"/>
+      <c r="M29" s="197"/>
+      <c r="O29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="198"/>
-      <c r="Q29" s="198"/>
-      <c r="R29" s="199"/>
-      <c r="T29" s="197" t="s">
+      <c r="P29" s="196"/>
+      <c r="Q29" s="196"/>
+      <c r="R29" s="197"/>
+      <c r="T29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="U29" s="198"/>
-      <c r="V29" s="198"/>
-      <c r="W29" s="199"/>
-      <c r="Y29" s="197" t="s">
+      <c r="U29" s="196"/>
+      <c r="V29" s="196"/>
+      <c r="W29" s="197"/>
+      <c r="Y29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="Z29" s="198"/>
-      <c r="AA29" s="198"/>
-      <c r="AB29" s="199"/>
-    </row>
-    <row r="30" spans="2:31" ht="23.15" customHeight="1">
+      <c r="Z29" s="196"/>
+      <c r="AA29" s="196"/>
+      <c r="AB29" s="197"/>
+    </row>
+    <row r="30" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -11042,7 +11059,7 @@
       <c r="Y30" s="41"/>
       <c r="AB30" s="42"/>
     </row>
-    <row r="31" spans="2:31" ht="23.15" customHeight="1">
+    <row r="31" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" s="41"/>
       <c r="G31"/>
       <c r="H31" s="42"/>
@@ -11055,7 +11072,7 @@
       <c r="Y31" s="41"/>
       <c r="AB31" s="42"/>
     </row>
-    <row r="32" spans="2:31" ht="23.15" customHeight="1" thickBot="1">
+    <row r="32" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -11077,7 +11094,7 @@
       <c r="AA32" s="44"/>
       <c r="AB32" s="45"/>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G33"/>
     </row>
   </sheetData>
@@ -11086,11 +11103,6 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -11098,15 +11110,20 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="Y29:AB29"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE17">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AE17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11129,11 +11146,11 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A4" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -11184,145 +11201,145 @@
     <col min="51" max="51" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:32" ht="15" customHeight="1">
-      <c r="B2" s="224" t="s">
+    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-    </row>
-    <row r="3" spans="2:32" ht="15" customHeight="1">
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="204"/>
-      <c r="AE3" s="204"/>
-      <c r="AF3" s="205"/>
-    </row>
-    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="208"/>
-    </row>
-    <row r="6" spans="2:32" ht="25.75">
-      <c r="B6" s="196" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+    </row>
+    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="203"/>
+    </row>
+    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="204"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="205"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="205"/>
+      <c r="AC4" s="205"/>
+      <c r="AD4" s="205"/>
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="206"/>
+    </row>
+    <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
+      <c r="B6" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="196"/>
-      <c r="AE6" s="196"/>
-      <c r="AF6" s="196"/>
-    </row>
-    <row r="7" spans="2:32" ht="15" thickBot="1"/>
-    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1">
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+      <c r="AF6" s="194"/>
+    </row>
+    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -11336,7 +11353,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:32" ht="15" thickBot="1">
+    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -11352,40 +11369,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1">
+    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="178" t="s">
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="178" t="s">
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="179"/>
-      <c r="T10" s="180"/>
-      <c r="U10" s="178" t="s">
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="178"/>
+      <c r="U10" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
-      <c r="X10" s="179"/>
-      <c r="Y10" s="180"/>
-    </row>
-    <row r="11" spans="2:32" ht="15" thickBot="1">
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="176" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="178"/>
+    </row>
+    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -11452,18 +11476,33 @@
       <c r="W11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="52"/>
+      <c r="X11" s="52" t="s">
+        <v>22</v>
+      </c>
       <c r="Y11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="54" t="s">
+      <c r="Z11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE11" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AA11" s="54" t="s">
+      <c r="AF11" s="54" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -11523,16 +11562,24 @@
       <c r="W12" s="134"/>
       <c r="X12" s="136"/>
       <c r="Y12" s="123" t="e">
-        <f>(AVERAGE(U12:W12))</f>
+        <f>(AVERAGE(U12:W12)+X12)/2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z12" s="120"/>
-      <c r="AA12" s="122" t="e">
-        <f>(AVERAGE(J12,O12,T12,Y12)+Z12)/2</f>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="136"/>
+      <c r="AD12" s="123" t="e">
+        <f>(AVERAGE(Z12:AB12))</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1">
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="122" t="e">
+        <f>(AVERAGE(J12,O12,T12,Y12,AD12)+AE12)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -11575,21 +11622,29 @@
         <f>(AVERAGE(P13:R13)+S13)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="167"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="163" t="e">
-        <f>(AVERAGE(U13:W13))</f>
+      <c r="U13" s="121"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="123" t="e">
+        <f>(AVERAGE(U13:W13)+X13)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="169" t="e">
-        <f>(AVERAGE(J13,O13,T13,#REF!,Y13)+Z13)/2</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1">
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="133"/>
+      <c r="AD13" s="123" t="e">
+        <f>(AVERAGE(Z13:AB13))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="122" t="e">
+        <f>(AVERAGE(J13,O13,T13,Y13,AD13)+AE13)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -11642,21 +11697,29 @@
         <f>(AVERAGE(P14:R14)+S14)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="167"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="163" t="e">
-        <f t="shared" ref="Y14:Y16" si="2">(AVERAGE(U14:W14))</f>
+      <c r="U14" s="121"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="123" t="e">
+        <f>(AVERAGE(U14:W14)+X14)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="169" t="e">
-        <f>(AVERAGE(J14,O14,T14,#REF!,Y14)+Z14)/2</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1">
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="133"/>
+      <c r="AD14" s="123" t="e">
+        <f t="shared" ref="AD14:AD16" si="2">(AVERAGE(Z14:AB14))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="121"/>
+      <c r="AF14" s="122" t="e">
+        <f t="shared" ref="AF14:AF17" si="3">(AVERAGE(J14,O14,T14,Y14,AD14)+AE14)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -11709,21 +11772,29 @@
         <f>(AVERAGE(P15:R15)+S15)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="167"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="163" t="e">
+      <c r="U15" s="121"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="135" t="e">
+        <f t="shared" ref="Y15:Y16" si="4">(AVERAGE(U15:W15)+X15)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="133"/>
+      <c r="AD15" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="169" t="e">
-        <f>(AVERAGE(J15,O15,T15,#REF!,Y15)+Z15)/2</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1">
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="122" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -11778,21 +11849,29 @@
         <f>(AVERAGE(P16:R16)+S16)/2</f>
         <v>5</v>
       </c>
-      <c r="U16" s="167"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="163" t="e">
+      <c r="U16" s="121"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="123" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z16" s="167"/>
-      <c r="AA16" s="169" t="e">
-        <f>(AVERAGE(J16,O16,T16,#REF!,Y16)+Z16)/2</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="122" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -11838,12 +11917,17 @@
       <c r="X17" s="31"/>
       <c r="Y17" s="135"/>
       <c r="Z17" s="27"/>
-      <c r="AA17" s="122" t="e">
-        <f>(AVERAGE(J17,O17,T17,#REF!,Y17)+Z17)/2</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="122" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -11872,8 +11956,13 @@
       <c r="Y18" s="36"/>
       <c r="Z18" s="27"/>
       <c r="AA18" s="7"/>
-    </row>
-    <row r="19" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="24"/>
+    </row>
+    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -11902,8 +11991,13 @@
       <c r="Y19" s="36"/>
       <c r="Z19" s="27"/>
       <c r="AA19" s="7"/>
-    </row>
-    <row r="20" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="24"/>
+    </row>
+    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -11932,8 +12026,13 @@
       <c r="Y20" s="36"/>
       <c r="Z20" s="27"/>
       <c r="AA20" s="7"/>
-    </row>
-    <row r="21" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="24"/>
+    </row>
+    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -11962,8 +12061,13 @@
       <c r="Y21" s="36"/>
       <c r="Z21" s="27"/>
       <c r="AA21" s="7"/>
-    </row>
-    <row r="22" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="24"/>
+    </row>
+    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -11992,8 +12096,13 @@
       <c r="Y22" s="36"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="7"/>
-    </row>
-    <row r="23" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="24"/>
+    </row>
+    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -12022,8 +12131,13 @@
       <c r="Y23" s="36"/>
       <c r="Z23" s="27"/>
       <c r="AA23" s="7"/>
-    </row>
-    <row r="24" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="24"/>
+    </row>
+    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -12052,8 +12166,13 @@
       <c r="Y24" s="36"/>
       <c r="Z24" s="27"/>
       <c r="AA24" s="7"/>
-    </row>
-    <row r="25" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="24"/>
+    </row>
+    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -12082,8 +12201,13 @@
       <c r="Y25" s="36"/>
       <c r="Z25" s="27"/>
       <c r="AA25" s="7"/>
-    </row>
-    <row r="26" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="24"/>
+    </row>
+    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -12112,8 +12236,13 @@
       <c r="Y26" s="88"/>
       <c r="Z26" s="85"/>
       <c r="AA26" s="86"/>
-    </row>
-    <row r="27" spans="2:29" ht="30" customHeight="1" thickBot="1">
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="93"/>
+    </row>
+    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -12142,44 +12271,49 @@
       <c r="Y27" s="55"/>
       <c r="Z27" s="28"/>
       <c r="AA27" s="11"/>
-    </row>
-    <row r="28" spans="2:29" ht="15" thickBot="1">
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="57"/>
+    </row>
+    <row r="28" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:29" ht="18.899999999999999" thickBot="1">
-      <c r="E29" s="197" t="s">
+    <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="199"/>
-      <c r="K29" s="197" t="s">
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="197"/>
+      <c r="K29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="198"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="199"/>
-      <c r="P29" s="197" t="s">
+      <c r="L29" s="196"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="197"/>
+      <c r="P29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="198"/>
-      <c r="R29" s="198"/>
-      <c r="S29" s="199"/>
-      <c r="U29" s="197" t="s">
+      <c r="Q29" s="196"/>
+      <c r="R29" s="196"/>
+      <c r="S29" s="197"/>
+      <c r="U29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="198"/>
-      <c r="W29" s="198"/>
-      <c r="X29" s="199"/>
-      <c r="Z29" s="197" t="s">
+      <c r="V29" s="196"/>
+      <c r="W29" s="196"/>
+      <c r="X29" s="197"/>
+      <c r="Z29" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="198"/>
-      <c r="AB29" s="198"/>
-      <c r="AC29" s="199"/>
-    </row>
-    <row r="30" spans="2:29" ht="23.15" customHeight="1">
+      <c r="AA29" s="196"/>
+      <c r="AB29" s="196"/>
+      <c r="AC29" s="197"/>
+    </row>
+    <row r="30" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="H30"/>
       <c r="I30" s="42"/>
@@ -12192,7 +12326,7 @@
       <c r="Z30" s="41"/>
       <c r="AC30" s="42"/>
     </row>
-    <row r="31" spans="2:29" ht="23.15" customHeight="1">
+    <row r="31" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" s="41"/>
       <c r="H31"/>
       <c r="I31" s="42"/>
@@ -12205,7 +12339,7 @@
       <c r="Z31" s="41"/>
       <c r="AC31" s="42"/>
     </row>
-    <row r="32" spans="2:29" ht="23.15" customHeight="1" thickBot="1">
+    <row r="32" spans="2:32" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -12228,7 +12362,7 @@
       <c r="AB32" s="44"/>
       <c r="AC32" s="45"/>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H33"/>
     </row>
   </sheetData>
@@ -12236,7 +12370,7 @@
     <sortCondition ref="C12:C17"/>
   </sortState>
   <dataConsolidate/>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="Z29:AC29"/>
     <mergeCell ref="B2:AF4"/>
     <mergeCell ref="B6:AF6"/>
@@ -12248,22 +12382,23 @@
     <mergeCell ref="P29:S29"/>
     <mergeCell ref="U29:X29"/>
     <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
   </mergeCells>
-  <conditionalFormatting sqref="AA12:AA17">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="T15">
+    <cfRule type="aboveAverage" dxfId="5" priority="4" aboveAverage="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12:AF17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T15">
-    <cfRule type="aboveAverage" dxfId="5" priority="2" aboveAverage="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12:AA17">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="AF12:AF17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>6.99</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:S27 E12:I27 U12:X27 Z18:AA27" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P12:S27 E12:I27 Z12:AC27 U12:X27" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A060B38-624E-4CBD-8A84-51F6FC9B03CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DE302F-297C-4A15-9C1D-F4C176231849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -1700,24 +1700,7 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -1743,6 +1726,13 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1750,13 +1740,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4640,8 +4623,8 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4902,11 +4885,13 @@
       <c r="F12" s="107">
         <v>8</v>
       </c>
-      <c r="G12" s="107"/>
+      <c r="G12" s="107">
+        <v>10</v>
+      </c>
       <c r="H12" s="108"/>
       <c r="I12" s="130">
         <f>AVERAGE(E12:H12)</f>
-        <v>9</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="J12" s="109"/>
       <c r="K12" s="110"/>
@@ -4946,11 +4931,13 @@
       <c r="F13" s="113">
         <v>6</v>
       </c>
-      <c r="G13" s="113"/>
+      <c r="G13" s="113">
+        <v>10</v>
+      </c>
       <c r="H13" s="114"/>
       <c r="I13" s="130">
         <f>AVERAGE(E13:H13)</f>
-        <v>8</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="J13" s="115"/>
       <c r="K13" s="116"/>
@@ -4990,7 +4977,9 @@
       <c r="F14" s="113">
         <v>10</v>
       </c>
-      <c r="G14" s="113"/>
+      <c r="G14" s="113">
+        <v>10</v>
+      </c>
       <c r="H14" s="114"/>
       <c r="I14" s="130">
         <f>AVERAGE(E14:H14)</f>
@@ -5034,11 +5023,13 @@
       <c r="F15" s="152">
         <v>6</v>
       </c>
-      <c r="G15" s="152"/>
+      <c r="G15" s="152">
+        <v>10</v>
+      </c>
       <c r="H15" s="153"/>
       <c r="I15" s="130">
         <f>AVERAGE(E15:H15)</f>
-        <v>8</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="J15" s="154"/>
       <c r="K15" s="155"/>
@@ -5400,12 +5391,12 @@
     <mergeCell ref="O10:S10"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:Q15">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U15">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9815,8 +9806,8 @@
   </sheetPr>
   <dimension ref="B1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView topLeftCell="A8" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10208,14 +10199,18 @@
       <c r="T12" s="106">
         <v>6</v>
       </c>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
+      <c r="U12" s="107">
+        <v>9</v>
+      </c>
+      <c r="V12" s="107">
+        <v>10</v>
+      </c>
       <c r="W12" s="108">
         <v>10</v>
       </c>
       <c r="X12" s="118">
         <f>(AVERAGE(T12:V12)+W12)/2</f>
-        <v>8</v>
+        <v>9.1666666666666679</v>
       </c>
       <c r="Y12" s="106"/>
       <c r="Z12" s="107"/>
@@ -10292,14 +10287,18 @@
       <c r="T13" s="112">
         <v>8</v>
       </c>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
+      <c r="U13" s="113">
+        <v>10</v>
+      </c>
+      <c r="V13" s="113">
+        <v>10</v>
+      </c>
       <c r="W13" s="131">
         <v>10</v>
       </c>
       <c r="X13" s="118">
         <f t="shared" ref="X13" si="3">(AVERAGE(T13:V13)+W13)/2</f>
-        <v>9</v>
+        <v>9.6666666666666679</v>
       </c>
       <c r="Y13" s="112"/>
       <c r="Z13" s="113"/>
@@ -10376,14 +10375,18 @@
       <c r="T14" s="151">
         <v>8</v>
       </c>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
+      <c r="U14" s="152">
+        <v>10</v>
+      </c>
+      <c r="V14" s="152">
+        <v>10</v>
+      </c>
       <c r="W14" s="153">
         <v>9</v>
       </c>
       <c r="X14" s="118">
         <f>(AVERAGE(T14:V14)+W14)/2</f>
-        <v>8.5</v>
+        <v>9.1666666666666679</v>
       </c>
       <c r="Y14" s="151"/>
       <c r="Z14" s="152"/>
@@ -10656,24 +10659,28 @@
       <c r="T18" s="121">
         <v>8</v>
       </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="31">
+      <c r="U18" s="132">
+        <v>10</v>
+      </c>
+      <c r="V18" s="132">
+        <v>10</v>
+      </c>
+      <c r="W18" s="133">
         <v>10</v>
       </c>
       <c r="X18" s="123">
         <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>9</v>
-      </c>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="31"/>
+        <v>9.6666666666666679</v>
+      </c>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="133"/>
       <c r="AC18" s="123" t="e">
         <f>(AVERAGE(Y18:AA18))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD18" s="27"/>
+      <c r="AD18" s="121"/>
       <c r="AE18" s="124" t="e">
         <f>AVERAGE(I18,N18,S18,X18,AC18,AD18)</f>
         <v>#DIV/0!</v>
@@ -10723,7 +10730,7 @@
       <c r="W19" s="31"/>
       <c r="X19" s="123">
         <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>9</v>
+        <v>9.6666666666666679</v>
       </c>
       <c r="Y19" s="27"/>
       <c r="Z19" s="7"/>
@@ -11118,12 +11125,12 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE17">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AE17">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11147,7 +11154,7 @@
   <dimension ref="B1:AF33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11550,12 +11557,14 @@
       <c r="P12" s="120">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q12" s="134"/>
+      <c r="Q12" s="134">
+        <v>10</v>
+      </c>
       <c r="R12" s="134"/>
       <c r="S12" s="136"/>
       <c r="T12" s="123">
         <f>(AVERAGE(P12:R12)+S12)/2</f>
-        <v>4.1500000000000004</v>
+        <v>4.5750000000000002</v>
       </c>
       <c r="U12" s="120"/>
       <c r="V12" s="134"/>
@@ -11689,13 +11698,17 @@
         <f t="shared" si="1"/>
         <v>7.8833333333333337</v>
       </c>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="161"/>
+      <c r="P14" s="167">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="161">
+        <v>10</v>
+      </c>
       <c r="R14" s="161"/>
       <c r="S14" s="162"/>
-      <c r="T14" s="163" t="e">
+      <c r="T14" s="163">
         <f>(AVERAGE(P14:R14)+S14)/2</f>
-        <v>#DIV/0!</v>
+        <v>3.75</v>
       </c>
       <c r="U14" s="121"/>
       <c r="V14" s="132"/>
@@ -11764,13 +11777,17 @@
         <f t="shared" si="1"/>
         <v>9.8333333333333321</v>
       </c>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="161"/>
+      <c r="P15" s="167">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="161">
+        <v>10</v>
+      </c>
       <c r="R15" s="161"/>
       <c r="S15" s="162"/>
-      <c r="T15" s="163" t="e">
+      <c r="T15" s="163">
         <f>(AVERAGE(P15:R15)+S15)/2</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="U15" s="121"/>
       <c r="V15" s="132"/>
@@ -11842,7 +11859,9 @@
       <c r="P16" s="167">
         <v>10</v>
       </c>
-      <c r="Q16" s="161"/>
+      <c r="Q16" s="161">
+        <v>10</v>
+      </c>
       <c r="R16" s="161"/>
       <c r="S16" s="162"/>
       <c r="T16" s="163">
@@ -12385,15 +12404,15 @@
     <mergeCell ref="Z10:AD10"/>
   </mergeCells>
   <conditionalFormatting sqref="T15">
-    <cfRule type="aboveAverage" dxfId="5" priority="4" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="4" priority="4" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AF17">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AF17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>6.99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DE302F-297C-4A15-9C1D-F4C176231849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7740BED3-6FC8-4256-B5B2-CBCB53D15E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4888,10 +4888,12 @@
       <c r="G12" s="107">
         <v>10</v>
       </c>
-      <c r="H12" s="108"/>
+      <c r="H12" s="108">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="I12" s="130">
         <f>AVERAGE(E12:H12)</f>
-        <v>9.3333333333333339</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="J12" s="109"/>
       <c r="K12" s="110"/>
@@ -4934,10 +4936,12 @@
       <c r="G13" s="113">
         <v>10</v>
       </c>
-      <c r="H13" s="114"/>
+      <c r="H13" s="114">
+        <v>10</v>
+      </c>
       <c r="I13" s="130">
         <f>AVERAGE(E13:H13)</f>
-        <v>8.6666666666666661</v>
+        <v>9</v>
       </c>
       <c r="J13" s="115"/>
       <c r="K13" s="116"/>
@@ -4980,10 +4984,12 @@
       <c r="G14" s="113">
         <v>10</v>
       </c>
-      <c r="H14" s="114"/>
+      <c r="H14" s="114">
+        <v>9.44</v>
+      </c>
       <c r="I14" s="130">
         <f>AVERAGE(E14:H14)</f>
-        <v>10</v>
+        <v>9.86</v>
       </c>
       <c r="J14" s="115"/>
       <c r="K14" s="116"/>
@@ -5026,10 +5032,12 @@
       <c r="G15" s="152">
         <v>10</v>
       </c>
-      <c r="H15" s="153"/>
+      <c r="H15" s="153">
+        <v>7.22</v>
+      </c>
       <c r="I15" s="130">
         <f>AVERAGE(E15:H15)</f>
-        <v>8.6666666666666661</v>
+        <v>8.3049999999999997</v>
       </c>
       <c r="J15" s="154"/>
       <c r="K15" s="155"/>
@@ -7468,16 +7476,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T28:W28"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -9770,13 +9778,6 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9786,6 +9787,13 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -11110,6 +11118,11 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="Y29:AB29"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -11117,11 +11130,6 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE17">

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7740BED3-6FC8-4256-B5B2-CBCB53D15E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98706430-0E9B-46E4-8860-AA86C8795562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9814,8 +9814,8 @@
   </sheetPr>
   <dimension ref="B1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+    <sheetView topLeftCell="D9" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98706430-0E9B-46E4-8860-AA86C8795562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA291E1F-6AC2-46D7-94B9-4A95B09309AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -4623,8 +4623,8 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A5" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7476,16 +7476,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B2:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T28:W28"/>
-    <mergeCell ref="B2:Z4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -9778,6 +9778,13 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9787,13 +9794,6 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9814,8 +9814,8 @@
   </sheetPr>
   <dimension ref="B1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10220,18 +10220,22 @@
         <f>(AVERAGE(T12:V12)+W12)/2</f>
         <v>9.1666666666666679</v>
       </c>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="107"/>
+      <c r="Y12" s="106">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="107">
+        <v>8</v>
+      </c>
       <c r="AA12" s="107"/>
       <c r="AB12" s="108"/>
-      <c r="AC12" s="118" t="e">
+      <c r="AC12" s="118">
         <f>(AVERAGE(Y12:AA12))</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="AD12" s="106"/>
-      <c r="AE12" s="119" t="e">
+      <c r="AE12" s="119">
         <f>AVERAGE(I12,N12,S12,X12,AC12,AD12)</f>
-        <v>#DIV/0!</v>
+        <v>8.6553333333333349</v>
       </c>
     </row>
     <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10308,18 +10312,22 @@
         <f t="shared" ref="X13" si="3">(AVERAGE(T13:V13)+W13)/2</f>
         <v>9.6666666666666679</v>
       </c>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="113"/>
+      <c r="Y13" s="112">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>7.33</v>
+      </c>
       <c r="AA13" s="113"/>
       <c r="AB13" s="114"/>
-      <c r="AC13" s="118" t="e">
+      <c r="AC13" s="118">
         <f t="shared" ref="AC13:AC14" si="4">(AVERAGE(Y13:AA13))</f>
-        <v>#DIV/0!</v>
+        <v>8.6649999999999991</v>
       </c>
       <c r="AD13" s="112"/>
-      <c r="AE13" s="119" t="e">
+      <c r="AE13" s="119">
         <f t="shared" ref="AE13:AE14" si="5">AVERAGE(I13,N13,S13,X13,AC13,AD13)</f>
-        <v>#DIV/0!</v>
+        <v>8.8403333333333318</v>
       </c>
     </row>
     <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10396,18 +10404,22 @@
         <f>(AVERAGE(T14:V14)+W14)/2</f>
         <v>9.1666666666666679</v>
       </c>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="152"/>
+      <c r="Y14" s="151">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="152">
+        <v>9</v>
+      </c>
       <c r="AA14" s="152"/>
       <c r="AB14" s="153"/>
-      <c r="AC14" s="118" t="e">
+      <c r="AC14" s="118">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" s="151"/>
-      <c r="AE14" s="157" t="e">
+      <c r="AE14" s="157">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.798</v>
       </c>
     </row>
     <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10680,18 +10692,22 @@
         <f>(AVERAGE(T18:V18)+W18)/2</f>
         <v>9.6666666666666679</v>
       </c>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="132"/>
+      <c r="Y18" s="121">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="132">
+        <v>9</v>
+      </c>
       <c r="AA18" s="132"/>
       <c r="AB18" s="133"/>
-      <c r="AC18" s="123" t="e">
+      <c r="AC18" s="123">
         <f>(AVERAGE(Y18:AA18))</f>
-        <v>#DIV/0!</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" s="121"/>
-      <c r="AE18" s="124" t="e">
+      <c r="AE18" s="124">
         <f>AVERAGE(I18,N18,S18,X18,AC18,AD18)</f>
-        <v>#DIV/0!</v>
+        <v>8.5789999999999988</v>
       </c>
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -11118,11 +11134,6 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -11130,6 +11141,11 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="Y29:AB29"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE17">
@@ -11162,7 +11178,7 @@
   <dimension ref="B1:AF33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA291E1F-6AC2-46D7-94B9-4A95B09309AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492C1BF5-B960-47F6-90DE-C6952C6573EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="73">
   <si>
     <r>
       <rPr>
@@ -275,28 +275,10 @@
     <t>ANDREA</t>
   </si>
   <si>
-    <t xml:space="preserve">SANTIAGO </t>
-  </si>
-  <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>DIANA</t>
-  </si>
-  <si>
-    <t>FAICAN</t>
-  </si>
-  <si>
     <t>JANETH</t>
   </si>
   <si>
     <t>QUIZHPILEMA</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>BENTTI</t>
   </si>
   <si>
     <t>SUQUILANDA</t>
@@ -636,7 +618,7 @@
       <charset val="177"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,6 +646,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1464,36 +1452,6 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1554,6 +1512,39 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="35" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3236,123 +3227,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="180"/>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="181"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
     </row>
     <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="180"/>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="181"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="181" t="s">
+      <c r="E5" s="182"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="185"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.4">
       <c r="F6" s="1"/>
@@ -3367,25 +3358,25 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D7" s="181" t="s">
+      <c r="D7" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="181" t="s">
+      <c r="E7" s="182"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
     </row>
     <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
@@ -3402,41 +3393,41 @@
     <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="176" t="s">
+      <c r="E9" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="176" t="s">
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="176" t="s">
+      <c r="K9" s="178"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="177"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="176" t="s">
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="177"/>
-      <c r="V9" s="177"/>
-      <c r="W9" s="177"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="176" t="s">
+      <c r="U9" s="178"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="178"/>
+      <c r="X9" s="179"/>
+      <c r="Y9" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="177"/>
-      <c r="AA9" s="177"/>
-      <c r="AB9" s="177"/>
-      <c r="AC9" s="178"/>
+      <c r="Z9" s="178"/>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="179"/>
     </row>
     <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
@@ -4623,8 +4614,8 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4636,8 +4627,8 @@
     <col min="5" max="6" width="8.69140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.69140625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.69140625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="7.07421875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.69140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.07421875" bestFit="1" customWidth="1"/>
@@ -4667,96 +4658,96 @@
   <sheetData>
     <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="201"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="203"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="204"/>
     </row>
     <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="206"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="207"/>
     </row>
     <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="195"/>
+      <c r="T6" s="195"/>
+      <c r="U6" s="195"/>
     </row>
     <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4787,27 +4778,27 @@
     <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="176" t="s">
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="176" t="s">
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="178"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="179"/>
     </row>
     <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -4874,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E12" s="106">
         <v>10</v>
@@ -4895,13 +4886,19 @@
         <f>AVERAGE(E12:H12)</f>
         <v>9.2200000000000006</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
+      <c r="J12" s="109">
+        <v>10</v>
+      </c>
+      <c r="K12" s="110">
+        <v>8</v>
+      </c>
+      <c r="L12" s="110">
+        <v>8</v>
+      </c>
       <c r="M12" s="111"/>
-      <c r="N12" s="130" t="e">
+      <c r="N12" s="130">
         <f>AVERAGE(J12:M12)</f>
-        <v>#DIV/0!</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="O12" s="106"/>
       <c r="P12" s="107"/>
@@ -4922,10 +4919,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="127" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E13" s="112">
         <v>10</v>
@@ -4943,13 +4940,19 @@
         <f>AVERAGE(E13:H13)</f>
         <v>9</v>
       </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
+      <c r="J13" s="115">
+        <v>10</v>
+      </c>
+      <c r="K13" s="116">
+        <v>8</v>
+      </c>
+      <c r="L13" s="116">
+        <v>7</v>
+      </c>
       <c r="M13" s="117"/>
-      <c r="N13" s="130" t="e">
+      <c r="N13" s="130">
         <f>AVERAGE(J13:M13)</f>
-        <v>#DIV/0!</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="O13" s="112"/>
       <c r="P13" s="113"/>
@@ -4970,10 +4973,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="127" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D14" s="128" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E14" s="112">
         <v>10</v>
@@ -4991,13 +4994,19 @@
         <f>AVERAGE(E14:H14)</f>
         <v>9.86</v>
       </c>
-      <c r="J14" s="115"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
+      <c r="J14" s="115">
+        <v>10</v>
+      </c>
+      <c r="K14" s="116">
+        <v>8</v>
+      </c>
+      <c r="L14" s="116">
+        <v>10</v>
+      </c>
       <c r="M14" s="117"/>
-      <c r="N14" s="130" t="e">
+      <c r="N14" s="130">
         <f>AVERAGE(J14:M14)</f>
-        <v>#DIV/0!</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="O14" s="112"/>
       <c r="P14" s="113"/>
@@ -5017,46 +5026,52 @@
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="171" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="151">
+      <c r="C15" s="162" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="142">
         <v>10</v>
       </c>
-      <c r="F15" s="152">
+      <c r="F15" s="143">
         <v>6</v>
       </c>
-      <c r="G15" s="152">
+      <c r="G15" s="143">
         <v>10</v>
       </c>
-      <c r="H15" s="153">
+      <c r="H15" s="144">
         <v>7.22</v>
       </c>
       <c r="I15" s="130">
         <f>AVERAGE(E15:H15)</f>
         <v>8.3049999999999997</v>
       </c>
-      <c r="J15" s="154"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="130" t="e">
+      <c r="J15" s="145">
+        <v>10</v>
+      </c>
+      <c r="K15" s="146">
+        <v>8</v>
+      </c>
+      <c r="L15" s="146">
+        <v>6</v>
+      </c>
+      <c r="M15" s="147"/>
+      <c r="N15" s="130">
         <f>AVERAGE(J15:M15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="151"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="173"/>
+        <v>8</v>
+      </c>
+      <c r="O15" s="142"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="164"/>
       <c r="S15" s="129" t="e">
         <f>AVERAGE(O15:Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="174"/>
-      <c r="U15" s="175" t="e">
+      <c r="T15" s="165"/>
+      <c r="U15" s="166" t="e">
         <f>AVERAGE(I15,N15,S15,T15)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5329,24 +5344,24 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="J28" s="195" t="s">
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="198"/>
+      <c r="J28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="196"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="197"/>
-      <c r="O28" s="195" t="s">
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="198"/>
+      <c r="O28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="196"/>
-      <c r="Q28" s="196"/>
-      <c r="R28" s="197"/>
+      <c r="P28" s="197"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="198"/>
     </row>
     <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -5432,60 +5447,60 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="188"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="190"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="191"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="193"/>
+      <c r="A4" s="192"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="194"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
@@ -5514,13 +5529,13 @@
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="179"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
@@ -5671,12 +5686,12 @@
     </row>
     <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="49"/>
-      <c r="D21" s="195" t="s">
+      <c r="D21" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="198"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="49"/>
@@ -5759,76 +5774,76 @@
   <sheetData>
     <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="206"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="207"/>
     </row>
     <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5853,20 +5868,20 @@
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="176" t="s">
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="179"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -6204,18 +6219,18 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="J28" s="195" t="s">
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="198"/>
+      <c r="J28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="196"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="197"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="198"/>
     </row>
     <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -6308,56 +6323,56 @@
   <sheetData>
     <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="201"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="203"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="204"/>
     </row>
     <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="206"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="207"/>
     </row>
     <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6380,13 +6395,13 @@
     <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="179"/>
     </row>
     <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -6634,12 +6649,12 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="198"/>
     </row>
     <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -6722,116 +6737,116 @@
   <sheetData>
     <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
     </row>
     <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="205"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="206"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="206"/>
+      <c r="W4" s="206"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="207"/>
     </row>
     <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194"/>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="194"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="195"/>
+      <c r="T6" s="195"/>
+      <c r="U6" s="195"/>
+      <c r="V6" s="195"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="195"/>
+      <c r="Z6" s="195"/>
     </row>
     <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -6860,34 +6875,34 @@
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="176" t="s">
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="176" t="s">
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="176" t="s">
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="177"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="178"/>
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="179"/>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -7405,30 +7420,30 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="J28" s="195" t="s">
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="198"/>
+      <c r="J28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="196"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="197"/>
-      <c r="O28" s="195" t="s">
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="198"/>
+      <c r="O28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="196"/>
-      <c r="Q28" s="196"/>
-      <c r="R28" s="197"/>
-      <c r="T28" s="195" t="s">
+      <c r="P28" s="197"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="198"/>
+      <c r="T28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="196"/>
-      <c r="V28" s="196"/>
-      <c r="W28" s="197"/>
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
+      <c r="W28" s="198"/>
     </row>
     <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -7476,16 +7491,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T28:W28"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7541,167 +7556,167 @@
   <sheetData>
     <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="201"/>
     </row>
     <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="202"/>
-      <c r="AG3" s="202"/>
-      <c r="AH3" s="202"/>
-      <c r="AI3" s="202"/>
-      <c r="AJ3" s="203"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="203"/>
+      <c r="AI3" s="203"/>
+      <c r="AJ3" s="204"/>
     </row>
     <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="205"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="205"/>
-      <c r="AB4" s="205"/>
-      <c r="AC4" s="205"/>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="205"/>
-      <c r="AG4" s="205"/>
-      <c r="AH4" s="205"/>
-      <c r="AI4" s="205"/>
-      <c r="AJ4" s="206"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="206"/>
+      <c r="W4" s="206"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="206"/>
+      <c r="AA4" s="206"/>
+      <c r="AB4" s="206"/>
+      <c r="AC4" s="206"/>
+      <c r="AD4" s="206"/>
+      <c r="AE4" s="206"/>
+      <c r="AF4" s="206"/>
+      <c r="AG4" s="206"/>
+      <c r="AH4" s="206"/>
+      <c r="AI4" s="206"/>
+      <c r="AJ4" s="207"/>
     </row>
     <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="210"/>
-      <c r="P7" s="210"/>
-      <c r="Q7" s="210"/>
-      <c r="R7" s="210"/>
-      <c r="S7" s="210"/>
-      <c r="T7" s="210"/>
-      <c r="U7" s="210"/>
-      <c r="V7" s="210"/>
-      <c r="W7" s="210"/>
-      <c r="X7" s="210"/>
-      <c r="Y7" s="210"/>
-      <c r="Z7" s="210"/>
-      <c r="AA7" s="210"/>
-      <c r="AB7" s="210"/>
-      <c r="AC7" s="210"/>
-      <c r="AD7" s="210"/>
-      <c r="AE7" s="210"/>
-      <c r="AF7" s="210"/>
-      <c r="AG7" s="210"/>
-      <c r="AH7" s="210"/>
-      <c r="AI7" s="210"/>
-      <c r="AJ7" s="210"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
+      <c r="S7" s="211"/>
+      <c r="T7" s="211"/>
+      <c r="U7" s="211"/>
+      <c r="V7" s="211"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="211"/>
+      <c r="AA7" s="211"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="211"/>
+      <c r="AD7" s="211"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="211"/>
+      <c r="AG7" s="211"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="211"/>
+      <c r="AJ7" s="211"/>
     </row>
     <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="213"/>
     </row>
     <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
@@ -7719,48 +7734,48 @@
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="207" t="s">
+      <c r="E10" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="207" t="s">
+      <c r="F10" s="209"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="207" t="s">
+      <c r="K10" s="209"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="208"/>
-      <c r="Q10" s="208"/>
-      <c r="R10" s="208"/>
-      <c r="S10" s="209"/>
-      <c r="T10" s="207" t="s">
+      <c r="P10" s="209"/>
+      <c r="Q10" s="209"/>
+      <c r="R10" s="209"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="208"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="208"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="207" t="s">
+      <c r="U10" s="209"/>
+      <c r="V10" s="209"/>
+      <c r="W10" s="209"/>
+      <c r="X10" s="210"/>
+      <c r="Y10" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="208"/>
-      <c r="AA10" s="208"/>
-      <c r="AB10" s="208"/>
-      <c r="AC10" s="209"/>
-      <c r="AD10" s="207" t="s">
+      <c r="Z10" s="209"/>
+      <c r="AA10" s="209"/>
+      <c r="AB10" s="209"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="208"/>
-      <c r="AF10" s="208"/>
-      <c r="AG10" s="208"/>
-      <c r="AH10" s="209"/>
+      <c r="AE10" s="209"/>
+      <c r="AF10" s="209"/>
+      <c r="AG10" s="209"/>
+      <c r="AH10" s="210"/>
     </row>
     <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="68" t="s">
@@ -8458,42 +8473,42 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="J28" s="195" t="s">
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="198"/>
+      <c r="J28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="196"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="197"/>
-      <c r="O28" s="195" t="s">
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="198"/>
+      <c r="O28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="196"/>
-      <c r="Q28" s="196"/>
-      <c r="R28" s="197"/>
-      <c r="T28" s="195" t="s">
+      <c r="P28" s="197"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="198"/>
+      <c r="T28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="196"/>
-      <c r="V28" s="196"/>
-      <c r="W28" s="197"/>
-      <c r="Y28" s="195" t="s">
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
+      <c r="W28" s="198"/>
+      <c r="Y28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="196"/>
-      <c r="AA28" s="196"/>
-      <c r="AB28" s="197"/>
-      <c r="AD28" s="195" t="s">
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="197"/>
+      <c r="AB28" s="198"/>
+      <c r="AD28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="196"/>
-      <c r="AF28" s="196"/>
-      <c r="AG28" s="197"/>
+      <c r="AE28" s="197"/>
+      <c r="AF28" s="197"/>
+      <c r="AG28" s="198"/>
     </row>
     <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -8628,174 +8643,174 @@
   <sheetData>
     <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="214"/>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="214"/>
-      <c r="AK2" s="214"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="214"/>
-      <c r="AO2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="215"/>
+      <c r="AM2" s="215"/>
+      <c r="AN2" s="215"/>
+      <c r="AO2" s="216"/>
     </row>
     <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="216"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="217"/>
-      <c r="AC3" s="217"/>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="217"/>
-      <c r="AF3" s="217"/>
-      <c r="AG3" s="217"/>
-      <c r="AH3" s="217"/>
-      <c r="AI3" s="217"/>
-      <c r="AJ3" s="217"/>
-      <c r="AK3" s="217"/>
-      <c r="AL3" s="217"/>
-      <c r="AM3" s="217"/>
-      <c r="AN3" s="217"/>
-      <c r="AO3" s="218"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="218"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="218"/>
+      <c r="X3" s="218"/>
+      <c r="Y3" s="218"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="218"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="218"/>
+      <c r="AD3" s="218"/>
+      <c r="AE3" s="218"/>
+      <c r="AF3" s="218"/>
+      <c r="AG3" s="218"/>
+      <c r="AH3" s="218"/>
+      <c r="AI3" s="218"/>
+      <c r="AJ3" s="218"/>
+      <c r="AK3" s="218"/>
+      <c r="AL3" s="218"/>
+      <c r="AM3" s="218"/>
+      <c r="AN3" s="218"/>
+      <c r="AO3" s="219"/>
     </row>
     <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="219"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="220"/>
-      <c r="Q4" s="220"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="220"/>
-      <c r="U4" s="220"/>
-      <c r="V4" s="220"/>
-      <c r="W4" s="220"/>
-      <c r="X4" s="220"/>
-      <c r="Y4" s="220"/>
-      <c r="Z4" s="220"/>
-      <c r="AA4" s="220"/>
-      <c r="AB4" s="220"/>
-      <c r="AC4" s="220"/>
-      <c r="AD4" s="220"/>
-      <c r="AE4" s="220"/>
-      <c r="AF4" s="220"/>
-      <c r="AG4" s="220"/>
-      <c r="AH4" s="220"/>
-      <c r="AI4" s="220"/>
-      <c r="AJ4" s="220"/>
-      <c r="AK4" s="220"/>
-      <c r="AL4" s="220"/>
-      <c r="AM4" s="220"/>
-      <c r="AN4" s="220"/>
-      <c r="AO4" s="221"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
+      <c r="O4" s="221"/>
+      <c r="P4" s="221"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="221"/>
+      <c r="S4" s="221"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="221"/>
+      <c r="V4" s="221"/>
+      <c r="W4" s="221"/>
+      <c r="X4" s="221"/>
+      <c r="Y4" s="221"/>
+      <c r="Z4" s="221"/>
+      <c r="AA4" s="221"/>
+      <c r="AB4" s="221"/>
+      <c r="AC4" s="221"/>
+      <c r="AD4" s="221"/>
+      <c r="AE4" s="221"/>
+      <c r="AF4" s="221"/>
+      <c r="AG4" s="221"/>
+      <c r="AH4" s="221"/>
+      <c r="AI4" s="221"/>
+      <c r="AJ4" s="221"/>
+      <c r="AK4" s="221"/>
+      <c r="AL4" s="221"/>
+      <c r="AM4" s="221"/>
+      <c r="AN4" s="221"/>
+      <c r="AO4" s="222"/>
     </row>
     <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="210" t="s">
+      <c r="C6" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="210"/>
-      <c r="R6" s="210"/>
-      <c r="S6" s="210"/>
-      <c r="T6" s="210"/>
-      <c r="U6" s="210"/>
-      <c r="V6" s="210"/>
-      <c r="W6" s="210"/>
-      <c r="X6" s="210"/>
-      <c r="Y6" s="210"/>
-      <c r="Z6" s="210"/>
-      <c r="AA6" s="210"/>
-      <c r="AB6" s="210"/>
-      <c r="AC6" s="210"/>
-      <c r="AD6" s="210"/>
-      <c r="AE6" s="210"/>
-      <c r="AF6" s="210"/>
-      <c r="AG6" s="210"/>
-      <c r="AH6" s="210"/>
-      <c r="AI6" s="210"/>
-      <c r="AJ6" s="210"/>
-      <c r="AK6" s="210"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="211"/>
+      <c r="Q6" s="211"/>
+      <c r="R6" s="211"/>
+      <c r="S6" s="211"/>
+      <c r="T6" s="211"/>
+      <c r="U6" s="211"/>
+      <c r="V6" s="211"/>
+      <c r="W6" s="211"/>
+      <c r="X6" s="211"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="211"/>
+      <c r="AA6" s="211"/>
+      <c r="AB6" s="211"/>
+      <c r="AC6" s="211"/>
+      <c r="AD6" s="211"/>
+      <c r="AE6" s="211"/>
+      <c r="AF6" s="211"/>
+      <c r="AG6" s="211"/>
+      <c r="AH6" s="211"/>
+      <c r="AI6" s="211"/>
+      <c r="AJ6" s="211"/>
+      <c r="AK6" s="211"/>
       <c r="AL6" s="81"/>
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
@@ -8829,55 +8844,55 @@
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="207" t="s">
+      <c r="E10" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="207" t="s">
+      <c r="F10" s="209"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="207" t="s">
+      <c r="K10" s="209"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="208"/>
-      <c r="Q10" s="208"/>
-      <c r="R10" s="208"/>
-      <c r="S10" s="209"/>
-      <c r="T10" s="207" t="s">
+      <c r="P10" s="209"/>
+      <c r="Q10" s="209"/>
+      <c r="R10" s="209"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="208"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="208"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="207" t="s">
+      <c r="U10" s="209"/>
+      <c r="V10" s="209"/>
+      <c r="W10" s="209"/>
+      <c r="X10" s="210"/>
+      <c r="Y10" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="208"/>
-      <c r="AA10" s="208"/>
-      <c r="AB10" s="208"/>
-      <c r="AC10" s="209"/>
-      <c r="AD10" s="207" t="s">
+      <c r="Z10" s="209"/>
+      <c r="AA10" s="209"/>
+      <c r="AB10" s="209"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="208"/>
-      <c r="AF10" s="208"/>
-      <c r="AG10" s="208"/>
-      <c r="AH10" s="209"/>
-      <c r="AI10" s="207" t="s">
+      <c r="AE10" s="209"/>
+      <c r="AF10" s="209"/>
+      <c r="AG10" s="209"/>
+      <c r="AH10" s="210"/>
+      <c r="AI10" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="208"/>
-      <c r="AK10" s="208"/>
-      <c r="AL10" s="208"/>
-      <c r="AM10" s="209"/>
+      <c r="AJ10" s="209"/>
+      <c r="AK10" s="209"/>
+      <c r="AL10" s="209"/>
+      <c r="AM10" s="210"/>
     </row>
     <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="74" t="s">
@@ -9665,48 +9680,48 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="J28" s="195" t="s">
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="198"/>
+      <c r="J28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="196"/>
-      <c r="L28" s="196"/>
-      <c r="M28" s="197"/>
-      <c r="O28" s="195" t="s">
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="198"/>
+      <c r="O28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="196"/>
-      <c r="Q28" s="196"/>
-      <c r="R28" s="197"/>
-      <c r="T28" s="195" t="s">
+      <c r="P28" s="197"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="198"/>
+      <c r="T28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="196"/>
-      <c r="V28" s="196"/>
-      <c r="W28" s="197"/>
-      <c r="Y28" s="195" t="s">
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
+      <c r="W28" s="198"/>
+      <c r="Y28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="196"/>
-      <c r="AA28" s="196"/>
-      <c r="AB28" s="197"/>
-      <c r="AD28" s="195" t="s">
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="197"/>
+      <c r="AB28" s="198"/>
+      <c r="AD28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="196"/>
-      <c r="AF28" s="196"/>
-      <c r="AG28" s="197"/>
-      <c r="AI28" s="195" t="s">
+      <c r="AE28" s="197"/>
+      <c r="AF28" s="197"/>
+      <c r="AG28" s="198"/>
+      <c r="AI28" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="AJ28" s="196"/>
-      <c r="AK28" s="196"/>
-      <c r="AL28" s="197"/>
+      <c r="AJ28" s="197"/>
+      <c r="AK28" s="197"/>
+      <c r="AL28" s="198"/>
     </row>
     <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
@@ -9778,13 +9793,6 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9794,6 +9802,13 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9812,10 +9827,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AE33"/>
+  <dimension ref="B1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView topLeftCell="A9" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9862,136 +9877,136 @@
   <sheetData>
     <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="201"/>
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="203"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="204"/>
     </row>
     <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="205"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="205"/>
-      <c r="AB4" s="205"/>
-      <c r="AC4" s="205"/>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="206"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="206"/>
+      <c r="W4" s="206"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="206"/>
+      <c r="AA4" s="206"/>
+      <c r="AB4" s="206"/>
+      <c r="AC4" s="206"/>
+      <c r="AD4" s="206"/>
+      <c r="AE4" s="207"/>
     </row>
     <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194"/>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="194"/>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="194"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="195"/>
+      <c r="T6" s="195"/>
+      <c r="U6" s="195"/>
+      <c r="V6" s="195"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="195"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="195"/>
+      <c r="AC6" s="195"/>
+      <c r="AD6" s="195"/>
+      <c r="AE6" s="195"/>
     </row>
     <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10022,41 +10037,41 @@
     <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="176" t="s">
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="176" t="s">
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="176" t="s">
+      <c r="P10" s="178"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="177"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="178"/>
-      <c r="Y10" s="176" t="s">
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="179"/>
+      <c r="Y10" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="177"/>
-      <c r="AB10" s="177"/>
-      <c r="AC10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
+      <c r="AB10" s="178"/>
+      <c r="AC10" s="179"/>
     </row>
     <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -10169,7 +10184,7 @@
         <v>8.33</v>
       </c>
       <c r="I12" s="118">
-        <f t="shared" ref="I12:I18" si="0">(AVERAGE(E12:G12)+H12)/2</f>
+        <f t="shared" ref="I12:I16" si="0">(AVERAGE(E12:G12)+H12)/2</f>
         <v>8.2199999999999989</v>
       </c>
       <c r="J12" s="109">
@@ -10226,16 +10241,20 @@
       <c r="Z12" s="107">
         <v>8</v>
       </c>
-      <c r="AA12" s="107"/>
+      <c r="AA12" s="107">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="AB12" s="108"/>
       <c r="AC12" s="118">
         <f>(AVERAGE(Y12:AA12))</f>
-        <v>9</v>
-      </c>
-      <c r="AD12" s="106"/>
+        <v>9.01</v>
+      </c>
+      <c r="AD12" s="106">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="AE12" s="119">
         <f>AVERAGE(I12,N12,S12,X12,AC12,AD12)</f>
-        <v>8.6553333333333349</v>
+        <v>8.719444444444445</v>
       </c>
     </row>
     <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10318,193 +10337,201 @@
       <c r="Z13" s="113">
         <v>7.33</v>
       </c>
-      <c r="AA13" s="113"/>
+      <c r="AA13" s="113">
+        <v>10</v>
+      </c>
       <c r="AB13" s="114"/>
       <c r="AC13" s="118">
         <f t="shared" ref="AC13:AC14" si="4">(AVERAGE(Y13:AA13))</f>
-        <v>8.6649999999999991</v>
-      </c>
-      <c r="AD13" s="112"/>
+        <v>9.11</v>
+      </c>
+      <c r="AD13" s="112">
+        <v>10</v>
+      </c>
       <c r="AE13" s="119">
         <f t="shared" ref="AE13:AE14" si="5">AVERAGE(I13,N13,S13,X13,AC13,AD13)</f>
-        <v>8.8403333333333318</v>
+        <v>9.1077777777777769</v>
       </c>
     </row>
     <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="151">
+      <c r="E14" s="142">
         <v>8</v>
       </c>
-      <c r="F14" s="152">
+      <c r="F14" s="143">
         <v>9</v>
       </c>
-      <c r="G14" s="152">
+      <c r="G14" s="143">
         <v>7</v>
       </c>
-      <c r="H14" s="153">
+      <c r="H14" s="144">
         <v>8.33</v>
       </c>
       <c r="I14" s="118">
         <f t="shared" si="0"/>
         <v>8.1649999999999991</v>
       </c>
-      <c r="J14" s="154">
+      <c r="J14" s="145">
         <v>10</v>
       </c>
-      <c r="K14" s="155">
+      <c r="K14" s="146">
         <v>9</v>
       </c>
-      <c r="L14" s="155">
+      <c r="L14" s="146">
         <v>8.35</v>
       </c>
-      <c r="M14" s="156">
+      <c r="M14" s="147">
         <v>8.8000000000000007</v>
       </c>
       <c r="N14" s="118">
-        <f t="shared" ref="N14:N19" si="6">(AVERAGE(J14:L14)+M14)/2</f>
+        <f t="shared" ref="N14:N16" si="6">(AVERAGE(J14:L14)+M14)/2</f>
         <v>8.9583333333333339</v>
       </c>
-      <c r="O14" s="151">
+      <c r="O14" s="142">
         <v>9.3000000000000007</v>
       </c>
-      <c r="P14" s="152">
+      <c r="P14" s="143">
         <v>10</v>
       </c>
-      <c r="Q14" s="152">
+      <c r="Q14" s="143">
         <v>8.9</v>
       </c>
-      <c r="R14" s="153">
+      <c r="R14" s="144">
         <v>7</v>
       </c>
       <c r="S14" s="118">
-        <f t="shared" ref="S14:S19" si="7">(AVERAGE(O14:Q14)+R14)/2</f>
+        <f t="shared" ref="S14:S16" si="7">(AVERAGE(O14:Q14)+R14)/2</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="T14" s="151">
+      <c r="T14" s="142">
         <v>8</v>
       </c>
-      <c r="U14" s="152">
+      <c r="U14" s="143">
         <v>10</v>
       </c>
-      <c r="V14" s="152">
+      <c r="V14" s="143">
         <v>10</v>
       </c>
-      <c r="W14" s="153">
+      <c r="W14" s="144">
         <v>9</v>
       </c>
       <c r="X14" s="118">
         <f>(AVERAGE(T14:V14)+W14)/2</f>
         <v>9.1666666666666679</v>
       </c>
-      <c r="Y14" s="151">
+      <c r="Y14" s="142">
         <v>10</v>
       </c>
-      <c r="Z14" s="152">
+      <c r="Z14" s="143">
         <v>9</v>
       </c>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="153"/>
+      <c r="AA14" s="143">
+        <v>7.09</v>
+      </c>
+      <c r="AB14" s="144"/>
       <c r="AC14" s="118">
         <f t="shared" si="4"/>
-        <v>9.5</v>
-      </c>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="157">
+        <v>8.6966666666666672</v>
+      </c>
+      <c r="AD14" s="142">
+        <v>7.09</v>
+      </c>
+      <c r="AE14" s="148">
         <f t="shared" si="5"/>
-        <v>8.798</v>
+        <v>8.3794444444444451</v>
       </c>
     </row>
     <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E15" s="169">
         <v>7</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="170">
         <v>8.33</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="170">
         <v>7.5</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="171">
         <v>9.16</v>
       </c>
-      <c r="I15" s="118">
+      <c r="I15" s="172">
         <f t="shared" si="0"/>
         <v>8.3849999999999998</v>
       </c>
-      <c r="J15" s="115">
+      <c r="J15" s="173">
         <v>10</v>
       </c>
-      <c r="K15" s="116">
+      <c r="K15" s="174">
         <v>8</v>
       </c>
-      <c r="L15" s="116">
+      <c r="L15" s="174">
         <v>6.65</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="175">
         <v>7.7</v>
       </c>
-      <c r="N15" s="118">
+      <c r="N15" s="172">
         <f t="shared" si="6"/>
         <v>7.9583333333333339</v>
       </c>
-      <c r="O15" s="112">
+      <c r="O15" s="169">
         <v>7.5</v>
       </c>
-      <c r="P15" s="113">
+      <c r="P15" s="170">
         <v>10</v>
       </c>
-      <c r="Q15" s="113">
+      <c r="Q15" s="170">
         <v>10</v>
       </c>
-      <c r="R15" s="114">
+      <c r="R15" s="171">
         <v>7</v>
       </c>
-      <c r="S15" s="118">
+      <c r="S15" s="172">
         <f t="shared" si="7"/>
         <v>8.0833333333333321</v>
       </c>
-      <c r="T15" s="112"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="118" t="e">
+      <c r="T15" s="169"/>
+      <c r="U15" s="170"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="172" t="e">
         <f>(AVERAGE(T15:V15)+W15)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y15" s="112"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="118" t="e">
+      <c r="Y15" s="169"/>
+      <c r="Z15" s="170"/>
+      <c r="AA15" s="170"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="172" t="e">
         <f>(AVERAGE(Y15:AA15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="112"/>
-      <c r="AE15" s="119" t="e">
+      <c r="AD15" s="169"/>
+      <c r="AE15" s="176" t="e">
         <f>AVERAGE(I15,N15,S15,X15,AC15,AD15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B16" s="62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="104" t="s">
         <v>54</v>
@@ -10512,270 +10539,200 @@
       <c r="D16" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="118" t="e">
+      <c r="E16" s="121">
+        <v>8</v>
+      </c>
+      <c r="F16" s="132">
+        <v>8</v>
+      </c>
+      <c r="G16" s="132">
+        <v>6</v>
+      </c>
+      <c r="H16" s="133">
+        <v>7.5</v>
+      </c>
+      <c r="I16" s="123">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="118" t="e">
+        <v>7.4166666666666661</v>
+      </c>
+      <c r="J16" s="159">
+        <v>10</v>
+      </c>
+      <c r="K16" s="160">
+        <v>7</v>
+      </c>
+      <c r="L16" s="160">
+        <v>5</v>
+      </c>
+      <c r="M16" s="161">
+        <v>8.89</v>
+      </c>
+      <c r="N16" s="123">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="112"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="118" t="e">
+        <v>8.1116666666666664</v>
+      </c>
+      <c r="O16" s="121">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P16" s="132">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="132">
+        <v>9</v>
+      </c>
+      <c r="R16" s="133">
+        <v>7</v>
+      </c>
+      <c r="S16" s="123">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="112"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="118" t="e">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T16" s="121">
+        <v>8</v>
+      </c>
+      <c r="U16" s="132">
+        <v>10</v>
+      </c>
+      <c r="V16" s="132">
+        <v>10</v>
+      </c>
+      <c r="W16" s="133">
+        <v>10</v>
+      </c>
+      <c r="X16" s="123">
         <f>(AVERAGE(T16:V16)+W16)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="112"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="114"/>
-      <c r="AC16" s="118" t="e">
+        <v>9.6666666666666679</v>
+      </c>
+      <c r="Y16" s="121">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="132">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="132">
+        <v>7.41</v>
+      </c>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="123">
         <f>(AVERAGE(Y16:AA16))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD16" s="112"/>
-      <c r="AE16" s="119" t="e">
+        <v>8.8033333333333328</v>
+      </c>
+      <c r="AD16" s="121">
+        <v>7.41</v>
+      </c>
+      <c r="AE16" s="122">
         <f>AVERAGE(I16,N16,S16,X16,AC16,AD16)</f>
-        <v>#DIV/0!</v>
+        <v>8.2680555555555557</v>
       </c>
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
-        <v>6</v>
-      </c>
-      <c r="C17" s="140" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="142">
-        <v>8</v>
-      </c>
-      <c r="F17" s="143">
-        <v>8</v>
-      </c>
-      <c r="G17" s="143"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="118">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="118" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="142"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="118" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="142"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="118" t="e">
-        <f>(AVERAGE(T17:V17)+W17)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y17" s="142"/>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="143"/>
-      <c r="AB17" s="144"/>
-      <c r="AC17" s="118" t="e">
-        <f>(AVERAGE(Y17:AA17))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD17" s="142"/>
-      <c r="AE17" s="148" t="e">
-        <f>AVERAGE(I17,N17,S17,X17,AC17,AD17)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="24"/>
+    </row>
+    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
-        <v>7</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="121">
-        <v>8</v>
-      </c>
-      <c r="F18" s="132">
-        <v>8</v>
-      </c>
-      <c r="G18" s="132">
-        <v>6</v>
-      </c>
-      <c r="H18" s="133">
-        <v>7.5</v>
-      </c>
-      <c r="I18" s="123">
-        <f t="shared" si="0"/>
-        <v>7.4166666666666661</v>
-      </c>
-      <c r="J18" s="168">
         <v>10</v>
       </c>
-      <c r="K18" s="169">
-        <v>7</v>
-      </c>
-      <c r="L18" s="169">
-        <v>5</v>
-      </c>
-      <c r="M18" s="170">
-        <v>8.89</v>
-      </c>
-      <c r="N18" s="123">
-        <f t="shared" si="6"/>
-        <v>8.1116666666666664</v>
-      </c>
-      <c r="O18" s="121">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="P18" s="132">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="132">
-        <v>9</v>
-      </c>
-      <c r="R18" s="133">
-        <v>7</v>
-      </c>
-      <c r="S18" s="123">
-        <f t="shared" si="7"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="T18" s="121">
-        <v>8</v>
-      </c>
-      <c r="U18" s="132">
-        <v>10</v>
-      </c>
-      <c r="V18" s="132">
-        <v>10</v>
-      </c>
-      <c r="W18" s="133">
-        <v>10</v>
-      </c>
-      <c r="X18" s="123">
-        <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>9.6666666666666679</v>
-      </c>
-      <c r="Y18" s="121">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="132">
-        <v>9</v>
-      </c>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="133"/>
-      <c r="AC18" s="123">
-        <f>(AVERAGE(Y18:AA18))</f>
-        <v>9.5</v>
-      </c>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="124">
-        <f>AVERAGE(I18,N18,S18,X18,AC18,AD18)</f>
-        <v>8.5789999999999988</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="24"/>
+    </row>
+    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
-        <v>8</v>
-      </c>
-      <c r="C19" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="121">
-        <v>7</v>
-      </c>
-      <c r="F19" s="132">
-        <v>7.08</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="123">
-        <f>(AVERAGE(E19:G19)+H19)/2</f>
-        <v>3.52</v>
-      </c>
+      <c r="I19" s="36"/>
       <c r="J19" s="34"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="123" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N19" s="40"/>
       <c r="O19" s="27"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="31"/>
-      <c r="S19" s="123" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="S19" s="36"/>
       <c r="T19" s="27"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="31"/>
-      <c r="X19" s="123">
-        <f>(AVERAGE(T18:V18)+W18)/2</f>
-        <v>9.6666666666666679</v>
-      </c>
+      <c r="X19" s="36"/>
       <c r="Y19" s="27"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="31"/>
-      <c r="AC19" s="123" t="e">
-        <f>(AVERAGE(Y19:AA19))</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AC19" s="36"/>
       <c r="AD19" s="27"/>
-      <c r="AE19" s="124" t="e">
-        <f>AVERAGE(I19,N19,S19,X19,AC19,AD19)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AE19" s="24"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
-        <v>9</v>
-      </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="27"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -10806,7 +10763,7 @@
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
@@ -10840,7 +10797,7 @@
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
@@ -10873,260 +10830,158 @@
       <c r="AE22" s="24"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="62">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="24"/>
+      <c r="B23" s="82">
+        <v>15</v>
+      </c>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="93"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="62">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="24"/>
-    </row>
-    <row r="25" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="62">
-        <v>14</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="24"/>
-    </row>
-    <row r="26" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="82">
-        <v>15</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="93"/>
-    </row>
-    <row r="27" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="63">
+      <c r="B24" s="63">
         <v>16</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="57"/>
-    </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="57"/>
+    </row>
+    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="196" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="198"/>
+      <c r="J26" s="196" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="197"/>
+      <c r="L26" s="197"/>
+      <c r="M26" s="198"/>
+      <c r="O26" s="196" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="197"/>
+      <c r="Q26" s="197"/>
+      <c r="R26" s="198"/>
+      <c r="T26" s="196" t="s">
+        <v>23</v>
+      </c>
+      <c r="U26" s="197"/>
+      <c r="V26" s="197"/>
+      <c r="W26" s="198"/>
+      <c r="Y26" s="196" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" s="197"/>
+      <c r="AA26" s="197"/>
+      <c r="AB26" s="198"/>
+    </row>
+    <row r="27" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="41"/>
+      <c r="G27"/>
+      <c r="H27" s="42"/>
+      <c r="J27" s="41"/>
+      <c r="M27" s="42"/>
+      <c r="O27" s="41"/>
+      <c r="R27" s="42"/>
+      <c r="T27" s="41"/>
+      <c r="W27" s="42"/>
+      <c r="Y27" s="41"/>
+      <c r="AB27" s="42"/>
+    </row>
+    <row r="28" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="41"/>
       <c r="G28"/>
-    </row>
-    <row r="29" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="195" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="197"/>
-      <c r="J29" s="195" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="196"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="197"/>
-      <c r="O29" s="195" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" s="196"/>
-      <c r="Q29" s="196"/>
-      <c r="R29" s="197"/>
-      <c r="T29" s="195" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="196"/>
-      <c r="V29" s="196"/>
-      <c r="W29" s="197"/>
-      <c r="Y29" s="195" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z29" s="196"/>
-      <c r="AA29" s="196"/>
-      <c r="AB29" s="197"/>
-    </row>
-    <row r="30" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="J28" s="41"/>
+      <c r="M28" s="42"/>
+      <c r="O28" s="41"/>
+      <c r="R28" s="42"/>
+      <c r="T28" s="41"/>
+      <c r="W28" s="42"/>
+      <c r="Y28" s="41"/>
+      <c r="AB28" s="42"/>
+    </row>
+    <row r="29" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="45"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="45"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="45"/>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.4">
       <c r="G30"/>
-      <c r="H30" s="42"/>
-      <c r="J30" s="41"/>
-      <c r="M30" s="42"/>
-      <c r="O30" s="41"/>
-      <c r="R30" s="42"/>
-      <c r="T30" s="41"/>
-      <c r="W30" s="42"/>
-      <c r="Y30" s="41"/>
-      <c r="AB30" s="42"/>
-    </row>
-    <row r="31" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E31" s="41"/>
-      <c r="G31"/>
-      <c r="H31" s="42"/>
-      <c r="J31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="O31" s="41"/>
-      <c r="R31" s="42"/>
-      <c r="T31" s="41"/>
-      <c r="W31" s="42"/>
-      <c r="Y31" s="41"/>
-      <c r="AB31" s="42"/>
-    </row>
-    <row r="32" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="45"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="45"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G33"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C12:AE15">
@@ -11134,6 +10989,11 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -11141,25 +11001,20 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
-  <conditionalFormatting sqref="E12:AE17">
+  <conditionalFormatting sqref="E12:AE15">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE12:AE17">
+  <conditionalFormatting sqref="AE12:AE15">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13:V13 T12:W12 E12:H27 T14:W27 O12:R27 Y12:AB27" xr:uid="{B62CFA69-AA7E-41F2-B307-45E5E1E9831E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13:V13 T12:W12 Y12:AB24 O12:R24 T14:W24 E12:H24" xr:uid="{B62CFA69-AA7E-41F2-B307-45E5E1E9831E}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -11234,140 +11089,140 @@
   <sheetData>
     <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="200"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
     </row>
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="203"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="204"/>
     </row>
     <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="204"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="205"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="205"/>
-      <c r="AB4" s="205"/>
-      <c r="AC4" s="205"/>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="206"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="206"/>
+      <c r="W4" s="206"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="206"/>
+      <c r="AA4" s="206"/>
+      <c r="AB4" s="206"/>
+      <c r="AC4" s="206"/>
+      <c r="AD4" s="206"/>
+      <c r="AE4" s="206"/>
+      <c r="AF4" s="207"/>
     </row>
     <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194"/>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="194"/>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="194"/>
-      <c r="AF6" s="194"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="195"/>
+      <c r="T6" s="195"/>
+      <c r="U6" s="195"/>
+      <c r="V6" s="195"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="195"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="195"/>
+      <c r="AC6" s="195"/>
+      <c r="AD6" s="195"/>
+      <c r="AE6" s="195"/>
+      <c r="AF6" s="195"/>
     </row>
     <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11403,42 +11258,42 @@
     <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="176" t="s">
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="177"/>
-      <c r="O10" s="178"/>
-      <c r="P10" s="176" t="s">
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="178"/>
-      <c r="U10" s="176" t="s">
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="179"/>
+      <c r="U10" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="177"/>
-      <c r="Y10" s="178"/>
-      <c r="Z10" s="176" t="s">
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="179"/>
+      <c r="Z10" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="AA10" s="177"/>
-      <c r="AB10" s="177"/>
-      <c r="AC10" s="177"/>
-      <c r="AD10" s="178"/>
+      <c r="AA10" s="178"/>
+      <c r="AB10" s="178"/>
+      <c r="AC10" s="178"/>
+      <c r="AD10" s="179"/>
     </row>
     <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
@@ -11538,10 +11393,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E12" s="120">
         <v>10</v>
@@ -11616,42 +11471,42 @@
       <c r="B13" s="62">
         <v>2</v>
       </c>
-      <c r="C13" s="158" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="159" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="160">
+      <c r="C13" s="149" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="150" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="151">
         <v>10</v>
       </c>
-      <c r="F13" s="161">
+      <c r="F13" s="152">
         <v>7.85</v>
       </c>
-      <c r="G13" s="161">
+      <c r="G13" s="152">
         <v>7</v>
       </c>
-      <c r="H13" s="161">
+      <c r="H13" s="152">
         <v>7.2</v>
       </c>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163">
+      <c r="I13" s="153"/>
+      <c r="J13" s="154">
         <f t="shared" si="0"/>
         <v>4.0062500000000005</v>
       </c>
-      <c r="K13" s="164"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="163" t="e">
+      <c r="K13" s="155"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="154" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="163" t="e">
+      <c r="P13" s="158"/>
+      <c r="Q13" s="152"/>
+      <c r="R13" s="152"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="154" t="e">
         <f>(AVERAGE(P13:R13)+S13)/2</f>
         <v>#DIV/0!</v>
       </c>
@@ -11681,56 +11536,56 @@
       <c r="B14" s="62">
         <v>3</v>
       </c>
-      <c r="C14" s="158" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="159" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="167">
+      <c r="C14" s="149" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="158">
         <v>10</v>
       </c>
-      <c r="F14" s="161">
+      <c r="F14" s="152">
         <v>7.69</v>
       </c>
-      <c r="G14" s="161">
+      <c r="G14" s="152">
         <v>8.9</v>
       </c>
-      <c r="H14" s="161">
+      <c r="H14" s="152">
         <v>8.9</v>
       </c>
-      <c r="I14" s="162">
+      <c r="I14" s="153">
         <v>9</v>
       </c>
-      <c r="J14" s="163">
+      <c r="J14" s="154">
         <f>(AVERAGE(E14:H14)+I14)/2</f>
         <v>8.9362500000000011</v>
       </c>
-      <c r="K14" s="164">
+      <c r="K14" s="155">
         <v>10</v>
       </c>
-      <c r="L14" s="165">
+      <c r="L14" s="156">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M14" s="165">
+      <c r="M14" s="156">
         <v>8</v>
       </c>
-      <c r="N14" s="166">
+      <c r="N14" s="157">
         <v>7</v>
       </c>
-      <c r="O14" s="163">
+      <c r="O14" s="154">
         <f t="shared" si="1"/>
         <v>7.8833333333333337</v>
       </c>
-      <c r="P14" s="167">
+      <c r="P14" s="158">
         <v>5</v>
       </c>
-      <c r="Q14" s="161">
+      <c r="Q14" s="152">
         <v>10</v>
       </c>
-      <c r="R14" s="161"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="163">
+      <c r="R14" s="152"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="154">
         <f>(AVERAGE(P14:R14)+S14)/2</f>
         <v>3.75</v>
       </c>
@@ -11760,56 +11615,56 @@
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="158" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="167">
+      <c r="C15" s="149" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="158">
         <v>10</v>
       </c>
-      <c r="F15" s="161">
+      <c r="F15" s="152">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G15" s="161">
+      <c r="G15" s="152">
         <v>10</v>
       </c>
-      <c r="H15" s="161">
+      <c r="H15" s="152">
         <v>10</v>
       </c>
-      <c r="I15" s="162">
+      <c r="I15" s="153">
         <v>9.5</v>
       </c>
-      <c r="J15" s="163">
+      <c r="J15" s="154">
         <f t="shared" si="0"/>
         <v>9.5562500000000004</v>
       </c>
-      <c r="K15" s="164">
+      <c r="K15" s="155">
         <v>9</v>
       </c>
-      <c r="L15" s="165">
+      <c r="L15" s="156">
         <v>10</v>
       </c>
-      <c r="M15" s="165">
+      <c r="M15" s="156">
         <v>10</v>
       </c>
-      <c r="N15" s="166">
+      <c r="N15" s="157">
         <v>10</v>
       </c>
-      <c r="O15" s="163">
+      <c r="O15" s="154">
         <f t="shared" si="1"/>
         <v>9.8333333333333321</v>
       </c>
-      <c r="P15" s="167">
+      <c r="P15" s="158">
         <v>10</v>
       </c>
-      <c r="Q15" s="161">
+      <c r="Q15" s="152">
         <v>10</v>
       </c>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="163">
+      <c r="R15" s="152"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="154">
         <f>(AVERAGE(P15:R15)+S15)/2</f>
         <v>5</v>
       </c>
@@ -11839,56 +11694,56 @@
       <c r="B16" s="62">
         <v>5</v>
       </c>
-      <c r="C16" s="158" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="159" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="167">
+      <c r="C16" s="149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="158">
         <v>10</v>
       </c>
-      <c r="F16" s="161">
+      <c r="F16" s="152">
         <v>7.46</v>
       </c>
-      <c r="G16" s="161">
+      <c r="G16" s="152">
         <v>10</v>
       </c>
-      <c r="H16" s="161">
+      <c r="H16" s="152">
         <v>8.9</v>
       </c>
-      <c r="I16" s="162">
+      <c r="I16" s="153">
         <v>7.25</v>
       </c>
-      <c r="J16" s="163">
+      <c r="J16" s="154">
         <f t="shared" si="0"/>
         <v>8.17</v>
       </c>
-      <c r="K16" s="164">
+      <c r="K16" s="155">
         <v>10</v>
       </c>
-      <c r="L16" s="165">
+      <c r="L16" s="156">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M16" s="165">
+      <c r="M16" s="156">
         <v>10</v>
       </c>
-      <c r="N16" s="166">
+      <c r="N16" s="157">
         <v>10</v>
       </c>
-      <c r="O16" s="163">
+      <c r="O16" s="154">
         <f t="shared" si="1"/>
         <v>9.8666666666666671</v>
       </c>
-      <c r="P16" s="167">
+      <c r="P16" s="158">
         <v>10</v>
       </c>
-      <c r="Q16" s="161">
+      <c r="Q16" s="152">
         <v>10</v>
       </c>
-      <c r="R16" s="161"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="163">
+      <c r="R16" s="152"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="154">
         <f>(AVERAGE(P16:R16)+S16)/2</f>
         <v>5</v>
       </c>
@@ -11919,10 +11774,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D17" s="128" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E17" s="121">
         <v>10</v>
@@ -12324,37 +12179,37 @@
       <c r="H28"/>
     </row>
     <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="195" t="s">
+      <c r="E29" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="197"/>
-      <c r="K29" s="195" t="s">
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="198"/>
+      <c r="K29" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="196"/>
-      <c r="M29" s="196"/>
-      <c r="N29" s="197"/>
-      <c r="P29" s="195" t="s">
+      <c r="L29" s="197"/>
+      <c r="M29" s="197"/>
+      <c r="N29" s="198"/>
+      <c r="P29" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="196"/>
-      <c r="R29" s="196"/>
-      <c r="S29" s="197"/>
-      <c r="U29" s="195" t="s">
+      <c r="Q29" s="197"/>
+      <c r="R29" s="197"/>
+      <c r="S29" s="198"/>
+      <c r="U29" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="196"/>
-      <c r="W29" s="196"/>
-      <c r="X29" s="197"/>
-      <c r="Z29" s="195" t="s">
+      <c r="V29" s="197"/>
+      <c r="W29" s="197"/>
+      <c r="X29" s="198"/>
+      <c r="Z29" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="196"/>
-      <c r="AB29" s="196"/>
-      <c r="AC29" s="197"/>
+      <c r="AA29" s="197"/>
+      <c r="AB29" s="197"/>
+      <c r="AC29" s="198"/>
     </row>
     <row r="30" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492C1BF5-B960-47F6-90DE-C6952C6573EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7317A049-1E91-4A36-AAA7-62DC89BEA14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4615,7 +4615,7 @@
   <dimension ref="B1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4892,13 +4892,11 @@
       <c r="K12" s="110">
         <v>8</v>
       </c>
-      <c r="L12" s="110">
-        <v>8</v>
-      </c>
+      <c r="L12" s="110"/>
       <c r="M12" s="111"/>
       <c r="N12" s="130">
         <f>AVERAGE(J12:M12)</f>
-        <v>8.6666666666666661</v>
+        <v>9</v>
       </c>
       <c r="O12" s="106"/>
       <c r="P12" s="107"/>
@@ -4944,15 +4942,13 @@
         <v>10</v>
       </c>
       <c r="K13" s="116">
-        <v>8</v>
-      </c>
-      <c r="L13" s="116">
         <v>7</v>
       </c>
+      <c r="L13" s="116"/>
       <c r="M13" s="117"/>
       <c r="N13" s="130">
         <f>AVERAGE(J13:M13)</f>
-        <v>8.3333333333333339</v>
+        <v>8.5</v>
       </c>
       <c r="O13" s="112"/>
       <c r="P13" s="113"/>
@@ -4998,15 +4994,13 @@
         <v>10</v>
       </c>
       <c r="K14" s="116">
-        <v>8</v>
-      </c>
-      <c r="L14" s="116">
         <v>10</v>
       </c>
+      <c r="L14" s="116"/>
       <c r="M14" s="117"/>
       <c r="N14" s="130">
         <f>AVERAGE(J14:M14)</f>
-        <v>9.3333333333333339</v>
+        <v>10</v>
       </c>
       <c r="O14" s="112"/>
       <c r="P14" s="113"/>
@@ -5052,11 +5046,9 @@
         <v>10</v>
       </c>
       <c r="K15" s="146">
-        <v>8</v>
-      </c>
-      <c r="L15" s="146">
         <v>6</v>
       </c>
+      <c r="L15" s="146"/>
       <c r="M15" s="147"/>
       <c r="N15" s="130">
         <f>AVERAGE(J15:M15)</f>
@@ -5423,7 +5415,7 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26 O12:R26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
@@ -7491,16 +7483,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B2:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T28:W28"/>
-    <mergeCell ref="B2:Z4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -9793,6 +9785,13 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9802,13 +9801,6 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -10989,11 +10981,6 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -11001,6 +10988,11 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="Y26:AB26"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE15">

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7317A049-1E91-4A36-AAA7-62DC89BEA14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A7942-6886-45BC-9387-2AD87102E4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -314,9 +314,6 @@
     <t>QUEZADA</t>
   </si>
   <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
     <t>JARAMILLO</t>
   </si>
   <si>
@@ -342,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1484,9 +1481,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1545,6 +1539,28 @@
     <xf numFmtId="2" fontId="21" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3191,7 +3207,7 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="5.23046875" customWidth="1"/>
     <col min="2" max="2" width="2.69140625" bestFit="1" customWidth="1"/>
@@ -3226,126 +3242,126 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="180" t="s">
+    <row r="1" spans="2:31" ht="15" customHeight="1">
+      <c r="B1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="181"/>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="181"/>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-    </row>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D5" s="182" t="s">
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="192"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="192"/>
+      <c r="W1" s="192"/>
+      <c r="X1" s="192"/>
+      <c r="Y1" s="192"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="192"/>
+      <c r="AB1" s="192"/>
+      <c r="AC1" s="192"/>
+      <c r="AD1" s="192"/>
+      <c r="AE1" s="192"/>
+    </row>
+    <row r="2" spans="2:31" ht="15" customHeight="1">
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="192"/>
+      <c r="AB2" s="192"/>
+      <c r="AC2" s="192"/>
+      <c r="AD2" s="192"/>
+      <c r="AE2" s="192"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1">
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="192"/>
+      <c r="AD3" s="192"/>
+      <c r="AE3" s="192"/>
+    </row>
+    <row r="5" spans="2:31">
+      <c r="D5" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="182"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="182" t="s">
+      <c r="E5" s="193"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="183"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="185"/>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="196"/>
+      <c r="Q5" s="196"/>
+      <c r="R5" s="196"/>
+    </row>
+    <row r="6" spans="2:31">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3357,28 +3373,28 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="D7" s="182" t="s">
+    <row r="7" spans="2:31">
+      <c r="D7" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="182" t="s">
+      <c r="E7" s="193"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184"/>
-    </row>
-    <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="195"/>
+      <c r="Q7" s="195"/>
+      <c r="R7" s="195"/>
+    </row>
+    <row r="8" spans="2:31" ht="15" thickBot="1">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3390,46 +3406,46 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="15" thickBot="1">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="177" t="s">
+      <c r="E9" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="177" t="s">
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="177" t="s">
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="179"/>
-      <c r="T9" s="177" t="s">
+      <c r="P9" s="189"/>
+      <c r="Q9" s="189"/>
+      <c r="R9" s="189"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="178"/>
-      <c r="V9" s="178"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="179"/>
-      <c r="Y9" s="177" t="s">
+      <c r="U9" s="189"/>
+      <c r="V9" s="189"/>
+      <c r="W9" s="189"/>
+      <c r="X9" s="190"/>
+      <c r="Y9" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="179"/>
-    </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z9" s="189"/>
+      <c r="AA9" s="189"/>
+      <c r="AB9" s="189"/>
+      <c r="AC9" s="190"/>
+    </row>
+    <row r="10" spans="2:31" ht="15" thickBot="1">
       <c r="B10" s="4"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -3519,7 +3535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="15" thickBot="1">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -3571,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="15" thickBot="1">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -3623,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="15" thickBot="1">
       <c r="B13" s="16">
         <v>3</v>
       </c>
@@ -3675,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="15" thickBot="1">
       <c r="B14" s="16">
         <v>4</v>
       </c>
@@ -3727,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="15" thickBot="1">
       <c r="B15" s="16">
         <v>5</v>
       </c>
@@ -3779,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="15" thickBot="1">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -3831,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" ht="15" thickBot="1">
       <c r="B17" s="16">
         <v>7</v>
       </c>
@@ -3883,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" ht="15" thickBot="1">
       <c r="B18" s="16">
         <v>8</v>
       </c>
@@ -3935,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" ht="15" thickBot="1">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -3987,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" ht="15" thickBot="1">
       <c r="B20" s="16">
         <v>10</v>
       </c>
@@ -4039,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" ht="15" thickBot="1">
       <c r="B21" s="16">
         <v>11</v>
       </c>
@@ -4091,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="15" thickBot="1">
       <c r="B22" s="16">
         <v>12</v>
       </c>
@@ -4143,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" ht="15" thickBot="1">
       <c r="B23" s="16">
         <v>13</v>
       </c>
@@ -4195,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="15" thickBot="1">
       <c r="B24" s="16">
         <v>14</v>
       </c>
@@ -4247,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="15" thickBot="1">
       <c r="B25" s="16">
         <v>15</v>
       </c>
@@ -4299,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" ht="15" thickBot="1">
       <c r="B26" s="16">
         <v>16</v>
       </c>
@@ -4351,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" ht="15" thickBot="1">
       <c r="B27" s="16">
         <v>17</v>
       </c>
@@ -4403,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" ht="15" thickBot="1">
       <c r="B28" s="16">
         <v>18</v>
       </c>
@@ -4455,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="15" thickBot="1">
       <c r="B29" s="16">
         <v>19</v>
       </c>
@@ -4507,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" ht="15" thickBot="1">
       <c r="B30" s="16">
         <v>20</v>
       </c>
@@ -4559,22 +4575,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:31">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:31">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:7">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="7:7">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="7:7">
       <c r="G35"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="7:7">
       <c r="G36"/>
     </row>
   </sheetData>
@@ -4614,11 +4630,11 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="B4" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -4656,101 +4672,101 @@
     <col min="40" max="40" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="199" t="s">
+    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1">
+      <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="201"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="204"/>
-    </row>
-    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="207"/>
-    </row>
-    <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="195" t="s">
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="212"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" customHeight="1">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="215"/>
+    </row>
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="218"/>
+    </row>
+    <row r="6" spans="2:21" ht="25.75">
+      <c r="B6" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="195"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="195"/>
-    </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="206"/>
+      <c r="R6" s="206"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="206"/>
+    </row>
+    <row r="7" spans="2:21" ht="15" thickBot="1"/>
+    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -4763,7 +4779,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -4775,32 +4791,32 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="177" t="s">
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="177" t="s">
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="179"/>
-    </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P10" s="189"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="190"/>
+    </row>
+    <row r="11" spans="2:21" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -4860,12 +4876,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="126" t="s">
         <v>56</v>
@@ -4912,7 +4928,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -4920,7 +4936,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="112">
         <v>10</v>
@@ -4964,15 +4980,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
       <c r="C14" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="128" t="s">
         <v>69</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>70</v>
       </c>
       <c r="E14" s="112">
         <v>10</v>
@@ -5016,15 +5032,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="162" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="163" t="s">
+      <c r="C15" s="161" t="s">
         <v>71</v>
+      </c>
+      <c r="D15" s="162" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="142">
         <v>10</v>
@@ -5057,18 +5073,18 @@
       <c r="O15" s="142"/>
       <c r="P15" s="143"/>
       <c r="Q15" s="143"/>
-      <c r="R15" s="164"/>
+      <c r="R15" s="163"/>
       <c r="S15" s="129" t="e">
         <f>AVERAGE(O15:Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="165"/>
-      <c r="U15" s="166" t="e">
+      <c r="T15" s="164"/>
+      <c r="U15" s="165" t="e">
         <f>AVERAGE(I15,N15,S15,T15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5092,7 +5108,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5116,7 +5132,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5140,7 +5156,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5164,7 +5180,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -5188,7 +5204,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -5212,7 +5228,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -5236,7 +5252,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -5260,7 +5276,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -5284,7 +5300,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -5308,7 +5324,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -5332,30 +5348,30 @@
       <c r="T26" s="28"/>
       <c r="U26" s="57"/>
     </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:21" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="196" t="s">
+    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="198"/>
-      <c r="J28" s="196" t="s">
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="209"/>
+      <c r="J28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="198"/>
-      <c r="O28" s="196" t="s">
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="209"/>
+      <c r="O28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="198"/>
-    </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P28" s="208"/>
+      <c r="Q28" s="208"/>
+      <c r="R28" s="209"/>
+    </row>
+    <row r="29" spans="2:21" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -5364,7 +5380,7 @@
       <c r="O29" s="41"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -5373,7 +5389,7 @@
       <c r="O30" s="41"/>
       <c r="R30" s="42"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5387,7 +5403,7 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:21">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -5415,7 +5431,7 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:H26 O12:R26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
@@ -5435,70 +5451,70 @@
       <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="186" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="188"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="189"/>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="191"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="192"/>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="194"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="199"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="200"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="202"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="203"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="205"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="A6" s="195" t="s">
+    <row r="6" spans="1:10" ht="25.75">
+      <c r="A6" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="49"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="21" thickBot="1">
       <c r="A8" s="49"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
@@ -5510,26 +5526,26 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="49"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="177" t="s">
+      <c r="D10" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="179"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="190"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5561,7 +5577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A12" s="61">
         <v>1</v>
       </c>
@@ -5575,7 +5591,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A13" s="62">
         <v>2</v>
       </c>
@@ -5589,7 +5605,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A14" s="62">
         <v>3</v>
       </c>
@@ -5603,7 +5619,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A15" s="62">
         <v>4</v>
       </c>
@@ -5617,7 +5633,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A16" s="62">
         <v>5</v>
       </c>
@@ -5631,7 +5647,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A17" s="62">
         <v>6</v>
       </c>
@@ -5645,7 +5661,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A18" s="62">
         <v>7</v>
       </c>
@@ -5659,7 +5675,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="18.45">
       <c r="A19" s="62">
         <v>8</v>
       </c>
@@ -5673,36 +5689,36 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A21" s="49"/>
-      <c r="D21" s="196" t="s">
+      <c r="D21" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="197"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="198"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="209"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="49"/>
       <c r="D22" s="41"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="A23" s="49"/>
       <c r="D23" s="41"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="49"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10">
       <c r="A25" s="49"/>
     </row>
   </sheetData>
@@ -5735,7 +5751,7 @@
       <selection activeCell="B2" sqref="B2:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -5764,81 +5780,81 @@
     <col min="35" max="35" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="199" t="s">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1">
+      <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-    </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-    </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="207"/>
-    </row>
-    <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="195" t="s">
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="212"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" customHeight="1">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="215"/>
+    </row>
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="218"/>
+    </row>
+    <row r="6" spans="2:16" ht="25.75">
+      <c r="B6" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1"/>
+    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -5849,7 +5865,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5857,25 +5873,25 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="177" t="s">
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="179"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="190"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5922,7 +5938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5941,7 +5957,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -5960,7 +5976,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5979,7 +5995,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5998,7 +6014,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6017,7 +6033,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6036,7 +6052,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6055,7 +6071,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6074,7 +6090,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6093,7 +6109,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6112,7 +6128,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6131,7 +6147,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6150,7 +6166,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6169,7 +6185,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6188,7 +6204,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6207,38 +6223,38 @@
       <c r="O26" s="28"/>
       <c r="P26" s="57"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="196" t="s">
+    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="198"/>
-      <c r="J28" s="196" t="s">
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="209"/>
+      <c r="J28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="198"/>
-    </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="209"/>
+    </row>
+    <row r="29" spans="2:16" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
       <c r="J29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
       <c r="J30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -6248,7 +6264,7 @@
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6284,7 +6300,7 @@
       <selection activeCell="B2" sqref="B2:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6313,61 +6329,61 @@
     <col min="30" max="30" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="199" t="s">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1">
+      <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="201"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="204"/>
-    </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="207"/>
-    </row>
-    <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="195" t="s">
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="212"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="215"/>
+    </row>
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="218"/>
+    </row>
+    <row r="6" spans="2:11" ht="25.75">
+      <c r="B6" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1"/>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6378,24 +6394,24 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="190"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6427,7 +6443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6441,7 +6457,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6455,7 +6471,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6469,7 +6485,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6483,7 +6499,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6497,7 +6513,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6511,7 +6527,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6525,7 +6541,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6539,7 +6555,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6553,7 +6569,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6567,7 +6583,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6581,7 +6597,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6595,7 +6611,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6609,7 +6625,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6623,7 +6639,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6637,34 +6653,34 @@
       <c r="J26" s="28"/>
       <c r="K26" s="57"/>
     </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="196" t="s">
+    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="198"/>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="209"/>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6698,7 +6714,7 @@
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6727,121 +6743,121 @@
     <col min="45" max="45" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="199" t="s">
+    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1">
+      <c r="B2" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="201"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="204"/>
-    </row>
-    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="207"/>
-    </row>
-    <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="195" t="s">
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+    </row>
+    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="218"/>
+    </row>
+    <row r="6" spans="2:26" ht="25.75">
+      <c r="B6" s="206" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="195"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="195"/>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195"/>
-      <c r="X6" s="195"/>
-      <c r="Y6" s="195"/>
-      <c r="Z6" s="195"/>
-    </row>
-    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="206"/>
+      <c r="R6" s="206"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="206"/>
+      <c r="V6" s="206"/>
+      <c r="W6" s="206"/>
+      <c r="X6" s="206"/>
+      <c r="Y6" s="206"/>
+      <c r="Z6" s="206"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" thickBot="1"/>
+    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6852,7 +6868,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6864,39 +6880,39 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="177" t="s">
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="177" t="s">
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="179"/>
-      <c r="T10" s="177" t="s">
+      <c r="P10" s="189"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="178"/>
-      <c r="V10" s="178"/>
-      <c r="W10" s="178"/>
-      <c r="X10" s="179"/>
-    </row>
-    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U10" s="189"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="190"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6973,7 +6989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7002,7 +7018,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7031,7 +7047,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7060,7 +7076,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7089,7 +7105,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7118,7 +7134,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="24"/>
     </row>
-    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -7147,7 +7163,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -7176,7 +7192,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -7205,7 +7221,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -7234,7 +7250,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -7263,7 +7279,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -7292,7 +7308,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -7321,7 +7337,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -7350,7 +7366,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -7379,7 +7395,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -7408,36 +7424,36 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="57"/>
     </row>
-    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:26" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="196" t="s">
+    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="198"/>
-      <c r="J28" s="196" t="s">
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="209"/>
+      <c r="J28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="198"/>
-      <c r="O28" s="196" t="s">
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="209"/>
+      <c r="O28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="198"/>
-      <c r="T28" s="196" t="s">
+      <c r="P28" s="208"/>
+      <c r="Q28" s="208"/>
+      <c r="R28" s="209"/>
+      <c r="T28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="197"/>
-      <c r="V28" s="197"/>
-      <c r="W28" s="198"/>
-    </row>
-    <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U28" s="208"/>
+      <c r="V28" s="208"/>
+      <c r="W28" s="209"/>
+    </row>
+    <row r="29" spans="2:26" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -7448,7 +7464,7 @@
       <c r="T29" s="41"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:26" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -7459,7 +7475,7 @@
       <c r="T30" s="41"/>
       <c r="W30" s="42"/>
     </row>
-    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -7477,7 +7493,7 @@
       <c r="V31" s="44"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:26">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -7517,7 +7533,7 @@
       <selection activeCell="B2" sqref="B2:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="49" customWidth="1"/>
@@ -7546,171 +7562,171 @@
     <col min="55" max="55" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="199" t="s">
+    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:36" ht="15" customHeight="1">
+      <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="200"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="201"/>
-    </row>
-    <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="203"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="203"/>
-      <c r="AH3" s="203"/>
-      <c r="AI3" s="203"/>
-      <c r="AJ3" s="204"/>
-    </row>
-    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="206"/>
-      <c r="AA4" s="206"/>
-      <c r="AB4" s="206"/>
-      <c r="AC4" s="206"/>
-      <c r="AD4" s="206"/>
-      <c r="AE4" s="206"/>
-      <c r="AF4" s="206"/>
-      <c r="AG4" s="206"/>
-      <c r="AH4" s="206"/>
-      <c r="AI4" s="206"/>
-      <c r="AJ4" s="207"/>
-    </row>
-    <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B7" s="211" t="s">
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="211"/>
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="211"/>
+      <c r="AG2" s="211"/>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="211"/>
+      <c r="AJ2" s="212"/>
+    </row>
+    <row r="3" spans="2:36" ht="15" customHeight="1">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="214"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="214"/>
+      <c r="AG3" s="214"/>
+      <c r="AH3" s="214"/>
+      <c r="AI3" s="214"/>
+      <c r="AJ3" s="215"/>
+    </row>
+    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AD4" s="217"/>
+      <c r="AE4" s="217"/>
+      <c r="AF4" s="217"/>
+      <c r="AG4" s="217"/>
+      <c r="AH4" s="217"/>
+      <c r="AI4" s="217"/>
+      <c r="AJ4" s="218"/>
+    </row>
+    <row r="7" spans="2:36" ht="28.3" thickBot="1">
+      <c r="B7" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
-      <c r="S7" s="211"/>
-      <c r="T7" s="211"/>
-      <c r="U7" s="211"/>
-      <c r="V7" s="211"/>
-      <c r="W7" s="211"/>
-      <c r="X7" s="211"/>
-      <c r="Y7" s="211"/>
-      <c r="Z7" s="211"/>
-      <c r="AA7" s="211"/>
-      <c r="AB7" s="211"/>
-      <c r="AC7" s="211"/>
-      <c r="AD7" s="211"/>
-      <c r="AE7" s="211"/>
-      <c r="AF7" s="211"/>
-      <c r="AG7" s="211"/>
-      <c r="AH7" s="211"/>
-      <c r="AI7" s="211"/>
-      <c r="AJ7" s="211"/>
-    </row>
-    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="222"/>
+      <c r="U7" s="222"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="222"/>
+      <c r="X7" s="222"/>
+      <c r="Y7" s="222"/>
+      <c r="Z7" s="222"/>
+      <c r="AA7" s="222"/>
+      <c r="AB7" s="222"/>
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="222"/>
+      <c r="AE7" s="222"/>
+      <c r="AF7" s="222"/>
+      <c r="AG7" s="222"/>
+      <c r="AH7" s="222"/>
+      <c r="AI7" s="222"/>
+      <c r="AJ7" s="222"/>
+    </row>
+    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="213"/>
-    </row>
-    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="224"/>
+    </row>
+    <row r="9" spans="2:36" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -7722,54 +7738,54 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="208" t="s">
+      <c r="E10" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="208" t="s">
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="208" t="s">
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="221"/>
+      <c r="O10" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="209"/>
-      <c r="Q10" s="209"/>
-      <c r="R10" s="209"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="208" t="s">
+      <c r="P10" s="220"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="220"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="209"/>
-      <c r="V10" s="209"/>
-      <c r="W10" s="209"/>
-      <c r="X10" s="210"/>
-      <c r="Y10" s="208" t="s">
+      <c r="U10" s="220"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="220"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="209"/>
-      <c r="AA10" s="209"/>
-      <c r="AB10" s="209"/>
-      <c r="AC10" s="210"/>
-      <c r="AD10" s="208" t="s">
+      <c r="Z10" s="220"/>
+      <c r="AA10" s="220"/>
+      <c r="AB10" s="220"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="209"/>
-      <c r="AF10" s="209"/>
-      <c r="AG10" s="209"/>
-      <c r="AH10" s="210"/>
-    </row>
-    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AE10" s="220"/>
+      <c r="AF10" s="220"/>
+      <c r="AG10" s="220"/>
+      <c r="AH10" s="221"/>
+    </row>
+    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -7876,7 +7892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7915,7 +7931,7 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7954,7 +7970,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7993,7 +8009,7 @@
       <c r="AI14" s="27"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -8032,7 +8048,7 @@
       <c r="AI15" s="27"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -8071,7 +8087,7 @@
       <c r="AI16" s="27"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -8110,7 +8126,7 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -8149,7 +8165,7 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -8188,7 +8204,7 @@
       <c r="AI19" s="27"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -8227,7 +8243,7 @@
       <c r="AI20" s="27"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -8266,7 +8282,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -8305,7 +8321,7 @@
       <c r="AI22" s="27"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -8344,7 +8360,7 @@
       <c r="AI23" s="27"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -8383,7 +8399,7 @@
       <c r="AI24" s="27"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -8422,7 +8438,7 @@
       <c r="AI25" s="27"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -8461,48 +8477,48 @@
       <c r="AI26" s="28"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:36" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="196" t="s">
+    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="198"/>
-      <c r="J28" s="196" t="s">
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="209"/>
+      <c r="J28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="198"/>
-      <c r="O28" s="196" t="s">
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="209"/>
+      <c r="O28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="198"/>
-      <c r="T28" s="196" t="s">
+      <c r="P28" s="208"/>
+      <c r="Q28" s="208"/>
+      <c r="R28" s="209"/>
+      <c r="T28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="197"/>
-      <c r="V28" s="197"/>
-      <c r="W28" s="198"/>
-      <c r="Y28" s="196" t="s">
+      <c r="U28" s="208"/>
+      <c r="V28" s="208"/>
+      <c r="W28" s="209"/>
+      <c r="Y28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="197"/>
-      <c r="AA28" s="197"/>
-      <c r="AB28" s="198"/>
-      <c r="AD28" s="196" t="s">
+      <c r="Z28" s="208"/>
+      <c r="AA28" s="208"/>
+      <c r="AB28" s="209"/>
+      <c r="AD28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="197"/>
-      <c r="AF28" s="197"/>
-      <c r="AG28" s="198"/>
-    </row>
-    <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE28" s="208"/>
+      <c r="AF28" s="208"/>
+      <c r="AG28" s="209"/>
+    </row>
+    <row r="29" spans="2:36" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -8517,7 +8533,7 @@
       <c r="AD29" s="41"/>
       <c r="AG29" s="42"/>
     </row>
-    <row r="30" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:36" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -8532,7 +8548,7 @@
       <c r="AD30" s="41"/>
       <c r="AG30" s="42"/>
     </row>
-    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -8558,7 +8574,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="45"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:36">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -8603,7 +8619,7 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4.23046875" style="49" customWidth="1"/>
@@ -8633,183 +8649,183 @@
     <col min="60" max="60" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="214" t="s">
+    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1">
+      <c r="B2" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="215"/>
-      <c r="AD2" s="215"/>
-      <c r="AE2" s="215"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="215"/>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="215"/>
-      <c r="AJ2" s="215"/>
-      <c r="AK2" s="215"/>
-      <c r="AL2" s="215"/>
-      <c r="AM2" s="215"/>
-      <c r="AN2" s="215"/>
-      <c r="AO2" s="216"/>
-    </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="217"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="218"/>
-      <c r="AB3" s="218"/>
-      <c r="AC3" s="218"/>
-      <c r="AD3" s="218"/>
-      <c r="AE3" s="218"/>
-      <c r="AF3" s="218"/>
-      <c r="AG3" s="218"/>
-      <c r="AH3" s="218"/>
-      <c r="AI3" s="218"/>
-      <c r="AJ3" s="218"/>
-      <c r="AK3" s="218"/>
-      <c r="AL3" s="218"/>
-      <c r="AM3" s="218"/>
-      <c r="AN3" s="218"/>
-      <c r="AO3" s="219"/>
-    </row>
-    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="220"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="221"/>
-      <c r="W4" s="221"/>
-      <c r="X4" s="221"/>
-      <c r="Y4" s="221"/>
-      <c r="Z4" s="221"/>
-      <c r="AA4" s="221"/>
-      <c r="AB4" s="221"/>
-      <c r="AC4" s="221"/>
-      <c r="AD4" s="221"/>
-      <c r="AE4" s="221"/>
-      <c r="AF4" s="221"/>
-      <c r="AG4" s="221"/>
-      <c r="AH4" s="221"/>
-      <c r="AI4" s="221"/>
-      <c r="AJ4" s="221"/>
-      <c r="AK4" s="221"/>
-      <c r="AL4" s="221"/>
-      <c r="AM4" s="221"/>
-      <c r="AN4" s="221"/>
-      <c r="AO4" s="222"/>
-    </row>
-    <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="226"/>
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="226"/>
+      <c r="AH2" s="226"/>
+      <c r="AI2" s="226"/>
+      <c r="AJ2" s="226"/>
+      <c r="AK2" s="226"/>
+      <c r="AL2" s="226"/>
+      <c r="AM2" s="226"/>
+      <c r="AN2" s="226"/>
+      <c r="AO2" s="227"/>
+    </row>
+    <row r="3" spans="2:41" ht="15" customHeight="1">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="229"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="229"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="229"/>
+      <c r="AI3" s="229"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="229"/>
+      <c r="AL3" s="229"/>
+      <c r="AM3" s="229"/>
+      <c r="AN3" s="229"/>
+      <c r="AO3" s="230"/>
+    </row>
+    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B4" s="231"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="232"/>
+      <c r="O4" s="232"/>
+      <c r="P4" s="232"/>
+      <c r="Q4" s="232"/>
+      <c r="R4" s="232"/>
+      <c r="S4" s="232"/>
+      <c r="T4" s="232"/>
+      <c r="U4" s="232"/>
+      <c r="V4" s="232"/>
+      <c r="W4" s="232"/>
+      <c r="X4" s="232"/>
+      <c r="Y4" s="232"/>
+      <c r="Z4" s="232"/>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232"/>
+      <c r="AC4" s="232"/>
+      <c r="AD4" s="232"/>
+      <c r="AE4" s="232"/>
+      <c r="AF4" s="232"/>
+      <c r="AG4" s="232"/>
+      <c r="AH4" s="232"/>
+      <c r="AI4" s="232"/>
+      <c r="AJ4" s="232"/>
+      <c r="AK4" s="232"/>
+      <c r="AL4" s="232"/>
+      <c r="AM4" s="232"/>
+      <c r="AN4" s="232"/>
+      <c r="AO4" s="233"/>
+    </row>
+    <row r="6" spans="2:41" ht="30.9">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="211" t="s">
+      <c r="C6" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="211"/>
-      <c r="P6" s="211"/>
-      <c r="Q6" s="211"/>
-      <c r="R6" s="211"/>
-      <c r="S6" s="211"/>
-      <c r="T6" s="211"/>
-      <c r="U6" s="211"/>
-      <c r="V6" s="211"/>
-      <c r="W6" s="211"/>
-      <c r="X6" s="211"/>
-      <c r="Y6" s="211"/>
-      <c r="Z6" s="211"/>
-      <c r="AA6" s="211"/>
-      <c r="AB6" s="211"/>
-      <c r="AC6" s="211"/>
-      <c r="AD6" s="211"/>
-      <c r="AE6" s="211"/>
-      <c r="AF6" s="211"/>
-      <c r="AG6" s="211"/>
-      <c r="AH6" s="211"/>
-      <c r="AI6" s="211"/>
-      <c r="AJ6" s="211"/>
-      <c r="AK6" s="211"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="222"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="222"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
+      <c r="U6" s="222"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="222"/>
+      <c r="X6" s="222"/>
+      <c r="Y6" s="222"/>
+      <c r="Z6" s="222"/>
+      <c r="AA6" s="222"/>
+      <c r="AB6" s="222"/>
+      <c r="AC6" s="222"/>
+      <c r="AD6" s="222"/>
+      <c r="AE6" s="222"/>
+      <c r="AF6" s="222"/>
+      <c r="AG6" s="222"/>
+      <c r="AH6" s="222"/>
+      <c r="AI6" s="222"/>
+      <c r="AJ6" s="222"/>
+      <c r="AK6" s="222"/>
       <c r="AL6" s="81"/>
       <c r="AM6" s="81"/>
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
     </row>
-    <row r="7" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:41" ht="15" thickBot="1"/>
+    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -8820,7 +8836,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:41" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -8832,61 +8848,61 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
-      <c r="E10" s="208" t="s">
+      <c r="E10" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="208" t="s">
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="208" t="s">
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="221"/>
+      <c r="O10" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="209"/>
-      <c r="Q10" s="209"/>
-      <c r="R10" s="209"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="208" t="s">
+      <c r="P10" s="220"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="220"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="209"/>
-      <c r="V10" s="209"/>
-      <c r="W10" s="209"/>
-      <c r="X10" s="210"/>
-      <c r="Y10" s="208" t="s">
+      <c r="U10" s="220"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="220"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="209"/>
-      <c r="AA10" s="209"/>
-      <c r="AB10" s="209"/>
-      <c r="AC10" s="210"/>
-      <c r="AD10" s="208" t="s">
+      <c r="Z10" s="220"/>
+      <c r="AA10" s="220"/>
+      <c r="AB10" s="220"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="209"/>
-      <c r="AF10" s="209"/>
-      <c r="AG10" s="209"/>
-      <c r="AH10" s="210"/>
-      <c r="AI10" s="208" t="s">
+      <c r="AE10" s="220"/>
+      <c r="AF10" s="220"/>
+      <c r="AG10" s="220"/>
+      <c r="AH10" s="221"/>
+      <c r="AI10" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="AJ10" s="209"/>
-      <c r="AK10" s="209"/>
-      <c r="AL10" s="209"/>
-      <c r="AM10" s="210"/>
-    </row>
-    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AJ10" s="220"/>
+      <c r="AK10" s="220"/>
+      <c r="AL10" s="220"/>
+      <c r="AM10" s="221"/>
+    </row>
+    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B11" s="74" t="s">
         <v>24</v>
       </c>
@@ -9008,7 +9024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -9052,7 +9068,7 @@
       <c r="AN12" s="26"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -9096,7 +9112,7 @@
       <c r="AN13" s="27"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -9140,7 +9156,7 @@
       <c r="AN14" s="27"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -9184,7 +9200,7 @@
       <c r="AN15" s="27"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -9228,7 +9244,7 @@
       <c r="AN16" s="27"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -9272,7 +9288,7 @@
       <c r="AN17" s="27"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -9316,7 +9332,7 @@
       <c r="AN18" s="27"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -9360,7 +9376,7 @@
       <c r="AN19" s="27"/>
       <c r="AO19" s="24"/>
     </row>
-    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -9404,7 +9420,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="24"/>
     </row>
-    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -9448,7 +9464,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="24"/>
     </row>
-    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -9492,7 +9508,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="24"/>
     </row>
-    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -9536,7 +9552,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="24"/>
     </row>
-    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -9580,7 +9596,7 @@
       <c r="AN24" s="27"/>
       <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -9624,7 +9640,7 @@
       <c r="AN25" s="27"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -9668,54 +9684,54 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="57"/>
     </row>
-    <row r="27" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:41" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="196" t="s">
+    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1">
+      <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="198"/>
-      <c r="J28" s="196" t="s">
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="209"/>
+      <c r="J28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="198"/>
-      <c r="O28" s="196" t="s">
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="209"/>
+      <c r="O28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="198"/>
-      <c r="T28" s="196" t="s">
+      <c r="P28" s="208"/>
+      <c r="Q28" s="208"/>
+      <c r="R28" s="209"/>
+      <c r="T28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="U28" s="197"/>
-      <c r="V28" s="197"/>
-      <c r="W28" s="198"/>
-      <c r="Y28" s="196" t="s">
+      <c r="U28" s="208"/>
+      <c r="V28" s="208"/>
+      <c r="W28" s="209"/>
+      <c r="Y28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="197"/>
-      <c r="AA28" s="197"/>
-      <c r="AB28" s="198"/>
-      <c r="AD28" s="196" t="s">
+      <c r="Z28" s="208"/>
+      <c r="AA28" s="208"/>
+      <c r="AB28" s="209"/>
+      <c r="AD28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="AE28" s="197"/>
-      <c r="AF28" s="197"/>
-      <c r="AG28" s="198"/>
-      <c r="AI28" s="196" t="s">
+      <c r="AE28" s="208"/>
+      <c r="AF28" s="208"/>
+      <c r="AG28" s="209"/>
+      <c r="AI28" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="AJ28" s="197"/>
-      <c r="AK28" s="197"/>
-      <c r="AL28" s="198"/>
-    </row>
-    <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ28" s="208"/>
+      <c r="AK28" s="208"/>
+      <c r="AL28" s="209"/>
+    </row>
+    <row r="29" spans="2:41" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -9732,7 +9748,7 @@
       <c r="AI29" s="41"/>
       <c r="AL29" s="42"/>
     </row>
-    <row r="30" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:41" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -9749,7 +9765,7 @@
       <c r="AI30" s="41"/>
       <c r="AL30" s="42"/>
     </row>
-    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -9779,7 +9795,7 @@
       <c r="AK31" s="44"/>
       <c r="AL31" s="45"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:41">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -9821,11 +9837,11 @@
   </sheetPr>
   <dimension ref="B1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView topLeftCell="C8" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -9867,141 +9883,141 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="199" t="s">
+    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:31" ht="15" customHeight="1">
+      <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="201"/>
-    </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="203"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="204"/>
-    </row>
-    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="206"/>
-      <c r="AA4" s="206"/>
-      <c r="AB4" s="206"/>
-      <c r="AC4" s="206"/>
-      <c r="AD4" s="206"/>
-      <c r="AE4" s="207"/>
-    </row>
-    <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="195" t="s">
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="211"/>
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="212"/>
+    </row>
+    <row r="3" spans="2:31" ht="15" customHeight="1">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="214"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="215"/>
+    </row>
+    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AD4" s="217"/>
+      <c r="AE4" s="218"/>
+    </row>
+    <row r="6" spans="2:31" ht="25.75">
+      <c r="B6" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="195"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="195"/>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195"/>
-      <c r="X6" s="195"/>
-      <c r="Y6" s="195"/>
-      <c r="Z6" s="195"/>
-      <c r="AA6" s="195"/>
-      <c r="AB6" s="195"/>
-      <c r="AC6" s="195"/>
-      <c r="AD6" s="195"/>
-      <c r="AE6" s="195"/>
-    </row>
-    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="206"/>
+      <c r="R6" s="206"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="206"/>
+      <c r="V6" s="206"/>
+      <c r="W6" s="206"/>
+      <c r="X6" s="206"/>
+      <c r="Y6" s="206"/>
+      <c r="Z6" s="206"/>
+      <c r="AA6" s="206"/>
+      <c r="AB6" s="206"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="206"/>
+    </row>
+    <row r="7" spans="2:31" ht="15" thickBot="1"/>
+    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -10014,7 +10030,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -10026,46 +10042,46 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:31" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="177" t="s">
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="177" t="s">
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="179"/>
-      <c r="T10" s="177" t="s">
+      <c r="P10" s="189"/>
+      <c r="Q10" s="189"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="178"/>
-      <c r="V10" s="178"/>
-      <c r="W10" s="178"/>
-      <c r="X10" s="179"/>
-      <c r="Y10" s="177" t="s">
+      <c r="U10" s="189"/>
+      <c r="V10" s="189"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="178"/>
-      <c r="AA10" s="178"/>
-      <c r="AB10" s="178"/>
-      <c r="AC10" s="179"/>
-    </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z10" s="189"/>
+      <c r="AA10" s="189"/>
+      <c r="AB10" s="189"/>
+      <c r="AC10" s="190"/>
+    </row>
+    <row r="11" spans="2:31" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10153,7 +10169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -10249,7 +10265,7 @@
         <v>8.719444444444445</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -10345,7 +10361,7 @@
         <v>9.1077777777777769</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -10441,87 +10457,87 @@
         <v>8.3794444444444451</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="168" t="s">
+      <c r="D15" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="169">
+      <c r="E15" s="168">
         <v>7</v>
       </c>
-      <c r="F15" s="170">
+      <c r="F15" s="169">
         <v>8.33</v>
       </c>
-      <c r="G15" s="170">
+      <c r="G15" s="169">
         <v>7.5</v>
       </c>
-      <c r="H15" s="171">
+      <c r="H15" s="170">
         <v>9.16</v>
       </c>
-      <c r="I15" s="172">
+      <c r="I15" s="171">
         <f t="shared" si="0"/>
         <v>8.3849999999999998</v>
       </c>
-      <c r="J15" s="173">
+      <c r="J15" s="172">
         <v>10</v>
       </c>
-      <c r="K15" s="174">
+      <c r="K15" s="173">
         <v>8</v>
       </c>
-      <c r="L15" s="174">
+      <c r="L15" s="173">
         <v>6.65</v>
       </c>
-      <c r="M15" s="175">
+      <c r="M15" s="174">
         <v>7.7</v>
       </c>
-      <c r="N15" s="172">
+      <c r="N15" s="171">
         <f t="shared" si="6"/>
         <v>7.9583333333333339</v>
       </c>
-      <c r="O15" s="169">
+      <c r="O15" s="168">
         <v>7.5</v>
       </c>
-      <c r="P15" s="170">
+      <c r="P15" s="169">
         <v>10</v>
       </c>
-      <c r="Q15" s="170">
+      <c r="Q15" s="169">
         <v>10</v>
       </c>
-      <c r="R15" s="171">
+      <c r="R15" s="170">
         <v>7</v>
       </c>
-      <c r="S15" s="172">
+      <c r="S15" s="171">
         <f t="shared" si="7"/>
         <v>8.0833333333333321</v>
       </c>
-      <c r="T15" s="169"/>
-      <c r="U15" s="170"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="172" t="e">
+      <c r="T15" s="168"/>
+      <c r="U15" s="169"/>
+      <c r="V15" s="169"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="171" t="e">
         <f>(AVERAGE(T15:V15)+W15)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y15" s="169"/>
-      <c r="Z15" s="170"/>
-      <c r="AA15" s="170"/>
-      <c r="AB15" s="171"/>
-      <c r="AC15" s="172" t="e">
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="169"/>
+      <c r="AA15" s="169"/>
+      <c r="AB15" s="170"/>
+      <c r="AC15" s="171" t="e">
         <f>(AVERAGE(Y15:AA15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="169"/>
-      <c r="AE15" s="176" t="e">
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="175" t="e">
         <f>AVERAGE(I15,N15,S15,X15,AC15,AD15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>7</v>
       </c>
@@ -10547,16 +10563,16 @@
         <f t="shared" si="0"/>
         <v>7.4166666666666661</v>
       </c>
-      <c r="J16" s="159">
+      <c r="J16" s="158">
         <v>10</v>
       </c>
-      <c r="K16" s="160">
+      <c r="K16" s="159">
         <v>7</v>
       </c>
-      <c r="L16" s="160">
+      <c r="L16" s="159">
         <v>5</v>
       </c>
-      <c r="M16" s="161">
+      <c r="M16" s="160">
         <v>8.89</v>
       </c>
       <c r="N16" s="123">
@@ -10617,7 +10633,7 @@
         <v>8.2680555555555557</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>9</v>
       </c>
@@ -10651,7 +10667,7 @@
       <c r="AD17" s="27"/>
       <c r="AE17" s="24"/>
     </row>
-    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>10</v>
       </c>
@@ -10685,7 +10701,7 @@
       <c r="AD18" s="27"/>
       <c r="AE18" s="24"/>
     </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>11</v>
       </c>
@@ -10719,7 +10735,7 @@
       <c r="AD19" s="27"/>
       <c r="AE19" s="24"/>
     </row>
-    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>12</v>
       </c>
@@ -10753,7 +10769,7 @@
       <c r="AD20" s="27"/>
       <c r="AE20" s="24"/>
     </row>
-    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>13</v>
       </c>
@@ -10787,7 +10803,7 @@
       <c r="AD21" s="27"/>
       <c r="AE21" s="24"/>
     </row>
-    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>14</v>
       </c>
@@ -10821,7 +10837,7 @@
       <c r="AD22" s="27"/>
       <c r="AE22" s="24"/>
     </row>
-    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="82">
         <v>15</v>
       </c>
@@ -10855,7 +10871,7 @@
       <c r="AD23" s="85"/>
       <c r="AE23" s="93"/>
     </row>
-    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="63">
         <v>16</v>
       </c>
@@ -10889,42 +10905,42 @@
       <c r="AD24" s="28"/>
       <c r="AE24" s="57"/>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="15" thickBot="1">
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="196" t="s">
+    <row r="26" spans="2:31" ht="18.899999999999999" thickBot="1">
+      <c r="E26" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="198"/>
-      <c r="J26" s="196" t="s">
+      <c r="F26" s="208"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="209"/>
+      <c r="J26" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="198"/>
-      <c r="O26" s="196" t="s">
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
+      <c r="M26" s="209"/>
+      <c r="O26" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="197"/>
-      <c r="R26" s="198"/>
-      <c r="T26" s="196" t="s">
+      <c r="P26" s="208"/>
+      <c r="Q26" s="208"/>
+      <c r="R26" s="209"/>
+      <c r="T26" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="U26" s="197"/>
-      <c r="V26" s="197"/>
-      <c r="W26" s="198"/>
-      <c r="Y26" s="196" t="s">
+      <c r="U26" s="208"/>
+      <c r="V26" s="208"/>
+      <c r="W26" s="209"/>
+      <c r="Y26" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="Z26" s="197"/>
-      <c r="AA26" s="197"/>
-      <c r="AB26" s="198"/>
-    </row>
-    <row r="27" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z26" s="208"/>
+      <c r="AA26" s="208"/>
+      <c r="AB26" s="209"/>
+    </row>
+    <row r="27" spans="2:31" ht="23.15" customHeight="1">
       <c r="E27" s="41"/>
       <c r="G27"/>
       <c r="H27" s="42"/>
@@ -10937,7 +10953,7 @@
       <c r="Y27" s="41"/>
       <c r="AB27" s="42"/>
     </row>
-    <row r="28" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:31" ht="23.15" customHeight="1">
       <c r="E28" s="41"/>
       <c r="G28"/>
       <c r="H28" s="42"/>
@@ -10950,7 +10966,7 @@
       <c r="Y28" s="41"/>
       <c r="AB28" s="42"/>
     </row>
-    <row r="29" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="23.15" customHeight="1" thickBot="1">
       <c r="E29" s="43"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -10972,7 +10988,7 @@
       <c r="AA29" s="44"/>
       <c r="AB29" s="45"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:31">
       <c r="G30"/>
     </row>
   </sheetData>
@@ -11024,11 +11040,11 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -11079,145 +11095,145 @@
     <col min="51" max="51" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="223" t="s">
+    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:32" ht="15" customHeight="1">
+      <c r="B2" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-    </row>
-    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="203"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="204"/>
-    </row>
-    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="206"/>
-      <c r="AA4" s="206"/>
-      <c r="AB4" s="206"/>
-      <c r="AC4" s="206"/>
-      <c r="AD4" s="206"/>
-      <c r="AE4" s="206"/>
-      <c r="AF4" s="207"/>
-    </row>
-    <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
-      <c r="B6" s="195" t="s">
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="211"/>
+      <c r="AB2" s="211"/>
+      <c r="AC2" s="211"/>
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="212"/>
+    </row>
+    <row r="3" spans="2:32" ht="15" customHeight="1">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="214"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+    </row>
+    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="216"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
+      <c r="AD4" s="217"/>
+      <c r="AE4" s="217"/>
+      <c r="AF4" s="218"/>
+    </row>
+    <row r="6" spans="2:32" ht="25.75">
+      <c r="B6" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="195"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="195"/>
-      <c r="V6" s="195"/>
-      <c r="W6" s="195"/>
-      <c r="X6" s="195"/>
-      <c r="Y6" s="195"/>
-      <c r="Z6" s="195"/>
-      <c r="AA6" s="195"/>
-      <c r="AB6" s="195"/>
-      <c r="AC6" s="195"/>
-      <c r="AD6" s="195"/>
-      <c r="AE6" s="195"/>
-      <c r="AF6" s="195"/>
-    </row>
-    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="206"/>
+      <c r="R6" s="206"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="206"/>
+      <c r="V6" s="206"/>
+      <c r="W6" s="206"/>
+      <c r="X6" s="206"/>
+      <c r="Y6" s="206"/>
+      <c r="Z6" s="206"/>
+      <c r="AA6" s="206"/>
+      <c r="AB6" s="206"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="206"/>
+      <c r="AF6" s="206"/>
+    </row>
+    <row r="7" spans="2:32" ht="15" thickBot="1"/>
+    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -11231,7 +11247,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:32" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -11247,47 +11263,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:32" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="177" t="s">
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="177" t="s">
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="177" t="s">
+      <c r="Q10" s="189"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="189"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="178"/>
-      <c r="W10" s="178"/>
-      <c r="X10" s="178"/>
-      <c r="Y10" s="179"/>
-      <c r="Z10" s="177" t="s">
+      <c r="V10" s="189"/>
+      <c r="W10" s="189"/>
+      <c r="X10" s="189"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="AA10" s="178"/>
-      <c r="AB10" s="178"/>
-      <c r="AC10" s="178"/>
-      <c r="AD10" s="179"/>
-    </row>
-    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AA10" s="189"/>
+      <c r="AB10" s="189"/>
+      <c r="AC10" s="189"/>
+      <c r="AD10" s="190"/>
+    </row>
+    <row r="11" spans="2:32" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -11380,7 +11396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -11431,11 +11447,15 @@
       <c r="Q12" s="134">
         <v>10</v>
       </c>
-      <c r="R12" s="134"/>
-      <c r="S12" s="136"/>
+      <c r="R12" s="134">
+        <v>10</v>
+      </c>
+      <c r="S12" s="136">
+        <v>7</v>
+      </c>
       <c r="T12" s="123">
-        <f>(AVERAGE(P12:R12)+S12)/2</f>
-        <v>4.5750000000000002</v>
+        <f t="shared" ref="T12:T17" si="2">(AVERAGE(P12:R12)+S12)/2</f>
+        <v>8.2166666666666668</v>
       </c>
       <c r="U12" s="120"/>
       <c r="V12" s="134"/>
@@ -11459,151 +11479,155 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="151">
+      <c r="E13" s="178">
         <v>10</v>
       </c>
-      <c r="F13" s="152">
+      <c r="F13" s="179">
         <v>7.85</v>
       </c>
-      <c r="G13" s="152">
+      <c r="G13" s="179">
         <v>7</v>
       </c>
-      <c r="H13" s="152">
+      <c r="H13" s="179">
         <v>7.2</v>
       </c>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154">
+      <c r="I13" s="180"/>
+      <c r="J13" s="181">
         <f t="shared" si="0"/>
         <v>4.0062500000000005</v>
       </c>
-      <c r="K13" s="155"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="154" t="e">
+      <c r="K13" s="182"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="181" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="154" t="e">
-        <f>(AVERAGE(P13:R13)+S13)/2</f>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="179"/>
+      <c r="R13" s="179"/>
+      <c r="S13" s="180"/>
+      <c r="T13" s="181" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="121"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="123" t="e">
+      <c r="U13" s="185"/>
+      <c r="V13" s="179"/>
+      <c r="W13" s="179"/>
+      <c r="X13" s="180"/>
+      <c r="Y13" s="181" t="e">
         <f>(AVERAGE(U13:W13)+X13)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="133"/>
-      <c r="AD13" s="123" t="e">
+      <c r="Z13" s="185"/>
+      <c r="AA13" s="186"/>
+      <c r="AB13" s="179"/>
+      <c r="AC13" s="180"/>
+      <c r="AD13" s="181" t="e">
         <f>(AVERAGE(Z13:AB13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="122" t="e">
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="187" t="e">
         <f>(AVERAGE(J13,O13,T13,Y13,AD13)+AE13)/2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="158">
+      <c r="E14" s="185">
         <v>10</v>
       </c>
-      <c r="F14" s="152">
+      <c r="F14" s="179">
         <v>7.69</v>
       </c>
-      <c r="G14" s="152">
+      <c r="G14" s="179">
         <v>8.9</v>
       </c>
-      <c r="H14" s="152">
+      <c r="H14" s="179">
         <v>8.9</v>
       </c>
-      <c r="I14" s="153">
+      <c r="I14" s="180">
         <v>9</v>
       </c>
-      <c r="J14" s="154">
+      <c r="J14" s="181">
         <f>(AVERAGE(E14:H14)+I14)/2</f>
         <v>8.9362500000000011</v>
       </c>
-      <c r="K14" s="155">
+      <c r="K14" s="182">
         <v>10</v>
       </c>
-      <c r="L14" s="156">
+      <c r="L14" s="183">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M14" s="156">
+      <c r="M14" s="183">
         <v>8</v>
       </c>
-      <c r="N14" s="157">
+      <c r="N14" s="184">
         <v>7</v>
       </c>
-      <c r="O14" s="154">
+      <c r="O14" s="181">
         <f t="shared" si="1"/>
         <v>7.8833333333333337</v>
       </c>
-      <c r="P14" s="158">
+      <c r="P14" s="185">
         <v>5</v>
       </c>
-      <c r="Q14" s="152">
+      <c r="Q14" s="179">
         <v>10</v>
       </c>
-      <c r="R14" s="152"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="154">
-        <f>(AVERAGE(P14:R14)+S14)/2</f>
-        <v>3.75</v>
-      </c>
-      <c r="U14" s="121"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="123" t="e">
+      <c r="R14" s="179">
+        <v>10</v>
+      </c>
+      <c r="S14" s="180">
+        <v>6</v>
+      </c>
+      <c r="T14" s="181">
+        <f t="shared" si="2"/>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="U14" s="185"/>
+      <c r="V14" s="179"/>
+      <c r="W14" s="179"/>
+      <c r="X14" s="180"/>
+      <c r="Y14" s="181" t="e">
         <f>(AVERAGE(U14:W14)+X14)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="134"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="133"/>
-      <c r="AD14" s="123" t="e">
-        <f t="shared" ref="AD14:AD16" si="2">(AVERAGE(Z14:AB14))</f>
+      <c r="Z14" s="185"/>
+      <c r="AA14" s="186"/>
+      <c r="AB14" s="179"/>
+      <c r="AC14" s="180"/>
+      <c r="AD14" s="181" t="e">
+        <f t="shared" ref="AD14:AD16" si="3">(AVERAGE(Z14:AB14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="122" t="e">
-        <f t="shared" ref="AF14:AF17" si="3">(AVERAGE(J14,O14,T14,Y14,AD14)+AE14)/2</f>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="187" t="e">
+        <f t="shared" ref="AF14:AF17" si="4">(AVERAGE(J14,O14,T14,Y14,AD14)+AE14)/2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -11613,76 +11637,86 @@
       <c r="D15" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="158">
+      <c r="E15" s="157">
         <v>10</v>
       </c>
-      <c r="F15" s="152">
+      <c r="F15" s="151">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G15" s="152">
+      <c r="G15" s="151">
         <v>10</v>
       </c>
-      <c r="H15" s="152">
+      <c r="H15" s="151">
         <v>10</v>
       </c>
-      <c r="I15" s="153">
+      <c r="I15" s="152">
         <v>9.5</v>
       </c>
-      <c r="J15" s="154">
+      <c r="J15" s="153">
         <f t="shared" si="0"/>
         <v>9.5562500000000004</v>
       </c>
-      <c r="K15" s="155">
+      <c r="K15" s="154">
         <v>9</v>
       </c>
-      <c r="L15" s="156">
+      <c r="L15" s="155">
         <v>10</v>
       </c>
-      <c r="M15" s="156">
+      <c r="M15" s="155">
         <v>10</v>
       </c>
-      <c r="N15" s="157">
+      <c r="N15" s="156">
         <v>10</v>
       </c>
-      <c r="O15" s="154">
+      <c r="O15" s="153">
         <f t="shared" si="1"/>
         <v>9.8333333333333321</v>
       </c>
-      <c r="P15" s="158">
+      <c r="P15" s="157">
         <v>10</v>
       </c>
-      <c r="Q15" s="152">
+      <c r="Q15" s="151">
+        <v>9</v>
+      </c>
+      <c r="R15" s="151">
         <v>10</v>
       </c>
-      <c r="R15" s="152"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="154">
-        <f>(AVERAGE(P15:R15)+S15)/2</f>
+      <c r="S15" s="152">
+        <v>10</v>
+      </c>
+      <c r="T15" s="153">
+        <f t="shared" si="2"/>
+        <v>9.8333333333333321</v>
+      </c>
+      <c r="U15" s="121">
+        <v>10</v>
+      </c>
+      <c r="V15" s="132">
+        <v>10</v>
+      </c>
+      <c r="W15" s="132">
+        <v>10</v>
+      </c>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="135">
+        <f t="shared" ref="Y15:Y16" si="5">(AVERAGE(U15:W15)+X15)/2</f>
         <v>5</v>
-      </c>
-      <c r="U15" s="121"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="135" t="e">
-        <f t="shared" ref="Y15:Y16" si="4">(AVERAGE(U15:W15)+X15)/2</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="Z15" s="121"/>
       <c r="AA15" s="132"/>
       <c r="AB15" s="132"/>
       <c r="AC15" s="133"/>
       <c r="AD15" s="123" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="121"/>
       <c r="AF15" s="122" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -11692,84 +11726,94 @@
       <c r="D16" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="158">
+      <c r="E16" s="157">
         <v>10</v>
       </c>
-      <c r="F16" s="152">
+      <c r="F16" s="151">
         <v>7.46</v>
       </c>
-      <c r="G16" s="152">
+      <c r="G16" s="151">
         <v>10</v>
       </c>
-      <c r="H16" s="152">
+      <c r="H16" s="151">
         <v>8.9</v>
       </c>
-      <c r="I16" s="153">
+      <c r="I16" s="152">
         <v>7.25</v>
       </c>
-      <c r="J16" s="154">
+      <c r="J16" s="153">
         <f t="shared" si="0"/>
         <v>8.17</v>
       </c>
-      <c r="K16" s="155">
+      <c r="K16" s="154">
         <v>10</v>
       </c>
-      <c r="L16" s="156">
+      <c r="L16" s="155">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M16" s="156">
+      <c r="M16" s="155">
         <v>10</v>
       </c>
-      <c r="N16" s="157">
+      <c r="N16" s="156">
         <v>10</v>
       </c>
-      <c r="O16" s="154">
+      <c r="O16" s="153">
         <f t="shared" si="1"/>
         <v>9.8666666666666671</v>
       </c>
-      <c r="P16" s="158">
+      <c r="P16" s="157">
         <v>10</v>
       </c>
-      <c r="Q16" s="152">
+      <c r="Q16" s="151">
         <v>10</v>
       </c>
-      <c r="R16" s="152"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="154">
-        <f>(AVERAGE(P16:R16)+S16)/2</f>
-        <v>5</v>
-      </c>
-      <c r="U16" s="121"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
+      <c r="R16" s="151">
+        <v>10</v>
+      </c>
+      <c r="S16" s="152">
+        <v>8</v>
+      </c>
+      <c r="T16" s="153">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U16" s="121">
+        <v>7.1</v>
+      </c>
+      <c r="V16" s="132">
+        <v>10</v>
+      </c>
+      <c r="W16" s="132">
+        <v>10</v>
+      </c>
       <c r="X16" s="133"/>
-      <c r="Y16" s="123" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="Y16" s="123">
+        <f t="shared" si="5"/>
+        <v>4.5166666666666666</v>
       </c>
       <c r="Z16" s="121"/>
       <c r="AA16" s="132"/>
       <c r="AB16" s="132"/>
       <c r="AC16" s="133"/>
       <c r="AD16" s="123" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE16" s="121"/>
       <c r="AF16" s="122" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D17" s="128" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E17" s="121">
         <v>10</v>
@@ -11783,41 +11827,68 @@
       <c r="H17" s="132">
         <v>8.9</v>
       </c>
-      <c r="I17" s="133"/>
+      <c r="I17" s="133">
+        <v>8</v>
+      </c>
       <c r="J17" s="123">
         <f t="shared" si="0"/>
-        <v>4.5737500000000004</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="135" t="e">
+        <v>8.5737500000000004</v>
+      </c>
+      <c r="K17" s="158">
+        <v>10</v>
+      </c>
+      <c r="L17" s="159">
+        <v>8</v>
+      </c>
+      <c r="M17" s="159">
+        <v>6.5</v>
+      </c>
+      <c r="N17" s="160">
+        <v>8</v>
+      </c>
+      <c r="O17" s="135">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="31"/>
+        <v>8.0833333333333321</v>
+      </c>
+      <c r="P17" s="121">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="132">
+        <v>6.5</v>
+      </c>
+      <c r="R17" s="132">
+        <v>8</v>
+      </c>
+      <c r="S17" s="133">
+        <v>8</v>
+      </c>
+      <c r="T17" s="135">
+        <f t="shared" si="2"/>
+        <v>8.0833333333333321</v>
+      </c>
+      <c r="U17" s="121">
+        <v>7.1</v>
+      </c>
+      <c r="V17" s="132">
+        <v>10</v>
+      </c>
+      <c r="W17" s="132">
+        <v>10</v>
+      </c>
+      <c r="X17" s="133"/>
       <c r="Y17" s="135"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="31"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="133"/>
       <c r="AD17" s="135"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="122" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="122">
+        <f t="shared" si="4"/>
+        <v>4.1234027777777778</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -11852,7 +11923,7 @@
       <c r="AE18" s="27"/>
       <c r="AF18" s="24"/>
     </row>
-    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -11887,7 +11958,7 @@
       <c r="AE19" s="27"/>
       <c r="AF19" s="24"/>
     </row>
-    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -11922,7 +11993,7 @@
       <c r="AE20" s="27"/>
       <c r="AF20" s="24"/>
     </row>
-    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -11957,7 +12028,7 @@
       <c r="AE21" s="27"/>
       <c r="AF21" s="24"/>
     </row>
-    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -11992,7 +12063,7 @@
       <c r="AE22" s="27"/>
       <c r="AF22" s="24"/>
     </row>
-    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -12027,7 +12098,7 @@
       <c r="AE23" s="27"/>
       <c r="AF23" s="24"/>
     </row>
-    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -12062,7 +12133,7 @@
       <c r="AE24" s="27"/>
       <c r="AF24" s="24"/>
     </row>
-    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -12097,7 +12168,7 @@
       <c r="AE25" s="27"/>
       <c r="AF25" s="24"/>
     </row>
-    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -12132,7 +12203,7 @@
       <c r="AE26" s="85"/>
       <c r="AF26" s="93"/>
     </row>
-    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -12167,43 +12238,43 @@
       <c r="AE27" s="28"/>
       <c r="AF27" s="57"/>
     </row>
-    <row r="28" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:32" ht="15" thickBot="1">
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="196" t="s">
+    <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1">
+      <c r="E29" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="197"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="198"/>
-      <c r="K29" s="196" t="s">
+      <c r="F29" s="208"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="209"/>
+      <c r="K29" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="198"/>
-      <c r="P29" s="196" t="s">
+      <c r="L29" s="208"/>
+      <c r="M29" s="208"/>
+      <c r="N29" s="209"/>
+      <c r="P29" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="197"/>
-      <c r="R29" s="197"/>
-      <c r="S29" s="198"/>
-      <c r="U29" s="196" t="s">
+      <c r="Q29" s="208"/>
+      <c r="R29" s="208"/>
+      <c r="S29" s="209"/>
+      <c r="U29" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="197"/>
-      <c r="W29" s="197"/>
-      <c r="X29" s="198"/>
-      <c r="Z29" s="196" t="s">
+      <c r="V29" s="208"/>
+      <c r="W29" s="208"/>
+      <c r="X29" s="209"/>
+      <c r="Z29" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="197"/>
-      <c r="AB29" s="197"/>
-      <c r="AC29" s="198"/>
-    </row>
-    <row r="30" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA29" s="208"/>
+      <c r="AB29" s="208"/>
+      <c r="AC29" s="209"/>
+    </row>
+    <row r="30" spans="2:32" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="H30"/>
       <c r="I30" s="42"/>
@@ -12216,7 +12287,7 @@
       <c r="Z30" s="41"/>
       <c r="AC30" s="42"/>
     </row>
-    <row r="31" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:32" ht="23.15" customHeight="1">
       <c r="E31" s="41"/>
       <c r="H31"/>
       <c r="I31" s="42"/>
@@ -12229,7 +12300,7 @@
       <c r="Z31" s="41"/>
       <c r="AC31" s="42"/>
     </row>
-    <row r="32" spans="2:32" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:32" ht="23.15" customHeight="1" thickBot="1">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -12252,7 +12323,7 @@
       <c r="AB32" s="44"/>
       <c r="AC32" s="45"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:8">
       <c r="H33"/>
     </row>
   </sheetData>

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A7942-6886-45BC-9387-2AD87102E4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD6E98-64C5-41DF-BF8E-99F03C551CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4631,7 +4631,7 @@
   <dimension ref="B1:U32"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -4908,11 +4908,13 @@
       <c r="K12" s="110">
         <v>8</v>
       </c>
-      <c r="L12" s="110"/>
+      <c r="L12" s="110">
+        <v>6</v>
+      </c>
       <c r="M12" s="111"/>
       <c r="N12" s="130">
         <f>AVERAGE(J12:M12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" s="106"/>
       <c r="P12" s="107"/>
@@ -4960,11 +4962,13 @@
       <c r="K13" s="116">
         <v>7</v>
       </c>
-      <c r="L13" s="116"/>
+      <c r="L13" s="116">
+        <v>10</v>
+      </c>
       <c r="M13" s="117"/>
       <c r="N13" s="130">
         <f>AVERAGE(J13:M13)</f>
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O13" s="112"/>
       <c r="P13" s="113"/>
@@ -5012,11 +5016,13 @@
       <c r="K14" s="116">
         <v>10</v>
       </c>
-      <c r="L14" s="116"/>
+      <c r="L14" s="116">
+        <v>8</v>
+      </c>
       <c r="M14" s="117"/>
       <c r="N14" s="130">
         <f>AVERAGE(J14:M14)</f>
-        <v>10</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="O14" s="112"/>
       <c r="P14" s="113"/>
@@ -11041,7 +11047,7 @@
   <dimension ref="B1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -11457,13 +11463,21 @@
         <f t="shared" ref="T12:T17" si="2">(AVERAGE(P12:R12)+S12)/2</f>
         <v>8.2166666666666668</v>
       </c>
-      <c r="U12" s="120"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="123" t="e">
+      <c r="U12" s="120">
+        <v>8</v>
+      </c>
+      <c r="V12" s="134">
+        <v>10</v>
+      </c>
+      <c r="W12" s="134">
+        <v>9</v>
+      </c>
+      <c r="X12" s="136">
+        <v>6.25</v>
+      </c>
+      <c r="Y12" s="123">
         <f>(AVERAGE(U12:W12)+X12)/2</f>
-        <v>#DIV/0!</v>
+        <v>7.625</v>
       </c>
       <c r="Z12" s="120"/>
       <c r="AA12" s="134"/>
@@ -11786,10 +11800,12 @@
       <c r="W16" s="132">
         <v>10</v>
       </c>
-      <c r="X16" s="133"/>
+      <c r="X16" s="133">
+        <v>8.1199999999999992</v>
+      </c>
       <c r="Y16" s="123">
         <f t="shared" si="5"/>
-        <v>4.5166666666666666</v>
+        <v>8.5766666666666662</v>
       </c>
       <c r="Z16" s="121"/>
       <c r="AA16" s="132"/>
@@ -11875,8 +11891,13 @@
       <c r="W17" s="132">
         <v>10</v>
       </c>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="135"/>
+      <c r="X17" s="133">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="135">
+        <f>(AVERAGE(U17:W17)+X17)/2</f>
+        <v>9.5166666666666657</v>
+      </c>
       <c r="Z17" s="121"/>
       <c r="AA17" s="132"/>
       <c r="AB17" s="132"/>
@@ -11885,7 +11906,7 @@
       <c r="AE17" s="121"/>
       <c r="AF17" s="122">
         <f t="shared" si="4"/>
-        <v>4.1234027777777778</v>
+        <v>4.2821354166666659</v>
       </c>
     </row>
     <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1">

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD6E98-64C5-41DF-BF8E-99F03C551CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503DA7FE-724E-4407-A505-386CC58F7D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4631,7 +4631,7 @@
   <dimension ref="B1:U32"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -7505,16 +7505,16 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T28:W28"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -9807,13 +9807,6 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9823,6 +9816,13 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9843,7 +9843,7 @@
   </sheetPr>
   <dimension ref="B1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -11003,6 +11003,11 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -11010,11 +11015,6 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="Y26:AB26"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE15">
@@ -11046,8 +11046,8 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -11079,7 +11079,7 @@
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5.69140625" customWidth="1"/>
-    <col min="30" max="30" width="8.61328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.61328125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.84375" customWidth="1"/>
     <col min="32" max="32" width="7.23046875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4.53515625" customWidth="1"/>
@@ -11902,11 +11902,14 @@
       <c r="AA17" s="132"/>
       <c r="AB17" s="132"/>
       <c r="AC17" s="133"/>
-      <c r="AD17" s="135"/>
+      <c r="AD17" s="135" t="e">
+        <f>(AVERAGE(Z17:AB17))</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AE17" s="121"/>
-      <c r="AF17" s="122">
+      <c r="AF17" s="122" t="e">
         <f t="shared" si="4"/>
-        <v>4.2821354166666659</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1">

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503DA7FE-724E-4407-A505-386CC58F7D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7675B9-A4A5-48C2-9124-4EB9CB425025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3207,7 +3207,7 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.23046875" customWidth="1"/>
     <col min="2" max="2" width="2.69140625" bestFit="1" customWidth="1"/>
@@ -3242,7 +3242,7 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1">
+    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="191" t="s">
         <v>0</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="AD1" s="192"/>
       <c r="AE1" s="192"/>
     </row>
-    <row r="2" spans="2:31" ht="15" customHeight="1">
+    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="192"/>
       <c r="C2" s="192"/>
       <c r="D2" s="192"/>
@@ -3308,7 +3308,7 @@
       <c r="AD2" s="192"/>
       <c r="AE2" s="192"/>
     </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1">
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="192"/>
       <c r="C3" s="192"/>
       <c r="D3" s="192"/>
@@ -3340,7 +3340,7 @@
       <c r="AD3" s="192"/>
       <c r="AE3" s="192"/>
     </row>
-    <row r="5" spans="2:31">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
       <c r="D5" s="193" t="s">
         <v>1</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="Q5" s="196"/>
       <c r="R5" s="196"/>
     </row>
-    <row r="6" spans="2:31">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3373,7 +3373,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:31">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
       <c r="D7" s="193" t="s">
         <v>3</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="Q7" s="195"/>
       <c r="R7" s="195"/>
     </row>
-    <row r="8" spans="2:31" ht="15" thickBot="1">
+    <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3406,7 +3406,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1">
+    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="188" t="s">
@@ -3445,7 +3445,7 @@
       <c r="AB9" s="189"/>
       <c r="AC9" s="190"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1">
+    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -3535,7 +3535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1">
+    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" thickBot="1">
+    <row r="12" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15" thickBot="1">
+    <row r="13" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="16">
         <v>3</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" thickBot="1">
+    <row r="14" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="16">
         <v>4</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="15" thickBot="1">
+    <row r="15" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="16">
         <v>5</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15" thickBot="1">
+    <row r="16" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15" thickBot="1">
+    <row r="17" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="16">
         <v>7</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15" thickBot="1">
+    <row r="18" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="16">
         <v>8</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15" thickBot="1">
+    <row r="19" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15" thickBot="1">
+    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="16">
         <v>10</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15" thickBot="1">
+    <row r="21" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="16">
         <v>11</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15" thickBot="1">
+    <row r="22" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="16">
         <v>12</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15" thickBot="1">
+    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="16">
         <v>13</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15" thickBot="1">
+    <row r="24" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="16">
         <v>14</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1">
+    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="16">
         <v>15</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1">
+    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="16">
         <v>16</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15" thickBot="1">
+    <row r="27" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="16">
         <v>17</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1">
+    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="16">
         <v>18</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="15" thickBot="1">
+    <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="16">
         <v>19</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="15" thickBot="1">
+    <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="16">
         <v>20</v>
       </c>
@@ -4575,22 +4575,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.4">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:31">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G35"/>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G36"/>
     </row>
   </sheetData>
@@ -4630,11 +4630,11 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -4644,8 +4644,8 @@
     <col min="7" max="7" width="8.69140625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.69140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.07421875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.69140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.07421875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.69140625" bestFit="1" customWidth="1"/>
@@ -4672,8 +4672,8 @@
     <col min="40" max="40" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1">
+    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="T2" s="211"/>
       <c r="U2" s="212"/>
     </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1">
+    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -4719,7 +4719,7 @@
       <c r="T3" s="214"/>
       <c r="U3" s="215"/>
     </row>
-    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -4741,7 +4741,7 @@
       <c r="T4" s="217"/>
       <c r="U4" s="218"/>
     </row>
-    <row r="6" spans="2:21" ht="25.75">
+    <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
       <c r="B6" s="206" t="s">
         <v>40</v>
       </c>
@@ -4765,8 +4765,8 @@
       <c r="T6" s="206"/>
       <c r="U6" s="206"/>
     </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1"/>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1">
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -4791,7 +4791,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1">
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -4816,7 +4816,7 @@
       <c r="R10" s="189"/>
       <c r="S10" s="190"/>
     </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1">
+    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -4911,10 +4911,12 @@
       <c r="L12" s="110">
         <v>6</v>
       </c>
-      <c r="M12" s="111"/>
+      <c r="M12" s="111">
+        <v>8.5</v>
+      </c>
       <c r="N12" s="130">
         <f>AVERAGE(J12:M12)</f>
-        <v>8</v>
+        <v>8.125</v>
       </c>
       <c r="O12" s="106"/>
       <c r="P12" s="107"/>
@@ -4930,7 +4932,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -4965,10 +4967,12 @@
       <c r="L13" s="116">
         <v>10</v>
       </c>
-      <c r="M13" s="117"/>
+      <c r="M13" s="117">
+        <v>10</v>
+      </c>
       <c r="N13" s="130">
         <f>AVERAGE(J13:M13)</f>
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O13" s="112"/>
       <c r="P13" s="113"/>
@@ -4984,7 +4988,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5019,10 +5023,12 @@
       <c r="L14" s="116">
         <v>8</v>
       </c>
-      <c r="M14" s="117"/>
+      <c r="M14" s="117">
+        <v>9.5</v>
+      </c>
       <c r="N14" s="130">
         <f>AVERAGE(J14:M14)</f>
-        <v>9.3333333333333339</v>
+        <v>9.375</v>
       </c>
       <c r="O14" s="112"/>
       <c r="P14" s="113"/>
@@ -5038,7 +5044,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5114,7 +5120,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5138,7 +5144,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5162,7 +5168,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5186,7 +5192,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -5210,7 +5216,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -5234,7 +5240,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -5258,7 +5264,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -5282,7 +5288,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -5306,7 +5312,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -5330,7 +5336,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -5354,10 +5360,10 @@
       <c r="T26" s="28"/>
       <c r="U26" s="57"/>
     </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1">
+    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1">
+    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -5377,7 +5383,7 @@
       <c r="Q28" s="208"/>
       <c r="R28" s="209"/>
     </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1">
+    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -5386,7 +5392,7 @@
       <c r="O29" s="41"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1">
+    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -5395,7 +5401,7 @@
       <c r="O30" s="41"/>
       <c r="R30" s="42"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5409,7 +5415,7 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -5457,10 +5463,10 @@
       <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1"/>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="197" t="s">
         <v>31</v>
       </c>
@@ -5474,7 +5480,7 @@
       <c r="I2" s="198"/>
       <c r="J2" s="199"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="200"/>
       <c r="B3" s="201"/>
       <c r="C3" s="201"/>
@@ -5486,7 +5492,7 @@
       <c r="I3" s="201"/>
       <c r="J3" s="202"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="203"/>
       <c r="B4" s="204"/>
       <c r="C4" s="204"/>
@@ -5498,11 +5504,11 @@
       <c r="I4" s="204"/>
       <c r="J4" s="205"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="25.75">
+    <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
       <c r="A6" s="206" t="s">
         <v>36</v>
       </c>
@@ -5516,11 +5522,11 @@
       <c r="I6" s="206"/>
       <c r="J6" s="206"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1">
+    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="49"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
@@ -5532,14 +5538,14 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="49"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5551,7 +5557,7 @@
       <c r="G10" s="189"/>
       <c r="H10" s="190"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="61">
         <v>1</v>
       </c>
@@ -5597,7 +5603,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="62">
         <v>2</v>
       </c>
@@ -5611,7 +5617,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="62">
         <v>3</v>
       </c>
@@ -5625,7 +5631,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="62">
         <v>4</v>
       </c>
@@ -5639,7 +5645,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="62">
         <v>5</v>
       </c>
@@ -5653,7 +5659,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="62">
         <v>6</v>
       </c>
@@ -5667,7 +5673,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="62">
         <v>7</v>
       </c>
@@ -5681,7 +5687,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="18.45">
+    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="62">
         <v>8</v>
       </c>
@@ -5695,10 +5701,10 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1">
+    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="49"/>
       <c r="D21" s="207" t="s">
         <v>23</v>
@@ -5707,24 +5713,24 @@
       <c r="F21" s="208"/>
       <c r="G21" s="209"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="49"/>
       <c r="D22" s="41"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="49"/>
       <c r="D23" s="41"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="49"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="49"/>
     </row>
   </sheetData>
@@ -5757,7 +5763,7 @@
       <selection activeCell="B2" sqref="B2:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -5786,8 +5792,8 @@
     <col min="35" max="35" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -5806,7 +5812,7 @@
       <c r="O2" s="211"/>
       <c r="P2" s="212"/>
     </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1">
+    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -5823,7 +5829,7 @@
       <c r="O3" s="214"/>
       <c r="P3" s="215"/>
     </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -5840,7 +5846,7 @@
       <c r="O4" s="217"/>
       <c r="P4" s="218"/>
     </row>
-    <row r="6" spans="2:16" ht="25.75">
+    <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
       <c r="B6" s="206" t="s">
         <v>33</v>
       </c>
@@ -5859,8 +5865,8 @@
       <c r="O6" s="206"/>
       <c r="P6" s="206"/>
     </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1"/>
-    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -5871,7 +5877,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1">
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5879,7 +5885,7 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1">
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -5897,7 +5903,7 @@
       <c r="M10" s="189"/>
       <c r="N10" s="190"/>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1">
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5944,7 +5950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5963,7 +5969,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -5982,7 +5988,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6001,7 +6007,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6020,7 +6026,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6039,7 +6045,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6058,7 +6064,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6077,7 +6083,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6096,7 +6102,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6115,7 +6121,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6134,7 +6140,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6153,7 +6159,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6172,7 +6178,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6191,7 +6197,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6210,7 +6216,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6229,10 +6235,10 @@
       <c r="O26" s="28"/>
       <c r="P26" s="57"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1">
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1">
+    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -6246,21 +6252,21 @@
       <c r="L28" s="208"/>
       <c r="M28" s="209"/>
     </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1">
+    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
       <c r="J29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1">
+    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
       <c r="J30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -6270,7 +6276,7 @@
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6306,7 +6312,7 @@
       <selection activeCell="B2" sqref="B2:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6335,8 +6341,8 @@
     <col min="30" max="30" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -6350,7 +6356,7 @@
       <c r="J2" s="211"/>
       <c r="K2" s="212"/>
     </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1">
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -6362,7 +6368,7 @@
       <c r="J3" s="214"/>
       <c r="K3" s="215"/>
     </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -6374,7 +6380,7 @@
       <c r="J4" s="217"/>
       <c r="K4" s="218"/>
     </row>
-    <row r="6" spans="2:11" ht="25.75">
+    <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
       <c r="B6" s="206" t="s">
         <v>32</v>
       </c>
@@ -6388,8 +6394,8 @@
       <c r="J6" s="206"/>
       <c r="K6" s="206"/>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1"/>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6400,13 +6406,13 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1">
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -6417,7 +6423,7 @@
       <c r="H10" s="189"/>
       <c r="I10" s="190"/>
     </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1">
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6449,7 +6455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6463,7 +6469,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6477,7 +6483,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6491,7 +6497,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6505,7 +6511,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6519,7 +6525,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6533,7 +6539,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6547,7 +6553,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6561,7 +6567,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6575,7 +6581,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6589,7 +6595,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6603,7 +6609,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6617,7 +6623,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6631,7 +6637,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6645,7 +6651,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1">
+    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6659,10 +6665,10 @@
       <c r="J26" s="28"/>
       <c r="K26" s="57"/>
     </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1">
+    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1">
+    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -6670,23 +6676,23 @@
       <c r="G28" s="208"/>
       <c r="H28" s="209"/>
     </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1">
+    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1">
+    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6720,7 +6726,7 @@
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6749,8 +6755,8 @@
     <col min="45" max="45" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1">
+    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="210" t="s">
         <v>37</v>
       </c>
@@ -6779,7 +6785,7 @@
       <c r="Y2" s="211"/>
       <c r="Z2" s="212"/>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1">
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -6806,7 +6812,7 @@
       <c r="Y3" s="214"/>
       <c r="Z3" s="215"/>
     </row>
-    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -6833,7 +6839,7 @@
       <c r="Y4" s="217"/>
       <c r="Z4" s="218"/>
     </row>
-    <row r="6" spans="2:26" ht="25.75">
+    <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
       <c r="B6" s="206" t="s">
         <v>38</v>
       </c>
@@ -6862,8 +6868,8 @@
       <c r="Y6" s="206"/>
       <c r="Z6" s="206"/>
     </row>
-    <row r="7" spans="2:26" ht="15" thickBot="1"/>
-    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6874,7 +6880,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1">
+    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6886,7 +6892,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:26" ht="15" thickBot="1">
+    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -6918,7 +6924,7 @@
       <c r="W10" s="189"/>
       <c r="X10" s="190"/>
     </row>
-    <row r="11" spans="2:26" ht="15" thickBot="1">
+    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6995,7 +7001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7024,7 +7030,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7053,7 +7059,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7082,7 +7088,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7111,7 +7117,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7140,7 +7146,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="24"/>
     </row>
-    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -7169,7 +7175,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -7198,7 +7204,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -7227,7 +7233,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -7256,7 +7262,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -7285,7 +7291,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -7314,7 +7320,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -7343,7 +7349,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -7372,7 +7378,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -7401,7 +7407,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1">
+    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -7430,10 +7436,10 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="57"/>
     </row>
-    <row r="27" spans="2:26" ht="15" thickBot="1">
+    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1">
+    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -7459,7 +7465,7 @@
       <c r="V28" s="208"/>
       <c r="W28" s="209"/>
     </row>
-    <row r="29" spans="2:26" ht="23.15" customHeight="1">
+    <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -7470,7 +7476,7 @@
       <c r="T29" s="41"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="2:26" ht="23.15" customHeight="1">
+    <row r="30" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -7481,7 +7487,7 @@
       <c r="T30" s="41"/>
       <c r="W30" s="42"/>
     </row>
-    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -7499,22 +7505,22 @@
       <c r="V31" s="44"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B2:Z4"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="T28:W28"/>
-    <mergeCell ref="B2:Z4"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7539,7 +7545,7 @@
       <selection activeCell="B2" sqref="B2:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="49" customWidth="1"/>
@@ -7568,8 +7574,8 @@
     <col min="55" max="55" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:36" ht="15" customHeight="1">
+    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -7608,7 +7614,7 @@
       <c r="AI2" s="211"/>
       <c r="AJ2" s="212"/>
     </row>
-    <row r="3" spans="2:36" ht="15" customHeight="1">
+    <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -7645,7 +7651,7 @@
       <c r="AI3" s="214"/>
       <c r="AJ3" s="215"/>
     </row>
-    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -7682,7 +7688,7 @@
       <c r="AI4" s="217"/>
       <c r="AJ4" s="218"/>
     </row>
-    <row r="7" spans="2:36" ht="28.3" thickBot="1">
+    <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B7" s="222" t="s">
         <v>35</v>
       </c>
@@ -7721,7 +7727,7 @@
       <c r="AI7" s="222"/>
       <c r="AJ7" s="222"/>
     </row>
-    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1">
+    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
@@ -7732,7 +7738,7 @@
       <c r="H8" s="223"/>
       <c r="I8" s="224"/>
     </row>
-    <row r="9" spans="2:36" ht="15" thickBot="1">
+    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -7744,7 +7750,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -7791,7 +7797,7 @@
       <c r="AG10" s="220"/>
       <c r="AH10" s="221"/>
     </row>
-    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -7898,7 +7904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7937,7 +7943,7 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7976,7 +7982,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -8015,7 +8021,7 @@
       <c r="AI14" s="27"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -8054,7 +8060,7 @@
       <c r="AI15" s="27"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -8093,7 +8099,7 @@
       <c r="AI16" s="27"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -8132,7 +8138,7 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -8171,7 +8177,7 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -8210,7 +8216,7 @@
       <c r="AI19" s="27"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -8249,7 +8255,7 @@
       <c r="AI20" s="27"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -8288,7 +8294,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -8327,7 +8333,7 @@
       <c r="AI22" s="27"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -8366,7 +8372,7 @@
       <c r="AI23" s="27"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -8405,7 +8411,7 @@
       <c r="AI24" s="27"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -8444,7 +8450,7 @@
       <c r="AI25" s="27"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1">
+    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -8483,10 +8489,10 @@
       <c r="AI26" s="28"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" spans="2:36" ht="15" thickBot="1">
+    <row r="27" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1">
+    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -8524,7 +8530,7 @@
       <c r="AF28" s="208"/>
       <c r="AG28" s="209"/>
     </row>
-    <row r="29" spans="2:36" ht="23.15" customHeight="1">
+    <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -8539,7 +8545,7 @@
       <c r="AD29" s="41"/>
       <c r="AG29" s="42"/>
     </row>
-    <row r="30" spans="2:36" ht="23.15" customHeight="1">
+    <row r="30" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -8554,7 +8560,7 @@
       <c r="AD30" s="41"/>
       <c r="AG30" s="42"/>
     </row>
-    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -8580,7 +8586,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="45"/>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -8625,7 +8631,7 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4.23046875" style="49" customWidth="1"/>
@@ -8655,8 +8661,8 @@
     <col min="60" max="60" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1">
+    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="225" t="s">
         <v>28</v>
       </c>
@@ -8700,7 +8706,7 @@
       <c r="AN2" s="226"/>
       <c r="AO2" s="227"/>
     </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1">
+    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="228"/>
       <c r="C3" s="229"/>
       <c r="D3" s="229"/>
@@ -8742,7 +8748,7 @@
       <c r="AN3" s="229"/>
       <c r="AO3" s="230"/>
     </row>
-    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="231"/>
       <c r="C4" s="232"/>
       <c r="D4" s="232"/>
@@ -8784,7 +8790,7 @@
       <c r="AN4" s="232"/>
       <c r="AO4" s="233"/>
     </row>
-    <row r="6" spans="2:41" ht="30.9">
+    <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
@@ -8830,8 +8836,8 @@
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
     </row>
-    <row r="7" spans="2:41" ht="15" thickBot="1"/>
-    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -8842,7 +8848,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:41" ht="15" thickBot="1">
+    <row r="9" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -8854,7 +8860,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -8908,7 +8914,7 @@
       <c r="AL10" s="220"/>
       <c r="AM10" s="221"/>
     </row>
-    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="74" t="s">
         <v>24</v>
       </c>
@@ -9030,7 +9036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -9074,7 +9080,7 @@
       <c r="AN12" s="26"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -9118,7 +9124,7 @@
       <c r="AN13" s="27"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -9162,7 +9168,7 @@
       <c r="AN14" s="27"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -9206,7 +9212,7 @@
       <c r="AN15" s="27"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -9250,7 +9256,7 @@
       <c r="AN16" s="27"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -9294,7 +9300,7 @@
       <c r="AN17" s="27"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -9338,7 +9344,7 @@
       <c r="AN18" s="27"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -9382,7 +9388,7 @@
       <c r="AN19" s="27"/>
       <c r="AO19" s="24"/>
     </row>
-    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -9426,7 +9432,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="24"/>
     </row>
-    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -9470,7 +9476,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="24"/>
     </row>
-    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -9514,7 +9520,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="24"/>
     </row>
-    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -9558,7 +9564,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="24"/>
     </row>
-    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -9602,7 +9608,7 @@
       <c r="AN24" s="27"/>
       <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -9646,7 +9652,7 @@
       <c r="AN25" s="27"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1">
+    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -9690,10 +9696,10 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="57"/>
     </row>
-    <row r="27" spans="2:41" ht="15" thickBot="1">
+    <row r="27" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1">
+    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -9737,7 +9743,7 @@
       <c r="AK28" s="208"/>
       <c r="AL28" s="209"/>
     </row>
-    <row r="29" spans="2:41" ht="23.15" customHeight="1">
+    <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -9754,7 +9760,7 @@
       <c r="AI29" s="41"/>
       <c r="AL29" s="42"/>
     </row>
-    <row r="30" spans="2:41" ht="23.15" customHeight="1">
+    <row r="30" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -9771,7 +9777,7 @@
       <c r="AI30" s="41"/>
       <c r="AL30" s="42"/>
     </row>
-    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1">
+    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -9801,12 +9807,19 @@
       <c r="AK31" s="44"/>
       <c r="AL31" s="45"/>
     </row>
-    <row r="32" spans="2:41">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.4">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9816,13 +9829,6 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9847,7 +9853,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -9889,8 +9895,8 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:31" ht="15" customHeight="1">
+    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -9924,7 +9930,7 @@
       <c r="AD2" s="211"/>
       <c r="AE2" s="212"/>
     </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1">
+    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -9956,7 +9962,7 @@
       <c r="AD3" s="214"/>
       <c r="AE3" s="215"/>
     </row>
-    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -9988,7 +9994,7 @@
       <c r="AD4" s="217"/>
       <c r="AE4" s="218"/>
     </row>
-    <row r="6" spans="2:31" ht="25.75">
+    <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
       <c r="B6" s="206" t="s">
         <v>39</v>
       </c>
@@ -10022,8 +10028,8 @@
       <c r="AD6" s="206"/>
       <c r="AE6" s="206"/>
     </row>
-    <row r="7" spans="2:31" ht="15" thickBot="1"/>
-    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1">
+    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -10036,7 +10042,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1">
+    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -10048,7 +10054,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1">
+    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -10087,7 +10093,7 @@
       <c r="AB10" s="189"/>
       <c r="AC10" s="190"/>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1">
+    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10175,7 +10181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -10271,7 +10277,7 @@
         <v>8.719444444444445</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -10367,7 +10373,7 @@
         <v>9.1077777777777769</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -10463,7 +10469,7 @@
         <v>8.3794444444444451</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -10543,7 +10549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B16" s="62">
         <v>7</v>
       </c>
@@ -10639,7 +10645,7 @@
         <v>8.2680555555555557</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="62">
         <v>9</v>
       </c>
@@ -10673,7 +10679,7 @@
       <c r="AD17" s="27"/>
       <c r="AE17" s="24"/>
     </row>
-    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>10</v>
       </c>
@@ -10707,7 +10713,7 @@
       <c r="AD18" s="27"/>
       <c r="AE18" s="24"/>
     </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>11</v>
       </c>
@@ -10741,7 +10747,7 @@
       <c r="AD19" s="27"/>
       <c r="AE19" s="24"/>
     </row>
-    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>12</v>
       </c>
@@ -10775,7 +10781,7 @@
       <c r="AD20" s="27"/>
       <c r="AE20" s="24"/>
     </row>
-    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>13</v>
       </c>
@@ -10809,7 +10815,7 @@
       <c r="AD21" s="27"/>
       <c r="AE21" s="24"/>
     </row>
-    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>14</v>
       </c>
@@ -10843,7 +10849,7 @@
       <c r="AD22" s="27"/>
       <c r="AE22" s="24"/>
     </row>
-    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="82">
         <v>15</v>
       </c>
@@ -10877,7 +10883,7 @@
       <c r="AD23" s="85"/>
       <c r="AE23" s="93"/>
     </row>
-    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="63">
         <v>16</v>
       </c>
@@ -10911,10 +10917,10 @@
       <c r="AD24" s="28"/>
       <c r="AE24" s="57"/>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1">
+    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:31" ht="18.899999999999999" thickBot="1">
+    <row r="26" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="207" t="s">
         <v>23</v>
       </c>
@@ -10946,7 +10952,7 @@
       <c r="AA26" s="208"/>
       <c r="AB26" s="209"/>
     </row>
-    <row r="27" spans="2:31" ht="23.15" customHeight="1">
+    <row r="27" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" s="41"/>
       <c r="G27"/>
       <c r="H27" s="42"/>
@@ -10959,7 +10965,7 @@
       <c r="Y27" s="41"/>
       <c r="AB27" s="42"/>
     </row>
-    <row r="28" spans="2:31" ht="23.15" customHeight="1">
+    <row r="28" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E28" s="41"/>
       <c r="G28"/>
       <c r="H28" s="42"/>
@@ -10972,7 +10978,7 @@
       <c r="Y28" s="41"/>
       <c r="AB28" s="42"/>
     </row>
-    <row r="29" spans="2:31" ht="23.15" customHeight="1" thickBot="1">
+    <row r="29" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E29" s="43"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -10994,7 +11000,7 @@
       <c r="AA29" s="44"/>
       <c r="AB29" s="45"/>
     </row>
-    <row r="30" spans="2:31">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.4">
       <c r="G30"/>
     </row>
   </sheetData>
@@ -11003,11 +11009,6 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -11015,6 +11016,11 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="Y26:AB26"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE15">
@@ -11046,11 +11052,11 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -11101,8 +11107,8 @@
     <col min="51" max="51" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:32" ht="15" customHeight="1">
+    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="234" t="s">
         <v>25</v>
       </c>
@@ -11137,7 +11143,7 @@
       <c r="AE2" s="211"/>
       <c r="AF2" s="212"/>
     </row>
-    <row r="3" spans="2:32" ht="15" customHeight="1">
+    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -11170,7 +11176,7 @@
       <c r="AE3" s="214"/>
       <c r="AF3" s="215"/>
     </row>
-    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -11203,7 +11209,7 @@
       <c r="AE4" s="217"/>
       <c r="AF4" s="218"/>
     </row>
-    <row r="6" spans="2:32" ht="25.75">
+    <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
       <c r="B6" s="206" t="s">
         <v>39</v>
       </c>
@@ -11238,8 +11244,8 @@
       <c r="AE6" s="206"/>
       <c r="AF6" s="206"/>
     </row>
-    <row r="7" spans="2:32" ht="15" thickBot="1"/>
-    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1">
+    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -11253,7 +11259,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:32" ht="15" thickBot="1">
+    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -11269,7 +11275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1">
+    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -11309,7 +11315,7 @@
       <c r="AC10" s="189"/>
       <c r="AD10" s="190"/>
     </row>
-    <row r="11" spans="2:32" ht="15" thickBot="1">
+    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -11402,7 +11408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -11493,7 +11499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -11558,7 +11564,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -11641,7 +11647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -11730,7 +11736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -11821,7 +11827,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -11912,7 +11918,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -11947,7 +11953,7 @@
       <c r="AE18" s="27"/>
       <c r="AF18" s="24"/>
     </row>
-    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -11982,7 +11988,7 @@
       <c r="AE19" s="27"/>
       <c r="AF19" s="24"/>
     </row>
-    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -12017,7 +12023,7 @@
       <c r="AE20" s="27"/>
       <c r="AF20" s="24"/>
     </row>
-    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -12052,7 +12058,7 @@
       <c r="AE21" s="27"/>
       <c r="AF21" s="24"/>
     </row>
-    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -12087,7 +12093,7 @@
       <c r="AE22" s="27"/>
       <c r="AF22" s="24"/>
     </row>
-    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -12122,7 +12128,7 @@
       <c r="AE23" s="27"/>
       <c r="AF23" s="24"/>
     </row>
-    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -12157,7 +12163,7 @@
       <c r="AE24" s="27"/>
       <c r="AF24" s="24"/>
     </row>
-    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -12192,7 +12198,7 @@
       <c r="AE25" s="27"/>
       <c r="AF25" s="24"/>
     </row>
-    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -12227,7 +12233,7 @@
       <c r="AE26" s="85"/>
       <c r="AF26" s="93"/>
     </row>
-    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -12262,10 +12268,10 @@
       <c r="AE27" s="28"/>
       <c r="AF27" s="57"/>
     </row>
-    <row r="28" spans="2:32" ht="15" thickBot="1">
+    <row r="28" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1">
+    <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="207" t="s">
         <v>23</v>
       </c>
@@ -12298,7 +12304,7 @@
       <c r="AB29" s="208"/>
       <c r="AC29" s="209"/>
     </row>
-    <row r="30" spans="2:32" ht="23.15" customHeight="1">
+    <row r="30" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" s="41"/>
       <c r="H30"/>
       <c r="I30" s="42"/>
@@ -12311,7 +12317,7 @@
       <c r="Z30" s="41"/>
       <c r="AC30" s="42"/>
     </row>
-    <row r="31" spans="2:32" ht="23.15" customHeight="1">
+    <row r="31" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" s="41"/>
       <c r="H31"/>
       <c r="I31" s="42"/>
@@ -12324,7 +12330,7 @@
       <c r="Z31" s="41"/>
       <c r="AC31" s="42"/>
     </row>
-    <row r="32" spans="2:32" ht="23.15" customHeight="1" thickBot="1">
+    <row r="32" spans="2:32" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -12347,7 +12353,7 @@
       <c r="AB32" s="44"/>
       <c r="AC32" s="45"/>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H33"/>
     </row>
   </sheetData>

--- a/calificaciones2.xlsx
+++ b/calificaciones2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANK\Downloads\ohm\GITHUB\OHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7675B9-A4A5-48C2-9124-4EB9CB425025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C73076-2316-4B01-BE72-58171E1F6819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L-V noche" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3207,7 +3207,7 @@
       <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="5.23046875" customWidth="1"/>
     <col min="2" max="2" width="2.69140625" bestFit="1" customWidth="1"/>
@@ -3242,7 +3242,7 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:31" ht="15" customHeight="1">
       <c r="B1" s="191" t="s">
         <v>0</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="AD1" s="192"/>
       <c r="AE1" s="192"/>
     </row>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:31" ht="15" customHeight="1">
       <c r="B2" s="192"/>
       <c r="C2" s="192"/>
       <c r="D2" s="192"/>
@@ -3308,7 +3308,7 @@
       <c r="AD2" s="192"/>
       <c r="AE2" s="192"/>
     </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:31" ht="15" customHeight="1">
       <c r="B3" s="192"/>
       <c r="C3" s="192"/>
       <c r="D3" s="192"/>
@@ -3340,7 +3340,7 @@
       <c r="AD3" s="192"/>
       <c r="AE3" s="192"/>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:31">
       <c r="D5" s="193" t="s">
         <v>1</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="Q5" s="196"/>
       <c r="R5" s="196"/>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:31">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3373,7 +3373,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:31">
       <c r="D7" s="193" t="s">
         <v>3</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="Q7" s="195"/>
       <c r="R7" s="195"/>
     </row>
-    <row r="8" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:31" ht="15" thickBot="1">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3406,7 +3406,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="15" thickBot="1">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="188" t="s">
@@ -3445,7 +3445,7 @@
       <c r="AB9" s="189"/>
       <c r="AC9" s="190"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:31" ht="15" thickBot="1">
       <c r="B10" s="4"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -3535,7 +3535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="15" thickBot="1">
       <c r="B11" s="15">
         <v>1</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="15" thickBot="1">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="15" thickBot="1">
       <c r="B13" s="16">
         <v>3</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="15" thickBot="1">
       <c r="B14" s="16">
         <v>4</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="15" thickBot="1">
       <c r="B15" s="16">
         <v>5</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="15" thickBot="1">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" ht="15" thickBot="1">
       <c r="B17" s="16">
         <v>7</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" ht="15" thickBot="1">
       <c r="B18" s="16">
         <v>8</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" ht="15" thickBot="1">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" ht="15" thickBot="1">
       <c r="B20" s="16">
         <v>10</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" ht="15" thickBot="1">
       <c r="B21" s="16">
         <v>11</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="15" thickBot="1">
       <c r="B22" s="16">
         <v>12</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" ht="15" thickBot="1">
       <c r="B23" s="16">
         <v>13</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="15" thickBot="1">
       <c r="B24" s="16">
         <v>14</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="15" thickBot="1">
       <c r="B25" s="16">
         <v>15</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" ht="15" thickBot="1">
       <c r="B26" s="16">
         <v>16</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" ht="15" thickBot="1">
       <c r="B27" s="16">
         <v>17</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" ht="15" thickBot="1">
       <c r="B28" s="16">
         <v>18</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="15" thickBot="1">
       <c r="B29" s="16">
         <v>19</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" ht="15" thickBot="1">
       <c r="B30" s="16">
         <v>20</v>
       </c>
@@ -4575,22 +4575,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:31">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:31">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:7">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="7:7">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="7:7">
       <c r="G35"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="7:7">
       <c r="G36"/>
     </row>
   </sheetData>
@@ -4630,11 +4630,11 @@
   </sheetPr>
   <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -4672,8 +4672,8 @@
     <col min="40" max="40" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:21" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:21" ht="15" customHeight="1">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="T2" s="211"/>
       <c r="U2" s="212"/>
     </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:21" ht="15" customHeight="1">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -4719,7 +4719,7 @@
       <c r="T3" s="214"/>
       <c r="U3" s="215"/>
     </row>
-    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -4741,7 +4741,7 @@
       <c r="T4" s="217"/>
       <c r="U4" s="218"/>
     </row>
-    <row r="6" spans="2:21" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:21" ht="25.75">
       <c r="B6" s="206" t="s">
         <v>40</v>
       </c>
@@ -4765,8 +4765,8 @@
       <c r="T6" s="206"/>
       <c r="U6" s="206"/>
     </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:21" ht="15" thickBot="1"/>
+    <row r="8" spans="2:21" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -4791,7 +4791,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -4816,7 +4816,7 @@
       <c r="R10" s="189"/>
       <c r="S10" s="190"/>
     </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:21" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -5120,7 +5120,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="24"/>
     </row>
-    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="24"/>
     </row>
-    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -5168,7 +5168,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="24"/>
     </row>
-    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="24"/>
     </row>
-    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="24"/>
     </row>
-    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="24"/>
     </row>
-    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -5360,10 +5360,10 @@
       <c r="T26" s="28"/>
       <c r="U26" s="57"/>
     </row>
-    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:21" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:21" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="Q28" s="208"/>
       <c r="R28" s="209"/>
     </row>
-    <row r="29" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:21" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -5392,7 +5392,7 @@
       <c r="O29" s="41"/>
       <c r="R29" s="42"/>
     </row>
-    <row r="30" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -5401,7 +5401,7 @@
       <c r="O30" s="41"/>
       <c r="R30" s="42"/>
     </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:21" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -5415,7 +5415,7 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:21">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -5463,10 +5463,10 @@
       <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1"/>
+    <row r="2" spans="1:10">
       <c r="A2" s="197" t="s">
         <v>31</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="I2" s="198"/>
       <c r="J2" s="199"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="200"/>
       <c r="B3" s="201"/>
       <c r="C3" s="201"/>
@@ -5492,7 +5492,7 @@
       <c r="I3" s="201"/>
       <c r="J3" s="202"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="203"/>
       <c r="B4" s="204"/>
       <c r="C4" s="204"/>
@@ -5504,11 +5504,11 @@
       <c r="I4" s="204"/>
       <c r="J4" s="205"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="49"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:10" ht="25.75">
       <c r="A6" s="206" t="s">
         <v>36</v>
       </c>
@@ -5522,11 +5522,11 @@
       <c r="I6" s="206"/>
       <c r="J6" s="206"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="49"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="21" thickBot="1">
       <c r="A8" s="49"/>
       <c r="B8" s="59" t="s">
         <v>2</v>
@@ -5538,14 +5538,14 @@
       <c r="G8" s="46"/>
       <c r="H8" s="47"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="49"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="49"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5557,7 +5557,7 @@
       <c r="G10" s="189"/>
       <c r="H10" s="190"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A12" s="61">
         <v>1</v>
       </c>
@@ -5603,7 +5603,7 @@
       <c r="I12" s="26"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A13" s="62">
         <v>2</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A14" s="62">
         <v>3</v>
       </c>
@@ -5631,7 +5631,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A15" s="62">
         <v>4</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A16" s="62">
         <v>5</v>
       </c>
@@ -5659,7 +5659,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A17" s="62">
         <v>6</v>
       </c>
@@ -5673,7 +5673,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A18" s="62">
         <v>7</v>
       </c>
@@ -5687,7 +5687,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="18.45">
       <c r="A19" s="62">
         <v>8</v>
       </c>
@@ -5701,10 +5701,10 @@
       <c r="I19" s="27"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="18.899999999999999" thickBot="1">
       <c r="A21" s="49"/>
       <c r="D21" s="207" t="s">
         <v>23</v>
@@ -5713,24 +5713,24 @@
       <c r="F21" s="208"/>
       <c r="G21" s="209"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10">
       <c r="A22" s="49"/>
       <c r="D22" s="41"/>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="A23" s="49"/>
       <c r="D23" s="41"/>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="49"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10">
       <c r="A25" s="49"/>
     </row>
   </sheetData>
@@ -5763,7 +5763,7 @@
       <selection activeCell="B2" sqref="B2:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -5792,8 +5792,8 @@
     <col min="35" max="35" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:16" ht="15" customHeight="1">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="O2" s="211"/>
       <c r="P2" s="212"/>
     </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" ht="15" customHeight="1">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -5829,7 +5829,7 @@
       <c r="O3" s="214"/>
       <c r="P3" s="215"/>
     </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -5846,7 +5846,7 @@
       <c r="O4" s="217"/>
       <c r="P4" s="218"/>
     </row>
-    <row r="6" spans="2:16" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:16" ht="25.75">
       <c r="B6" s="206" t="s">
         <v>33</v>
       </c>
@@ -5865,8 +5865,8 @@
       <c r="O6" s="206"/>
       <c r="P6" s="206"/>
     </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" ht="15" thickBot="1"/>
+    <row r="8" spans="2:16" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -5885,7 +5885,7 @@
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -5903,7 +5903,7 @@
       <c r="M10" s="189"/>
       <c r="N10" s="190"/>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -5988,7 +5988,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6102,7 +6102,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6159,7 +6159,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:16" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6235,10 +6235,10 @@
       <c r="O26" s="28"/>
       <c r="P26" s="57"/>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:16" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -6252,21 +6252,21 @@
       <c r="L28" s="208"/>
       <c r="M28" s="209"/>
     </row>
-    <row r="29" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
       <c r="J29" s="41"/>
       <c r="M29" s="42"/>
     </row>
-    <row r="30" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
       <c r="J30" s="41"/>
       <c r="M30" s="42"/>
     </row>
-    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:16" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -6276,7 +6276,7 @@
       <c r="L31" s="44"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6312,7 +6312,7 @@
       <selection activeCell="B2" sqref="B2:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6341,8 +6341,8 @@
     <col min="30" max="30" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="J2" s="211"/>
       <c r="K2" s="212"/>
     </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15" customHeight="1">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -6368,7 +6368,7 @@
       <c r="J3" s="214"/>
       <c r="K3" s="215"/>
     </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -6380,7 +6380,7 @@
       <c r="J4" s="217"/>
       <c r="K4" s="218"/>
     </row>
-    <row r="6" spans="2:11" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:11" ht="25.75">
       <c r="B6" s="206" t="s">
         <v>32</v>
       </c>
@@ -6394,8 +6394,8 @@
       <c r="J6" s="206"/>
       <c r="K6" s="206"/>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11" ht="15" thickBot="1"/>
+    <row r="8" spans="2:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6406,13 +6406,13 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -6423,7 +6423,7 @@
       <c r="H10" s="189"/>
       <c r="I10" s="190"/>
     </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:11" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -6511,7 +6511,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -6539,7 +6539,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -6567,7 +6567,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -6581,7 +6581,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="J21" s="27"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -6609,7 +6609,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -6623,7 +6623,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -6651,7 +6651,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="25" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -6665,10 +6665,10 @@
       <c r="J26" s="28"/>
       <c r="K26" s="57"/>
     </row>
-    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:11" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -6676,23 +6676,23 @@
       <c r="G28" s="208"/>
       <c r="H28" s="209"/>
     </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="18" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="18" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -6726,7 +6726,7 @@
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -6755,8 +6755,8 @@
     <col min="45" max="45" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:26" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:26" ht="15" customHeight="1">
       <c r="B2" s="210" t="s">
         <v>37</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="Y2" s="211"/>
       <c r="Z2" s="212"/>
     </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:26" ht="15" customHeight="1">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -6812,7 +6812,7 @@
       <c r="Y3" s="214"/>
       <c r="Z3" s="215"/>
     </row>
-    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:26" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -6839,7 +6839,7 @@
       <c r="Y4" s="217"/>
       <c r="Z4" s="218"/>
     </row>
-    <row r="6" spans="2:26" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:26" ht="25.75">
       <c r="B6" s="206" t="s">
         <v>38</v>
       </c>
@@ -6868,8 +6868,8 @@
       <c r="Y6" s="206"/>
       <c r="Z6" s="206"/>
     </row>
-    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:26" ht="15" thickBot="1"/>
+    <row r="8" spans="2:26" ht="24.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -6880,7 +6880,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -6892,7 +6892,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -6924,7 +6924,7 @@
       <c r="W10" s="189"/>
       <c r="X10" s="190"/>
     </row>
-    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:26" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="24"/>
     </row>
-    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7059,7 +7059,7 @@
       <c r="Y13" s="27"/>
       <c r="Z13" s="24"/>
     </row>
-    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="Y14" s="27"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="Y15" s="27"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -7146,7 +7146,7 @@
       <c r="Y16" s="27"/>
       <c r="Z16" s="24"/>
     </row>
-    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -7175,7 +7175,7 @@
       <c r="Y17" s="27"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="Y18" s="27"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -7233,7 +7233,7 @@
       <c r="Y19" s="27"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="Y20" s="27"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -7291,7 +7291,7 @@
       <c r="Y21" s="27"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="Y22" s="27"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -7349,7 +7349,7 @@
       <c r="Y23" s="27"/>
       <c r="Z23" s="24"/>
     </row>
-    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -7378,7 +7378,7 @@
       <c r="Y24" s="27"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="Y25" s="27"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:26" ht="27" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -7436,10 +7436,10 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="57"/>
     </row>
-    <row r="27" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:26" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:26" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="V28" s="208"/>
       <c r="W28" s="209"/>
     </row>
-    <row r="29" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:26" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -7476,7 +7476,7 @@
       <c r="T29" s="41"/>
       <c r="W29" s="42"/>
     </row>
-    <row r="30" spans="2:26" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:26" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -7487,7 +7487,7 @@
       <c r="T30" s="41"/>
       <c r="W30" s="42"/>
     </row>
-    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:26" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -7505,22 +7505,22 @@
       <c r="V31" s="44"/>
       <c r="W31" s="45"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:26">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="10">
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="T28:W28"/>
     <mergeCell ref="B2:Z4"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7545,7 +7545,7 @@
       <selection activeCell="B2" sqref="B2:AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="49" customWidth="1"/>
@@ -7574,8 +7574,8 @@
     <col min="55" max="55" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:36" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:36" ht="15" customHeight="1">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="AI2" s="211"/>
       <c r="AJ2" s="212"/>
     </row>
-    <row r="3" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:36" ht="15" customHeight="1">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -7651,7 +7651,7 @@
       <c r="AI3" s="214"/>
       <c r="AJ3" s="215"/>
     </row>
-    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:36" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -7688,7 +7688,7 @@
       <c r="AI4" s="217"/>
       <c r="AJ4" s="218"/>
     </row>
-    <row r="7" spans="2:36" ht="28.3" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:36" ht="28.3" thickBot="1">
       <c r="B7" s="222" t="s">
         <v>35</v>
       </c>
@@ -7727,7 +7727,7 @@
       <c r="AI7" s="222"/>
       <c r="AJ7" s="222"/>
     </row>
-    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="8" spans="2:36" ht="27" customHeight="1" thickBot="1">
       <c r="C8" s="64" t="s">
         <v>2</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="H8" s="223"/>
       <c r="I8" s="224"/>
     </row>
-    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:36" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -7750,7 +7750,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -7797,7 +7797,7 @@
       <c r="AG10" s="220"/>
       <c r="AH10" s="221"/>
     </row>
-    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:36" s="67" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -7943,7 +7943,7 @@
       <c r="AI12" s="26"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -7982,7 +7982,7 @@
       <c r="AI13" s="27"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="AI14" s="27"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="AI15" s="27"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -8099,7 +8099,7 @@
       <c r="AI16" s="27"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="AI17" s="27"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -8177,7 +8177,7 @@
       <c r="AI18" s="27"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -8216,7 +8216,7 @@
       <c r="AI19" s="27"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="AI20" s="27"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -8333,7 +8333,7 @@
       <c r="AI22" s="27"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="AI23" s="27"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="AI24" s="27"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="AI25" s="27"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:36" ht="31" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -8489,10 +8489,10 @@
       <c r="AI26" s="28"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:36" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:36" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -8530,7 +8530,7 @@
       <c r="AF28" s="208"/>
       <c r="AG28" s="209"/>
     </row>
-    <row r="29" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:36" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -8545,7 +8545,7 @@
       <c r="AD29" s="41"/>
       <c r="AG29" s="42"/>
     </row>
-    <row r="30" spans="2:36" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:36" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -8560,7 +8560,7 @@
       <c r="AD30" s="41"/>
       <c r="AG30" s="42"/>
     </row>
-    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:36" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -8586,7 +8586,7 @@
       <c r="AF31" s="44"/>
       <c r="AG31" s="45"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:36">
       <c r="G32"/>
     </row>
   </sheetData>
@@ -8631,7 +8631,7 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4.23046875" style="49" customWidth="1"/>
@@ -8661,8 +8661,8 @@
     <col min="60" max="60" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:41" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1">
       <c r="B2" s="225" t="s">
         <v>28</v>
       </c>
@@ -8706,7 +8706,7 @@
       <c r="AN2" s="226"/>
       <c r="AO2" s="227"/>
     </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:41" ht="15" customHeight="1">
       <c r="B3" s="228"/>
       <c r="C3" s="229"/>
       <c r="D3" s="229"/>
@@ -8748,7 +8748,7 @@
       <c r="AN3" s="229"/>
       <c r="AO3" s="230"/>
     </row>
-    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:41" ht="24.75" customHeight="1" thickBot="1">
       <c r="B4" s="231"/>
       <c r="C4" s="232"/>
       <c r="D4" s="232"/>
@@ -8790,7 +8790,7 @@
       <c r="AN4" s="232"/>
       <c r="AO4" s="233"/>
     </row>
-    <row r="6" spans="2:41" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="6" spans="2:41" ht="30.9">
       <c r="B6" s="81" t="s">
         <v>29</v>
       </c>
@@ -8836,8 +8836,8 @@
       <c r="AN6" s="81"/>
       <c r="AO6" s="81"/>
     </row>
-    <row r="7" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:41" ht="15" thickBot="1"/>
+    <row r="8" spans="2:41" ht="30.75" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -8848,7 +8848,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:41" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -8860,7 +8860,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:41" s="67" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -8914,7 +8914,7 @@
       <c r="AL10" s="220"/>
       <c r="AM10" s="221"/>
     </row>
-    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:41" s="80" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B11" s="74" t="s">
         <v>24</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -9080,7 +9080,7 @@
       <c r="AN12" s="26"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -9124,7 +9124,7 @@
       <c r="AN13" s="27"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -9168,7 +9168,7 @@
       <c r="AN14" s="27"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -9212,7 +9212,7 @@
       <c r="AN15" s="27"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -9256,7 +9256,7 @@
       <c r="AN16" s="27"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="AN17" s="27"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -9344,7 +9344,7 @@
       <c r="AN18" s="27"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="AN19" s="27"/>
       <c r="AO19" s="24"/>
     </row>
-    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -9432,7 +9432,7 @@
       <c r="AN20" s="27"/>
       <c r="AO20" s="24"/>
     </row>
-    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -9476,7 +9476,7 @@
       <c r="AN21" s="27"/>
       <c r="AO21" s="24"/>
     </row>
-    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -9520,7 +9520,7 @@
       <c r="AN22" s="27"/>
       <c r="AO22" s="24"/>
     </row>
-    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -9564,7 +9564,7 @@
       <c r="AN23" s="27"/>
       <c r="AO23" s="24"/>
     </row>
-    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="AN24" s="27"/>
       <c r="AO24" s="24"/>
     </row>
-    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -9652,7 +9652,7 @@
       <c r="AN25" s="27"/>
       <c r="AO25" s="24"/>
     </row>
-    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:41" ht="34" customHeight="1" thickBot="1">
       <c r="B26" s="63">
         <v>15</v>
       </c>
@@ -9696,10 +9696,10 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="57"/>
     </row>
-    <row r="27" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:41" ht="15" thickBot="1">
       <c r="G27"/>
     </row>
-    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:41" ht="18.899999999999999" thickBot="1">
       <c r="E28" s="207" t="s">
         <v>23</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="AK28" s="208"/>
       <c r="AL28" s="209"/>
     </row>
-    <row r="29" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:41" ht="23.15" customHeight="1">
       <c r="E29" s="41"/>
       <c r="G29"/>
       <c r="H29" s="42"/>
@@ -9760,7 +9760,7 @@
       <c r="AI29" s="41"/>
       <c r="AL29" s="42"/>
     </row>
-    <row r="30" spans="2:41" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:41" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="G30"/>
       <c r="H30" s="42"/>
@@ -9777,7 +9777,7 @@
       <c r="AI30" s="41"/>
       <c r="AL30" s="42"/>
     </row>
-    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:41" ht="23.15" customHeight="1" thickBot="1">
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
@@ -9807,19 +9807,12 @@
       <c r="AK31" s="44"/>
       <c r="AL31" s="45"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:41">
       <c r="G32"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="16">
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B2:AO4"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:N10"/>
@@ -9829,6 +9822,13 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AI10:AM10"/>
     <mergeCell ref="C6:AK6"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:R26 E12:H26 T12:W26 Y12:AB26 AD12:AG26 AI12:AL26" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -9849,11 +9849,11 @@
   </sheetPr>
   <dimension ref="B1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScale="54" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -9895,8 +9895,8 @@
     <col min="50" max="50" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:31" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:31" ht="15" customHeight="1">
       <c r="B2" s="210" t="s">
         <v>25</v>
       </c>
@@ -9930,7 +9930,7 @@
       <c r="AD2" s="211"/>
       <c r="AE2" s="212"/>
     </row>
-    <row r="3" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:31" ht="15" customHeight="1">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -9962,7 +9962,7 @@
       <c r="AD3" s="214"/>
       <c r="AE3" s="215"/>
     </row>
-    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:31" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -9994,7 +9994,7 @@
       <c r="AD4" s="217"/>
       <c r="AE4" s="218"/>
     </row>
-    <row r="6" spans="2:31" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:31" ht="25.75">
       <c r="B6" s="206" t="s">
         <v>39</v>
       </c>
@@ -10028,8 +10028,8 @@
       <c r="AD6" s="206"/>
       <c r="AE6" s="206"/>
     </row>
-    <row r="7" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:31" ht="15" thickBot="1"/>
+    <row r="8" spans="2:31" ht="29.25" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="H8" s="46"/>
       <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -10054,7 +10054,7 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
     </row>
-    <row r="10" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:31" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -10093,7 +10093,7 @@
       <c r="AB10" s="189"/>
       <c r="AC10" s="190"/>
     </row>
-    <row r="11" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>8.719444444444445</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>9.1077777777777769</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>8.3794444444444451</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>7</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>8.2680555555555557</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>9</v>
       </c>
@@ -10679,7 +10679,7 @@
       <c r="AD17" s="27"/>
       <c r="AE17" s="24"/>
     </row>
-    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>10</v>
       </c>
@@ -10713,7 +10713,7 @@
       <c r="AD18" s="27"/>
       <c r="AE18" s="24"/>
     </row>
-    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>11</v>
       </c>
@@ -10747,7 +10747,7 @@
       <c r="AD19" s="27"/>
       <c r="AE19" s="24"/>
     </row>
-    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>12</v>
       </c>
@@ -10781,7 +10781,7 @@
       <c r="AD20" s="27"/>
       <c r="AE20" s="24"/>
     </row>
-    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>13</v>
       </c>
@@ -10815,7 +10815,7 @@
       <c r="AD21" s="27"/>
       <c r="AE21" s="24"/>
     </row>
-    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>14</v>
       </c>
@@ -10849,7 +10849,7 @@
       <c r="AD22" s="27"/>
       <c r="AE22" s="24"/>
     </row>
-    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="82">
         <v>15</v>
       </c>
@@ -10883,7 +10883,7 @@
       <c r="AD23" s="85"/>
       <c r="AE23" s="93"/>
     </row>
-    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="63">
         <v>16</v>
       </c>
@@ -10917,10 +10917,10 @@
       <c r="AD24" s="28"/>
       <c r="AE24" s="57"/>
     </row>
-    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="15" thickBot="1">
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:31" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:31" ht="18.899999999999999" thickBot="1">
       <c r="E26" s="207" t="s">
         <v>23</v>
       </c>
@@ -10952,7 +10952,7 @@
       <c r="AA26" s="208"/>
       <c r="AB26" s="209"/>
     </row>
-    <row r="27" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:31" ht="23.15" customHeight="1">
       <c r="E27" s="41"/>
       <c r="G27"/>
       <c r="H27" s="42"/>
@@ -10965,7 +10965,7 @@
       <c r="Y27" s="41"/>
       <c r="AB27" s="42"/>
     </row>
-    <row r="28" spans="2:31" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:31" ht="23.15" customHeight="1">
       <c r="E28" s="41"/>
       <c r="G28"/>
       <c r="H28" s="42"/>
@@ -10978,7 +10978,7 @@
       <c r="Y28" s="41"/>
       <c r="AB28" s="42"/>
     </row>
-    <row r="29" spans="2:31" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="23.15" customHeight="1" thickBot="1">
       <c r="E29" s="43"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -11000,7 +11000,7 @@
       <c r="AA29" s="44"/>
       <c r="AB29" s="45"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:31">
       <c r="G30"/>
     </row>
   </sheetData>
@@ -11009,6 +11009,11 @@
   </sortState>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="Y26:AB26"/>
     <mergeCell ref="B2:AE4"/>
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="E10:I10"/>
@@ -11016,11 +11021,6 @@
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="T10:X10"/>
     <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="Y26:AB26"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E12:AE15">
@@ -11052,11 +11052,11 @@
   </sheetPr>
   <dimension ref="B1:AF33"/>
   <sheetViews>
-    <sheetView zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="46" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="5.23046875" style="49" customWidth="1"/>
@@ -11107,8 +11107,8 @@
     <col min="51" max="51" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:32" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:32" ht="15" customHeight="1">
       <c r="B2" s="234" t="s">
         <v>25</v>
       </c>
@@ -11143,7 +11143,7 @@
       <c r="AE2" s="211"/>
       <c r="AF2" s="212"/>
     </row>
-    <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:32" ht="15" customHeight="1">
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
       <c r="D3" s="214"/>
@@ -11176,7 +11176,7 @@
       <c r="AE3" s="214"/>
       <c r="AF3" s="215"/>
     </row>
-    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:32" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="216"/>
       <c r="C4" s="217"/>
       <c r="D4" s="217"/>
@@ -11209,7 +11209,7 @@
       <c r="AE4" s="217"/>
       <c r="AF4" s="218"/>
     </row>
-    <row r="6" spans="2:32" ht="25.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:32" ht="25.75">
       <c r="B6" s="206" t="s">
         <v>39</v>
       </c>
@@ -11244,8 +11244,8 @@
       <c r="AE6" s="206"/>
       <c r="AF6" s="206"/>
     </row>
-    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:32" ht="15" thickBot="1"/>
+    <row r="8" spans="2:32" ht="29.25" customHeight="1" thickBot="1">
       <c r="C8" s="59" t="s">
         <v>2</v>
       </c>
@@ -11259,7 +11259,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:32" ht="15" thickBot="1">
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -11275,7 +11275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:32" ht="15" thickBot="1">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="188" t="s">
@@ -11315,7 +11315,7 @@
       <c r="AC10" s="189"/>
       <c r="AD10" s="190"/>
     </row>
-    <row r="11" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:32" ht="15" thickBot="1">
       <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="62">
         <v>2</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="62">
         <v>3</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B15" s="62">
         <v>4</v>
       </c>
@@ -11717,10 +11717,12 @@
       <c r="W15" s="132">
         <v>10</v>
       </c>
-      <c r="X15" s="133"/>
+      <c r="X15" s="133">
+        <v>10</v>
+      </c>
       <c r="Y15" s="135">
         <f t="shared" ref="Y15:Y16" si="5">(AVERAGE(U15:W15)+X15)/2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z15" s="121"/>
       <c r="AA15" s="132"/>
@@ -11736,7 +11738,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B16" s="62">
         <v>5</v>
       </c>
@@ -11827,7 +11829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="62">
         <v>6</v>
       </c>
@@ -11918,7 +11920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="62">
         <v>7</v>
       </c>
@@ -11953,7 +11955,7 @@
       <c r="AE18" s="27"/>
       <c r="AF18" s="24"/>
     </row>
-    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="62">
         <v>8</v>
       </c>
@@ -11988,7 +11990,7 @@
       <c r="AE19" s="27"/>
       <c r="AF19" s="24"/>
     </row>
-    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="62">
         <v>9</v>
       </c>
@@ -12023,7 +12025,7 @@
       <c r="AE20" s="27"/>
       <c r="AF20" s="24"/>
     </row>
-    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="62">
         <v>10</v>
       </c>
@@ -12058,7 +12060,7 @@
       <c r="AE21" s="27"/>
       <c r="AF21" s="24"/>
     </row>
-    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="62">
         <v>11</v>
       </c>
@@ -12093,7 +12095,7 @@
       <c r="AE22" s="27"/>
       <c r="AF22" s="24"/>
     </row>
-    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="62">
         <v>12</v>
       </c>
@@ -12128,7 +12130,7 @@
       <c r="AE23" s="27"/>
       <c r="AF23" s="24"/>
     </row>
-    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="62">
         <v>13</v>
       </c>
@@ -12163,7 +12165,7 @@
       <c r="AE24" s="27"/>
       <c r="AF24" s="24"/>
     </row>
-    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="62">
         <v>14</v>
       </c>
@@ -12198,7 +12200,7 @@
       <c r="AE25" s="27"/>
       <c r="AF25" s="24"/>
     </row>
-    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="82">
         <v>15</v>
       </c>
@@ -12233,7 +12235,7 @@
       <c r="AE26" s="85"/>
       <c r="AF26" s="93"/>
     </row>
-    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:32" ht="30" customHeight="1" thickBot="1">
       <c r="B27" s="63">
         <v>16</v>
       </c>
@@ -12268,10 +12270,10 @@
       <c r="AE27" s="28"/>
       <c r="AF27" s="57"/>
     </row>
-    <row r="28" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:32" ht="15" thickBot="1">
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:32" ht="18.899999999999999" thickBot="1">
       <c r="E29" s="207" t="s">
         <v>23</v>
       </c>
@@ -12304,7 +12306,7 @@
       <c r="AB29" s="208"/>
       <c r="AC29" s="209"/>
     </row>
-    <row r="30" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:32" ht="23.15" customHeight="1">
       <c r="E30" s="41"/>
       <c r="H30"/>
       <c r="I30" s="42"/>
@@ -12317,7 +12319,7 @@
       <c r="Z30" s="41"/>
       <c r="AC30" s="42"/>
     </row>
-    <row r="31" spans="2:32" ht="23.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:32" ht="23.15" customHeight="1">
       <c r="E31" s="41"/>
       <c r="H31"/>
       <c r="I31" s="42"/>
@@ -12330,7 +12332,7 @@
       <c r="Z31" s="41"/>
       <c r="AC31" s="42"/>
     </row>
-    <row r="32" spans="2:32" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:32" ht="23.15" customHeight="1" thickBot="1">
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -12353,7 +12355,7 @@
       <c r="AB32" s="44"/>
       <c r="AC32" s="45"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:8">
       <c r="H33"/>
     </row>
   </sheetData>
